--- a/documentation/Marvin_AudioAnlage_Anforderungen_NoraHueppi_20240917.xlsx
+++ b/documentation/Marvin_AudioAnlage_Anforderungen_NoraHueppi_20240917.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd4b8c2adf92642a/Berufsschule/BuP/5_Semester/Marvin/Zeitplan_Anforderungen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd4b8c2adf92642a/Berufsschule/BuP/5_Semester/Marvin/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="980" documentId="8_{E91F2863-CD3B-41DE-8D0C-65EAA4DE894C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32BCF748-0C77-49C3-A9D7-3B823436B063}"/>
+  <xr:revisionPtr revIDLastSave="983" documentId="8_{E91F2863-CD3B-41DE-8D0C-65EAA4DE894C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05AAC655-C5EE-4BF7-817C-1B4BF1468115}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5CC49039-70A6-4A49-B6FD-A7C35AB692E8}"/>
   </bookViews>
@@ -986,7 +986,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1016,11 +1016,125 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1042,125 +1156,6 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1859,10 +1854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{730C7784-EAA3-4F75-A441-9364A27E8BAB}">
-  <dimension ref="A1:EL49"/>
+  <dimension ref="A1:EL46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="34" zoomScaleNormal="49" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="52" zoomScaleNormal="49" workbookViewId="0">
+      <selection activeCell="AL5" sqref="AL5:AR46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -1871,823 +1866,823 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:142" ht="21">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
+      <c r="B1" s="66"/>
     </row>
     <row r="2" spans="1:142" ht="15" thickBot="1"/>
     <row r="3" spans="1:142" ht="15" thickBot="1">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="21">
         <f>SUM(C5:EL5,C7:EL7,C9:EL9,C11:EL11,C13:EL13,C15:EL15,C17:EL17,C19:EL19,C21:EL21,C23:EL23,C25:EL25,C27:EL27,C29:EL29,C31:EL31,C33:EL33)</f>
-        <v>107</v>
-      </c>
-      <c r="C3" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="73" t="s">
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="73" t="s">
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
-      <c r="T3" s="74"/>
-      <c r="U3" s="74"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="75"/>
-      <c r="X3" s="73" t="s">
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="74"/>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="74"/>
-      <c r="AC3" s="74"/>
-      <c r="AD3" s="75"/>
-      <c r="AE3" s="73" t="s">
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="AF3" s="74"/>
-      <c r="AG3" s="74"/>
-      <c r="AH3" s="74"/>
-      <c r="AI3" s="74"/>
-      <c r="AJ3" s="74"/>
-      <c r="AK3" s="75"/>
-      <c r="AL3" s="73" t="s">
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="AM3" s="74"/>
-      <c r="AN3" s="74"/>
-      <c r="AO3" s="74"/>
-      <c r="AP3" s="74"/>
-      <c r="AQ3" s="74"/>
-      <c r="AR3" s="75"/>
-      <c r="AS3" s="73" t="s">
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="43"/>
+      <c r="AQ3" s="43"/>
+      <c r="AR3" s="44"/>
+      <c r="AS3" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="74"/>
-      <c r="AU3" s="74"/>
-      <c r="AV3" s="74"/>
-      <c r="AW3" s="74"/>
-      <c r="AX3" s="74"/>
-      <c r="AY3" s="75"/>
-      <c r="AZ3" s="73" t="s">
+      <c r="AT3" s="43"/>
+      <c r="AU3" s="43"/>
+      <c r="AV3" s="43"/>
+      <c r="AW3" s="43"/>
+      <c r="AX3" s="43"/>
+      <c r="AY3" s="44"/>
+      <c r="AZ3" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="BA3" s="74"/>
-      <c r="BB3" s="74"/>
-      <c r="BC3" s="74"/>
-      <c r="BD3" s="74"/>
-      <c r="BE3" s="74"/>
-      <c r="BF3" s="75"/>
-      <c r="BG3" s="73" t="s">
+      <c r="BA3" s="43"/>
+      <c r="BB3" s="43"/>
+      <c r="BC3" s="43"/>
+      <c r="BD3" s="43"/>
+      <c r="BE3" s="43"/>
+      <c r="BF3" s="44"/>
+      <c r="BG3" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="BH3" s="74"/>
-      <c r="BI3" s="74"/>
-      <c r="BJ3" s="74"/>
-      <c r="BK3" s="74"/>
-      <c r="BL3" s="74"/>
-      <c r="BM3" s="75"/>
-      <c r="BN3" s="73" t="s">
+      <c r="BH3" s="43"/>
+      <c r="BI3" s="43"/>
+      <c r="BJ3" s="43"/>
+      <c r="BK3" s="43"/>
+      <c r="BL3" s="43"/>
+      <c r="BM3" s="44"/>
+      <c r="BN3" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="BO3" s="74"/>
-      <c r="BP3" s="74"/>
-      <c r="BQ3" s="74"/>
-      <c r="BR3" s="74"/>
-      <c r="BS3" s="74"/>
-      <c r="BT3" s="75"/>
-      <c r="BU3" s="73" t="s">
+      <c r="BO3" s="43"/>
+      <c r="BP3" s="43"/>
+      <c r="BQ3" s="43"/>
+      <c r="BR3" s="43"/>
+      <c r="BS3" s="43"/>
+      <c r="BT3" s="44"/>
+      <c r="BU3" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="BV3" s="74"/>
-      <c r="BW3" s="74"/>
-      <c r="BX3" s="74"/>
-      <c r="BY3" s="74"/>
-      <c r="BZ3" s="74"/>
-      <c r="CA3" s="75"/>
-      <c r="CB3" s="73" t="s">
+      <c r="BV3" s="43"/>
+      <c r="BW3" s="43"/>
+      <c r="BX3" s="43"/>
+      <c r="BY3" s="43"/>
+      <c r="BZ3" s="43"/>
+      <c r="CA3" s="44"/>
+      <c r="CB3" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="CC3" s="74"/>
-      <c r="CD3" s="74"/>
-      <c r="CE3" s="74"/>
-      <c r="CF3" s="74"/>
-      <c r="CG3" s="74"/>
-      <c r="CH3" s="75"/>
-      <c r="CI3" s="73" t="s">
+      <c r="CC3" s="43"/>
+      <c r="CD3" s="43"/>
+      <c r="CE3" s="43"/>
+      <c r="CF3" s="43"/>
+      <c r="CG3" s="43"/>
+      <c r="CH3" s="44"/>
+      <c r="CI3" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="CJ3" s="74"/>
-      <c r="CK3" s="74"/>
-      <c r="CL3" s="74"/>
-      <c r="CM3" s="74"/>
-      <c r="CN3" s="74"/>
-      <c r="CO3" s="75"/>
-      <c r="CP3" s="73" t="s">
+      <c r="CJ3" s="43"/>
+      <c r="CK3" s="43"/>
+      <c r="CL3" s="43"/>
+      <c r="CM3" s="43"/>
+      <c r="CN3" s="43"/>
+      <c r="CO3" s="44"/>
+      <c r="CP3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="CQ3" s="74"/>
-      <c r="CR3" s="74"/>
-      <c r="CS3" s="74"/>
-      <c r="CT3" s="74"/>
-      <c r="CU3" s="74"/>
-      <c r="CV3" s="75"/>
-      <c r="CW3" s="73" t="s">
+      <c r="CQ3" s="43"/>
+      <c r="CR3" s="43"/>
+      <c r="CS3" s="43"/>
+      <c r="CT3" s="43"/>
+      <c r="CU3" s="43"/>
+      <c r="CV3" s="44"/>
+      <c r="CW3" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="CX3" s="74"/>
-      <c r="CY3" s="74"/>
-      <c r="CZ3" s="74"/>
-      <c r="DA3" s="74"/>
-      <c r="DB3" s="74"/>
-      <c r="DC3" s="75"/>
-      <c r="DD3" s="73" t="s">
+      <c r="CX3" s="43"/>
+      <c r="CY3" s="43"/>
+      <c r="CZ3" s="43"/>
+      <c r="DA3" s="43"/>
+      <c r="DB3" s="43"/>
+      <c r="DC3" s="44"/>
+      <c r="DD3" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="DE3" s="74"/>
-      <c r="DF3" s="74"/>
-      <c r="DG3" s="74"/>
-      <c r="DH3" s="74"/>
-      <c r="DI3" s="74"/>
-      <c r="DJ3" s="75"/>
-      <c r="DK3" s="73" t="s">
+      <c r="DE3" s="43"/>
+      <c r="DF3" s="43"/>
+      <c r="DG3" s="43"/>
+      <c r="DH3" s="43"/>
+      <c r="DI3" s="43"/>
+      <c r="DJ3" s="44"/>
+      <c r="DK3" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="DL3" s="74"/>
-      <c r="DM3" s="74"/>
-      <c r="DN3" s="74"/>
-      <c r="DO3" s="74"/>
-      <c r="DP3" s="74"/>
-      <c r="DQ3" s="75"/>
-      <c r="DR3" s="73" t="s">
+      <c r="DL3" s="43"/>
+      <c r="DM3" s="43"/>
+      <c r="DN3" s="43"/>
+      <c r="DO3" s="43"/>
+      <c r="DP3" s="43"/>
+      <c r="DQ3" s="44"/>
+      <c r="DR3" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="DS3" s="74"/>
-      <c r="DT3" s="74"/>
-      <c r="DU3" s="74"/>
-      <c r="DV3" s="74"/>
-      <c r="DW3" s="74"/>
-      <c r="DX3" s="75"/>
-      <c r="DY3" s="76" t="s">
+      <c r="DS3" s="43"/>
+      <c r="DT3" s="43"/>
+      <c r="DU3" s="43"/>
+      <c r="DV3" s="43"/>
+      <c r="DW3" s="43"/>
+      <c r="DX3" s="44"/>
+      <c r="DY3" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="DZ3" s="77"/>
-      <c r="EA3" s="77"/>
-      <c r="EB3" s="77"/>
-      <c r="EC3" s="77"/>
-      <c r="ED3" s="77"/>
-      <c r="EE3" s="78"/>
-      <c r="EF3" s="76" t="s">
+      <c r="DZ3" s="46"/>
+      <c r="EA3" s="46"/>
+      <c r="EB3" s="46"/>
+      <c r="EC3" s="46"/>
+      <c r="ED3" s="46"/>
+      <c r="EE3" s="47"/>
+      <c r="EF3" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="EG3" s="77"/>
-      <c r="EH3" s="77"/>
-      <c r="EI3" s="77"/>
-      <c r="EJ3" s="77"/>
-      <c r="EK3" s="77"/>
-      <c r="EL3" s="78"/>
+      <c r="EG3" s="46"/>
+      <c r="EH3" s="46"/>
+      <c r="EI3" s="46"/>
+      <c r="EJ3" s="46"/>
+      <c r="EK3" s="46"/>
+      <c r="EL3" s="47"/>
     </row>
     <row r="4" spans="1:142" ht="15" thickBot="1">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="20">
         <f>SUM(C6:EL6,C8:EL8,C10:EL10,C12:EL12,C14:EL14,C16:EL16,C18:EL18,C20:EL20,C22:EL22,C24:EL24,C26:EL26,C28:EL28,C30:EL30,C32:EL32,C34:EL34)</f>
         <v>28</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="28" t="s">
+      <c r="L4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="28" t="s">
+      <c r="M4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="28" t="s">
+      <c r="N4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="28" t="s">
+      <c r="O4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="28" t="s">
+      <c r="P4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="28" t="s">
+      <c r="Q4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="28" t="s">
+      <c r="R4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="28" t="s">
+      <c r="S4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="T4" s="28" t="s">
+      <c r="T4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="U4" s="28" t="s">
+      <c r="U4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="V4" s="28" t="s">
+      <c r="V4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="W4" s="28" t="s">
+      <c r="W4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="X4" s="28" t="s">
+      <c r="X4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="Y4" s="28" t="s">
+      <c r="Y4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="Z4" s="28" t="s">
+      <c r="Z4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="AA4" s="28" t="s">
+      <c r="AA4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="AB4" s="28" t="s">
+      <c r="AB4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AC4" s="28" t="s">
+      <c r="AC4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="28" t="s">
+      <c r="AD4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="AE4" s="28" t="s">
+      <c r="AE4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="AF4" s="28" t="s">
+      <c r="AF4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="AG4" s="28" t="s">
+      <c r="AG4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="AH4" s="28" t="s">
+      <c r="AH4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="AI4" s="28" t="s">
+      <c r="AI4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AJ4" s="28" t="s">
+      <c r="AJ4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="AK4" s="28" t="s">
+      <c r="AK4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="AL4" s="28" t="s">
+      <c r="AL4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="AM4" s="28" t="s">
+      <c r="AM4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="AN4" s="28" t="s">
+      <c r="AN4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="AO4" s="28" t="s">
+      <c r="AO4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="AP4" s="28" t="s">
+      <c r="AP4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AQ4" s="28" t="s">
+      <c r="AQ4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="AR4" s="28" t="s">
+      <c r="AR4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="AS4" s="28" t="s">
+      <c r="AS4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="AT4" s="28" t="s">
+      <c r="AT4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="AU4" s="28" t="s">
+      <c r="AU4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="AV4" s="28" t="s">
+      <c r="AV4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="AW4" s="28" t="s">
+      <c r="AW4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AX4" s="28" t="s">
+      <c r="AX4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="AY4" s="28" t="s">
+      <c r="AY4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="AZ4" s="28" t="s">
+      <c r="AZ4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="BA4" s="28" t="s">
+      <c r="BA4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="BB4" s="28" t="s">
+      <c r="BB4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="BC4" s="28" t="s">
+      <c r="BC4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="BD4" s="28" t="s">
+      <c r="BD4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="BE4" s="28" t="s">
+      <c r="BE4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="BF4" s="28" t="s">
+      <c r="BF4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="BG4" s="28" t="s">
+      <c r="BG4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="BH4" s="28" t="s">
+      <c r="BH4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="BI4" s="28" t="s">
+      <c r="BI4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="BJ4" s="28" t="s">
+      <c r="BJ4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="BK4" s="28" t="s">
+      <c r="BK4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="BL4" s="28" t="s">
+      <c r="BL4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="BM4" s="28" t="s">
+      <c r="BM4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="BN4" s="28" t="s">
+      <c r="BN4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="BO4" s="28" t="s">
+      <c r="BO4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="BP4" s="28" t="s">
+      <c r="BP4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="BQ4" s="28" t="s">
+      <c r="BQ4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="BR4" s="28" t="s">
+      <c r="BR4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="BS4" s="28" t="s">
+      <c r="BS4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="BT4" s="28" t="s">
+      <c r="BT4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="BU4" s="28" t="s">
+      <c r="BU4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="BV4" s="28" t="s">
+      <c r="BV4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="BW4" s="28" t="s">
+      <c r="BW4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="BX4" s="28" t="s">
+      <c r="BX4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="BY4" s="28" t="s">
+      <c r="BY4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="BZ4" s="28" t="s">
+      <c r="BZ4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="CA4" s="28" t="s">
+      <c r="CA4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CB4" s="28" t="s">
+      <c r="CB4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="CC4" s="28" t="s">
+      <c r="CC4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="CD4" s="28" t="s">
+      <c r="CD4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="CE4" s="28" t="s">
+      <c r="CE4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="CF4" s="28" t="s">
+      <c r="CF4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="CG4" s="28" t="s">
+      <c r="CG4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="CH4" s="28" t="s">
+      <c r="CH4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CI4" s="28" t="s">
+      <c r="CI4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="CJ4" s="28" t="s">
+      <c r="CJ4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="CK4" s="28" t="s">
+      <c r="CK4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="CL4" s="28" t="s">
+      <c r="CL4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="CM4" s="28" t="s">
+      <c r="CM4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="CN4" s="28" t="s">
+      <c r="CN4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="CO4" s="28" t="s">
+      <c r="CO4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CP4" s="28" t="s">
+      <c r="CP4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="CQ4" s="28" t="s">
+      <c r="CQ4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="CR4" s="28" t="s">
+      <c r="CR4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="CS4" s="28" t="s">
+      <c r="CS4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="CT4" s="28" t="s">
+      <c r="CT4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="CU4" s="28" t="s">
+      <c r="CU4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="CV4" s="28" t="s">
+      <c r="CV4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CW4" s="28" t="s">
+      <c r="CW4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="CX4" s="28" t="s">
+      <c r="CX4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="CY4" s="28" t="s">
+      <c r="CY4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="CZ4" s="28" t="s">
+      <c r="CZ4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="DA4" s="28" t="s">
+      <c r="DA4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="DB4" s="28" t="s">
+      <c r="DB4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="DC4" s="28" t="s">
+      <c r="DC4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="DD4" s="28" t="s">
+      <c r="DD4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="DE4" s="28" t="s">
+      <c r="DE4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="DF4" s="28" t="s">
+      <c r="DF4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="DG4" s="28" t="s">
+      <c r="DG4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="DH4" s="28" t="s">
+      <c r="DH4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="DI4" s="28" t="s">
+      <c r="DI4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="DJ4" s="28" t="s">
+      <c r="DJ4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="DK4" s="63" t="s">
+      <c r="DK4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="DL4" s="63" t="s">
+      <c r="DL4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="DM4" s="63" t="s">
+      <c r="DM4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="DN4" s="63" t="s">
+      <c r="DN4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="DO4" s="63" t="s">
+      <c r="DO4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="DP4" s="63" t="s">
+      <c r="DP4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="DQ4" s="63" t="s">
+      <c r="DQ4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="DR4" s="28" t="s">
+      <c r="DR4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="DS4" s="28" t="s">
+      <c r="DS4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="DT4" s="28" t="s">
+      <c r="DT4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="DU4" s="28" t="s">
+      <c r="DU4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="DV4" s="28" t="s">
+      <c r="DV4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="DW4" s="28" t="s">
+      <c r="DW4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="DX4" s="28" t="s">
+      <c r="DX4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="DY4" s="28" t="s">
+      <c r="DY4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="DZ4" s="28" t="s">
+      <c r="DZ4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="EA4" s="28" t="s">
+      <c r="EA4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="EB4" s="28" t="s">
+      <c r="EB4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="EC4" s="28" t="s">
+      <c r="EC4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="ED4" s="28" t="s">
+      <c r="ED4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="EE4" s="28" t="s">
+      <c r="EE4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="EF4" s="28" t="s">
+      <c r="EF4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="EG4" s="28" t="s">
+      <c r="EG4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="EH4" s="28" t="s">
+      <c r="EH4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="EI4" s="28" t="s">
+      <c r="EI4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="EJ4" s="28" t="s">
+      <c r="EJ4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="EK4" s="28" t="s">
+      <c r="EK4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="EL4" s="28" t="s">
+      <c r="EL4" s="19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:142" ht="15" thickBot="1">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="33"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="43">
+      <c r="J5" s="22"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="27">
         <v>1</v>
       </c>
-      <c r="O5" s="33"/>
+      <c r="O5" s="23"/>
       <c r="P5" s="7"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="43">
+      <c r="Q5" s="22"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="27">
         <v>1</v>
       </c>
-      <c r="V5" s="33"/>
+      <c r="V5" s="23"/>
       <c r="W5" s="7"/>
-      <c r="X5" s="32"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="43">
+      <c r="X5" s="22"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="27">
         <v>1</v>
       </c>
-      <c r="AC5" s="33"/>
+      <c r="AC5" s="23"/>
       <c r="AD5" s="7"/>
-      <c r="AE5" s="32"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="43">
+      <c r="AE5" s="22"/>
+      <c r="AF5" s="23"/>
+      <c r="AG5" s="23"/>
+      <c r="AH5" s="23"/>
+      <c r="AI5" s="27">
         <v>1</v>
       </c>
-      <c r="AJ5" s="33"/>
+      <c r="AJ5" s="23"/>
       <c r="AK5" s="7"/>
-      <c r="AL5" s="54" t="s">
+      <c r="AL5" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="AM5" s="55"/>
-      <c r="AN5" s="55"/>
-      <c r="AO5" s="55"/>
-      <c r="AP5" s="55"/>
-      <c r="AQ5" s="55"/>
-      <c r="AR5" s="56"/>
-      <c r="AS5" s="32"/>
-      <c r="AT5" s="33"/>
-      <c r="AU5" s="33"/>
-      <c r="AV5" s="33"/>
-      <c r="AW5" s="43">
+      <c r="AM5" s="50"/>
+      <c r="AN5" s="50"/>
+      <c r="AO5" s="50"/>
+      <c r="AP5" s="50"/>
+      <c r="AQ5" s="50"/>
+      <c r="AR5" s="51"/>
+      <c r="AS5" s="22"/>
+      <c r="AT5" s="23"/>
+      <c r="AU5" s="23"/>
+      <c r="AV5" s="23"/>
+      <c r="AW5" s="27">
         <v>1</v>
       </c>
-      <c r="AX5" s="33"/>
+      <c r="AX5" s="23"/>
       <c r="AY5" s="7"/>
-      <c r="AZ5" s="32"/>
-      <c r="BA5" s="33"/>
-      <c r="BB5" s="33"/>
-      <c r="BC5" s="33"/>
-      <c r="BD5" s="43">
+      <c r="AZ5" s="22"/>
+      <c r="BA5" s="23"/>
+      <c r="BB5" s="23"/>
+      <c r="BC5" s="23"/>
+      <c r="BD5" s="27">
         <v>1</v>
       </c>
-      <c r="BE5" s="33"/>
+      <c r="BE5" s="23"/>
       <c r="BF5" s="7"/>
-      <c r="BG5" s="32"/>
-      <c r="BH5" s="33"/>
-      <c r="BI5" s="33"/>
-      <c r="BJ5" s="33"/>
-      <c r="BK5" s="43">
+      <c r="BG5" s="22"/>
+      <c r="BH5" s="23"/>
+      <c r="BI5" s="23"/>
+      <c r="BJ5" s="23"/>
+      <c r="BK5" s="27">
         <v>1</v>
       </c>
-      <c r="BL5" s="33"/>
+      <c r="BL5" s="23"/>
       <c r="BM5" s="7"/>
-      <c r="BN5" s="32"/>
-      <c r="BO5" s="33"/>
-      <c r="BP5" s="33"/>
-      <c r="BQ5" s="33"/>
-      <c r="BR5" s="43">
+      <c r="BN5" s="22"/>
+      <c r="BO5" s="23"/>
+      <c r="BP5" s="23"/>
+      <c r="BQ5" s="23"/>
+      <c r="BR5" s="27">
         <v>1</v>
       </c>
-      <c r="BS5" s="33"/>
+      <c r="BS5" s="23"/>
       <c r="BT5" s="7"/>
-      <c r="BU5" s="32"/>
-      <c r="BV5" s="33"/>
-      <c r="BW5" s="33"/>
-      <c r="BX5" s="33"/>
-      <c r="BY5" s="43">
+      <c r="BU5" s="22"/>
+      <c r="BV5" s="23"/>
+      <c r="BW5" s="23"/>
+      <c r="BX5" s="23"/>
+      <c r="BY5" s="27">
         <v>1</v>
       </c>
-      <c r="BZ5" s="33"/>
+      <c r="BZ5" s="23"/>
       <c r="CA5" s="7"/>
-      <c r="CB5" s="32"/>
-      <c r="CC5" s="33"/>
-      <c r="CD5" s="33"/>
-      <c r="CE5" s="33"/>
-      <c r="CF5" s="43">
+      <c r="CB5" s="22"/>
+      <c r="CC5" s="23"/>
+      <c r="CD5" s="23"/>
+      <c r="CE5" s="23"/>
+      <c r="CF5" s="27">
         <v>1</v>
       </c>
-      <c r="CG5" s="33"/>
+      <c r="CG5" s="23"/>
       <c r="CH5" s="7"/>
-      <c r="CI5" s="32"/>
-      <c r="CJ5" s="33"/>
-      <c r="CK5" s="33"/>
-      <c r="CL5" s="33"/>
-      <c r="CM5" s="43">
+      <c r="CI5" s="22"/>
+      <c r="CJ5" s="23"/>
+      <c r="CK5" s="23"/>
+      <c r="CL5" s="23"/>
+      <c r="CM5" s="27">
         <v>1</v>
       </c>
-      <c r="CN5" s="33"/>
+      <c r="CN5" s="23"/>
       <c r="CO5" s="7"/>
-      <c r="CP5" s="32"/>
-      <c r="CQ5" s="33"/>
-      <c r="CR5" s="33"/>
-      <c r="CS5" s="33"/>
-      <c r="CT5" s="43">
+      <c r="CP5" s="22"/>
+      <c r="CQ5" s="23"/>
+      <c r="CR5" s="23"/>
+      <c r="CS5" s="23"/>
+      <c r="CT5" s="27">
         <v>1</v>
       </c>
-      <c r="CU5" s="33"/>
+      <c r="CU5" s="23"/>
       <c r="CV5" s="7"/>
-      <c r="CW5" s="32"/>
-      <c r="CX5" s="33"/>
-      <c r="CY5" s="33"/>
-      <c r="CZ5" s="33"/>
-      <c r="DA5" s="43">
+      <c r="CW5" s="22"/>
+      <c r="CX5" s="23"/>
+      <c r="CY5" s="23"/>
+      <c r="CZ5" s="23"/>
+      <c r="DA5" s="27">
         <v>1</v>
       </c>
-      <c r="DB5" s="33"/>
+      <c r="DB5" s="23"/>
       <c r="DC5" s="7"/>
-      <c r="DD5" s="32"/>
-      <c r="DE5" s="33"/>
-      <c r="DF5" s="33"/>
-      <c r="DG5" s="33"/>
-      <c r="DH5" s="43">
+      <c r="DD5" s="22"/>
+      <c r="DE5" s="23"/>
+      <c r="DF5" s="23"/>
+      <c r="DG5" s="23"/>
+      <c r="DH5" s="27">
         <v>1</v>
       </c>
-      <c r="DI5" s="33"/>
+      <c r="DI5" s="23"/>
       <c r="DJ5" s="7"/>
-      <c r="DK5" s="54" t="s">
+      <c r="DK5" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="DL5" s="46"/>
-      <c r="DM5" s="46"/>
-      <c r="DN5" s="46"/>
-      <c r="DO5" s="46"/>
-      <c r="DP5" s="46"/>
-      <c r="DQ5" s="47"/>
-      <c r="DR5" s="54" t="s">
+      <c r="DL5" s="58"/>
+      <c r="DM5" s="58"/>
+      <c r="DN5" s="58"/>
+      <c r="DO5" s="58"/>
+      <c r="DP5" s="58"/>
+      <c r="DQ5" s="59"/>
+      <c r="DR5" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="DS5" s="46"/>
-      <c r="DT5" s="46"/>
-      <c r="DU5" s="46"/>
-      <c r="DV5" s="46"/>
-      <c r="DW5" s="46"/>
-      <c r="DX5" s="47"/>
-      <c r="DY5" s="32"/>
-      <c r="DZ5" s="43">
+      <c r="DS5" s="58"/>
+      <c r="DT5" s="58"/>
+      <c r="DU5" s="58"/>
+      <c r="DV5" s="58"/>
+      <c r="DW5" s="58"/>
+      <c r="DX5" s="59"/>
+      <c r="DY5" s="22"/>
+      <c r="DZ5" s="27">
         <v>1</v>
       </c>
-      <c r="EA5" s="43">
+      <c r="EA5" s="27">
         <v>1</v>
       </c>
-      <c r="EB5" s="43">
+      <c r="EB5" s="27">
         <v>1</v>
       </c>
-      <c r="EC5" s="43">
+      <c r="EC5" s="27">
         <v>1</v>
       </c>
-      <c r="ED5" s="33"/>
+      <c r="ED5" s="23"/>
       <c r="EE5" s="7"/>
-      <c r="EF5" s="32"/>
-      <c r="EG5" s="33"/>
-      <c r="EH5" s="33"/>
-      <c r="EI5" s="33"/>
-      <c r="EJ5" s="33"/>
-      <c r="EK5" s="33"/>
+      <c r="EF5" s="22"/>
+      <c r="EG5" s="23"/>
+      <c r="EH5" s="23"/>
+      <c r="EI5" s="23"/>
+      <c r="EJ5" s="23"/>
+      <c r="EK5" s="23"/>
       <c r="EL5" s="7"/>
     </row>
     <row r="6" spans="1:142" ht="15" thickBot="1">
-      <c r="A6" s="67"/>
-      <c r="B6" s="36" t="s">
+      <c r="A6" s="40"/>
+      <c r="B6" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="2"/>
@@ -2701,7 +2696,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="64">
+      <c r="N6" s="31">
         <v>2</v>
       </c>
       <c r="O6" s="1"/>
@@ -2710,7 +2705,7 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
-      <c r="U6" s="64">
+      <c r="U6" s="31">
         <v>2</v>
       </c>
       <c r="V6" s="1"/>
@@ -2719,7 +2714,7 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
-      <c r="AB6" s="64">
+      <c r="AB6" s="31">
         <v>2</v>
       </c>
       <c r="AC6" s="1"/>
@@ -2731,18 +2726,18 @@
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="3"/>
-      <c r="AL6" s="57"/>
-      <c r="AM6" s="58"/>
-      <c r="AN6" s="58"/>
-      <c r="AO6" s="58"/>
-      <c r="AP6" s="58"/>
-      <c r="AQ6" s="58"/>
-      <c r="AR6" s="59"/>
+      <c r="AL6" s="52"/>
+      <c r="AM6" s="53"/>
+      <c r="AN6" s="53"/>
+      <c r="AO6" s="53"/>
+      <c r="AP6" s="53"/>
+      <c r="AQ6" s="53"/>
+      <c r="AR6" s="54"/>
       <c r="AS6" s="2"/>
       <c r="AT6" s="1"/>
       <c r="AU6" s="1"/>
       <c r="AV6" s="1"/>
-      <c r="AW6" s="34"/>
+      <c r="AW6" s="1"/>
       <c r="AX6" s="1"/>
       <c r="AY6" s="3"/>
       <c r="AZ6" s="2"/>
@@ -2808,20 +2803,20 @@
       <c r="DH6" s="1"/>
       <c r="DI6" s="1"/>
       <c r="DJ6" s="3"/>
-      <c r="DK6" s="48"/>
-      <c r="DL6" s="49"/>
-      <c r="DM6" s="49"/>
-      <c r="DN6" s="49"/>
-      <c r="DO6" s="49"/>
-      <c r="DP6" s="49"/>
-      <c r="DQ6" s="50"/>
-      <c r="DR6" s="48"/>
-      <c r="DS6" s="49"/>
-      <c r="DT6" s="49"/>
-      <c r="DU6" s="49"/>
-      <c r="DV6" s="49"/>
-      <c r="DW6" s="49"/>
-      <c r="DX6" s="50"/>
+      <c r="DK6" s="60"/>
+      <c r="DL6" s="61"/>
+      <c r="DM6" s="61"/>
+      <c r="DN6" s="61"/>
+      <c r="DO6" s="61"/>
+      <c r="DP6" s="61"/>
+      <c r="DQ6" s="62"/>
+      <c r="DR6" s="60"/>
+      <c r="DS6" s="61"/>
+      <c r="DT6" s="61"/>
+      <c r="DU6" s="61"/>
+      <c r="DV6" s="61"/>
+      <c r="DW6" s="61"/>
+      <c r="DX6" s="62"/>
       <c r="DY6" s="2"/>
       <c r="DZ6" s="1"/>
       <c r="EA6" s="1"/>
@@ -2838,17 +2833,17 @@
       <c r="EL6" s="3"/>
     </row>
     <row r="7" spans="1:142" ht="15" thickBot="1">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="25" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="40">
+      <c r="D7" s="26">
         <v>2</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="26">
         <v>2</v>
       </c>
       <c r="F7" s="1"/>
@@ -2856,10 +2851,10 @@
       <c r="H7" s="1"/>
       <c r="I7" s="3"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="40">
+      <c r="K7" s="26">
         <v>2</v>
       </c>
-      <c r="L7" s="40">
+      <c r="L7" s="26">
         <v>2</v>
       </c>
       <c r="M7" s="1"/>
@@ -2882,18 +2877,18 @@
       <c r="AD7" s="3"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="1"/>
-      <c r="AG7" s="34"/>
+      <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="3"/>
-      <c r="AL7" s="57"/>
-      <c r="AM7" s="58"/>
-      <c r="AN7" s="58"/>
-      <c r="AO7" s="58"/>
-      <c r="AP7" s="58"/>
-      <c r="AQ7" s="58"/>
-      <c r="AR7" s="59"/>
+      <c r="AL7" s="52"/>
+      <c r="AM7" s="53"/>
+      <c r="AN7" s="53"/>
+      <c r="AO7" s="53"/>
+      <c r="AP7" s="53"/>
+      <c r="AQ7" s="53"/>
+      <c r="AR7" s="54"/>
       <c r="AS7" s="2"/>
       <c r="AT7" s="1"/>
       <c r="AU7" s="1"/>
@@ -2964,20 +2959,20 @@
       <c r="DH7" s="1"/>
       <c r="DI7" s="1"/>
       <c r="DJ7" s="3"/>
-      <c r="DK7" s="48"/>
-      <c r="DL7" s="49"/>
-      <c r="DM7" s="49"/>
-      <c r="DN7" s="49"/>
-      <c r="DO7" s="49"/>
-      <c r="DP7" s="49"/>
-      <c r="DQ7" s="50"/>
-      <c r="DR7" s="48"/>
-      <c r="DS7" s="49"/>
-      <c r="DT7" s="49"/>
-      <c r="DU7" s="49"/>
-      <c r="DV7" s="49"/>
-      <c r="DW7" s="49"/>
-      <c r="DX7" s="50"/>
+      <c r="DK7" s="60"/>
+      <c r="DL7" s="61"/>
+      <c r="DM7" s="61"/>
+      <c r="DN7" s="61"/>
+      <c r="DO7" s="61"/>
+      <c r="DP7" s="61"/>
+      <c r="DQ7" s="62"/>
+      <c r="DR7" s="60"/>
+      <c r="DS7" s="61"/>
+      <c r="DT7" s="61"/>
+      <c r="DU7" s="61"/>
+      <c r="DV7" s="61"/>
+      <c r="DW7" s="61"/>
+      <c r="DX7" s="62"/>
       <c r="DY7" s="2"/>
       <c r="DZ7" s="1"/>
       <c r="EA7" s="1"/>
@@ -2994,15 +2989,15 @@
       <c r="EL7" s="3"/>
     </row>
     <row r="8" spans="1:142" ht="15" thickBot="1">
-      <c r="A8" s="69"/>
-      <c r="B8" s="36" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="64">
+      <c r="D8" s="31">
         <v>2</v>
       </c>
-      <c r="E8" s="64">
+      <c r="E8" s="31">
         <v>2</v>
       </c>
       <c r="F8" s="1"/>
@@ -3010,10 +3005,10 @@
       <c r="H8" s="1"/>
       <c r="I8" s="3"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="64">
+      <c r="K8" s="31">
         <v>2</v>
       </c>
-      <c r="L8" s="64">
+      <c r="L8" s="31">
         <v>2</v>
       </c>
       <c r="M8" s="1"/>
@@ -3036,20 +3031,20 @@
       <c r="AD8" s="3"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="1"/>
-      <c r="AG8" s="64">
+      <c r="AG8" s="31">
         <v>3</v>
       </c>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="3"/>
-      <c r="AL8" s="57"/>
-      <c r="AM8" s="58"/>
-      <c r="AN8" s="58"/>
-      <c r="AO8" s="58"/>
-      <c r="AP8" s="58"/>
-      <c r="AQ8" s="58"/>
-      <c r="AR8" s="59"/>
+      <c r="AL8" s="52"/>
+      <c r="AM8" s="53"/>
+      <c r="AN8" s="53"/>
+      <c r="AO8" s="53"/>
+      <c r="AP8" s="53"/>
+      <c r="AQ8" s="53"/>
+      <c r="AR8" s="54"/>
       <c r="AS8" s="2"/>
       <c r="AT8" s="1"/>
       <c r="AU8" s="1"/>
@@ -3120,20 +3115,20 @@
       <c r="DH8" s="1"/>
       <c r="DI8" s="1"/>
       <c r="DJ8" s="3"/>
-      <c r="DK8" s="48"/>
-      <c r="DL8" s="49"/>
-      <c r="DM8" s="49"/>
-      <c r="DN8" s="49"/>
-      <c r="DO8" s="49"/>
-      <c r="DP8" s="49"/>
-      <c r="DQ8" s="50"/>
-      <c r="DR8" s="48"/>
-      <c r="DS8" s="49"/>
-      <c r="DT8" s="49"/>
-      <c r="DU8" s="49"/>
-      <c r="DV8" s="49"/>
-      <c r="DW8" s="49"/>
-      <c r="DX8" s="50"/>
+      <c r="DK8" s="60"/>
+      <c r="DL8" s="61"/>
+      <c r="DM8" s="61"/>
+      <c r="DN8" s="61"/>
+      <c r="DO8" s="61"/>
+      <c r="DP8" s="61"/>
+      <c r="DQ8" s="62"/>
+      <c r="DR8" s="60"/>
+      <c r="DS8" s="61"/>
+      <c r="DT8" s="61"/>
+      <c r="DU8" s="61"/>
+      <c r="DV8" s="61"/>
+      <c r="DW8" s="61"/>
+      <c r="DX8" s="62"/>
       <c r="DY8" s="2"/>
       <c r="DZ8" s="1"/>
       <c r="EA8" s="1"/>
@@ -3150,10 +3145,10 @@
       <c r="EL8" s="3"/>
     </row>
     <row r="9" spans="1:142" ht="15" thickBot="1">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="25" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="2"/>
@@ -3169,13 +3164,13 @@
       <c r="O9" s="1"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="2"/>
-      <c r="R9" s="40">
+      <c r="R9" s="26">
         <v>2</v>
       </c>
-      <c r="S9" s="40">
+      <c r="S9" s="26">
         <v>1</v>
       </c>
-      <c r="T9" s="40">
+      <c r="T9" s="26">
         <v>1</v>
       </c>
       <c r="U9" s="1"/>
@@ -3188,20 +3183,20 @@
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="3"/>
-      <c r="AE9" s="41"/>
+      <c r="AE9" s="2"/>
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="3"/>
-      <c r="AL9" s="57"/>
-      <c r="AM9" s="58"/>
-      <c r="AN9" s="58"/>
-      <c r="AO9" s="58"/>
-      <c r="AP9" s="58"/>
-      <c r="AQ9" s="58"/>
-      <c r="AR9" s="59"/>
+      <c r="AL9" s="52"/>
+      <c r="AM9" s="53"/>
+      <c r="AN9" s="53"/>
+      <c r="AO9" s="53"/>
+      <c r="AP9" s="53"/>
+      <c r="AQ9" s="53"/>
+      <c r="AR9" s="54"/>
       <c r="AS9" s="2"/>
       <c r="AT9" s="1"/>
       <c r="AU9" s="1"/>
@@ -3272,20 +3267,20 @@
       <c r="DH9" s="1"/>
       <c r="DI9" s="1"/>
       <c r="DJ9" s="3"/>
-      <c r="DK9" s="48"/>
-      <c r="DL9" s="49"/>
-      <c r="DM9" s="49"/>
-      <c r="DN9" s="49"/>
-      <c r="DO9" s="49"/>
-      <c r="DP9" s="49"/>
-      <c r="DQ9" s="50"/>
-      <c r="DR9" s="48"/>
-      <c r="DS9" s="49"/>
-      <c r="DT9" s="49"/>
-      <c r="DU9" s="49"/>
-      <c r="DV9" s="49"/>
-      <c r="DW9" s="49"/>
-      <c r="DX9" s="50"/>
+      <c r="DK9" s="60"/>
+      <c r="DL9" s="61"/>
+      <c r="DM9" s="61"/>
+      <c r="DN9" s="61"/>
+      <c r="DO9" s="61"/>
+      <c r="DP9" s="61"/>
+      <c r="DQ9" s="62"/>
+      <c r="DR9" s="60"/>
+      <c r="DS9" s="61"/>
+      <c r="DT9" s="61"/>
+      <c r="DU9" s="61"/>
+      <c r="DV9" s="61"/>
+      <c r="DW9" s="61"/>
+      <c r="DX9" s="62"/>
       <c r="DY9" s="2"/>
       <c r="DZ9" s="1"/>
       <c r="EA9" s="1"/>
@@ -3302,8 +3297,8 @@
       <c r="EL9" s="3"/>
     </row>
     <row r="10" spans="1:142" ht="15" thickBot="1">
-      <c r="A10" s="67"/>
-      <c r="B10" s="36" t="s">
+      <c r="A10" s="40"/>
+      <c r="B10" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="2"/>
@@ -3321,13 +3316,13 @@
       <c r="O10" s="1"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="2"/>
-      <c r="R10" s="64">
+      <c r="R10" s="31">
         <v>2</v>
       </c>
-      <c r="S10" s="64">
+      <c r="S10" s="31">
         <v>2</v>
       </c>
-      <c r="T10" s="64">
+      <c r="T10" s="31">
         <v>2</v>
       </c>
       <c r="U10" s="1"/>
@@ -3347,13 +3342,13 @@
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="3"/>
-      <c r="AL10" s="57"/>
-      <c r="AM10" s="58"/>
-      <c r="AN10" s="58"/>
-      <c r="AO10" s="58"/>
-      <c r="AP10" s="58"/>
-      <c r="AQ10" s="58"/>
-      <c r="AR10" s="59"/>
+      <c r="AL10" s="52"/>
+      <c r="AM10" s="53"/>
+      <c r="AN10" s="53"/>
+      <c r="AO10" s="53"/>
+      <c r="AP10" s="53"/>
+      <c r="AQ10" s="53"/>
+      <c r="AR10" s="54"/>
       <c r="AS10" s="2"/>
       <c r="AT10" s="1"/>
       <c r="AU10" s="1"/>
@@ -3424,20 +3419,20 @@
       <c r="DH10" s="1"/>
       <c r="DI10" s="1"/>
       <c r="DJ10" s="3"/>
-      <c r="DK10" s="48"/>
-      <c r="DL10" s="49"/>
-      <c r="DM10" s="49"/>
-      <c r="DN10" s="49"/>
-      <c r="DO10" s="49"/>
-      <c r="DP10" s="49"/>
-      <c r="DQ10" s="50"/>
-      <c r="DR10" s="48"/>
-      <c r="DS10" s="49"/>
-      <c r="DT10" s="49"/>
-      <c r="DU10" s="49"/>
-      <c r="DV10" s="49"/>
-      <c r="DW10" s="49"/>
-      <c r="DX10" s="50"/>
+      <c r="DK10" s="60"/>
+      <c r="DL10" s="61"/>
+      <c r="DM10" s="61"/>
+      <c r="DN10" s="61"/>
+      <c r="DO10" s="61"/>
+      <c r="DP10" s="61"/>
+      <c r="DQ10" s="62"/>
+      <c r="DR10" s="60"/>
+      <c r="DS10" s="61"/>
+      <c r="DT10" s="61"/>
+      <c r="DU10" s="61"/>
+      <c r="DV10" s="61"/>
+      <c r="DW10" s="61"/>
+      <c r="DX10" s="62"/>
       <c r="DY10" s="2"/>
       <c r="DZ10" s="1"/>
       <c r="EA10" s="1"/>
@@ -3454,10 +3449,10 @@
       <c r="EL10" s="3"/>
     </row>
     <row r="11" spans="1:142" ht="15" thickBot="1">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="25" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="2"/>
@@ -3483,13 +3478,13 @@
       <c r="W11" s="3"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="1"/>
-      <c r="Z11" s="40">
+      <c r="Z11" s="26">
         <v>1</v>
       </c>
-      <c r="AA11" s="40">
+      <c r="AA11" s="26">
         <v>1</v>
       </c>
-      <c r="AB11" s="40">
+      <c r="AB11" s="26">
         <v>1</v>
       </c>
       <c r="AC11" s="1"/>
@@ -3501,13 +3496,13 @@
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="3"/>
-      <c r="AL11" s="57"/>
-      <c r="AM11" s="58"/>
-      <c r="AN11" s="58"/>
-      <c r="AO11" s="58"/>
-      <c r="AP11" s="58"/>
-      <c r="AQ11" s="58"/>
-      <c r="AR11" s="59"/>
+      <c r="AL11" s="52"/>
+      <c r="AM11" s="53"/>
+      <c r="AN11" s="53"/>
+      <c r="AO11" s="53"/>
+      <c r="AP11" s="53"/>
+      <c r="AQ11" s="53"/>
+      <c r="AR11" s="54"/>
       <c r="AS11" s="2"/>
       <c r="AT11" s="1"/>
       <c r="AU11" s="1"/>
@@ -3578,20 +3573,20 @@
       <c r="DH11" s="1"/>
       <c r="DI11" s="1"/>
       <c r="DJ11" s="3"/>
-      <c r="DK11" s="48"/>
-      <c r="DL11" s="49"/>
-      <c r="DM11" s="49"/>
-      <c r="DN11" s="49"/>
-      <c r="DO11" s="49"/>
-      <c r="DP11" s="49"/>
-      <c r="DQ11" s="50"/>
-      <c r="DR11" s="48"/>
-      <c r="DS11" s="49"/>
-      <c r="DT11" s="49"/>
-      <c r="DU11" s="49"/>
-      <c r="DV11" s="49"/>
-      <c r="DW11" s="49"/>
-      <c r="DX11" s="50"/>
+      <c r="DK11" s="60"/>
+      <c r="DL11" s="61"/>
+      <c r="DM11" s="61"/>
+      <c r="DN11" s="61"/>
+      <c r="DO11" s="61"/>
+      <c r="DP11" s="61"/>
+      <c r="DQ11" s="62"/>
+      <c r="DR11" s="60"/>
+      <c r="DS11" s="61"/>
+      <c r="DT11" s="61"/>
+      <c r="DU11" s="61"/>
+      <c r="DV11" s="61"/>
+      <c r="DW11" s="61"/>
+      <c r="DX11" s="62"/>
       <c r="DY11" s="2"/>
       <c r="DZ11" s="1"/>
       <c r="EA11" s="1"/>
@@ -3608,8 +3603,8 @@
       <c r="EL11" s="3"/>
     </row>
     <row r="12" spans="1:142" ht="15" thickBot="1">
-      <c r="A12" s="67"/>
-      <c r="B12" s="36" t="s">
+      <c r="A12" s="40"/>
+      <c r="B12" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="2"/>
@@ -3635,13 +3630,13 @@
       <c r="W12" s="3"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="1"/>
-      <c r="Z12" s="64">
+      <c r="Z12" s="31">
         <v>2</v>
       </c>
-      <c r="AA12" s="64">
+      <c r="AA12" s="31">
         <v>2</v>
       </c>
-      <c r="AB12" s="64">
+      <c r="AB12" s="31">
         <v>1</v>
       </c>
       <c r="AC12" s="1"/>
@@ -3653,13 +3648,13 @@
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="3"/>
-      <c r="AL12" s="57"/>
-      <c r="AM12" s="58"/>
-      <c r="AN12" s="58"/>
-      <c r="AO12" s="58"/>
-      <c r="AP12" s="58"/>
-      <c r="AQ12" s="58"/>
-      <c r="AR12" s="59"/>
+      <c r="AL12" s="52"/>
+      <c r="AM12" s="53"/>
+      <c r="AN12" s="53"/>
+      <c r="AO12" s="53"/>
+      <c r="AP12" s="53"/>
+      <c r="AQ12" s="53"/>
+      <c r="AR12" s="54"/>
       <c r="AS12" s="2"/>
       <c r="AT12" s="1"/>
       <c r="AU12" s="1"/>
@@ -3730,20 +3725,20 @@
       <c r="DH12" s="1"/>
       <c r="DI12" s="1"/>
       <c r="DJ12" s="3"/>
-      <c r="DK12" s="48"/>
-      <c r="DL12" s="49"/>
-      <c r="DM12" s="49"/>
-      <c r="DN12" s="49"/>
-      <c r="DO12" s="49"/>
-      <c r="DP12" s="49"/>
-      <c r="DQ12" s="50"/>
-      <c r="DR12" s="48"/>
-      <c r="DS12" s="49"/>
-      <c r="DT12" s="49"/>
-      <c r="DU12" s="49"/>
-      <c r="DV12" s="49"/>
-      <c r="DW12" s="49"/>
-      <c r="DX12" s="50"/>
+      <c r="DK12" s="60"/>
+      <c r="DL12" s="61"/>
+      <c r="DM12" s="61"/>
+      <c r="DN12" s="61"/>
+      <c r="DO12" s="61"/>
+      <c r="DP12" s="61"/>
+      <c r="DQ12" s="62"/>
+      <c r="DR12" s="60"/>
+      <c r="DS12" s="61"/>
+      <c r="DT12" s="61"/>
+      <c r="DU12" s="61"/>
+      <c r="DV12" s="61"/>
+      <c r="DW12" s="61"/>
+      <c r="DX12" s="62"/>
       <c r="DY12" s="2"/>
       <c r="DZ12" s="1"/>
       <c r="EA12" s="1"/>
@@ -3760,10 +3755,10 @@
       <c r="EL12" s="3"/>
     </row>
     <row r="13" spans="1:142" ht="15" thickBot="1">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="25" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="2"/>
@@ -3796,24 +3791,24 @@
       <c r="AD13" s="3"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="1"/>
-      <c r="AG13" s="40">
+      <c r="AG13" s="26">
         <v>1</v>
       </c>
-      <c r="AH13" s="40">
+      <c r="AH13" s="26">
         <v>1</v>
       </c>
-      <c r="AI13" s="40">
+      <c r="AI13" s="26">
         <v>1</v>
       </c>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="3"/>
-      <c r="AL13" s="57"/>
-      <c r="AM13" s="58"/>
-      <c r="AN13" s="58"/>
-      <c r="AO13" s="58"/>
-      <c r="AP13" s="58"/>
-      <c r="AQ13" s="58"/>
-      <c r="AR13" s="59"/>
+      <c r="AL13" s="52"/>
+      <c r="AM13" s="53"/>
+      <c r="AN13" s="53"/>
+      <c r="AO13" s="53"/>
+      <c r="AP13" s="53"/>
+      <c r="AQ13" s="53"/>
+      <c r="AR13" s="54"/>
       <c r="AS13" s="2"/>
       <c r="AT13" s="1"/>
       <c r="AU13" s="1"/>
@@ -3884,20 +3879,20 @@
       <c r="DH13" s="1"/>
       <c r="DI13" s="1"/>
       <c r="DJ13" s="3"/>
-      <c r="DK13" s="48"/>
-      <c r="DL13" s="49"/>
-      <c r="DM13" s="49"/>
-      <c r="DN13" s="49"/>
-      <c r="DO13" s="49"/>
-      <c r="DP13" s="49"/>
-      <c r="DQ13" s="50"/>
-      <c r="DR13" s="48"/>
-      <c r="DS13" s="49"/>
-      <c r="DT13" s="49"/>
-      <c r="DU13" s="49"/>
-      <c r="DV13" s="49"/>
-      <c r="DW13" s="49"/>
-      <c r="DX13" s="50"/>
+      <c r="DK13" s="60"/>
+      <c r="DL13" s="61"/>
+      <c r="DM13" s="61"/>
+      <c r="DN13" s="61"/>
+      <c r="DO13" s="61"/>
+      <c r="DP13" s="61"/>
+      <c r="DQ13" s="62"/>
+      <c r="DR13" s="60"/>
+      <c r="DS13" s="61"/>
+      <c r="DT13" s="61"/>
+      <c r="DU13" s="61"/>
+      <c r="DV13" s="61"/>
+      <c r="DW13" s="61"/>
+      <c r="DX13" s="62"/>
       <c r="DY13" s="2"/>
       <c r="DZ13" s="1"/>
       <c r="EA13" s="1"/>
@@ -3914,8 +3909,8 @@
       <c r="EL13" s="3"/>
     </row>
     <row r="14" spans="1:142" ht="15" thickBot="1">
-      <c r="A14" s="69"/>
-      <c r="B14" s="36" t="s">
+      <c r="A14" s="37"/>
+      <c r="B14" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C14" s="2"/>
@@ -3953,13 +3948,13 @@
       <c r="AI14" s="1"/>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="3"/>
-      <c r="AL14" s="57"/>
-      <c r="AM14" s="58"/>
-      <c r="AN14" s="58"/>
-      <c r="AO14" s="58"/>
-      <c r="AP14" s="58"/>
-      <c r="AQ14" s="58"/>
-      <c r="AR14" s="59"/>
+      <c r="AL14" s="52"/>
+      <c r="AM14" s="53"/>
+      <c r="AN14" s="53"/>
+      <c r="AO14" s="53"/>
+      <c r="AP14" s="53"/>
+      <c r="AQ14" s="53"/>
+      <c r="AR14" s="54"/>
       <c r="AS14" s="2"/>
       <c r="AT14" s="1"/>
       <c r="AU14" s="1"/>
@@ -4030,20 +4025,20 @@
       <c r="DH14" s="1"/>
       <c r="DI14" s="1"/>
       <c r="DJ14" s="3"/>
-      <c r="DK14" s="48"/>
-      <c r="DL14" s="49"/>
-      <c r="DM14" s="49"/>
-      <c r="DN14" s="49"/>
-      <c r="DO14" s="49"/>
-      <c r="DP14" s="49"/>
-      <c r="DQ14" s="50"/>
-      <c r="DR14" s="48"/>
-      <c r="DS14" s="49"/>
-      <c r="DT14" s="49"/>
-      <c r="DU14" s="49"/>
-      <c r="DV14" s="49"/>
-      <c r="DW14" s="49"/>
-      <c r="DX14" s="50"/>
+      <c r="DK14" s="60"/>
+      <c r="DL14" s="61"/>
+      <c r="DM14" s="61"/>
+      <c r="DN14" s="61"/>
+      <c r="DO14" s="61"/>
+      <c r="DP14" s="61"/>
+      <c r="DQ14" s="62"/>
+      <c r="DR14" s="60"/>
+      <c r="DS14" s="61"/>
+      <c r="DT14" s="61"/>
+      <c r="DU14" s="61"/>
+      <c r="DV14" s="61"/>
+      <c r="DW14" s="61"/>
+      <c r="DX14" s="62"/>
       <c r="DY14" s="2"/>
       <c r="DZ14" s="1"/>
       <c r="EA14" s="1"/>
@@ -4060,10 +4055,10 @@
       <c r="EL14" s="3"/>
     </row>
     <row r="15" spans="1:142" ht="15" thickBot="1">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="25" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="2"/>
@@ -4101,22 +4096,22 @@
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="3"/>
-      <c r="AL15" s="57"/>
-      <c r="AM15" s="58"/>
-      <c r="AN15" s="58"/>
-      <c r="AO15" s="58"/>
-      <c r="AP15" s="58"/>
-      <c r="AQ15" s="58"/>
-      <c r="AR15" s="59"/>
+      <c r="AL15" s="52"/>
+      <c r="AM15" s="53"/>
+      <c r="AN15" s="53"/>
+      <c r="AO15" s="53"/>
+      <c r="AP15" s="53"/>
+      <c r="AQ15" s="53"/>
+      <c r="AR15" s="54"/>
       <c r="AS15" s="2"/>
       <c r="AT15" s="1"/>
-      <c r="AU15" s="40">
+      <c r="AU15" s="26">
         <v>2</v>
       </c>
-      <c r="AV15" s="40">
+      <c r="AV15" s="26">
         <v>2</v>
       </c>
-      <c r="AW15" s="40">
+      <c r="AW15" s="26">
         <v>2</v>
       </c>
       <c r="AX15" s="1"/>
@@ -4184,20 +4179,20 @@
       <c r="DH15" s="1"/>
       <c r="DI15" s="1"/>
       <c r="DJ15" s="3"/>
-      <c r="DK15" s="48"/>
-      <c r="DL15" s="49"/>
-      <c r="DM15" s="49"/>
-      <c r="DN15" s="49"/>
-      <c r="DO15" s="49"/>
-      <c r="DP15" s="49"/>
-      <c r="DQ15" s="50"/>
-      <c r="DR15" s="48"/>
-      <c r="DS15" s="49"/>
-      <c r="DT15" s="49"/>
-      <c r="DU15" s="49"/>
-      <c r="DV15" s="49"/>
-      <c r="DW15" s="49"/>
-      <c r="DX15" s="50"/>
+      <c r="DK15" s="60"/>
+      <c r="DL15" s="61"/>
+      <c r="DM15" s="61"/>
+      <c r="DN15" s="61"/>
+      <c r="DO15" s="61"/>
+      <c r="DP15" s="61"/>
+      <c r="DQ15" s="62"/>
+      <c r="DR15" s="60"/>
+      <c r="DS15" s="61"/>
+      <c r="DT15" s="61"/>
+      <c r="DU15" s="61"/>
+      <c r="DV15" s="61"/>
+      <c r="DW15" s="61"/>
+      <c r="DX15" s="62"/>
       <c r="DY15" s="2"/>
       <c r="DZ15" s="1"/>
       <c r="EA15" s="1"/>
@@ -4214,8 +4209,8 @@
       <c r="EL15" s="3"/>
     </row>
     <row r="16" spans="1:142" ht="15" thickBot="1">
-      <c r="A16" s="71"/>
-      <c r="B16" s="36" t="s">
+      <c r="A16" s="41"/>
+      <c r="B16" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="2"/>
@@ -4253,13 +4248,13 @@
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="3"/>
-      <c r="AL16" s="57"/>
-      <c r="AM16" s="58"/>
-      <c r="AN16" s="58"/>
-      <c r="AO16" s="58"/>
-      <c r="AP16" s="58"/>
-      <c r="AQ16" s="58"/>
-      <c r="AR16" s="59"/>
+      <c r="AL16" s="52"/>
+      <c r="AM16" s="53"/>
+      <c r="AN16" s="53"/>
+      <c r="AO16" s="53"/>
+      <c r="AP16" s="53"/>
+      <c r="AQ16" s="53"/>
+      <c r="AR16" s="54"/>
       <c r="AS16" s="2"/>
       <c r="AT16" s="1"/>
       <c r="AU16" s="1"/>
@@ -4330,20 +4325,20 @@
       <c r="DH16" s="1"/>
       <c r="DI16" s="1"/>
       <c r="DJ16" s="3"/>
-      <c r="DK16" s="48"/>
-      <c r="DL16" s="49"/>
-      <c r="DM16" s="49"/>
-      <c r="DN16" s="49"/>
-      <c r="DO16" s="49"/>
-      <c r="DP16" s="49"/>
-      <c r="DQ16" s="50"/>
-      <c r="DR16" s="48"/>
-      <c r="DS16" s="49"/>
-      <c r="DT16" s="49"/>
-      <c r="DU16" s="49"/>
-      <c r="DV16" s="49"/>
-      <c r="DW16" s="49"/>
-      <c r="DX16" s="50"/>
+      <c r="DK16" s="60"/>
+      <c r="DL16" s="61"/>
+      <c r="DM16" s="61"/>
+      <c r="DN16" s="61"/>
+      <c r="DO16" s="61"/>
+      <c r="DP16" s="61"/>
+      <c r="DQ16" s="62"/>
+      <c r="DR16" s="60"/>
+      <c r="DS16" s="61"/>
+      <c r="DT16" s="61"/>
+      <c r="DU16" s="61"/>
+      <c r="DV16" s="61"/>
+      <c r="DW16" s="61"/>
+      <c r="DX16" s="62"/>
       <c r="DY16" s="2"/>
       <c r="DZ16" s="1"/>
       <c r="EA16" s="1"/>
@@ -4360,10 +4355,10 @@
       <c r="EL16" s="3"/>
     </row>
     <row r="17" spans="1:142" ht="15" thickBot="1">
-      <c r="A17" s="70" t="s">
+      <c r="A17" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="25" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="2"/>
@@ -4401,25 +4396,25 @@
       <c r="AI17" s="1"/>
       <c r="AJ17" s="1"/>
       <c r="AK17" s="3"/>
-      <c r="AL17" s="57"/>
-      <c r="AM17" s="58"/>
-      <c r="AN17" s="58"/>
-      <c r="AO17" s="58"/>
-      <c r="AP17" s="58"/>
-      <c r="AQ17" s="58"/>
-      <c r="AR17" s="59"/>
+      <c r="AL17" s="52"/>
+      <c r="AM17" s="53"/>
+      <c r="AN17" s="53"/>
+      <c r="AO17" s="53"/>
+      <c r="AP17" s="53"/>
+      <c r="AQ17" s="53"/>
+      <c r="AR17" s="54"/>
       <c r="AS17" s="2"/>
       <c r="AT17" s="1"/>
       <c r="AU17" s="1"/>
       <c r="AV17" s="1"/>
-      <c r="AW17" s="40">
+      <c r="AW17" s="26">
         <v>1</v>
       </c>
       <c r="AX17" s="1"/>
       <c r="AY17" s="3"/>
       <c r="AZ17" s="2"/>
       <c r="BA17" s="1"/>
-      <c r="BB17" s="40">
+      <c r="BB17" s="26">
         <v>2</v>
       </c>
       <c r="BD17" s="1"/>
@@ -4481,20 +4476,20 @@
       <c r="DH17" s="1"/>
       <c r="DI17" s="1"/>
       <c r="DJ17" s="3"/>
-      <c r="DK17" s="48"/>
-      <c r="DL17" s="49"/>
-      <c r="DM17" s="49"/>
-      <c r="DN17" s="49"/>
-      <c r="DO17" s="49"/>
-      <c r="DP17" s="49"/>
-      <c r="DQ17" s="50"/>
-      <c r="DR17" s="48"/>
-      <c r="DS17" s="49"/>
-      <c r="DT17" s="49"/>
-      <c r="DU17" s="49"/>
-      <c r="DV17" s="49"/>
-      <c r="DW17" s="49"/>
-      <c r="DX17" s="50"/>
+      <c r="DK17" s="60"/>
+      <c r="DL17" s="61"/>
+      <c r="DM17" s="61"/>
+      <c r="DN17" s="61"/>
+      <c r="DO17" s="61"/>
+      <c r="DP17" s="61"/>
+      <c r="DQ17" s="62"/>
+      <c r="DR17" s="60"/>
+      <c r="DS17" s="61"/>
+      <c r="DT17" s="61"/>
+      <c r="DU17" s="61"/>
+      <c r="DV17" s="61"/>
+      <c r="DW17" s="61"/>
+      <c r="DX17" s="62"/>
       <c r="DY17" s="2"/>
       <c r="DZ17" s="1"/>
       <c r="EA17" s="1"/>
@@ -4511,8 +4506,8 @@
       <c r="EL17" s="3"/>
     </row>
     <row r="18" spans="1:142" ht="15" thickBot="1">
-      <c r="A18" s="71"/>
-      <c r="B18" s="36" t="s">
+      <c r="A18" s="41"/>
+      <c r="B18" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="2"/>
@@ -4550,13 +4545,13 @@
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
       <c r="AK18" s="3"/>
-      <c r="AL18" s="57"/>
-      <c r="AM18" s="58"/>
-      <c r="AN18" s="58"/>
-      <c r="AO18" s="58"/>
-      <c r="AP18" s="58"/>
-      <c r="AQ18" s="58"/>
-      <c r="AR18" s="59"/>
+      <c r="AL18" s="52"/>
+      <c r="AM18" s="53"/>
+      <c r="AN18" s="53"/>
+      <c r="AO18" s="53"/>
+      <c r="AP18" s="53"/>
+      <c r="AQ18" s="53"/>
+      <c r="AR18" s="54"/>
       <c r="AS18" s="2"/>
       <c r="AT18" s="1"/>
       <c r="AU18" s="1"/>
@@ -4627,20 +4622,20 @@
       <c r="DH18" s="1"/>
       <c r="DI18" s="1"/>
       <c r="DJ18" s="3"/>
-      <c r="DK18" s="48"/>
-      <c r="DL18" s="49"/>
-      <c r="DM18" s="49"/>
-      <c r="DN18" s="49"/>
-      <c r="DO18" s="49"/>
-      <c r="DP18" s="49"/>
-      <c r="DQ18" s="50"/>
-      <c r="DR18" s="48"/>
-      <c r="DS18" s="49"/>
-      <c r="DT18" s="49"/>
-      <c r="DU18" s="49"/>
-      <c r="DV18" s="49"/>
-      <c r="DW18" s="49"/>
-      <c r="DX18" s="50"/>
+      <c r="DK18" s="60"/>
+      <c r="DL18" s="61"/>
+      <c r="DM18" s="61"/>
+      <c r="DN18" s="61"/>
+      <c r="DO18" s="61"/>
+      <c r="DP18" s="61"/>
+      <c r="DQ18" s="62"/>
+      <c r="DR18" s="60"/>
+      <c r="DS18" s="61"/>
+      <c r="DT18" s="61"/>
+      <c r="DU18" s="61"/>
+      <c r="DV18" s="61"/>
+      <c r="DW18" s="61"/>
+      <c r="DX18" s="62"/>
       <c r="DY18" s="2"/>
       <c r="DZ18" s="1"/>
       <c r="EA18" s="1"/>
@@ -4657,10 +4652,10 @@
       <c r="EL18" s="3"/>
     </row>
     <row r="19" spans="1:142" ht="15" thickBot="1">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="25" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="2"/>
@@ -4698,29 +4693,29 @@
       <c r="AI19" s="1"/>
       <c r="AJ19" s="1"/>
       <c r="AK19" s="3"/>
-      <c r="AL19" s="57"/>
-      <c r="AM19" s="58"/>
-      <c r="AN19" s="58"/>
-      <c r="AO19" s="58"/>
-      <c r="AP19" s="58"/>
-      <c r="AQ19" s="58"/>
-      <c r="AR19" s="59"/>
+      <c r="AL19" s="52"/>
+      <c r="AM19" s="53"/>
+      <c r="AN19" s="53"/>
+      <c r="AO19" s="53"/>
+      <c r="AP19" s="53"/>
+      <c r="AQ19" s="53"/>
+      <c r="AR19" s="54"/>
       <c r="AS19" s="2"/>
       <c r="AT19" s="1"/>
       <c r="AU19" s="1"/>
-      <c r="AV19" s="34"/>
-      <c r="AW19" s="34"/>
+      <c r="AV19" s="1"/>
+      <c r="AW19" s="1"/>
       <c r="AX19" s="1"/>
       <c r="AY19" s="3"/>
       <c r="AZ19" s="2"/>
       <c r="BA19" s="1"/>
-      <c r="BB19" s="40">
+      <c r="BB19" s="26">
         <v>2</v>
       </c>
-      <c r="BC19" s="40">
+      <c r="BC19" s="26">
         <v>2</v>
       </c>
-      <c r="BD19" s="40">
+      <c r="BD19" s="26">
         <v>2</v>
       </c>
       <c r="BE19" s="1"/>
@@ -4781,20 +4776,20 @@
       <c r="DH19" s="1"/>
       <c r="DI19" s="1"/>
       <c r="DJ19" s="3"/>
-      <c r="DK19" s="48"/>
-      <c r="DL19" s="49"/>
-      <c r="DM19" s="49"/>
-      <c r="DN19" s="49"/>
-      <c r="DO19" s="49"/>
-      <c r="DP19" s="49"/>
-      <c r="DQ19" s="50"/>
-      <c r="DR19" s="48"/>
-      <c r="DS19" s="49"/>
-      <c r="DT19" s="49"/>
-      <c r="DU19" s="49"/>
-      <c r="DV19" s="49"/>
-      <c r="DW19" s="49"/>
-      <c r="DX19" s="50"/>
+      <c r="DK19" s="60"/>
+      <c r="DL19" s="61"/>
+      <c r="DM19" s="61"/>
+      <c r="DN19" s="61"/>
+      <c r="DO19" s="61"/>
+      <c r="DP19" s="61"/>
+      <c r="DQ19" s="62"/>
+      <c r="DR19" s="60"/>
+      <c r="DS19" s="61"/>
+      <c r="DT19" s="61"/>
+      <c r="DU19" s="61"/>
+      <c r="DV19" s="61"/>
+      <c r="DW19" s="61"/>
+      <c r="DX19" s="62"/>
       <c r="DY19" s="2"/>
       <c r="DZ19" s="1"/>
       <c r="EA19" s="1"/>
@@ -4811,8 +4806,8 @@
       <c r="EL19" s="3"/>
     </row>
     <row r="20" spans="1:142" ht="15" thickBot="1">
-      <c r="A20" s="71"/>
-      <c r="B20" s="36" t="s">
+      <c r="A20" s="41"/>
+      <c r="B20" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="2"/>
@@ -4850,13 +4845,13 @@
       <c r="AI20" s="1"/>
       <c r="AJ20" s="1"/>
       <c r="AK20" s="3"/>
-      <c r="AL20" s="57"/>
-      <c r="AM20" s="58"/>
-      <c r="AN20" s="58"/>
-      <c r="AO20" s="58"/>
-      <c r="AP20" s="58"/>
-      <c r="AQ20" s="58"/>
-      <c r="AR20" s="59"/>
+      <c r="AL20" s="52"/>
+      <c r="AM20" s="53"/>
+      <c r="AN20" s="53"/>
+      <c r="AO20" s="53"/>
+      <c r="AP20" s="53"/>
+      <c r="AQ20" s="53"/>
+      <c r="AR20" s="54"/>
       <c r="AS20" s="2"/>
       <c r="AT20" s="1"/>
       <c r="AU20" s="1"/>
@@ -4927,20 +4922,20 @@
       <c r="DH20" s="1"/>
       <c r="DI20" s="1"/>
       <c r="DJ20" s="3"/>
-      <c r="DK20" s="48"/>
-      <c r="DL20" s="49"/>
-      <c r="DM20" s="49"/>
-      <c r="DN20" s="49"/>
-      <c r="DO20" s="49"/>
-      <c r="DP20" s="49"/>
-      <c r="DQ20" s="50"/>
-      <c r="DR20" s="48"/>
-      <c r="DS20" s="49"/>
-      <c r="DT20" s="49"/>
-      <c r="DU20" s="49"/>
-      <c r="DV20" s="49"/>
-      <c r="DW20" s="49"/>
-      <c r="DX20" s="50"/>
+      <c r="DK20" s="60"/>
+      <c r="DL20" s="61"/>
+      <c r="DM20" s="61"/>
+      <c r="DN20" s="61"/>
+      <c r="DO20" s="61"/>
+      <c r="DP20" s="61"/>
+      <c r="DQ20" s="62"/>
+      <c r="DR20" s="60"/>
+      <c r="DS20" s="61"/>
+      <c r="DT20" s="61"/>
+      <c r="DU20" s="61"/>
+      <c r="DV20" s="61"/>
+      <c r="DW20" s="61"/>
+      <c r="DX20" s="62"/>
       <c r="DY20" s="2"/>
       <c r="DZ20" s="1"/>
       <c r="EA20" s="1"/>
@@ -4957,10 +4952,10 @@
       <c r="EL20" s="3"/>
     </row>
     <row r="21" spans="1:142" ht="15" thickBot="1">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="25" t="s">
         <v>31</v>
       </c>
       <c r="C21" s="2"/>
@@ -4998,13 +4993,13 @@
       <c r="AI21" s="1"/>
       <c r="AJ21" s="1"/>
       <c r="AK21" s="3"/>
-      <c r="AL21" s="57"/>
-      <c r="AM21" s="58"/>
-      <c r="AN21" s="58"/>
-      <c r="AO21" s="58"/>
-      <c r="AP21" s="58"/>
-      <c r="AQ21" s="58"/>
-      <c r="AR21" s="59"/>
+      <c r="AL21" s="52"/>
+      <c r="AM21" s="53"/>
+      <c r="AN21" s="53"/>
+      <c r="AO21" s="53"/>
+      <c r="AP21" s="53"/>
+      <c r="AQ21" s="53"/>
+      <c r="AR21" s="54"/>
       <c r="AS21" s="2"/>
       <c r="AT21" s="1"/>
       <c r="AU21" s="1"/>
@@ -5021,14 +5016,14 @@
       <c r="BF21" s="3"/>
       <c r="BG21" s="2"/>
       <c r="BH21" s="1"/>
-      <c r="BI21" s="40">
-        <v>1</v>
-      </c>
-      <c r="BJ21" s="40">
-        <v>1</v>
-      </c>
-      <c r="BK21" s="40">
-        <v>1</v>
+      <c r="BI21" s="26">
+        <v>4</v>
+      </c>
+      <c r="BJ21" s="26">
+        <v>2</v>
+      </c>
+      <c r="BK21" s="26">
+        <v>2</v>
       </c>
       <c r="BL21" s="1"/>
       <c r="BM21" s="3"/>
@@ -5081,20 +5076,20 @@
       <c r="DH21" s="1"/>
       <c r="DI21" s="1"/>
       <c r="DJ21" s="3"/>
-      <c r="DK21" s="48"/>
-      <c r="DL21" s="49"/>
-      <c r="DM21" s="49"/>
-      <c r="DN21" s="49"/>
-      <c r="DO21" s="49"/>
-      <c r="DP21" s="49"/>
-      <c r="DQ21" s="50"/>
-      <c r="DR21" s="48"/>
-      <c r="DS21" s="49"/>
-      <c r="DT21" s="49"/>
-      <c r="DU21" s="49"/>
-      <c r="DV21" s="49"/>
-      <c r="DW21" s="49"/>
-      <c r="DX21" s="50"/>
+      <c r="DK21" s="60"/>
+      <c r="DL21" s="61"/>
+      <c r="DM21" s="61"/>
+      <c r="DN21" s="61"/>
+      <c r="DO21" s="61"/>
+      <c r="DP21" s="61"/>
+      <c r="DQ21" s="62"/>
+      <c r="DR21" s="60"/>
+      <c r="DS21" s="61"/>
+      <c r="DT21" s="61"/>
+      <c r="DU21" s="61"/>
+      <c r="DV21" s="61"/>
+      <c r="DW21" s="61"/>
+      <c r="DX21" s="62"/>
       <c r="DY21" s="2"/>
       <c r="DZ21" s="1"/>
       <c r="EA21" s="1"/>
@@ -5111,8 +5106,8 @@
       <c r="EL21" s="3"/>
     </row>
     <row r="22" spans="1:142" ht="15" thickBot="1">
-      <c r="A22" s="69"/>
-      <c r="B22" s="36" t="s">
+      <c r="A22" s="37"/>
+      <c r="B22" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C22" s="2"/>
@@ -5150,13 +5145,13 @@
       <c r="AI22" s="1"/>
       <c r="AJ22" s="1"/>
       <c r="AK22" s="3"/>
-      <c r="AL22" s="57"/>
-      <c r="AM22" s="58"/>
-      <c r="AN22" s="58"/>
-      <c r="AO22" s="58"/>
-      <c r="AP22" s="58"/>
-      <c r="AQ22" s="58"/>
-      <c r="AR22" s="59"/>
+      <c r="AL22" s="52"/>
+      <c r="AM22" s="53"/>
+      <c r="AN22" s="53"/>
+      <c r="AO22" s="53"/>
+      <c r="AP22" s="53"/>
+      <c r="AQ22" s="53"/>
+      <c r="AR22" s="54"/>
       <c r="AS22" s="2"/>
       <c r="AT22" s="1"/>
       <c r="AU22" s="1"/>
@@ -5227,20 +5222,20 @@
       <c r="DH22" s="1"/>
       <c r="DI22" s="1"/>
       <c r="DJ22" s="3"/>
-      <c r="DK22" s="48"/>
-      <c r="DL22" s="49"/>
-      <c r="DM22" s="49"/>
-      <c r="DN22" s="49"/>
-      <c r="DO22" s="49"/>
-      <c r="DP22" s="49"/>
-      <c r="DQ22" s="50"/>
-      <c r="DR22" s="48"/>
-      <c r="DS22" s="49"/>
-      <c r="DT22" s="49"/>
-      <c r="DU22" s="49"/>
-      <c r="DV22" s="49"/>
-      <c r="DW22" s="49"/>
-      <c r="DX22" s="50"/>
+      <c r="DK22" s="60"/>
+      <c r="DL22" s="61"/>
+      <c r="DM22" s="61"/>
+      <c r="DN22" s="61"/>
+      <c r="DO22" s="61"/>
+      <c r="DP22" s="61"/>
+      <c r="DQ22" s="62"/>
+      <c r="DR22" s="60"/>
+      <c r="DS22" s="61"/>
+      <c r="DT22" s="61"/>
+      <c r="DU22" s="61"/>
+      <c r="DV22" s="61"/>
+      <c r="DW22" s="61"/>
+      <c r="DX22" s="62"/>
       <c r="DY22" s="2"/>
       <c r="DZ22" s="1"/>
       <c r="EA22" s="1"/>
@@ -5257,10 +5252,10 @@
       <c r="EL22" s="3"/>
     </row>
     <row r="23" spans="1:142" ht="15" thickBot="1">
-      <c r="A23" s="68" t="s">
+      <c r="A23" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="25" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="2"/>
@@ -5298,13 +5293,13 @@
       <c r="AI23" s="1"/>
       <c r="AJ23" s="1"/>
       <c r="AK23" s="3"/>
-      <c r="AL23" s="57"/>
-      <c r="AM23" s="58"/>
-      <c r="AN23" s="58"/>
-      <c r="AO23" s="58"/>
-      <c r="AP23" s="58"/>
-      <c r="AQ23" s="58"/>
-      <c r="AR23" s="59"/>
+      <c r="AL23" s="52"/>
+      <c r="AM23" s="53"/>
+      <c r="AN23" s="53"/>
+      <c r="AO23" s="53"/>
+      <c r="AP23" s="53"/>
+      <c r="AQ23" s="53"/>
+      <c r="AR23" s="54"/>
       <c r="AS23" s="2"/>
       <c r="AT23" s="1"/>
       <c r="AU23" s="1"/>
@@ -5323,7 +5318,7 @@
       <c r="BH23" s="1"/>
       <c r="BI23" s="1"/>
       <c r="BJ23" s="1"/>
-      <c r="BK23" s="40">
+      <c r="BK23" s="26">
         <v>4</v>
       </c>
       <c r="BL23" s="1"/>
@@ -5377,20 +5372,20 @@
       <c r="DH23" s="1"/>
       <c r="DI23" s="1"/>
       <c r="DJ23" s="3"/>
-      <c r="DK23" s="48"/>
-      <c r="DL23" s="49"/>
-      <c r="DM23" s="49"/>
-      <c r="DN23" s="49"/>
-      <c r="DO23" s="49"/>
-      <c r="DP23" s="49"/>
-      <c r="DQ23" s="50"/>
-      <c r="DR23" s="48"/>
-      <c r="DS23" s="49"/>
-      <c r="DT23" s="49"/>
-      <c r="DU23" s="49"/>
-      <c r="DV23" s="49"/>
-      <c r="DW23" s="49"/>
-      <c r="DX23" s="50"/>
+      <c r="DK23" s="60"/>
+      <c r="DL23" s="61"/>
+      <c r="DM23" s="61"/>
+      <c r="DN23" s="61"/>
+      <c r="DO23" s="61"/>
+      <c r="DP23" s="61"/>
+      <c r="DQ23" s="62"/>
+      <c r="DR23" s="60"/>
+      <c r="DS23" s="61"/>
+      <c r="DT23" s="61"/>
+      <c r="DU23" s="61"/>
+      <c r="DV23" s="61"/>
+      <c r="DW23" s="61"/>
+      <c r="DX23" s="62"/>
       <c r="DY23" s="2"/>
       <c r="DZ23" s="1"/>
       <c r="EA23" s="1"/>
@@ -5407,8 +5402,8 @@
       <c r="EL23" s="3"/>
     </row>
     <row r="24" spans="1:142" ht="15" thickBot="1">
-      <c r="A24" s="69"/>
-      <c r="B24" s="36" t="s">
+      <c r="A24" s="37"/>
+      <c r="B24" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="2"/>
@@ -5446,13 +5441,13 @@
       <c r="AI24" s="1"/>
       <c r="AJ24" s="1"/>
       <c r="AK24" s="3"/>
-      <c r="AL24" s="57"/>
-      <c r="AM24" s="58"/>
-      <c r="AN24" s="58"/>
-      <c r="AO24" s="58"/>
-      <c r="AP24" s="58"/>
-      <c r="AQ24" s="58"/>
-      <c r="AR24" s="59"/>
+      <c r="AL24" s="52"/>
+      <c r="AM24" s="53"/>
+      <c r="AN24" s="53"/>
+      <c r="AO24" s="53"/>
+      <c r="AP24" s="53"/>
+      <c r="AQ24" s="53"/>
+      <c r="AR24" s="54"/>
       <c r="AS24" s="2"/>
       <c r="AT24" s="1"/>
       <c r="AU24" s="1"/>
@@ -5523,20 +5518,20 @@
       <c r="DH24" s="1"/>
       <c r="DI24" s="1"/>
       <c r="DJ24" s="3"/>
-      <c r="DK24" s="48"/>
-      <c r="DL24" s="49"/>
-      <c r="DM24" s="49"/>
-      <c r="DN24" s="49"/>
-      <c r="DO24" s="49"/>
-      <c r="DP24" s="49"/>
-      <c r="DQ24" s="50"/>
-      <c r="DR24" s="48"/>
-      <c r="DS24" s="49"/>
-      <c r="DT24" s="49"/>
-      <c r="DU24" s="49"/>
-      <c r="DV24" s="49"/>
-      <c r="DW24" s="49"/>
-      <c r="DX24" s="50"/>
+      <c r="DK24" s="60"/>
+      <c r="DL24" s="61"/>
+      <c r="DM24" s="61"/>
+      <c r="DN24" s="61"/>
+      <c r="DO24" s="61"/>
+      <c r="DP24" s="61"/>
+      <c r="DQ24" s="62"/>
+      <c r="DR24" s="60"/>
+      <c r="DS24" s="61"/>
+      <c r="DT24" s="61"/>
+      <c r="DU24" s="61"/>
+      <c r="DV24" s="61"/>
+      <c r="DW24" s="61"/>
+      <c r="DX24" s="62"/>
       <c r="DY24" s="2"/>
       <c r="DZ24" s="1"/>
       <c r="EA24" s="1"/>
@@ -5553,10 +5548,10 @@
       <c r="EL24" s="3"/>
     </row>
     <row r="25" spans="1:142" ht="15" thickBot="1">
-      <c r="A25" s="68" t="s">
+      <c r="A25" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="25" t="s">
         <v>31</v>
       </c>
       <c r="C25" s="2"/>
@@ -5594,13 +5589,13 @@
       <c r="AI25" s="1"/>
       <c r="AJ25" s="1"/>
       <c r="AK25" s="3"/>
-      <c r="AL25" s="57"/>
-      <c r="AM25" s="58"/>
-      <c r="AN25" s="58"/>
-      <c r="AO25" s="58"/>
-      <c r="AP25" s="58"/>
-      <c r="AQ25" s="58"/>
-      <c r="AR25" s="59"/>
+      <c r="AL25" s="52"/>
+      <c r="AM25" s="53"/>
+      <c r="AN25" s="53"/>
+      <c r="AO25" s="53"/>
+      <c r="AP25" s="53"/>
+      <c r="AQ25" s="53"/>
+      <c r="AR25" s="54"/>
       <c r="AS25" s="2"/>
       <c r="AT25" s="1"/>
       <c r="AU25" s="1"/>
@@ -5623,10 +5618,10 @@
       <c r="BL25" s="1"/>
       <c r="BM25" s="3"/>
       <c r="BN25" s="2"/>
-      <c r="BO25" s="40">
+      <c r="BO25" s="26">
         <v>1</v>
       </c>
-      <c r="BP25" s="40">
+      <c r="BP25" s="26">
         <v>1</v>
       </c>
       <c r="BQ25" s="1"/>
@@ -5675,20 +5670,20 @@
       <c r="DH25" s="1"/>
       <c r="DI25" s="1"/>
       <c r="DJ25" s="3"/>
-      <c r="DK25" s="48"/>
-      <c r="DL25" s="49"/>
-      <c r="DM25" s="49"/>
-      <c r="DN25" s="49"/>
-      <c r="DO25" s="49"/>
-      <c r="DP25" s="49"/>
-      <c r="DQ25" s="50"/>
-      <c r="DR25" s="48"/>
-      <c r="DS25" s="49"/>
-      <c r="DT25" s="49"/>
-      <c r="DU25" s="49"/>
-      <c r="DV25" s="49"/>
-      <c r="DW25" s="49"/>
-      <c r="DX25" s="50"/>
+      <c r="DK25" s="60"/>
+      <c r="DL25" s="61"/>
+      <c r="DM25" s="61"/>
+      <c r="DN25" s="61"/>
+      <c r="DO25" s="61"/>
+      <c r="DP25" s="61"/>
+      <c r="DQ25" s="62"/>
+      <c r="DR25" s="60"/>
+      <c r="DS25" s="61"/>
+      <c r="DT25" s="61"/>
+      <c r="DU25" s="61"/>
+      <c r="DV25" s="61"/>
+      <c r="DW25" s="61"/>
+      <c r="DX25" s="62"/>
       <c r="DY25" s="2"/>
       <c r="DZ25" s="1"/>
       <c r="EA25" s="1"/>
@@ -5705,8 +5700,8 @@
       <c r="EL25" s="3"/>
     </row>
     <row r="26" spans="1:142" ht="15" thickBot="1">
-      <c r="A26" s="69"/>
-      <c r="B26" s="36" t="s">
+      <c r="A26" s="37"/>
+      <c r="B26" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="2"/>
@@ -5744,13 +5739,13 @@
       <c r="AI26" s="1"/>
       <c r="AJ26" s="1"/>
       <c r="AK26" s="3"/>
-      <c r="AL26" s="57"/>
-      <c r="AM26" s="58"/>
-      <c r="AN26" s="58"/>
-      <c r="AO26" s="58"/>
-      <c r="AP26" s="58"/>
-      <c r="AQ26" s="58"/>
-      <c r="AR26" s="59"/>
+      <c r="AL26" s="52"/>
+      <c r="AM26" s="53"/>
+      <c r="AN26" s="53"/>
+      <c r="AO26" s="53"/>
+      <c r="AP26" s="53"/>
+      <c r="AQ26" s="53"/>
+      <c r="AR26" s="54"/>
       <c r="AS26" s="2"/>
       <c r="AT26" s="1"/>
       <c r="AU26" s="1"/>
@@ -5789,8 +5784,8 @@
       <c r="CB26" s="2"/>
       <c r="CC26" s="1"/>
       <c r="CD26" s="1"/>
-      <c r="CE26" s="34"/>
-      <c r="CF26" s="34"/>
+      <c r="CE26" s="1"/>
+      <c r="CF26" s="1"/>
       <c r="CG26" s="1"/>
       <c r="CH26" s="3"/>
       <c r="CI26" s="2"/>
@@ -5821,20 +5816,20 @@
       <c r="DH26" s="1"/>
       <c r="DI26" s="1"/>
       <c r="DJ26" s="3"/>
-      <c r="DK26" s="48"/>
-      <c r="DL26" s="49"/>
-      <c r="DM26" s="49"/>
-      <c r="DN26" s="49"/>
-      <c r="DO26" s="49"/>
-      <c r="DP26" s="49"/>
-      <c r="DQ26" s="50"/>
-      <c r="DR26" s="48"/>
-      <c r="DS26" s="49"/>
-      <c r="DT26" s="49"/>
-      <c r="DU26" s="49"/>
-      <c r="DV26" s="49"/>
-      <c r="DW26" s="49"/>
-      <c r="DX26" s="50"/>
+      <c r="DK26" s="60"/>
+      <c r="DL26" s="61"/>
+      <c r="DM26" s="61"/>
+      <c r="DN26" s="61"/>
+      <c r="DO26" s="61"/>
+      <c r="DP26" s="61"/>
+      <c r="DQ26" s="62"/>
+      <c r="DR26" s="60"/>
+      <c r="DS26" s="61"/>
+      <c r="DT26" s="61"/>
+      <c r="DU26" s="61"/>
+      <c r="DV26" s="61"/>
+      <c r="DW26" s="61"/>
+      <c r="DX26" s="62"/>
       <c r="DY26" s="2"/>
       <c r="DZ26" s="1"/>
       <c r="EA26" s="1"/>
@@ -5851,10 +5846,10 @@
       <c r="EL26" s="3"/>
     </row>
     <row r="27" spans="1:142" ht="15" thickBot="1">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="25" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="2"/>
@@ -5892,13 +5887,13 @@
       <c r="AI27" s="1"/>
       <c r="AJ27" s="1"/>
       <c r="AK27" s="3"/>
-      <c r="AL27" s="57"/>
-      <c r="AM27" s="58"/>
-      <c r="AN27" s="58"/>
-      <c r="AO27" s="58"/>
-      <c r="AP27" s="58"/>
-      <c r="AQ27" s="58"/>
-      <c r="AR27" s="59"/>
+      <c r="AL27" s="52"/>
+      <c r="AM27" s="53"/>
+      <c r="AN27" s="53"/>
+      <c r="AO27" s="53"/>
+      <c r="AP27" s="53"/>
+      <c r="AQ27" s="53"/>
+      <c r="AR27" s="54"/>
       <c r="AS27" s="2"/>
       <c r="AT27" s="1"/>
       <c r="AU27" s="1"/>
@@ -5922,22 +5917,22 @@
       <c r="BM27" s="3"/>
       <c r="BN27" s="2"/>
       <c r="BO27" s="1"/>
-      <c r="BP27" s="40">
+      <c r="BP27" s="26">
         <v>2</v>
       </c>
-      <c r="BQ27" s="40">
+      <c r="BQ27" s="26">
         <v>2</v>
       </c>
-      <c r="BR27" s="40">
+      <c r="BR27" s="26">
         <v>2</v>
       </c>
       <c r="BS27" s="1"/>
       <c r="BT27" s="3"/>
       <c r="BU27" s="2"/>
-      <c r="BV27" s="40">
+      <c r="BV27" s="26">
         <v>3</v>
       </c>
-      <c r="BW27" s="40">
+      <c r="BW27" s="26">
         <v>3</v>
       </c>
       <c r="BX27" s="1"/>
@@ -5945,21 +5940,21 @@
       <c r="BZ27" s="1"/>
       <c r="CA27" s="3"/>
       <c r="CB27" s="2"/>
-      <c r="CC27" s="40">
+      <c r="CC27" s="26">
         <v>3</v>
       </c>
-      <c r="CD27" s="40">
+      <c r="CD27" s="26">
         <v>3</v>
       </c>
-      <c r="CE27" s="34"/>
-      <c r="CF27" s="34"/>
+      <c r="CE27" s="1"/>
+      <c r="CF27" s="1"/>
       <c r="CG27" s="1"/>
       <c r="CH27" s="3"/>
       <c r="CI27" s="2"/>
-      <c r="CJ27" s="40">
+      <c r="CJ27" s="26">
         <v>3</v>
       </c>
-      <c r="CK27" s="40">
+      <c r="CK27" s="26">
         <v>3</v>
       </c>
       <c r="CL27" s="1"/>
@@ -5967,10 +5962,10 @@
       <c r="CN27" s="1"/>
       <c r="CO27" s="3"/>
       <c r="CP27" s="2"/>
-      <c r="CQ27" s="40">
+      <c r="CQ27" s="26">
         <v>3</v>
       </c>
-      <c r="CR27" s="40">
+      <c r="CR27" s="26">
         <v>3</v>
       </c>
       <c r="CS27" s="1"/>
@@ -5978,10 +5973,10 @@
       <c r="CU27" s="1"/>
       <c r="CV27" s="3"/>
       <c r="CW27" s="2"/>
-      <c r="CX27" s="40">
+      <c r="CX27" s="26">
         <v>3</v>
       </c>
-      <c r="CY27" s="40">
+      <c r="CY27" s="26">
         <v>3</v>
       </c>
       <c r="CZ27" s="1"/>
@@ -5995,20 +5990,20 @@
       <c r="DH27" s="1"/>
       <c r="DI27" s="1"/>
       <c r="DJ27" s="3"/>
-      <c r="DK27" s="48"/>
-      <c r="DL27" s="49"/>
-      <c r="DM27" s="49"/>
-      <c r="DN27" s="49"/>
-      <c r="DO27" s="49"/>
-      <c r="DP27" s="49"/>
-      <c r="DQ27" s="50"/>
-      <c r="DR27" s="48"/>
-      <c r="DS27" s="49"/>
-      <c r="DT27" s="49"/>
-      <c r="DU27" s="49"/>
-      <c r="DV27" s="49"/>
-      <c r="DW27" s="49"/>
-      <c r="DX27" s="50"/>
+      <c r="DK27" s="60"/>
+      <c r="DL27" s="61"/>
+      <c r="DM27" s="61"/>
+      <c r="DN27" s="61"/>
+      <c r="DO27" s="61"/>
+      <c r="DP27" s="61"/>
+      <c r="DQ27" s="62"/>
+      <c r="DR27" s="60"/>
+      <c r="DS27" s="61"/>
+      <c r="DT27" s="61"/>
+      <c r="DU27" s="61"/>
+      <c r="DV27" s="61"/>
+      <c r="DW27" s="61"/>
+      <c r="DX27" s="62"/>
       <c r="DY27" s="2"/>
       <c r="DZ27" s="1"/>
       <c r="EA27" s="1"/>
@@ -6025,8 +6020,8 @@
       <c r="EL27" s="3"/>
     </row>
     <row r="28" spans="1:142" ht="15" thickBot="1">
-      <c r="A28" s="69"/>
-      <c r="B28" s="36" t="s">
+      <c r="A28" s="37"/>
+      <c r="B28" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="2"/>
@@ -6064,13 +6059,13 @@
       <c r="AI28" s="1"/>
       <c r="AJ28" s="1"/>
       <c r="AK28" s="3"/>
-      <c r="AL28" s="57"/>
-      <c r="AM28" s="58"/>
-      <c r="AN28" s="58"/>
-      <c r="AO28" s="58"/>
-      <c r="AP28" s="58"/>
-      <c r="AQ28" s="58"/>
-      <c r="AR28" s="59"/>
+      <c r="AL28" s="52"/>
+      <c r="AM28" s="53"/>
+      <c r="AN28" s="53"/>
+      <c r="AO28" s="53"/>
+      <c r="AP28" s="53"/>
+      <c r="AQ28" s="53"/>
+      <c r="AR28" s="54"/>
       <c r="AS28" s="2"/>
       <c r="AT28" s="1"/>
       <c r="AU28" s="1"/>
@@ -6109,8 +6104,8 @@
       <c r="CB28" s="2"/>
       <c r="CC28" s="1"/>
       <c r="CD28" s="1"/>
-      <c r="CE28" s="34"/>
-      <c r="CF28" s="34"/>
+      <c r="CE28" s="1"/>
+      <c r="CF28" s="1"/>
       <c r="CG28" s="1"/>
       <c r="CH28" s="3"/>
       <c r="CI28" s="2"/>
@@ -6141,20 +6136,20 @@
       <c r="DH28" s="1"/>
       <c r="DI28" s="1"/>
       <c r="DJ28" s="3"/>
-      <c r="DK28" s="48"/>
-      <c r="DL28" s="49"/>
-      <c r="DM28" s="49"/>
-      <c r="DN28" s="49"/>
-      <c r="DO28" s="49"/>
-      <c r="DP28" s="49"/>
-      <c r="DQ28" s="50"/>
-      <c r="DR28" s="48"/>
-      <c r="DS28" s="49"/>
-      <c r="DT28" s="49"/>
-      <c r="DU28" s="49"/>
-      <c r="DV28" s="49"/>
-      <c r="DW28" s="49"/>
-      <c r="DX28" s="50"/>
+      <c r="DK28" s="60"/>
+      <c r="DL28" s="61"/>
+      <c r="DM28" s="61"/>
+      <c r="DN28" s="61"/>
+      <c r="DO28" s="61"/>
+      <c r="DP28" s="61"/>
+      <c r="DQ28" s="62"/>
+      <c r="DR28" s="60"/>
+      <c r="DS28" s="61"/>
+      <c r="DT28" s="61"/>
+      <c r="DU28" s="61"/>
+      <c r="DV28" s="61"/>
+      <c r="DW28" s="61"/>
+      <c r="DX28" s="62"/>
       <c r="DY28" s="2"/>
       <c r="DZ28" s="1"/>
       <c r="EA28" s="1"/>
@@ -6171,10 +6166,10 @@
       <c r="EL28" s="3"/>
     </row>
     <row r="29" spans="1:142" ht="15" thickBot="1">
-      <c r="A29" s="68" t="s">
+      <c r="A29" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="25" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="2"/>
@@ -6212,13 +6207,13 @@
       <c r="AI29" s="1"/>
       <c r="AJ29" s="1"/>
       <c r="AK29" s="3"/>
-      <c r="AL29" s="57"/>
-      <c r="AM29" s="58"/>
-      <c r="AN29" s="58"/>
-      <c r="AO29" s="58"/>
-      <c r="AP29" s="58"/>
-      <c r="AQ29" s="58"/>
-      <c r="AR29" s="59"/>
+      <c r="AL29" s="52"/>
+      <c r="AM29" s="53"/>
+      <c r="AN29" s="53"/>
+      <c r="AO29" s="53"/>
+      <c r="AP29" s="53"/>
+      <c r="AQ29" s="53"/>
+      <c r="AR29" s="54"/>
       <c r="AS29" s="2"/>
       <c r="AT29" s="1"/>
       <c r="AU29" s="1"/>
@@ -6284,31 +6279,31 @@
       <c r="DC29" s="3"/>
       <c r="DD29" s="2"/>
       <c r="DE29" s="1"/>
-      <c r="DF29" s="40">
+      <c r="DF29" s="26">
         <v>1</v>
       </c>
-      <c r="DG29" s="40">
+      <c r="DG29" s="26">
         <v>1</v>
       </c>
-      <c r="DH29" s="40">
+      <c r="DH29" s="26">
         <v>1</v>
       </c>
-      <c r="DI29" s="34"/>
+      <c r="DI29" s="1"/>
       <c r="DJ29" s="3"/>
-      <c r="DK29" s="48"/>
-      <c r="DL29" s="49"/>
-      <c r="DM29" s="49"/>
-      <c r="DN29" s="49"/>
-      <c r="DO29" s="49"/>
-      <c r="DP29" s="49"/>
-      <c r="DQ29" s="50"/>
-      <c r="DR29" s="48"/>
-      <c r="DS29" s="49"/>
-      <c r="DT29" s="49"/>
-      <c r="DU29" s="49"/>
-      <c r="DV29" s="49"/>
-      <c r="DW29" s="49"/>
-      <c r="DX29" s="50"/>
+      <c r="DK29" s="60"/>
+      <c r="DL29" s="61"/>
+      <c r="DM29" s="61"/>
+      <c r="DN29" s="61"/>
+      <c r="DO29" s="61"/>
+      <c r="DP29" s="61"/>
+      <c r="DQ29" s="62"/>
+      <c r="DR29" s="60"/>
+      <c r="DS29" s="61"/>
+      <c r="DT29" s="61"/>
+      <c r="DU29" s="61"/>
+      <c r="DV29" s="61"/>
+      <c r="DW29" s="61"/>
+      <c r="DX29" s="62"/>
       <c r="DY29" s="2"/>
       <c r="DZ29" s="1"/>
       <c r="EA29" s="1"/>
@@ -6325,8 +6320,8 @@
       <c r="EL29" s="3"/>
     </row>
     <row r="30" spans="1:142" ht="15" thickBot="1">
-      <c r="A30" s="72"/>
-      <c r="B30" s="36" t="s">
+      <c r="A30" s="38"/>
+      <c r="B30" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="2"/>
@@ -6364,13 +6359,13 @@
       <c r="AI30" s="1"/>
       <c r="AJ30" s="1"/>
       <c r="AK30" s="3"/>
-      <c r="AL30" s="57"/>
-      <c r="AM30" s="58"/>
-      <c r="AN30" s="58"/>
-      <c r="AO30" s="58"/>
-      <c r="AP30" s="58"/>
-      <c r="AQ30" s="58"/>
-      <c r="AR30" s="59"/>
+      <c r="AL30" s="52"/>
+      <c r="AM30" s="53"/>
+      <c r="AN30" s="53"/>
+      <c r="AO30" s="53"/>
+      <c r="AP30" s="53"/>
+      <c r="AQ30" s="53"/>
+      <c r="AR30" s="54"/>
       <c r="AS30" s="2"/>
       <c r="AT30" s="1"/>
       <c r="AU30" s="1"/>
@@ -6441,20 +6436,20 @@
       <c r="DH30" s="1"/>
       <c r="DI30" s="1"/>
       <c r="DJ30" s="3"/>
-      <c r="DK30" s="48"/>
-      <c r="DL30" s="49"/>
-      <c r="DM30" s="49"/>
-      <c r="DN30" s="49"/>
-      <c r="DO30" s="49"/>
-      <c r="DP30" s="49"/>
-      <c r="DQ30" s="50"/>
-      <c r="DR30" s="48"/>
-      <c r="DS30" s="49"/>
-      <c r="DT30" s="49"/>
-      <c r="DU30" s="49"/>
-      <c r="DV30" s="49"/>
-      <c r="DW30" s="49"/>
-      <c r="DX30" s="50"/>
+      <c r="DK30" s="60"/>
+      <c r="DL30" s="61"/>
+      <c r="DM30" s="61"/>
+      <c r="DN30" s="61"/>
+      <c r="DO30" s="61"/>
+      <c r="DP30" s="61"/>
+      <c r="DQ30" s="62"/>
+      <c r="DR30" s="60"/>
+      <c r="DS30" s="61"/>
+      <c r="DT30" s="61"/>
+      <c r="DU30" s="61"/>
+      <c r="DV30" s="61"/>
+      <c r="DW30" s="61"/>
+      <c r="DX30" s="62"/>
       <c r="DY30" s="2"/>
       <c r="DZ30" s="1"/>
       <c r="EA30" s="1"/>
@@ -6471,10 +6466,10 @@
       <c r="EL30" s="3"/>
     </row>
     <row r="31" spans="1:142" ht="15" thickBot="1">
-      <c r="A31" s="68" t="s">
+      <c r="A31" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="25" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="2"/>
@@ -6512,13 +6507,13 @@
       <c r="AI31" s="1"/>
       <c r="AJ31" s="1"/>
       <c r="AK31" s="3"/>
-      <c r="AL31" s="57"/>
-      <c r="AM31" s="58"/>
-      <c r="AN31" s="58"/>
-      <c r="AO31" s="58"/>
-      <c r="AP31" s="58"/>
-      <c r="AQ31" s="58"/>
-      <c r="AR31" s="59"/>
+      <c r="AL31" s="52"/>
+      <c r="AM31" s="53"/>
+      <c r="AN31" s="53"/>
+      <c r="AO31" s="53"/>
+      <c r="AP31" s="53"/>
+      <c r="AQ31" s="53"/>
+      <c r="AR31" s="54"/>
       <c r="AS31" s="2"/>
       <c r="AT31" s="1"/>
       <c r="AU31" s="1"/>
@@ -6589,42 +6584,42 @@
       <c r="DH31" s="1"/>
       <c r="DI31" s="1"/>
       <c r="DJ31" s="3"/>
-      <c r="DK31" s="48"/>
-      <c r="DL31" s="49"/>
-      <c r="DM31" s="49"/>
-      <c r="DN31" s="49"/>
-      <c r="DO31" s="49"/>
-      <c r="DP31" s="49"/>
-      <c r="DQ31" s="50"/>
-      <c r="DR31" s="48"/>
-      <c r="DS31" s="49"/>
-      <c r="DT31" s="49"/>
-      <c r="DU31" s="49"/>
-      <c r="DV31" s="49"/>
-      <c r="DW31" s="49"/>
-      <c r="DX31" s="50"/>
-      <c r="DY31" s="44">
+      <c r="DK31" s="60"/>
+      <c r="DL31" s="61"/>
+      <c r="DM31" s="61"/>
+      <c r="DN31" s="61"/>
+      <c r="DO31" s="61"/>
+      <c r="DP31" s="61"/>
+      <c r="DQ31" s="62"/>
+      <c r="DR31" s="60"/>
+      <c r="DS31" s="61"/>
+      <c r="DT31" s="61"/>
+      <c r="DU31" s="61"/>
+      <c r="DV31" s="61"/>
+      <c r="DW31" s="61"/>
+      <c r="DX31" s="62"/>
+      <c r="DY31" s="28">
         <v>1</v>
       </c>
-      <c r="DZ31" s="40">
+      <c r="DZ31" s="26">
         <v>1</v>
       </c>
-      <c r="EA31" s="40">
+      <c r="EA31" s="26">
         <v>1</v>
       </c>
-      <c r="EB31" s="40">
+      <c r="EB31" s="26">
         <v>1</v>
       </c>
-      <c r="EC31" s="40">
+      <c r="EC31" s="26">
         <v>1</v>
       </c>
-      <c r="ED31" s="40">
+      <c r="ED31" s="26">
         <v>1</v>
       </c>
-      <c r="EE31" s="45">
+      <c r="EE31" s="29">
         <v>1</v>
       </c>
-      <c r="EF31" s="44">
+      <c r="EF31" s="28">
         <v>0.5</v>
       </c>
       <c r="EG31" s="1"/>
@@ -6635,8 +6630,8 @@
       <c r="EL31" s="3"/>
     </row>
     <row r="32" spans="1:142" ht="15" thickBot="1">
-      <c r="A32" s="69"/>
-      <c r="B32" s="36" t="s">
+      <c r="A32" s="37"/>
+      <c r="B32" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="2"/>
@@ -6674,13 +6669,13 @@
       <c r="AI32" s="1"/>
       <c r="AJ32" s="1"/>
       <c r="AK32" s="3"/>
-      <c r="AL32" s="57"/>
-      <c r="AM32" s="58"/>
-      <c r="AN32" s="58"/>
-      <c r="AO32" s="58"/>
-      <c r="AP32" s="58"/>
-      <c r="AQ32" s="58"/>
-      <c r="AR32" s="59"/>
+      <c r="AL32" s="52"/>
+      <c r="AM32" s="53"/>
+      <c r="AN32" s="53"/>
+      <c r="AO32" s="53"/>
+      <c r="AP32" s="53"/>
+      <c r="AQ32" s="53"/>
+      <c r="AR32" s="54"/>
       <c r="AS32" s="2"/>
       <c r="AT32" s="1"/>
       <c r="AU32" s="1"/>
@@ -6751,20 +6746,20 @@
       <c r="DH32" s="1"/>
       <c r="DI32" s="1"/>
       <c r="DJ32" s="3"/>
-      <c r="DK32" s="48"/>
-      <c r="DL32" s="49"/>
-      <c r="DM32" s="49"/>
-      <c r="DN32" s="49"/>
-      <c r="DO32" s="49"/>
-      <c r="DP32" s="49"/>
-      <c r="DQ32" s="50"/>
-      <c r="DR32" s="48"/>
-      <c r="DS32" s="49"/>
-      <c r="DT32" s="49"/>
-      <c r="DU32" s="49"/>
-      <c r="DV32" s="49"/>
-      <c r="DW32" s="49"/>
-      <c r="DX32" s="50"/>
+      <c r="DK32" s="60"/>
+      <c r="DL32" s="61"/>
+      <c r="DM32" s="61"/>
+      <c r="DN32" s="61"/>
+      <c r="DO32" s="61"/>
+      <c r="DP32" s="61"/>
+      <c r="DQ32" s="62"/>
+      <c r="DR32" s="60"/>
+      <c r="DS32" s="61"/>
+      <c r="DT32" s="61"/>
+      <c r="DU32" s="61"/>
+      <c r="DV32" s="61"/>
+      <c r="DW32" s="61"/>
+      <c r="DX32" s="62"/>
       <c r="DY32" s="2"/>
       <c r="DZ32" s="1"/>
       <c r="EA32" s="1"/>
@@ -6781,10 +6776,10 @@
       <c r="EL32" s="3"/>
     </row>
     <row r="33" spans="1:142" ht="15" thickBot="1">
-      <c r="A33" s="68" t="s">
+      <c r="A33" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="25" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="2"/>
@@ -6822,13 +6817,13 @@
       <c r="AI33" s="1"/>
       <c r="AJ33" s="1"/>
       <c r="AK33" s="3"/>
-      <c r="AL33" s="57"/>
-      <c r="AM33" s="58"/>
-      <c r="AN33" s="58"/>
-      <c r="AO33" s="58"/>
-      <c r="AP33" s="58"/>
-      <c r="AQ33" s="58"/>
-      <c r="AR33" s="59"/>
+      <c r="AL33" s="52"/>
+      <c r="AM33" s="53"/>
+      <c r="AN33" s="53"/>
+      <c r="AO33" s="53"/>
+      <c r="AP33" s="53"/>
+      <c r="AQ33" s="53"/>
+      <c r="AR33" s="54"/>
       <c r="AS33" s="2"/>
       <c r="AT33" s="1"/>
       <c r="AU33" s="1"/>
@@ -6899,20 +6894,20 @@
       <c r="DH33" s="1"/>
       <c r="DI33" s="1"/>
       <c r="DJ33" s="3"/>
-      <c r="DK33" s="48"/>
-      <c r="DL33" s="49"/>
-      <c r="DM33" s="49"/>
-      <c r="DN33" s="49"/>
-      <c r="DO33" s="49"/>
-      <c r="DP33" s="49"/>
-      <c r="DQ33" s="50"/>
-      <c r="DR33" s="48"/>
-      <c r="DS33" s="49"/>
-      <c r="DT33" s="49"/>
-      <c r="DU33" s="49"/>
-      <c r="DV33" s="49"/>
-      <c r="DW33" s="49"/>
-      <c r="DX33" s="50"/>
+      <c r="DK33" s="60"/>
+      <c r="DL33" s="61"/>
+      <c r="DM33" s="61"/>
+      <c r="DN33" s="61"/>
+      <c r="DO33" s="61"/>
+      <c r="DP33" s="61"/>
+      <c r="DQ33" s="62"/>
+      <c r="DR33" s="60"/>
+      <c r="DS33" s="61"/>
+      <c r="DT33" s="61"/>
+      <c r="DU33" s="61"/>
+      <c r="DV33" s="61"/>
+      <c r="DW33" s="61"/>
+      <c r="DX33" s="62"/>
       <c r="DY33" s="2"/>
       <c r="DZ33" s="1"/>
       <c r="EA33" s="1"/>
@@ -6921,7 +6916,7 @@
       <c r="ED33" s="1"/>
       <c r="EE33" s="3"/>
       <c r="EF33" s="2"/>
-      <c r="EG33" s="40">
+      <c r="EG33" s="26">
         <v>0.5</v>
       </c>
       <c r="EH33" s="1"/>
@@ -6931,8 +6926,8 @@
       <c r="EL33" s="3"/>
     </row>
     <row r="34" spans="1:142" ht="15" thickBot="1">
-      <c r="A34" s="72"/>
-      <c r="B34" s="36" t="s">
+      <c r="A34" s="38"/>
+      <c r="B34" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="2"/>
@@ -6970,13 +6965,13 @@
       <c r="AI34" s="1"/>
       <c r="AJ34" s="1"/>
       <c r="AK34" s="3"/>
-      <c r="AL34" s="57"/>
-      <c r="AM34" s="58"/>
-      <c r="AN34" s="58"/>
-      <c r="AO34" s="58"/>
-      <c r="AP34" s="58"/>
-      <c r="AQ34" s="58"/>
-      <c r="AR34" s="59"/>
+      <c r="AL34" s="52"/>
+      <c r="AM34" s="53"/>
+      <c r="AN34" s="53"/>
+      <c r="AO34" s="53"/>
+      <c r="AP34" s="53"/>
+      <c r="AQ34" s="53"/>
+      <c r="AR34" s="54"/>
       <c r="AS34" s="2"/>
       <c r="AT34" s="1"/>
       <c r="AU34" s="1"/>
@@ -7047,20 +7042,20 @@
       <c r="DH34" s="1"/>
       <c r="DI34" s="1"/>
       <c r="DJ34" s="3"/>
-      <c r="DK34" s="48"/>
-      <c r="DL34" s="49"/>
-      <c r="DM34" s="49"/>
-      <c r="DN34" s="49"/>
-      <c r="DO34" s="49"/>
-      <c r="DP34" s="49"/>
-      <c r="DQ34" s="50"/>
-      <c r="DR34" s="48"/>
-      <c r="DS34" s="49"/>
-      <c r="DT34" s="49"/>
-      <c r="DU34" s="49"/>
-      <c r="DV34" s="49"/>
-      <c r="DW34" s="49"/>
-      <c r="DX34" s="50"/>
+      <c r="DK34" s="60"/>
+      <c r="DL34" s="61"/>
+      <c r="DM34" s="61"/>
+      <c r="DN34" s="61"/>
+      <c r="DO34" s="61"/>
+      <c r="DP34" s="61"/>
+      <c r="DQ34" s="62"/>
+      <c r="DR34" s="60"/>
+      <c r="DS34" s="61"/>
+      <c r="DT34" s="61"/>
+      <c r="DU34" s="61"/>
+      <c r="DV34" s="61"/>
+      <c r="DW34" s="61"/>
+      <c r="DX34" s="62"/>
       <c r="DY34" s="2"/>
       <c r="DZ34" s="1"/>
       <c r="EA34" s="1"/>
@@ -7077,8 +7072,8 @@
       <c r="EL34" s="3"/>
     </row>
     <row r="35" spans="1:142" ht="15" thickBot="1">
-      <c r="A35" s="19"/>
-      <c r="B35" s="37" t="s">
+      <c r="A35" s="32"/>
+      <c r="B35" s="25" t="s">
         <v>31</v>
       </c>
       <c r="C35" s="2"/>
@@ -7116,13 +7111,13 @@
       <c r="AI35" s="1"/>
       <c r="AJ35" s="1"/>
       <c r="AK35" s="3"/>
-      <c r="AL35" s="57"/>
-      <c r="AM35" s="58"/>
-      <c r="AN35" s="58"/>
-      <c r="AO35" s="58"/>
-      <c r="AP35" s="58"/>
-      <c r="AQ35" s="58"/>
-      <c r="AR35" s="59"/>
+      <c r="AL35" s="52"/>
+      <c r="AM35" s="53"/>
+      <c r="AN35" s="53"/>
+      <c r="AO35" s="53"/>
+      <c r="AP35" s="53"/>
+      <c r="AQ35" s="53"/>
+      <c r="AR35" s="54"/>
       <c r="AS35" s="2"/>
       <c r="AT35" s="1"/>
       <c r="AU35" s="1"/>
@@ -7193,20 +7188,20 @@
       <c r="DH35" s="1"/>
       <c r="DI35" s="1"/>
       <c r="DJ35" s="3"/>
-      <c r="DK35" s="48"/>
-      <c r="DL35" s="49"/>
-      <c r="DM35" s="49"/>
-      <c r="DN35" s="49"/>
-      <c r="DO35" s="49"/>
-      <c r="DP35" s="49"/>
-      <c r="DQ35" s="50"/>
-      <c r="DR35" s="48"/>
-      <c r="DS35" s="49"/>
-      <c r="DT35" s="49"/>
-      <c r="DU35" s="49"/>
-      <c r="DV35" s="49"/>
-      <c r="DW35" s="49"/>
-      <c r="DX35" s="50"/>
+      <c r="DK35" s="60"/>
+      <c r="DL35" s="61"/>
+      <c r="DM35" s="61"/>
+      <c r="DN35" s="61"/>
+      <c r="DO35" s="61"/>
+      <c r="DP35" s="61"/>
+      <c r="DQ35" s="62"/>
+      <c r="DR35" s="60"/>
+      <c r="DS35" s="61"/>
+      <c r="DT35" s="61"/>
+      <c r="DU35" s="61"/>
+      <c r="DV35" s="61"/>
+      <c r="DW35" s="61"/>
+      <c r="DX35" s="62"/>
       <c r="DY35" s="2"/>
       <c r="DZ35" s="1"/>
       <c r="EA35" s="1"/>
@@ -7223,8 +7218,8 @@
       <c r="EL35" s="3"/>
     </row>
     <row r="36" spans="1:142" ht="15" thickBot="1">
-      <c r="A36" s="20"/>
-      <c r="B36" s="36" t="s">
+      <c r="A36" s="33"/>
+      <c r="B36" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="2"/>
@@ -7262,13 +7257,13 @@
       <c r="AI36" s="1"/>
       <c r="AJ36" s="1"/>
       <c r="AK36" s="3"/>
-      <c r="AL36" s="57"/>
-      <c r="AM36" s="58"/>
-      <c r="AN36" s="58"/>
-      <c r="AO36" s="58"/>
-      <c r="AP36" s="58"/>
-      <c r="AQ36" s="58"/>
-      <c r="AR36" s="59"/>
+      <c r="AL36" s="52"/>
+      <c r="AM36" s="53"/>
+      <c r="AN36" s="53"/>
+      <c r="AO36" s="53"/>
+      <c r="AP36" s="53"/>
+      <c r="AQ36" s="53"/>
+      <c r="AR36" s="54"/>
       <c r="AS36" s="2"/>
       <c r="AT36" s="1"/>
       <c r="AU36" s="1"/>
@@ -7339,20 +7334,20 @@
       <c r="DH36" s="1"/>
       <c r="DI36" s="1"/>
       <c r="DJ36" s="3"/>
-      <c r="DK36" s="48"/>
-      <c r="DL36" s="49"/>
-      <c r="DM36" s="49"/>
-      <c r="DN36" s="49"/>
-      <c r="DO36" s="49"/>
-      <c r="DP36" s="49"/>
-      <c r="DQ36" s="50"/>
-      <c r="DR36" s="48"/>
-      <c r="DS36" s="49"/>
-      <c r="DT36" s="49"/>
-      <c r="DU36" s="49"/>
-      <c r="DV36" s="49"/>
-      <c r="DW36" s="49"/>
-      <c r="DX36" s="50"/>
+      <c r="DK36" s="60"/>
+      <c r="DL36" s="61"/>
+      <c r="DM36" s="61"/>
+      <c r="DN36" s="61"/>
+      <c r="DO36" s="61"/>
+      <c r="DP36" s="61"/>
+      <c r="DQ36" s="62"/>
+      <c r="DR36" s="60"/>
+      <c r="DS36" s="61"/>
+      <c r="DT36" s="61"/>
+      <c r="DU36" s="61"/>
+      <c r="DV36" s="61"/>
+      <c r="DW36" s="61"/>
+      <c r="DX36" s="62"/>
       <c r="DY36" s="2"/>
       <c r="DZ36" s="1"/>
       <c r="EA36" s="1"/>
@@ -7369,8 +7364,8 @@
       <c r="EL36" s="3"/>
     </row>
     <row r="37" spans="1:142" ht="15" thickBot="1">
-      <c r="A37" s="19"/>
-      <c r="B37" s="37" t="s">
+      <c r="A37" s="32"/>
+      <c r="B37" s="25" t="s">
         <v>31</v>
       </c>
       <c r="C37" s="2"/>
@@ -7408,13 +7403,13 @@
       <c r="AI37" s="1"/>
       <c r="AJ37" s="1"/>
       <c r="AK37" s="3"/>
-      <c r="AL37" s="57"/>
-      <c r="AM37" s="58"/>
-      <c r="AN37" s="58"/>
-      <c r="AO37" s="58"/>
-      <c r="AP37" s="58"/>
-      <c r="AQ37" s="58"/>
-      <c r="AR37" s="59"/>
+      <c r="AL37" s="52"/>
+      <c r="AM37" s="53"/>
+      <c r="AN37" s="53"/>
+      <c r="AO37" s="53"/>
+      <c r="AP37" s="53"/>
+      <c r="AQ37" s="53"/>
+      <c r="AR37" s="54"/>
       <c r="AS37" s="2"/>
       <c r="AT37" s="1"/>
       <c r="AU37" s="1"/>
@@ -7485,20 +7480,20 @@
       <c r="DH37" s="1"/>
       <c r="DI37" s="1"/>
       <c r="DJ37" s="3"/>
-      <c r="DK37" s="48"/>
-      <c r="DL37" s="49"/>
-      <c r="DM37" s="49"/>
-      <c r="DN37" s="49"/>
-      <c r="DO37" s="49"/>
-      <c r="DP37" s="49"/>
-      <c r="DQ37" s="50"/>
-      <c r="DR37" s="48"/>
-      <c r="DS37" s="49"/>
-      <c r="DT37" s="49"/>
-      <c r="DU37" s="49"/>
-      <c r="DV37" s="49"/>
-      <c r="DW37" s="49"/>
-      <c r="DX37" s="50"/>
+      <c r="DK37" s="60"/>
+      <c r="DL37" s="61"/>
+      <c r="DM37" s="61"/>
+      <c r="DN37" s="61"/>
+      <c r="DO37" s="61"/>
+      <c r="DP37" s="61"/>
+      <c r="DQ37" s="62"/>
+      <c r="DR37" s="60"/>
+      <c r="DS37" s="61"/>
+      <c r="DT37" s="61"/>
+      <c r="DU37" s="61"/>
+      <c r="DV37" s="61"/>
+      <c r="DW37" s="61"/>
+      <c r="DX37" s="62"/>
       <c r="DY37" s="2"/>
       <c r="DZ37" s="1"/>
       <c r="EA37" s="1"/>
@@ -7515,8 +7510,8 @@
       <c r="EL37" s="3"/>
     </row>
     <row r="38" spans="1:142" ht="15" thickBot="1">
-      <c r="A38" s="20"/>
-      <c r="B38" s="36" t="s">
+      <c r="A38" s="33"/>
+      <c r="B38" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C38" s="2"/>
@@ -7554,13 +7549,13 @@
       <c r="AI38" s="1"/>
       <c r="AJ38" s="1"/>
       <c r="AK38" s="3"/>
-      <c r="AL38" s="57"/>
-      <c r="AM38" s="58"/>
-      <c r="AN38" s="58"/>
-      <c r="AO38" s="58"/>
-      <c r="AP38" s="58"/>
-      <c r="AQ38" s="58"/>
-      <c r="AR38" s="59"/>
+      <c r="AL38" s="52"/>
+      <c r="AM38" s="53"/>
+      <c r="AN38" s="53"/>
+      <c r="AO38" s="53"/>
+      <c r="AP38" s="53"/>
+      <c r="AQ38" s="53"/>
+      <c r="AR38" s="54"/>
       <c r="AS38" s="2"/>
       <c r="AT38" s="1"/>
       <c r="AU38" s="1"/>
@@ -7631,20 +7626,20 @@
       <c r="DH38" s="1"/>
       <c r="DI38" s="1"/>
       <c r="DJ38" s="3"/>
-      <c r="DK38" s="48"/>
-      <c r="DL38" s="49"/>
-      <c r="DM38" s="49"/>
-      <c r="DN38" s="49"/>
-      <c r="DO38" s="49"/>
-      <c r="DP38" s="49"/>
-      <c r="DQ38" s="50"/>
-      <c r="DR38" s="48"/>
-      <c r="DS38" s="49"/>
-      <c r="DT38" s="49"/>
-      <c r="DU38" s="49"/>
-      <c r="DV38" s="49"/>
-      <c r="DW38" s="49"/>
-      <c r="DX38" s="50"/>
+      <c r="DK38" s="60"/>
+      <c r="DL38" s="61"/>
+      <c r="DM38" s="61"/>
+      <c r="DN38" s="61"/>
+      <c r="DO38" s="61"/>
+      <c r="DP38" s="61"/>
+      <c r="DQ38" s="62"/>
+      <c r="DR38" s="60"/>
+      <c r="DS38" s="61"/>
+      <c r="DT38" s="61"/>
+      <c r="DU38" s="61"/>
+      <c r="DV38" s="61"/>
+      <c r="DW38" s="61"/>
+      <c r="DX38" s="62"/>
       <c r="DY38" s="2"/>
       <c r="DZ38" s="1"/>
       <c r="EA38" s="1"/>
@@ -7661,8 +7656,8 @@
       <c r="EL38" s="3"/>
     </row>
     <row r="39" spans="1:142" ht="15" thickBot="1">
-      <c r="A39" s="19"/>
-      <c r="B39" s="37" t="s">
+      <c r="A39" s="32"/>
+      <c r="B39" s="25" t="s">
         <v>31</v>
       </c>
       <c r="C39" s="2"/>
@@ -7700,13 +7695,13 @@
       <c r="AI39" s="1"/>
       <c r="AJ39" s="1"/>
       <c r="AK39" s="3"/>
-      <c r="AL39" s="57"/>
-      <c r="AM39" s="58"/>
-      <c r="AN39" s="58"/>
-      <c r="AO39" s="58"/>
-      <c r="AP39" s="58"/>
-      <c r="AQ39" s="58"/>
-      <c r="AR39" s="59"/>
+      <c r="AL39" s="52"/>
+      <c r="AM39" s="53"/>
+      <c r="AN39" s="53"/>
+      <c r="AO39" s="53"/>
+      <c r="AP39" s="53"/>
+      <c r="AQ39" s="53"/>
+      <c r="AR39" s="54"/>
       <c r="AS39" s="2"/>
       <c r="AT39" s="1"/>
       <c r="AU39" s="1"/>
@@ -7777,20 +7772,20 @@
       <c r="DH39" s="1"/>
       <c r="DI39" s="1"/>
       <c r="DJ39" s="3"/>
-      <c r="DK39" s="48"/>
-      <c r="DL39" s="49"/>
-      <c r="DM39" s="49"/>
-      <c r="DN39" s="49"/>
-      <c r="DO39" s="49"/>
-      <c r="DP39" s="49"/>
-      <c r="DQ39" s="50"/>
-      <c r="DR39" s="48"/>
-      <c r="DS39" s="49"/>
-      <c r="DT39" s="49"/>
-      <c r="DU39" s="49"/>
-      <c r="DV39" s="49"/>
-      <c r="DW39" s="49"/>
-      <c r="DX39" s="50"/>
+      <c r="DK39" s="60"/>
+      <c r="DL39" s="61"/>
+      <c r="DM39" s="61"/>
+      <c r="DN39" s="61"/>
+      <c r="DO39" s="61"/>
+      <c r="DP39" s="61"/>
+      <c r="DQ39" s="62"/>
+      <c r="DR39" s="60"/>
+      <c r="DS39" s="61"/>
+      <c r="DT39" s="61"/>
+      <c r="DU39" s="61"/>
+      <c r="DV39" s="61"/>
+      <c r="DW39" s="61"/>
+      <c r="DX39" s="62"/>
       <c r="DY39" s="2"/>
       <c r="DZ39" s="1"/>
       <c r="EA39" s="1"/>
@@ -7807,8 +7802,8 @@
       <c r="EL39" s="3"/>
     </row>
     <row r="40" spans="1:142" ht="15" thickBot="1">
-      <c r="A40" s="20"/>
-      <c r="B40" s="36" t="s">
+      <c r="A40" s="33"/>
+      <c r="B40" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C40" s="2"/>
@@ -7846,13 +7841,13 @@
       <c r="AI40" s="1"/>
       <c r="AJ40" s="1"/>
       <c r="AK40" s="3"/>
-      <c r="AL40" s="57"/>
-      <c r="AM40" s="58"/>
-      <c r="AN40" s="58"/>
-      <c r="AO40" s="58"/>
-      <c r="AP40" s="58"/>
-      <c r="AQ40" s="58"/>
-      <c r="AR40" s="59"/>
+      <c r="AL40" s="52"/>
+      <c r="AM40" s="53"/>
+      <c r="AN40" s="53"/>
+      <c r="AO40" s="53"/>
+      <c r="AP40" s="53"/>
+      <c r="AQ40" s="53"/>
+      <c r="AR40" s="54"/>
       <c r="AS40" s="2"/>
       <c r="AT40" s="1"/>
       <c r="AU40" s="1"/>
@@ -7923,20 +7918,20 @@
       <c r="DH40" s="1"/>
       <c r="DI40" s="1"/>
       <c r="DJ40" s="3"/>
-      <c r="DK40" s="48"/>
-      <c r="DL40" s="49"/>
-      <c r="DM40" s="49"/>
-      <c r="DN40" s="49"/>
-      <c r="DO40" s="49"/>
-      <c r="DP40" s="49"/>
-      <c r="DQ40" s="50"/>
-      <c r="DR40" s="48"/>
-      <c r="DS40" s="49"/>
-      <c r="DT40" s="49"/>
-      <c r="DU40" s="49"/>
-      <c r="DV40" s="49"/>
-      <c r="DW40" s="49"/>
-      <c r="DX40" s="50"/>
+      <c r="DK40" s="60"/>
+      <c r="DL40" s="61"/>
+      <c r="DM40" s="61"/>
+      <c r="DN40" s="61"/>
+      <c r="DO40" s="61"/>
+      <c r="DP40" s="61"/>
+      <c r="DQ40" s="62"/>
+      <c r="DR40" s="60"/>
+      <c r="DS40" s="61"/>
+      <c r="DT40" s="61"/>
+      <c r="DU40" s="61"/>
+      <c r="DV40" s="61"/>
+      <c r="DW40" s="61"/>
+      <c r="DX40" s="62"/>
       <c r="DY40" s="2"/>
       <c r="DZ40" s="1"/>
       <c r="EA40" s="1"/>
@@ -7953,10 +7948,10 @@
       <c r="EL40" s="3"/>
     </row>
     <row r="41" spans="1:142" ht="15" thickBot="1">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="B41" s="37" t="s">
+      <c r="B41" s="25" t="s">
         <v>31</v>
       </c>
       <c r="C41" s="2"/>
@@ -7994,13 +7989,13 @@
       <c r="AI41" s="1"/>
       <c r="AJ41" s="1"/>
       <c r="AK41" s="3"/>
-      <c r="AL41" s="57"/>
-      <c r="AM41" s="58"/>
-      <c r="AN41" s="58"/>
-      <c r="AO41" s="58"/>
-      <c r="AP41" s="58"/>
-      <c r="AQ41" s="58"/>
-      <c r="AR41" s="59"/>
+      <c r="AL41" s="52"/>
+      <c r="AM41" s="53"/>
+      <c r="AN41" s="53"/>
+      <c r="AO41" s="53"/>
+      <c r="AP41" s="53"/>
+      <c r="AQ41" s="53"/>
+      <c r="AR41" s="54"/>
       <c r="AS41" s="2"/>
       <c r="AT41" s="1"/>
       <c r="AU41" s="1"/>
@@ -8071,20 +8066,20 @@
       <c r="DH41" s="1"/>
       <c r="DI41" s="1"/>
       <c r="DJ41" s="3"/>
-      <c r="DK41" s="48"/>
-      <c r="DL41" s="49"/>
-      <c r="DM41" s="49"/>
-      <c r="DN41" s="49"/>
-      <c r="DO41" s="49"/>
-      <c r="DP41" s="49"/>
-      <c r="DQ41" s="50"/>
-      <c r="DR41" s="48"/>
-      <c r="DS41" s="49"/>
-      <c r="DT41" s="49"/>
-      <c r="DU41" s="49"/>
-      <c r="DV41" s="49"/>
-      <c r="DW41" s="49"/>
-      <c r="DX41" s="50"/>
+      <c r="DK41" s="60"/>
+      <c r="DL41" s="61"/>
+      <c r="DM41" s="61"/>
+      <c r="DN41" s="61"/>
+      <c r="DO41" s="61"/>
+      <c r="DP41" s="61"/>
+      <c r="DQ41" s="62"/>
+      <c r="DR41" s="60"/>
+      <c r="DS41" s="61"/>
+      <c r="DT41" s="61"/>
+      <c r="DU41" s="61"/>
+      <c r="DV41" s="61"/>
+      <c r="DW41" s="61"/>
+      <c r="DX41" s="62"/>
       <c r="DY41" s="2"/>
       <c r="DZ41" s="1"/>
       <c r="EA41" s="1"/>
@@ -8101,8 +8096,8 @@
       <c r="EL41" s="3"/>
     </row>
     <row r="42" spans="1:142" ht="15" thickBot="1">
-      <c r="A42" s="20"/>
-      <c r="B42" s="36" t="s">
+      <c r="A42" s="33"/>
+      <c r="B42" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C42" s="2"/>
@@ -8140,13 +8135,13 @@
       <c r="AI42" s="1"/>
       <c r="AJ42" s="1"/>
       <c r="AK42" s="3"/>
-      <c r="AL42" s="57"/>
-      <c r="AM42" s="58"/>
-      <c r="AN42" s="58"/>
-      <c r="AO42" s="58"/>
-      <c r="AP42" s="58"/>
-      <c r="AQ42" s="58"/>
-      <c r="AR42" s="59"/>
+      <c r="AL42" s="52"/>
+      <c r="AM42" s="53"/>
+      <c r="AN42" s="53"/>
+      <c r="AO42" s="53"/>
+      <c r="AP42" s="53"/>
+      <c r="AQ42" s="53"/>
+      <c r="AR42" s="54"/>
       <c r="AS42" s="2"/>
       <c r="AT42" s="1"/>
       <c r="AU42" s="1"/>
@@ -8217,20 +8212,20 @@
       <c r="DH42" s="1"/>
       <c r="DI42" s="1"/>
       <c r="DJ42" s="3"/>
-      <c r="DK42" s="48"/>
-      <c r="DL42" s="49"/>
-      <c r="DM42" s="49"/>
-      <c r="DN42" s="49"/>
-      <c r="DO42" s="49"/>
-      <c r="DP42" s="49"/>
-      <c r="DQ42" s="50"/>
-      <c r="DR42" s="48"/>
-      <c r="DS42" s="49"/>
-      <c r="DT42" s="49"/>
-      <c r="DU42" s="49"/>
-      <c r="DV42" s="49"/>
-      <c r="DW42" s="49"/>
-      <c r="DX42" s="50"/>
+      <c r="DK42" s="60"/>
+      <c r="DL42" s="61"/>
+      <c r="DM42" s="61"/>
+      <c r="DN42" s="61"/>
+      <c r="DO42" s="61"/>
+      <c r="DP42" s="61"/>
+      <c r="DQ42" s="62"/>
+      <c r="DR42" s="60"/>
+      <c r="DS42" s="61"/>
+      <c r="DT42" s="61"/>
+      <c r="DU42" s="61"/>
+      <c r="DV42" s="61"/>
+      <c r="DW42" s="61"/>
+      <c r="DX42" s="62"/>
       <c r="DY42" s="2"/>
       <c r="DZ42" s="1"/>
       <c r="EA42" s="1"/>
@@ -8247,10 +8242,10 @@
       <c r="EL42" s="3"/>
     </row>
     <row r="43" spans="1:142" ht="15" thickBot="1">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="B43" s="37" t="s">
+      <c r="B43" s="25" t="s">
         <v>31</v>
       </c>
       <c r="C43" s="2"/>
@@ -8288,13 +8283,13 @@
       <c r="AI43" s="1"/>
       <c r="AJ43" s="1"/>
       <c r="AK43" s="3"/>
-      <c r="AL43" s="57"/>
-      <c r="AM43" s="58"/>
-      <c r="AN43" s="58"/>
-      <c r="AO43" s="58"/>
-      <c r="AP43" s="58"/>
-      <c r="AQ43" s="58"/>
-      <c r="AR43" s="59"/>
+      <c r="AL43" s="52"/>
+      <c r="AM43" s="53"/>
+      <c r="AN43" s="53"/>
+      <c r="AO43" s="53"/>
+      <c r="AP43" s="53"/>
+      <c r="AQ43" s="53"/>
+      <c r="AR43" s="54"/>
       <c r="AS43" s="2"/>
       <c r="AT43" s="1"/>
       <c r="AU43" s="1"/>
@@ -8365,20 +8360,20 @@
       <c r="DH43" s="1"/>
       <c r="DI43" s="1"/>
       <c r="DJ43" s="3"/>
-      <c r="DK43" s="48"/>
-      <c r="DL43" s="49"/>
-      <c r="DM43" s="49"/>
-      <c r="DN43" s="49"/>
-      <c r="DO43" s="49"/>
-      <c r="DP43" s="49"/>
-      <c r="DQ43" s="50"/>
-      <c r="DR43" s="48"/>
-      <c r="DS43" s="49"/>
-      <c r="DT43" s="49"/>
-      <c r="DU43" s="49"/>
-      <c r="DV43" s="49"/>
-      <c r="DW43" s="49"/>
-      <c r="DX43" s="50"/>
+      <c r="DK43" s="60"/>
+      <c r="DL43" s="61"/>
+      <c r="DM43" s="61"/>
+      <c r="DN43" s="61"/>
+      <c r="DO43" s="61"/>
+      <c r="DP43" s="61"/>
+      <c r="DQ43" s="62"/>
+      <c r="DR43" s="60"/>
+      <c r="DS43" s="61"/>
+      <c r="DT43" s="61"/>
+      <c r="DU43" s="61"/>
+      <c r="DV43" s="61"/>
+      <c r="DW43" s="61"/>
+      <c r="DX43" s="62"/>
       <c r="DY43" s="2"/>
       <c r="DZ43" s="1"/>
       <c r="EA43" s="1"/>
@@ -8395,8 +8390,8 @@
       <c r="EL43" s="3"/>
     </row>
     <row r="44" spans="1:142" ht="15" thickBot="1">
-      <c r="A44" s="20"/>
-      <c r="B44" s="36" t="s">
+      <c r="A44" s="33"/>
+      <c r="B44" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C44" s="2"/>
@@ -8434,13 +8429,13 @@
       <c r="AI44" s="1"/>
       <c r="AJ44" s="1"/>
       <c r="AK44" s="3"/>
-      <c r="AL44" s="57"/>
-      <c r="AM44" s="58"/>
-      <c r="AN44" s="58"/>
-      <c r="AO44" s="58"/>
-      <c r="AP44" s="58"/>
-      <c r="AQ44" s="58"/>
-      <c r="AR44" s="59"/>
+      <c r="AL44" s="52"/>
+      <c r="AM44" s="53"/>
+      <c r="AN44" s="53"/>
+      <c r="AO44" s="53"/>
+      <c r="AP44" s="53"/>
+      <c r="AQ44" s="53"/>
+      <c r="AR44" s="54"/>
       <c r="AS44" s="2"/>
       <c r="AT44" s="1"/>
       <c r="AU44" s="1"/>
@@ -8511,20 +8506,20 @@
       <c r="DH44" s="1"/>
       <c r="DI44" s="1"/>
       <c r="DJ44" s="3"/>
-      <c r="DK44" s="48"/>
-      <c r="DL44" s="49"/>
-      <c r="DM44" s="49"/>
-      <c r="DN44" s="49"/>
-      <c r="DO44" s="49"/>
-      <c r="DP44" s="49"/>
-      <c r="DQ44" s="50"/>
-      <c r="DR44" s="48"/>
-      <c r="DS44" s="49"/>
-      <c r="DT44" s="49"/>
-      <c r="DU44" s="49"/>
-      <c r="DV44" s="49"/>
-      <c r="DW44" s="49"/>
-      <c r="DX44" s="50"/>
+      <c r="DK44" s="60"/>
+      <c r="DL44" s="61"/>
+      <c r="DM44" s="61"/>
+      <c r="DN44" s="61"/>
+      <c r="DO44" s="61"/>
+      <c r="DP44" s="61"/>
+      <c r="DQ44" s="62"/>
+      <c r="DR44" s="60"/>
+      <c r="DS44" s="61"/>
+      <c r="DT44" s="61"/>
+      <c r="DU44" s="61"/>
+      <c r="DV44" s="61"/>
+      <c r="DW44" s="61"/>
+      <c r="DX44" s="62"/>
       <c r="DY44" s="2"/>
       <c r="DZ44" s="1"/>
       <c r="EA44" s="1"/>
@@ -8541,8 +8536,8 @@
       <c r="EL44" s="3"/>
     </row>
     <row r="45" spans="1:142" ht="15" thickBot="1">
-      <c r="A45" s="38"/>
-      <c r="B45" s="37" t="s">
+      <c r="A45" s="34"/>
+      <c r="B45" s="25" t="s">
         <v>31</v>
       </c>
       <c r="C45" s="2"/>
@@ -8580,13 +8575,13 @@
       <c r="AI45" s="1"/>
       <c r="AJ45" s="1"/>
       <c r="AK45" s="3"/>
-      <c r="AL45" s="57"/>
-      <c r="AM45" s="58"/>
-      <c r="AN45" s="58"/>
-      <c r="AO45" s="58"/>
-      <c r="AP45" s="58"/>
-      <c r="AQ45" s="58"/>
-      <c r="AR45" s="59"/>
+      <c r="AL45" s="52"/>
+      <c r="AM45" s="53"/>
+      <c r="AN45" s="53"/>
+      <c r="AO45" s="53"/>
+      <c r="AP45" s="53"/>
+      <c r="AQ45" s="53"/>
+      <c r="AR45" s="54"/>
       <c r="AS45" s="2"/>
       <c r="AT45" s="1"/>
       <c r="AU45" s="1"/>
@@ -8657,20 +8652,20 @@
       <c r="DH45" s="1"/>
       <c r="DI45" s="1"/>
       <c r="DJ45" s="3"/>
-      <c r="DK45" s="48"/>
-      <c r="DL45" s="49"/>
-      <c r="DM45" s="49"/>
-      <c r="DN45" s="49"/>
-      <c r="DO45" s="49"/>
-      <c r="DP45" s="49"/>
-      <c r="DQ45" s="50"/>
-      <c r="DR45" s="48"/>
-      <c r="DS45" s="49"/>
-      <c r="DT45" s="49"/>
-      <c r="DU45" s="49"/>
-      <c r="DV45" s="49"/>
-      <c r="DW45" s="49"/>
-      <c r="DX45" s="50"/>
+      <c r="DK45" s="60"/>
+      <c r="DL45" s="61"/>
+      <c r="DM45" s="61"/>
+      <c r="DN45" s="61"/>
+      <c r="DO45" s="61"/>
+      <c r="DP45" s="61"/>
+      <c r="DQ45" s="62"/>
+      <c r="DR45" s="60"/>
+      <c r="DS45" s="61"/>
+      <c r="DT45" s="61"/>
+      <c r="DU45" s="61"/>
+      <c r="DV45" s="61"/>
+      <c r="DW45" s="61"/>
+      <c r="DX45" s="62"/>
       <c r="DY45" s="2"/>
       <c r="DZ45" s="1"/>
       <c r="EA45" s="1"/>
@@ -8679,7 +8674,7 @@
       <c r="ED45" s="1"/>
       <c r="EE45" s="3"/>
       <c r="EF45" s="2"/>
-      <c r="EG45" s="34"/>
+      <c r="EG45" s="1"/>
       <c r="EH45" s="1"/>
       <c r="EI45" s="1"/>
       <c r="EJ45" s="1"/>
@@ -8687,8 +8682,8 @@
       <c r="EL45" s="3"/>
     </row>
     <row r="46" spans="1:142" ht="15" thickBot="1">
-      <c r="A46" s="39"/>
-      <c r="B46" s="36" t="s">
+      <c r="A46" s="35"/>
+      <c r="B46" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C46" s="4"/>
@@ -8726,13 +8721,13 @@
       <c r="AI46" s="5"/>
       <c r="AJ46" s="5"/>
       <c r="AK46" s="6"/>
-      <c r="AL46" s="60"/>
-      <c r="AM46" s="61"/>
-      <c r="AN46" s="61"/>
-      <c r="AO46" s="61"/>
-      <c r="AP46" s="61"/>
-      <c r="AQ46" s="61"/>
-      <c r="AR46" s="62"/>
+      <c r="AL46" s="55"/>
+      <c r="AM46" s="56"/>
+      <c r="AN46" s="56"/>
+      <c r="AO46" s="56"/>
+      <c r="AP46" s="56"/>
+      <c r="AQ46" s="56"/>
+      <c r="AR46" s="57"/>
       <c r="AS46" s="4"/>
       <c r="AT46" s="5"/>
       <c r="AU46" s="5"/>
@@ -8803,20 +8798,20 @@
       <c r="DH46" s="5"/>
       <c r="DI46" s="5"/>
       <c r="DJ46" s="6"/>
-      <c r="DK46" s="51"/>
-      <c r="DL46" s="52"/>
-      <c r="DM46" s="52"/>
-      <c r="DN46" s="52"/>
-      <c r="DO46" s="52"/>
-      <c r="DP46" s="52"/>
-      <c r="DQ46" s="53"/>
-      <c r="DR46" s="51"/>
-      <c r="DS46" s="52"/>
-      <c r="DT46" s="52"/>
-      <c r="DU46" s="52"/>
-      <c r="DV46" s="52"/>
-      <c r="DW46" s="52"/>
-      <c r="DX46" s="53"/>
+      <c r="DK46" s="63"/>
+      <c r="DL46" s="64"/>
+      <c r="DM46" s="64"/>
+      <c r="DN46" s="64"/>
+      <c r="DO46" s="64"/>
+      <c r="DP46" s="64"/>
+      <c r="DQ46" s="65"/>
+      <c r="DR46" s="63"/>
+      <c r="DS46" s="64"/>
+      <c r="DT46" s="64"/>
+      <c r="DU46" s="64"/>
+      <c r="DV46" s="64"/>
+      <c r="DW46" s="64"/>
+      <c r="DX46" s="65"/>
       <c r="DY46" s="4"/>
       <c r="DZ46" s="5"/>
       <c r="EA46" s="5"/>
@@ -8832,33 +8827,20 @@
       <c r="EK46" s="5"/>
       <c r="EL46" s="6"/>
     </row>
-    <row r="47" spans="1:142">
-      <c r="A47" s="31"/>
-      <c r="B47" s="31"/>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="31"/>
-      <c r="B49" s="31"/>
-    </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="BU3:CA3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="Q3:W3"/>
+    <mergeCell ref="X3:AD3"/>
+    <mergeCell ref="AE3:AK3"/>
+    <mergeCell ref="AL3:AR3"/>
+    <mergeCell ref="AS3:AY3"/>
+    <mergeCell ref="AZ3:BF3"/>
+    <mergeCell ref="BG3:BM3"/>
+    <mergeCell ref="BN3:BT3"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="DR3:DX3"/>
     <mergeCell ref="DY3:EE3"/>
@@ -8875,18 +8857,23 @@
     <mergeCell ref="CW3:DC3"/>
     <mergeCell ref="DD3:DJ3"/>
     <mergeCell ref="DK3:DQ3"/>
-    <mergeCell ref="AL3:AR3"/>
-    <mergeCell ref="AS3:AY3"/>
-    <mergeCell ref="AZ3:BF3"/>
-    <mergeCell ref="BG3:BM3"/>
-    <mergeCell ref="BN3:BT3"/>
-    <mergeCell ref="BU3:CA3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="J3:P3"/>
-    <mergeCell ref="Q3:W3"/>
-    <mergeCell ref="X3:AD3"/>
-    <mergeCell ref="AE3:AK3"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8906,81 +8893,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="67"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="71">
         <v>1</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="71"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="21"/>
+      <c r="C5" s="67"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="72">
         <v>45524</v>
       </c>
-      <c r="C6" s="26"/>
+      <c r="C6" s="72"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="73">
         <v>45671</v>
       </c>
-      <c r="C7" s="27"/>
+      <c r="C7" s="73"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="21"/>
+      <c r="C8" s="67"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="22"/>
+      <c r="C10" s="68"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="9" t="s">
@@ -9019,7 +9006,7 @@
       <c r="A18" s="11">
         <v>3</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="11" t="s">
         <v>76</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -9157,7 +9144,7 @@
       <c r="A30" s="11">
         <v>15</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="11" t="s">
         <v>85</v>
       </c>
       <c r="C30" s="11" t="s">
@@ -9239,11 +9226,11 @@
       <c r="C38" s="11"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="69"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="9" t="s">

--- a/documentation/Marvin_AudioAnlage_Anforderungen_NoraHueppi_20240917.xlsx
+++ b/documentation/Marvin_AudioAnlage_Anforderungen_NoraHueppi_20240917.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\Schule\BuP\5_Semester\Marvin\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\Schule\BuP\5_Semester\Marvin\MarvinProject\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56FA5EE-3235-444F-A0BA-F766F118F8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222596FB-A639-49AC-A788-7FE2CF6654A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{5CC49039-70A6-4A49-B6FD-A7C35AB692E8}"/>
   </bookViews>
@@ -587,7 +587,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -1052,51 +1052,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -1293,7 +1248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1359,33 +1314,28 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1398,10 +1348,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1413,30 +1363,72 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1447,14 +1439,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1474,53 +1472,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1546,9 +1499,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2377,10 +2331,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:149" ht="21">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="108"/>
+      <c r="B1" s="74"/>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
@@ -2670,239 +2624,239 @@
       <c r="A3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="70">
+      <c r="B3" s="67">
         <f>SUM(C6:EL6,C8:EL8,C10:EL10,C12:EL12,C14:EL14,C16:EL16,C18:EL18,C20:EL20,C22:EL22,C24:EL24,C26:EL26,C28:EL28,C30:EL30,C32:EL32,C34:EL34,C36:EL36)</f>
         <v>121</v>
       </c>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="109" t="s">
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="102"/>
-      <c r="O3" s="102"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="101" t="s">
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="102"/>
-      <c r="S3" s="102"/>
-      <c r="T3" s="102"/>
-      <c r="U3" s="102"/>
-      <c r="V3" s="102"/>
-      <c r="W3" s="103"/>
-      <c r="X3" s="101" t="s">
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="Y3" s="102"/>
-      <c r="Z3" s="102"/>
-      <c r="AA3" s="102"/>
-      <c r="AB3" s="102"/>
-      <c r="AC3" s="102"/>
-      <c r="AD3" s="103"/>
-      <c r="AE3" s="101" t="s">
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="77"/>
+      <c r="AE3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="AF3" s="102"/>
-      <c r="AG3" s="102"/>
-      <c r="AH3" s="102"/>
-      <c r="AI3" s="102"/>
-      <c r="AJ3" s="102"/>
-      <c r="AK3" s="103"/>
-      <c r="AL3" s="101" t="s">
+      <c r="AF3" s="76"/>
+      <c r="AG3" s="76"/>
+      <c r="AH3" s="76"/>
+      <c r="AI3" s="76"/>
+      <c r="AJ3" s="76"/>
+      <c r="AK3" s="77"/>
+      <c r="AL3" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="AM3" s="102"/>
-      <c r="AN3" s="102"/>
-      <c r="AO3" s="102"/>
-      <c r="AP3" s="102"/>
-      <c r="AQ3" s="102"/>
-      <c r="AR3" s="103"/>
-      <c r="AS3" s="101" t="s">
+      <c r="AM3" s="76"/>
+      <c r="AN3" s="76"/>
+      <c r="AO3" s="76"/>
+      <c r="AP3" s="76"/>
+      <c r="AQ3" s="76"/>
+      <c r="AR3" s="77"/>
+      <c r="AS3" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="102"/>
-      <c r="AU3" s="102"/>
-      <c r="AV3" s="102"/>
-      <c r="AW3" s="102"/>
-      <c r="AX3" s="102"/>
-      <c r="AY3" s="103"/>
-      <c r="AZ3" s="101" t="s">
+      <c r="AT3" s="76"/>
+      <c r="AU3" s="76"/>
+      <c r="AV3" s="76"/>
+      <c r="AW3" s="76"/>
+      <c r="AX3" s="76"/>
+      <c r="AY3" s="77"/>
+      <c r="AZ3" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="BA3" s="102"/>
-      <c r="BB3" s="102"/>
-      <c r="BC3" s="102"/>
-      <c r="BD3" s="102"/>
-      <c r="BE3" s="102"/>
-      <c r="BF3" s="103"/>
-      <c r="BG3" s="101" t="s">
+      <c r="BA3" s="76"/>
+      <c r="BB3" s="76"/>
+      <c r="BC3" s="76"/>
+      <c r="BD3" s="76"/>
+      <c r="BE3" s="76"/>
+      <c r="BF3" s="77"/>
+      <c r="BG3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="BH3" s="102"/>
-      <c r="BI3" s="102"/>
-      <c r="BJ3" s="102"/>
-      <c r="BK3" s="102"/>
-      <c r="BL3" s="102"/>
-      <c r="BM3" s="103"/>
-      <c r="BN3" s="101" t="s">
+      <c r="BH3" s="76"/>
+      <c r="BI3" s="76"/>
+      <c r="BJ3" s="76"/>
+      <c r="BK3" s="76"/>
+      <c r="BL3" s="76"/>
+      <c r="BM3" s="77"/>
+      <c r="BN3" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="BO3" s="102"/>
-      <c r="BP3" s="102"/>
-      <c r="BQ3" s="102"/>
-      <c r="BR3" s="102"/>
-      <c r="BS3" s="102"/>
-      <c r="BT3" s="103"/>
-      <c r="BU3" s="101" t="s">
+      <c r="BO3" s="76"/>
+      <c r="BP3" s="76"/>
+      <c r="BQ3" s="76"/>
+      <c r="BR3" s="76"/>
+      <c r="BS3" s="76"/>
+      <c r="BT3" s="77"/>
+      <c r="BU3" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="BV3" s="102"/>
-      <c r="BW3" s="102"/>
-      <c r="BX3" s="102"/>
-      <c r="BY3" s="102"/>
-      <c r="BZ3" s="102"/>
-      <c r="CA3" s="103"/>
-      <c r="CB3" s="101" t="s">
+      <c r="BV3" s="76"/>
+      <c r="BW3" s="76"/>
+      <c r="BX3" s="76"/>
+      <c r="BY3" s="76"/>
+      <c r="BZ3" s="76"/>
+      <c r="CA3" s="77"/>
+      <c r="CB3" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="CC3" s="102"/>
-      <c r="CD3" s="102"/>
-      <c r="CE3" s="102"/>
-      <c r="CF3" s="102"/>
-      <c r="CG3" s="102"/>
-      <c r="CH3" s="103"/>
-      <c r="CI3" s="101" t="s">
+      <c r="CC3" s="76"/>
+      <c r="CD3" s="76"/>
+      <c r="CE3" s="76"/>
+      <c r="CF3" s="76"/>
+      <c r="CG3" s="76"/>
+      <c r="CH3" s="77"/>
+      <c r="CI3" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="CJ3" s="102"/>
-      <c r="CK3" s="102"/>
-      <c r="CL3" s="102"/>
-      <c r="CM3" s="102"/>
-      <c r="CN3" s="102"/>
-      <c r="CO3" s="103"/>
-      <c r="CP3" s="101" t="s">
+      <c r="CJ3" s="76"/>
+      <c r="CK3" s="76"/>
+      <c r="CL3" s="76"/>
+      <c r="CM3" s="76"/>
+      <c r="CN3" s="76"/>
+      <c r="CO3" s="77"/>
+      <c r="CP3" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="CQ3" s="102"/>
-      <c r="CR3" s="102"/>
-      <c r="CS3" s="102"/>
-      <c r="CT3" s="102"/>
-      <c r="CU3" s="102"/>
-      <c r="CV3" s="103"/>
-      <c r="CW3" s="101" t="s">
+      <c r="CQ3" s="76"/>
+      <c r="CR3" s="76"/>
+      <c r="CS3" s="76"/>
+      <c r="CT3" s="76"/>
+      <c r="CU3" s="76"/>
+      <c r="CV3" s="77"/>
+      <c r="CW3" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="CX3" s="102"/>
-      <c r="CY3" s="102"/>
-      <c r="CZ3" s="102"/>
-      <c r="DA3" s="102"/>
-      <c r="DB3" s="102"/>
-      <c r="DC3" s="103"/>
-      <c r="DD3" s="101" t="s">
+      <c r="CX3" s="76"/>
+      <c r="CY3" s="76"/>
+      <c r="CZ3" s="76"/>
+      <c r="DA3" s="76"/>
+      <c r="DB3" s="76"/>
+      <c r="DC3" s="77"/>
+      <c r="DD3" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="DE3" s="102"/>
-      <c r="DF3" s="102"/>
-      <c r="DG3" s="102"/>
-      <c r="DH3" s="102"/>
-      <c r="DI3" s="102"/>
-      <c r="DJ3" s="103"/>
-      <c r="DK3" s="101" t="s">
+      <c r="DE3" s="76"/>
+      <c r="DF3" s="76"/>
+      <c r="DG3" s="76"/>
+      <c r="DH3" s="76"/>
+      <c r="DI3" s="76"/>
+      <c r="DJ3" s="77"/>
+      <c r="DK3" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="DL3" s="102"/>
-      <c r="DM3" s="102"/>
-      <c r="DN3" s="102"/>
-      <c r="DO3" s="102"/>
-      <c r="DP3" s="102"/>
-      <c r="DQ3" s="103"/>
-      <c r="DR3" s="101" t="s">
+      <c r="DL3" s="76"/>
+      <c r="DM3" s="76"/>
+      <c r="DN3" s="76"/>
+      <c r="DO3" s="76"/>
+      <c r="DP3" s="76"/>
+      <c r="DQ3" s="77"/>
+      <c r="DR3" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="DS3" s="102"/>
-      <c r="DT3" s="102"/>
-      <c r="DU3" s="102"/>
-      <c r="DV3" s="102"/>
-      <c r="DW3" s="102"/>
-      <c r="DX3" s="103"/>
-      <c r="DY3" s="104" t="s">
+      <c r="DS3" s="76"/>
+      <c r="DT3" s="76"/>
+      <c r="DU3" s="76"/>
+      <c r="DV3" s="76"/>
+      <c r="DW3" s="76"/>
+      <c r="DX3" s="77"/>
+      <c r="DY3" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="DZ3" s="105"/>
-      <c r="EA3" s="105"/>
-      <c r="EB3" s="105"/>
-      <c r="EC3" s="105"/>
-      <c r="ED3" s="105"/>
-      <c r="EE3" s="106"/>
-      <c r="EF3" s="104" t="s">
+      <c r="DZ3" s="82"/>
+      <c r="EA3" s="82"/>
+      <c r="EB3" s="82"/>
+      <c r="EC3" s="82"/>
+      <c r="ED3" s="82"/>
+      <c r="EE3" s="83"/>
+      <c r="EF3" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="EG3" s="105"/>
-      <c r="EH3" s="105"/>
-      <c r="EI3" s="105"/>
-      <c r="EJ3" s="105"/>
-      <c r="EK3" s="105"/>
-      <c r="EL3" s="106"/>
+      <c r="EG3" s="82"/>
+      <c r="EH3" s="82"/>
+      <c r="EI3" s="82"/>
+      <c r="EJ3" s="82"/>
+      <c r="EK3" s="82"/>
+      <c r="EL3" s="83"/>
     </row>
     <row r="4" spans="1:149" ht="30.75" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="67">
+      <c r="B4" s="64">
         <f>SUM(C7:EL7,C9:EL9,C11:EL11,C13:EL13,C15:EL15,C17:EL17,C19:EL19,C21:EL21,C23:EL23,C25:EL25,C27:EL27,C29:EL29,C31:EL31,C33:EL33,C35:EL35,C37:EL37)</f>
         <v>33</v>
       </c>
       <c r="C4" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="73" t="s">
+      <c r="F4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="73" t="s">
+      <c r="G4" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="73" t="s">
+      <c r="I4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="71" t="s">
+      <c r="J4" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="72" t="s">
+      <c r="L4" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="72" t="s">
+      <c r="M4" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="72" t="s">
+      <c r="P4" s="69" t="s">
         <v>7</v>
       </c>
       <c r="Q4" s="35" t="s">
@@ -3285,156 +3239,156 @@
       </c>
     </row>
     <row r="5" spans="1:149" ht="19.5" thickBot="1">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="83"/>
-      <c r="T5" s="83"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
-      <c r="W5" s="84"/>
-      <c r="X5" s="82"/>
-      <c r="Y5" s="83"/>
-      <c r="Z5" s="83"/>
-      <c r="AA5" s="83"/>
-      <c r="AB5" s="83"/>
-      <c r="AC5" s="83"/>
-      <c r="AD5" s="84"/>
-      <c r="AE5" s="82"/>
-      <c r="AF5" s="83"/>
-      <c r="AG5" s="83"/>
-      <c r="AH5" s="83"/>
-      <c r="AI5" s="83"/>
-      <c r="AJ5" s="83"/>
-      <c r="AK5" s="84"/>
-      <c r="AL5" s="88" t="s">
+      <c r="B5" s="97"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="94"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="95"/>
+      <c r="X5" s="93"/>
+      <c r="Y5" s="94"/>
+      <c r="Z5" s="94"/>
+      <c r="AA5" s="94"/>
+      <c r="AB5" s="94"/>
+      <c r="AC5" s="94"/>
+      <c r="AD5" s="95"/>
+      <c r="AE5" s="93"/>
+      <c r="AF5" s="94"/>
+      <c r="AG5" s="94"/>
+      <c r="AH5" s="94"/>
+      <c r="AI5" s="94"/>
+      <c r="AJ5" s="94"/>
+      <c r="AK5" s="95"/>
+      <c r="AL5" s="101" t="s">
         <v>95</v>
       </c>
-      <c r="AM5" s="89"/>
-      <c r="AN5" s="89"/>
-      <c r="AO5" s="89"/>
-      <c r="AP5" s="89"/>
-      <c r="AQ5" s="89"/>
-      <c r="AR5" s="90"/>
-      <c r="AS5" s="82"/>
-      <c r="AT5" s="83"/>
-      <c r="AU5" s="83"/>
-      <c r="AV5" s="83"/>
-      <c r="AW5" s="83"/>
-      <c r="AX5" s="83"/>
-      <c r="AY5" s="84"/>
-      <c r="AZ5" s="82"/>
-      <c r="BA5" s="83"/>
-      <c r="BB5" s="83"/>
-      <c r="BC5" s="83"/>
-      <c r="BD5" s="83"/>
-      <c r="BE5" s="83"/>
-      <c r="BF5" s="84"/>
-      <c r="BG5" s="82"/>
-      <c r="BH5" s="83"/>
-      <c r="BI5" s="83"/>
-      <c r="BJ5" s="83"/>
-      <c r="BK5" s="83"/>
-      <c r="BL5" s="83"/>
-      <c r="BM5" s="84"/>
-      <c r="BN5" s="82"/>
-      <c r="BO5" s="83"/>
-      <c r="BP5" s="83"/>
-      <c r="BQ5" s="83"/>
-      <c r="BR5" s="83"/>
-      <c r="BS5" s="83"/>
-      <c r="BT5" s="84"/>
-      <c r="BU5" s="82"/>
-      <c r="BV5" s="83"/>
-      <c r="BW5" s="83"/>
-      <c r="BX5" s="83"/>
-      <c r="BY5" s="83"/>
-      <c r="BZ5" s="83"/>
-      <c r="CA5" s="84"/>
-      <c r="CB5" s="82"/>
-      <c r="CC5" s="83"/>
-      <c r="CD5" s="83"/>
-      <c r="CE5" s="83"/>
-      <c r="CF5" s="83"/>
-      <c r="CG5" s="83"/>
-      <c r="CH5" s="84"/>
-      <c r="CI5" s="82"/>
-      <c r="CJ5" s="83"/>
-      <c r="CK5" s="83"/>
-      <c r="CL5" s="83"/>
-      <c r="CM5" s="83"/>
-      <c r="CN5" s="83"/>
-      <c r="CO5" s="84"/>
-      <c r="CP5" s="82"/>
-      <c r="CQ5" s="83"/>
-      <c r="CR5" s="83"/>
-      <c r="CS5" s="83"/>
-      <c r="CT5" s="83"/>
-      <c r="CU5" s="83"/>
-      <c r="CV5" s="84"/>
-      <c r="CW5" s="82"/>
-      <c r="CX5" s="83"/>
-      <c r="CY5" s="83"/>
-      <c r="CZ5" s="83"/>
-      <c r="DA5" s="83"/>
-      <c r="DB5" s="83"/>
-      <c r="DC5" s="84"/>
-      <c r="DD5" s="82"/>
-      <c r="DE5" s="83"/>
-      <c r="DF5" s="83"/>
-      <c r="DG5" s="83"/>
-      <c r="DH5" s="83"/>
-      <c r="DI5" s="83"/>
-      <c r="DJ5" s="84"/>
-      <c r="DK5" s="85" t="s">
+      <c r="AM5" s="102"/>
+      <c r="AN5" s="102"/>
+      <c r="AO5" s="102"/>
+      <c r="AP5" s="102"/>
+      <c r="AQ5" s="102"/>
+      <c r="AR5" s="103"/>
+      <c r="AS5" s="93"/>
+      <c r="AT5" s="94"/>
+      <c r="AU5" s="94"/>
+      <c r="AV5" s="94"/>
+      <c r="AW5" s="94"/>
+      <c r="AX5" s="94"/>
+      <c r="AY5" s="95"/>
+      <c r="AZ5" s="93"/>
+      <c r="BA5" s="94"/>
+      <c r="BB5" s="94"/>
+      <c r="BC5" s="94"/>
+      <c r="BD5" s="94"/>
+      <c r="BE5" s="94"/>
+      <c r="BF5" s="95"/>
+      <c r="BG5" s="93"/>
+      <c r="BH5" s="94"/>
+      <c r="BI5" s="94"/>
+      <c r="BJ5" s="94"/>
+      <c r="BK5" s="94"/>
+      <c r="BL5" s="94"/>
+      <c r="BM5" s="95"/>
+      <c r="BN5" s="93"/>
+      <c r="BO5" s="94"/>
+      <c r="BP5" s="94"/>
+      <c r="BQ5" s="94"/>
+      <c r="BR5" s="94"/>
+      <c r="BS5" s="94"/>
+      <c r="BT5" s="95"/>
+      <c r="BU5" s="93"/>
+      <c r="BV5" s="94"/>
+      <c r="BW5" s="94"/>
+      <c r="BX5" s="94"/>
+      <c r="BY5" s="94"/>
+      <c r="BZ5" s="94"/>
+      <c r="CA5" s="95"/>
+      <c r="CB5" s="93"/>
+      <c r="CC5" s="94"/>
+      <c r="CD5" s="94"/>
+      <c r="CE5" s="94"/>
+      <c r="CF5" s="94"/>
+      <c r="CG5" s="94"/>
+      <c r="CH5" s="95"/>
+      <c r="CI5" s="93"/>
+      <c r="CJ5" s="94"/>
+      <c r="CK5" s="94"/>
+      <c r="CL5" s="94"/>
+      <c r="CM5" s="94"/>
+      <c r="CN5" s="94"/>
+      <c r="CO5" s="95"/>
+      <c r="CP5" s="93"/>
+      <c r="CQ5" s="94"/>
+      <c r="CR5" s="94"/>
+      <c r="CS5" s="94"/>
+      <c r="CT5" s="94"/>
+      <c r="CU5" s="94"/>
+      <c r="CV5" s="95"/>
+      <c r="CW5" s="93"/>
+      <c r="CX5" s="94"/>
+      <c r="CY5" s="94"/>
+      <c r="CZ5" s="94"/>
+      <c r="DA5" s="94"/>
+      <c r="DB5" s="94"/>
+      <c r="DC5" s="95"/>
+      <c r="DD5" s="93"/>
+      <c r="DE5" s="94"/>
+      <c r="DF5" s="94"/>
+      <c r="DG5" s="94"/>
+      <c r="DH5" s="94"/>
+      <c r="DI5" s="94"/>
+      <c r="DJ5" s="95"/>
+      <c r="DK5" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="DL5" s="86"/>
-      <c r="DM5" s="86"/>
-      <c r="DN5" s="86"/>
-      <c r="DO5" s="86"/>
-      <c r="DP5" s="86"/>
-      <c r="DQ5" s="87"/>
-      <c r="DR5" s="85" t="s">
+      <c r="DL5" s="91"/>
+      <c r="DM5" s="91"/>
+      <c r="DN5" s="91"/>
+      <c r="DO5" s="91"/>
+      <c r="DP5" s="91"/>
+      <c r="DQ5" s="92"/>
+      <c r="DR5" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="DS5" s="86"/>
-      <c r="DT5" s="86"/>
-      <c r="DU5" s="86"/>
-      <c r="DV5" s="86"/>
-      <c r="DW5" s="86"/>
-      <c r="DX5" s="87"/>
-      <c r="DY5" s="82"/>
-      <c r="DZ5" s="83"/>
-      <c r="EA5" s="83"/>
-      <c r="EB5" s="83"/>
-      <c r="EC5" s="83"/>
-      <c r="ED5" s="83"/>
-      <c r="EE5" s="84"/>
-      <c r="EF5" s="82"/>
-      <c r="EG5" s="83"/>
-      <c r="EH5" s="83"/>
-      <c r="EI5" s="83"/>
-      <c r="EJ5" s="83"/>
-      <c r="EK5" s="83"/>
-      <c r="EL5" s="84"/>
+      <c r="DS5" s="91"/>
+      <c r="DT5" s="91"/>
+      <c r="DU5" s="91"/>
+      <c r="DV5" s="91"/>
+      <c r="DW5" s="91"/>
+      <c r="DX5" s="92"/>
+      <c r="DY5" s="93"/>
+      <c r="DZ5" s="94"/>
+      <c r="EA5" s="94"/>
+      <c r="EB5" s="94"/>
+      <c r="EC5" s="94"/>
+      <c r="ED5" s="94"/>
+      <c r="EE5" s="95"/>
+      <c r="EF5" s="93"/>
+      <c r="EG5" s="94"/>
+      <c r="EH5" s="94"/>
+      <c r="EI5" s="94"/>
+      <c r="EJ5" s="94"/>
+      <c r="EK5" s="94"/>
+      <c r="EL5" s="95"/>
       <c r="EM5" s="2"/>
       <c r="EN5" s="2"/>
       <c r="EO5" s="2"/>
@@ -3444,19 +3398,19 @@
       <c r="ES5" s="2"/>
     </row>
     <row r="6" spans="1:149" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="107" t="s">
+      <c r="A6" s="84" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="76"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="73"/>
       <c r="J6" s="19"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
@@ -3628,8 +3582,8 @@
       <c r="EL6" s="16"/>
     </row>
     <row r="7" spans="1:149" ht="15.75" thickBot="1">
-      <c r="A7" s="99"/>
-      <c r="B7" s="69" t="s">
+      <c r="A7" s="80"/>
+      <c r="B7" s="66" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="20"/>
@@ -3780,10 +3734,10 @@
       <c r="EL7" s="22"/>
     </row>
     <row r="8" spans="1:149" ht="15.75" thickBot="1">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="65" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="20"/>
@@ -3936,8 +3890,8 @@
       <c r="EL8" s="22"/>
     </row>
     <row r="9" spans="1:149" ht="15.75" thickBot="1">
-      <c r="A9" s="95"/>
-      <c r="B9" s="69" t="s">
+      <c r="A9" s="86"/>
+      <c r="B9" s="66" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="20"/>
@@ -4092,10 +4046,10 @@
       <c r="EL9" s="22"/>
     </row>
     <row r="10" spans="1:149" ht="15.75" thickBot="1">
-      <c r="A10" s="98" t="s">
+      <c r="A10" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="65" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="20"/>
@@ -4106,7 +4060,7 @@
       <c r="H10" s="21"/>
       <c r="I10" s="22"/>
       <c r="J10" s="25"/>
-      <c r="K10" s="66"/>
+      <c r="K10" s="63"/>
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
@@ -4246,8 +4200,8 @@
       <c r="EL10" s="22"/>
     </row>
     <row r="11" spans="1:149" ht="15.75" thickBot="1">
-      <c r="A11" s="99"/>
-      <c r="B11" s="69" t="s">
+      <c r="A11" s="80"/>
+      <c r="B11" s="66" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="20"/>
@@ -4398,10 +4352,10 @@
       <c r="EL11" s="22"/>
     </row>
     <row r="12" spans="1:149" ht="15.75" thickBot="1">
-      <c r="A12" s="98" t="s">
+      <c r="A12" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="65" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="20"/>
@@ -4552,8 +4506,8 @@
       <c r="EL12" s="22"/>
     </row>
     <row r="13" spans="1:149" ht="15.75" thickBot="1">
-      <c r="A13" s="99"/>
-      <c r="B13" s="69" t="s">
+      <c r="A13" s="80"/>
+      <c r="B13" s="66" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="20"/>
@@ -4704,10 +4658,10 @@
       <c r="EL13" s="22"/>
     </row>
     <row r="14" spans="1:149" ht="15.75" thickBot="1">
-      <c r="A14" s="94" t="s">
+      <c r="A14" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="65" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="20"/>
@@ -4858,8 +4812,8 @@
       <c r="EL14" s="22"/>
     </row>
     <row r="15" spans="1:149" ht="15.75" thickBot="1">
-      <c r="A15" s="95"/>
-      <c r="B15" s="69" t="s">
+      <c r="A15" s="86"/>
+      <c r="B15" s="66" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="20"/>
@@ -5008,10 +4962,10 @@
       <c r="EL15" s="22"/>
     </row>
     <row r="16" spans="1:149" ht="15.75" thickBot="1">
-      <c r="A16" s="98" t="s">
+      <c r="A16" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="65" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="20"/>
@@ -5162,8 +5116,8 @@
       <c r="EL16" s="22"/>
     </row>
     <row r="17" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A17" s="100"/>
-      <c r="B17" s="69" t="s">
+      <c r="A17" s="87"/>
+      <c r="B17" s="66" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="20"/>
@@ -5308,10 +5262,10 @@
       <c r="EL17" s="22"/>
     </row>
     <row r="18" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A18" s="98" t="s">
+      <c r="A18" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="65" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="20"/>
@@ -5370,7 +5324,7 @@
       <c r="BB18" s="26">
         <v>2</v>
       </c>
-      <c r="BC18" s="66"/>
+      <c r="BC18" s="63"/>
       <c r="BD18" s="21"/>
       <c r="BE18" s="21"/>
       <c r="BF18" s="22"/>
@@ -5460,8 +5414,8 @@
       <c r="EL18" s="22"/>
     </row>
     <row r="19" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A19" s="100"/>
-      <c r="B19" s="69" t="s">
+      <c r="A19" s="87"/>
+      <c r="B19" s="66" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="20"/>
@@ -5606,10 +5560,10 @@
       <c r="EL19" s="22"/>
     </row>
     <row r="20" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A20" s="98" t="s">
+      <c r="A20" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="68" t="s">
+      <c r="B20" s="65" t="s">
         <v>31</v>
       </c>
       <c r="C20" s="20"/>
@@ -5760,8 +5714,8 @@
       <c r="EL20" s="22"/>
     </row>
     <row r="21" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A21" s="100"/>
-      <c r="B21" s="69" t="s">
+      <c r="A21" s="87"/>
+      <c r="B21" s="66" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="20"/>
@@ -5906,10 +5860,10 @@
       <c r="EL21" s="22"/>
     </row>
     <row r="22" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A22" s="94" t="s">
+      <c r="A22" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="68" t="s">
+      <c r="B22" s="65" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="20"/>
@@ -6060,8 +6014,8 @@
       <c r="EL22" s="22"/>
     </row>
     <row r="23" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A23" s="95"/>
-      <c r="B23" s="69" t="s">
+      <c r="A23" s="86"/>
+      <c r="B23" s="66" t="s">
         <v>32</v>
       </c>
       <c r="C23" s="20"/>
@@ -6206,10 +6160,10 @@
       <c r="EL23" s="22"/>
     </row>
     <row r="24" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A24" s="79" t="s">
+      <c r="A24" s="98" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="65" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="20"/>
@@ -6356,8 +6310,8 @@
       <c r="EL24" s="22"/>
     </row>
     <row r="25" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A25" s="80"/>
-      <c r="B25" s="69" t="s">
+      <c r="A25" s="99"/>
+      <c r="B25" s="66" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="20"/>
@@ -6502,10 +6456,10 @@
       <c r="EL25" s="22"/>
     </row>
     <row r="26" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A26" s="79" t="s">
+      <c r="A26" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="65" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="20"/>
@@ -6656,8 +6610,8 @@
       <c r="EL26" s="22"/>
     </row>
     <row r="27" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A27" s="81"/>
-      <c r="B27" s="69" t="s">
+      <c r="A27" s="100"/>
+      <c r="B27" s="66" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="20"/>
@@ -6802,10 +6756,10 @@
       <c r="EL27" s="22"/>
     </row>
     <row r="28" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A28" s="94" t="s">
+      <c r="A28" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="68" t="s">
+      <c r="B28" s="65" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="20"/>
@@ -6954,8 +6908,8 @@
       <c r="EL28" s="22"/>
     </row>
     <row r="29" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A29" s="95"/>
-      <c r="B29" s="69" t="s">
+      <c r="A29" s="86"/>
+      <c r="B29" s="66" t="s">
         <v>32</v>
       </c>
       <c r="C29" s="20"/>
@@ -7100,10 +7054,10 @@
       <c r="EL29" s="22"/>
     </row>
     <row r="30" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A30" s="94" t="s">
+      <c r="A30" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="68" t="s">
+      <c r="B30" s="65" t="s">
         <v>31</v>
       </c>
       <c r="C30" s="20"/>
@@ -7274,8 +7228,8 @@
       <c r="EL30" s="22"/>
     </row>
     <row r="31" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A31" s="95"/>
-      <c r="B31" s="69" t="s">
+      <c r="A31" s="86"/>
+      <c r="B31" s="66" t="s">
         <v>32</v>
       </c>
       <c r="C31" s="20"/>
@@ -7420,10 +7374,10 @@
       <c r="EL31" s="22"/>
     </row>
     <row r="32" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A32" s="94" t="s">
+      <c r="A32" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="B32" s="68" t="s">
+      <c r="B32" s="65" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="20"/>
@@ -7574,8 +7528,8 @@
       <c r="EL32" s="22"/>
     </row>
     <row r="33" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A33" s="96"/>
-      <c r="B33" s="69" t="s">
+      <c r="A33" s="88"/>
+      <c r="B33" s="66" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="20"/>
@@ -7720,10 +7674,10 @@
       <c r="EL33" s="22"/>
     </row>
     <row r="34" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A34" s="94" t="s">
+      <c r="A34" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="68" t="s">
+      <c r="B34" s="65" t="s">
         <v>31</v>
       </c>
       <c r="C34" s="20"/>
@@ -7884,8 +7838,8 @@
       <c r="EL34" s="22"/>
     </row>
     <row r="35" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A35" s="95"/>
-      <c r="B35" s="69" t="s">
+      <c r="A35" s="86"/>
+      <c r="B35" s="66" t="s">
         <v>32</v>
       </c>
       <c r="C35" s="20"/>
@@ -8030,10 +7984,10 @@
       <c r="EL35" s="22"/>
     </row>
     <row r="36" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A36" s="94" t="s">
+      <c r="A36" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="B36" s="68" t="s">
+      <c r="B36" s="65" t="s">
         <v>31</v>
       </c>
       <c r="C36" s="20"/>
@@ -8180,8 +8134,8 @@
       <c r="EL36" s="22"/>
     </row>
     <row r="37" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A37" s="97"/>
-      <c r="B37" s="69" t="s">
+      <c r="A37" s="89"/>
+      <c r="B37" s="66" t="s">
         <v>32</v>
       </c>
       <c r="C37" s="30"/>
@@ -8327,49 +8281,6 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="J3:P3"/>
-    <mergeCell ref="Q3:W3"/>
-    <mergeCell ref="X3:AD3"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="CB3:CH3"/>
-    <mergeCell ref="CI3:CO3"/>
-    <mergeCell ref="CP3:CV3"/>
-    <mergeCell ref="CW3:DC3"/>
-    <mergeCell ref="BU3:CA3"/>
-    <mergeCell ref="AE3:AK3"/>
-    <mergeCell ref="AL3:AR3"/>
-    <mergeCell ref="AS3:AY3"/>
-    <mergeCell ref="AZ3:BF3"/>
-    <mergeCell ref="BG3:BM3"/>
-    <mergeCell ref="BN3:BT3"/>
-    <mergeCell ref="DR3:DX3"/>
-    <mergeCell ref="DY3:EE3"/>
-    <mergeCell ref="EF3:EL3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="DD3:DJ3"/>
-    <mergeCell ref="DK3:DQ3"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="DR5:DX5"/>
-    <mergeCell ref="DY5:EE5"/>
-    <mergeCell ref="EF5:EL5"/>
-    <mergeCell ref="BU5:CA5"/>
-    <mergeCell ref="CB5:CH5"/>
-    <mergeCell ref="CI5:CO5"/>
-    <mergeCell ref="CP5:CV5"/>
-    <mergeCell ref="CW5:DC5"/>
-    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="DD5:DJ5"/>
@@ -8385,6 +8296,49 @@
     <mergeCell ref="X5:AD5"/>
     <mergeCell ref="AE5:AK5"/>
     <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="DR3:DX3"/>
+    <mergeCell ref="DY3:EE3"/>
+    <mergeCell ref="EF3:EL3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="DD3:DJ3"/>
+    <mergeCell ref="DK3:DQ3"/>
+    <mergeCell ref="DR5:DX5"/>
+    <mergeCell ref="DY5:EE5"/>
+    <mergeCell ref="EF5:EL5"/>
+    <mergeCell ref="BU5:CA5"/>
+    <mergeCell ref="CB5:CH5"/>
+    <mergeCell ref="CI5:CO5"/>
+    <mergeCell ref="CP5:CV5"/>
+    <mergeCell ref="CW5:DC5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="CB3:CH3"/>
+    <mergeCell ref="CI3:CO3"/>
+    <mergeCell ref="CP3:CV3"/>
+    <mergeCell ref="CW3:DC3"/>
+    <mergeCell ref="BU3:CA3"/>
+    <mergeCell ref="AE3:AK3"/>
+    <mergeCell ref="AL3:AR3"/>
+    <mergeCell ref="AS3:AY3"/>
+    <mergeCell ref="AZ3:BF3"/>
+    <mergeCell ref="BG3:BM3"/>
+    <mergeCell ref="BN3:BT3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="Q3:W3"/>
+    <mergeCell ref="X3:AD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8395,573 +8349,573 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91FF6EFD-F608-4DA6-AB00-E35874012156}">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.140625" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="65"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="62"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="63"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="60"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="112">
+      <c r="B4" s="110">
         <v>1</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="63"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="60"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="63"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="60"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="113">
+      <c r="B6" s="111">
         <v>45524</v>
       </c>
-      <c r="C6" s="113"/>
-      <c r="D6" s="63"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="60"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="114">
+      <c r="B7" s="112">
         <v>45671</v>
       </c>
-      <c r="C7" s="114"/>
-      <c r="D7" s="63"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="60"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="110"/>
-      <c r="D8" s="63"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="63"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="111" t="s">
+      <c r="B10" s="109" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="62"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="59"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="63"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="63"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="111" t="s">
+      <c r="A13" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="111"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="63"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="60"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="15" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="117" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="42">
+      <c r="A16" s="39">
         <v>1</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="40" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="44">
+      <c r="A17" s="41">
         <v>2</v>
       </c>
       <c r="B17" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="42" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="46">
+      <c r="A18" s="43">
         <v>3</v>
       </c>
       <c r="B18" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="44" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="30">
-      <c r="A19" s="48">
+      <c r="A19" s="45">
         <v>4</v>
       </c>
       <c r="B19" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="46" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="46">
+      <c r="A20" s="43">
         <v>5</v>
       </c>
       <c r="B20" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="47" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="44">
+      <c r="A21" s="41">
         <v>6</v>
       </c>
       <c r="B21" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="42" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="46">
+      <c r="A22" s="43">
         <v>7</v>
       </c>
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="44">
+      <c r="A23" s="41">
         <v>8</v>
       </c>
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="116" t="s">
+      <c r="D23" s="114" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="63"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="60"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="46">
+      <c r="A24" s="43">
         <v>9</v>
       </c>
       <c r="B24" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="47" t="s">
+      <c r="C24" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
     </row>
-    <row r="25" spans="1:8" ht="30">
-      <c r="A25" s="44">
+    <row r="25" spans="1:8" ht="15" customHeight="1">
+      <c r="A25" s="41">
         <v>10</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="46">
+      <c r="A26" s="43">
         <v>11</v>
       </c>
       <c r="B26" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="47" t="s">
+      <c r="C26" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="44">
+      <c r="A27" s="41">
         <v>12</v>
       </c>
       <c r="B27" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C27" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
     </row>
     <row r="28" spans="1:8" ht="30">
-      <c r="A28" s="51">
+      <c r="A28" s="48">
         <v>13</v>
       </c>
       <c r="B28" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
     </row>
     <row r="29" spans="1:8" ht="30">
-      <c r="A29" s="48">
+      <c r="A29" s="45">
         <v>14</v>
       </c>
       <c r="B29" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="115" t="s">
+      <c r="D29" s="113" t="s">
         <v>83</v>
       </c>
-      <c r="E29" s="111"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="46">
+      <c r="A30" s="43">
         <v>15</v>
       </c>
       <c r="B30" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="47" t="s">
+      <c r="C30" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="44">
+      <c r="A31" s="41">
         <v>16</v>
       </c>
       <c r="B31" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="46">
+      <c r="A32" s="43">
         <v>17</v>
       </c>
       <c r="B32" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="47" t="s">
+      <c r="C32" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="44">
+      <c r="A33" s="41">
         <v>18</v>
       </c>
       <c r="B33" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="45" t="s">
+      <c r="C33" s="42" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="46">
+      <c r="A34" s="43">
         <v>19</v>
       </c>
       <c r="B34" s="38"/>
-      <c r="C34" s="47" t="s">
+      <c r="C34" s="44" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="44">
+      <c r="A35" s="41">
         <v>20</v>
       </c>
       <c r="B35" s="37"/>
-      <c r="C35" s="45" t="s">
+      <c r="C35" s="42" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="46">
+      <c r="A36" s="43">
         <v>21</v>
       </c>
       <c r="B36" s="38"/>
-      <c r="C36" s="47" t="s">
+      <c r="C36" s="44" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="44">
+      <c r="A37" s="41">
         <v>22</v>
       </c>
       <c r="B37" s="37"/>
-      <c r="C37" s="45" t="s">
+      <c r="C37" s="42" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A38" s="52"/>
-      <c r="B38" s="60"/>
-      <c r="C38" s="53"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="50"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="111" t="s">
+      <c r="A42" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="111"/>
-      <c r="C42" s="111"/>
+      <c r="B42" s="109"/>
+      <c r="C42" s="109"/>
     </row>
     <row r="43" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="44" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A44" s="39" t="s">
+      <c r="A44" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="40" t="s">
+      <c r="B44" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="41" t="s">
+      <c r="C44" s="117" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="42">
+      <c r="A45" s="39">
         <v>1</v>
       </c>
-      <c r="B45" s="56" t="s">
+      <c r="B45" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="43" t="s">
+      <c r="C45" s="40" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="44">
+      <c r="A46" s="41">
         <v>2</v>
       </c>
       <c r="B46" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="45" t="s">
+      <c r="C46" s="42" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="46">
+      <c r="A47" s="43">
         <v>3</v>
       </c>
       <c r="B47" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="47" t="s">
+      <c r="C47" s="44" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="44">
+      <c r="A48" s="41">
         <v>4</v>
       </c>
       <c r="B48" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="45" t="s">
+      <c r="C48" s="42" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="46">
+      <c r="A49" s="43">
         <v>5</v>
       </c>
       <c r="B49" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="47" t="s">
+      <c r="C49" s="44" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="44">
+      <c r="A50" s="41">
         <v>6</v>
       </c>
       <c r="B50" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="45" t="s">
+      <c r="C50" s="42" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="46">
+      <c r="A51" s="43">
         <v>7</v>
       </c>
       <c r="B51" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C51" s="47" t="s">
+      <c r="C51" s="44" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="44">
+      <c r="A52" s="41">
         <v>8</v>
       </c>
       <c r="B52" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="45" t="s">
+      <c r="C52" s="42" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="46">
+      <c r="A53" s="43">
         <v>9</v>
       </c>
       <c r="B53" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="47" t="s">
+      <c r="C53" s="44" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="44">
+      <c r="A54" s="41">
         <v>10</v>
       </c>
       <c r="B54" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="C54" s="45" t="s">
+      <c r="C54" s="42" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="46">
+      <c r="A55" s="43">
         <v>11</v>
       </c>
       <c r="B55" s="38"/>
-      <c r="C55" s="47" t="s">
+      <c r="C55" s="44" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A56" s="54"/>
-      <c r="B56" s="61"/>
-      <c r="C56" s="55"/>
+      <c r="A56" s="51"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/documentation/Marvin_AudioAnlage_Anforderungen_NoraHueppi_20240917.xlsx
+++ b/documentation/Marvin_AudioAnlage_Anforderungen_NoraHueppi_20240917.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\Schule\BuP\5_Semester\Marvin\MarvinProject\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd4b8c2adf92642a/Berufsschule/BuP/5_Semester/Marvin/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222596FB-A639-49AC-A788-7FE2CF6654A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{222596FB-A639-49AC-A788-7FE2CF6654A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82547B62-EABD-458C-816F-291901F4E59F}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{5CC49039-70A6-4A49-B6FD-A7C35AB692E8}"/>
+    <workbookView xWindow="6910" yWindow="1160" windowWidth="8600" windowHeight="6170" xr2:uid="{5CC49039-70A6-4A49-B6FD-A7C35AB692E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplan" sheetId="4" r:id="rId1"/>
@@ -263,9 +263,6 @@
   </si>
   <si>
     <t>Die Auidioanlage soll nach einer bestimmten Zeit der Inaktivität automatisch in den Stanby-Modus versetzt werden.</t>
-  </si>
-  <si>
-    <t>Es soll eine Zeitschalterfunktion geben, mit der due Anlage zu einer bestimmten Uhrzeit aktiviert wird.</t>
   </si>
   <si>
     <t>1. Einzelwiedergabe: wird nur eine datei abgespielt</t>
@@ -446,6 +443,9 @@
   </si>
   <si>
     <t>3D-Gehäuse anmalen</t>
+  </si>
+  <si>
+    <t>Es soll eine Zeitschalterfunktion geben, mit der die Anlage zu einer bestimmten Uhrzeit aktiviert wird.</t>
   </si>
 </sst>
 </file>
@@ -1373,62 +1373,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1439,20 +1395,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1470,6 +1420,60 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1499,10 +1503,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2198,143 +2198,143 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{730C7784-EAA3-4F75-A441-9364A27E8BAB}">
   <dimension ref="A1:ES37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:B1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="CE1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="EO46" sqref="EO46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.140625" customWidth="1"/>
-    <col min="9" max="9" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="51" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="64" max="65" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="71" max="72" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="78" max="79" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="85" max="86" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="92" max="93" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="99" max="100" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="106" max="107" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="113" max="114" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="120" max="121" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="127" max="128" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="134" max="135" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="136" max="137" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.1796875" customWidth="1"/>
+    <col min="9" max="9" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="64" max="65" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="71" max="72" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="78" max="79" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="85" max="86" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="92" max="93" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="99" max="100" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="106" max="107" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="113" max="114" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="120" max="121" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="127" max="128" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="134" max="135" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="136" max="137" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="3.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:149" ht="21">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
+      <c r="B1" s="107"/>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
@@ -2476,7 +2476,7 @@
       <c r="EK1" s="10"/>
       <c r="EL1" s="10"/>
     </row>
-    <row r="2" spans="1:149" ht="15.75" thickBot="1">
+    <row r="2" spans="1:149" ht="15" thickBot="1">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -2620,198 +2620,198 @@
       <c r="EK2" s="10"/>
       <c r="EL2" s="10"/>
     </row>
-    <row r="3" spans="1:149" ht="15.75" thickBot="1">
+    <row r="3" spans="1:149" ht="15" thickBot="1">
       <c r="A3" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="67">
         <f>SUM(C6:EL6,C8:EL8,C10:EL10,C12:EL12,C14:EL14,C16:EL16,C18:EL18,C20:EL20,C22:EL22,C24:EL24,C26:EL26,C28:EL28,C30:EL30,C32:EL32,C34:EL34,C36:EL36)</f>
         <v>121</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78" t="s">
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="75" t="s">
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="76"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="75" t="s">
+      <c r="R3" s="99"/>
+      <c r="S3" s="99"/>
+      <c r="T3" s="99"/>
+      <c r="U3" s="99"/>
+      <c r="V3" s="99"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="76"/>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="76"/>
-      <c r="AC3" s="76"/>
-      <c r="AD3" s="77"/>
-      <c r="AE3" s="75" t="s">
+      <c r="Y3" s="99"/>
+      <c r="Z3" s="99"/>
+      <c r="AA3" s="99"/>
+      <c r="AB3" s="99"/>
+      <c r="AC3" s="99"/>
+      <c r="AD3" s="100"/>
+      <c r="AE3" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="AF3" s="76"/>
-      <c r="AG3" s="76"/>
-      <c r="AH3" s="76"/>
-      <c r="AI3" s="76"/>
-      <c r="AJ3" s="76"/>
-      <c r="AK3" s="77"/>
-      <c r="AL3" s="75" t="s">
+      <c r="AF3" s="99"/>
+      <c r="AG3" s="99"/>
+      <c r="AH3" s="99"/>
+      <c r="AI3" s="99"/>
+      <c r="AJ3" s="99"/>
+      <c r="AK3" s="100"/>
+      <c r="AL3" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="AM3" s="76"/>
-      <c r="AN3" s="76"/>
-      <c r="AO3" s="76"/>
-      <c r="AP3" s="76"/>
-      <c r="AQ3" s="76"/>
-      <c r="AR3" s="77"/>
-      <c r="AS3" s="75" t="s">
+      <c r="AM3" s="99"/>
+      <c r="AN3" s="99"/>
+      <c r="AO3" s="99"/>
+      <c r="AP3" s="99"/>
+      <c r="AQ3" s="99"/>
+      <c r="AR3" s="100"/>
+      <c r="AS3" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="76"/>
-      <c r="AU3" s="76"/>
-      <c r="AV3" s="76"/>
-      <c r="AW3" s="76"/>
-      <c r="AX3" s="76"/>
-      <c r="AY3" s="77"/>
-      <c r="AZ3" s="75" t="s">
+      <c r="AT3" s="99"/>
+      <c r="AU3" s="99"/>
+      <c r="AV3" s="99"/>
+      <c r="AW3" s="99"/>
+      <c r="AX3" s="99"/>
+      <c r="AY3" s="100"/>
+      <c r="AZ3" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="BA3" s="76"/>
-      <c r="BB3" s="76"/>
-      <c r="BC3" s="76"/>
-      <c r="BD3" s="76"/>
-      <c r="BE3" s="76"/>
-      <c r="BF3" s="77"/>
-      <c r="BG3" s="75" t="s">
+      <c r="BA3" s="99"/>
+      <c r="BB3" s="99"/>
+      <c r="BC3" s="99"/>
+      <c r="BD3" s="99"/>
+      <c r="BE3" s="99"/>
+      <c r="BF3" s="100"/>
+      <c r="BG3" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="BH3" s="76"/>
-      <c r="BI3" s="76"/>
-      <c r="BJ3" s="76"/>
-      <c r="BK3" s="76"/>
-      <c r="BL3" s="76"/>
-      <c r="BM3" s="77"/>
-      <c r="BN3" s="75" t="s">
+      <c r="BH3" s="99"/>
+      <c r="BI3" s="99"/>
+      <c r="BJ3" s="99"/>
+      <c r="BK3" s="99"/>
+      <c r="BL3" s="99"/>
+      <c r="BM3" s="100"/>
+      <c r="BN3" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="BO3" s="76"/>
-      <c r="BP3" s="76"/>
-      <c r="BQ3" s="76"/>
-      <c r="BR3" s="76"/>
-      <c r="BS3" s="76"/>
-      <c r="BT3" s="77"/>
-      <c r="BU3" s="75" t="s">
+      <c r="BO3" s="99"/>
+      <c r="BP3" s="99"/>
+      <c r="BQ3" s="99"/>
+      <c r="BR3" s="99"/>
+      <c r="BS3" s="99"/>
+      <c r="BT3" s="100"/>
+      <c r="BU3" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="BV3" s="76"/>
-      <c r="BW3" s="76"/>
-      <c r="BX3" s="76"/>
-      <c r="BY3" s="76"/>
-      <c r="BZ3" s="76"/>
-      <c r="CA3" s="77"/>
-      <c r="CB3" s="75" t="s">
+      <c r="BV3" s="99"/>
+      <c r="BW3" s="99"/>
+      <c r="BX3" s="99"/>
+      <c r="BY3" s="99"/>
+      <c r="BZ3" s="99"/>
+      <c r="CA3" s="100"/>
+      <c r="CB3" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="CC3" s="76"/>
-      <c r="CD3" s="76"/>
-      <c r="CE3" s="76"/>
-      <c r="CF3" s="76"/>
-      <c r="CG3" s="76"/>
-      <c r="CH3" s="77"/>
-      <c r="CI3" s="75" t="s">
+      <c r="CC3" s="99"/>
+      <c r="CD3" s="99"/>
+      <c r="CE3" s="99"/>
+      <c r="CF3" s="99"/>
+      <c r="CG3" s="99"/>
+      <c r="CH3" s="100"/>
+      <c r="CI3" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="CJ3" s="76"/>
-      <c r="CK3" s="76"/>
-      <c r="CL3" s="76"/>
-      <c r="CM3" s="76"/>
-      <c r="CN3" s="76"/>
-      <c r="CO3" s="77"/>
-      <c r="CP3" s="75" t="s">
+      <c r="CJ3" s="99"/>
+      <c r="CK3" s="99"/>
+      <c r="CL3" s="99"/>
+      <c r="CM3" s="99"/>
+      <c r="CN3" s="99"/>
+      <c r="CO3" s="100"/>
+      <c r="CP3" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="CQ3" s="76"/>
-      <c r="CR3" s="76"/>
-      <c r="CS3" s="76"/>
-      <c r="CT3" s="76"/>
-      <c r="CU3" s="76"/>
-      <c r="CV3" s="77"/>
-      <c r="CW3" s="75" t="s">
+      <c r="CQ3" s="99"/>
+      <c r="CR3" s="99"/>
+      <c r="CS3" s="99"/>
+      <c r="CT3" s="99"/>
+      <c r="CU3" s="99"/>
+      <c r="CV3" s="100"/>
+      <c r="CW3" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="CX3" s="76"/>
-      <c r="CY3" s="76"/>
-      <c r="CZ3" s="76"/>
-      <c r="DA3" s="76"/>
-      <c r="DB3" s="76"/>
-      <c r="DC3" s="77"/>
-      <c r="DD3" s="75" t="s">
+      <c r="CX3" s="99"/>
+      <c r="CY3" s="99"/>
+      <c r="CZ3" s="99"/>
+      <c r="DA3" s="99"/>
+      <c r="DB3" s="99"/>
+      <c r="DC3" s="100"/>
+      <c r="DD3" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="DE3" s="76"/>
-      <c r="DF3" s="76"/>
-      <c r="DG3" s="76"/>
-      <c r="DH3" s="76"/>
-      <c r="DI3" s="76"/>
-      <c r="DJ3" s="77"/>
-      <c r="DK3" s="75" t="s">
+      <c r="DE3" s="99"/>
+      <c r="DF3" s="99"/>
+      <c r="DG3" s="99"/>
+      <c r="DH3" s="99"/>
+      <c r="DI3" s="99"/>
+      <c r="DJ3" s="100"/>
+      <c r="DK3" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="DL3" s="76"/>
-      <c r="DM3" s="76"/>
-      <c r="DN3" s="76"/>
-      <c r="DO3" s="76"/>
-      <c r="DP3" s="76"/>
-      <c r="DQ3" s="77"/>
-      <c r="DR3" s="75" t="s">
+      <c r="DL3" s="99"/>
+      <c r="DM3" s="99"/>
+      <c r="DN3" s="99"/>
+      <c r="DO3" s="99"/>
+      <c r="DP3" s="99"/>
+      <c r="DQ3" s="100"/>
+      <c r="DR3" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="DS3" s="76"/>
-      <c r="DT3" s="76"/>
-      <c r="DU3" s="76"/>
-      <c r="DV3" s="76"/>
-      <c r="DW3" s="76"/>
-      <c r="DX3" s="77"/>
-      <c r="DY3" s="81" t="s">
+      <c r="DS3" s="99"/>
+      <c r="DT3" s="99"/>
+      <c r="DU3" s="99"/>
+      <c r="DV3" s="99"/>
+      <c r="DW3" s="99"/>
+      <c r="DX3" s="100"/>
+      <c r="DY3" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="DZ3" s="82"/>
-      <c r="EA3" s="82"/>
-      <c r="EB3" s="82"/>
-      <c r="EC3" s="82"/>
-      <c r="ED3" s="82"/>
-      <c r="EE3" s="83"/>
-      <c r="EF3" s="81" t="s">
+      <c r="DZ3" s="102"/>
+      <c r="EA3" s="102"/>
+      <c r="EB3" s="102"/>
+      <c r="EC3" s="102"/>
+      <c r="ED3" s="102"/>
+      <c r="EE3" s="103"/>
+      <c r="EF3" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="EG3" s="82"/>
-      <c r="EH3" s="82"/>
-      <c r="EI3" s="82"/>
-      <c r="EJ3" s="82"/>
-      <c r="EK3" s="82"/>
-      <c r="EL3" s="83"/>
+      <c r="EG3" s="102"/>
+      <c r="EH3" s="102"/>
+      <c r="EI3" s="102"/>
+      <c r="EJ3" s="102"/>
+      <c r="EK3" s="102"/>
+      <c r="EL3" s="103"/>
     </row>
-    <row r="4" spans="1:149" ht="30.75" thickBot="1">
+    <row r="4" spans="1:149" ht="15" thickBot="1">
       <c r="A4" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" s="64">
         <f>SUM(C7:EL7,C9:EL9,C11:EL11,C13:EL13,C15:EL15,C17:EL17,C19:EL19,C21:EL21,C23:EL23,C25:EL25,C27:EL27,C29:EL29,C31:EL31,C33:EL33,C35:EL35,C37:EL37)</f>
@@ -3238,157 +3238,157 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:149" ht="19.5" thickBot="1">
-      <c r="A5" s="96" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="94"/>
-      <c r="T5" s="94"/>
-      <c r="U5" s="94"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="95"/>
-      <c r="X5" s="93"/>
-      <c r="Y5" s="94"/>
-      <c r="Z5" s="94"/>
-      <c r="AA5" s="94"/>
-      <c r="AB5" s="94"/>
-      <c r="AC5" s="94"/>
-      <c r="AD5" s="95"/>
-      <c r="AE5" s="93"/>
-      <c r="AF5" s="94"/>
-      <c r="AG5" s="94"/>
-      <c r="AH5" s="94"/>
-      <c r="AI5" s="94"/>
-      <c r="AJ5" s="94"/>
-      <c r="AK5" s="95"/>
-      <c r="AL5" s="101" t="s">
-        <v>95</v>
-      </c>
-      <c r="AM5" s="102"/>
-      <c r="AN5" s="102"/>
-      <c r="AO5" s="102"/>
-      <c r="AP5" s="102"/>
-      <c r="AQ5" s="102"/>
-      <c r="AR5" s="103"/>
-      <c r="AS5" s="93"/>
-      <c r="AT5" s="94"/>
-      <c r="AU5" s="94"/>
-      <c r="AV5" s="94"/>
-      <c r="AW5" s="94"/>
-      <c r="AX5" s="94"/>
-      <c r="AY5" s="95"/>
-      <c r="AZ5" s="93"/>
-      <c r="BA5" s="94"/>
-      <c r="BB5" s="94"/>
-      <c r="BC5" s="94"/>
-      <c r="BD5" s="94"/>
-      <c r="BE5" s="94"/>
-      <c r="BF5" s="95"/>
-      <c r="BG5" s="93"/>
-      <c r="BH5" s="94"/>
-      <c r="BI5" s="94"/>
-      <c r="BJ5" s="94"/>
-      <c r="BK5" s="94"/>
-      <c r="BL5" s="94"/>
-      <c r="BM5" s="95"/>
-      <c r="BN5" s="93"/>
-      <c r="BO5" s="94"/>
-      <c r="BP5" s="94"/>
-      <c r="BQ5" s="94"/>
-      <c r="BR5" s="94"/>
-      <c r="BS5" s="94"/>
-      <c r="BT5" s="95"/>
-      <c r="BU5" s="93"/>
-      <c r="BV5" s="94"/>
-      <c r="BW5" s="94"/>
-      <c r="BX5" s="94"/>
-      <c r="BY5" s="94"/>
-      <c r="BZ5" s="94"/>
-      <c r="CA5" s="95"/>
-      <c r="CB5" s="93"/>
-      <c r="CC5" s="94"/>
-      <c r="CD5" s="94"/>
-      <c r="CE5" s="94"/>
-      <c r="CF5" s="94"/>
-      <c r="CG5" s="94"/>
-      <c r="CH5" s="95"/>
-      <c r="CI5" s="93"/>
-      <c r="CJ5" s="94"/>
-      <c r="CK5" s="94"/>
-      <c r="CL5" s="94"/>
-      <c r="CM5" s="94"/>
-      <c r="CN5" s="94"/>
-      <c r="CO5" s="95"/>
-      <c r="CP5" s="93"/>
-      <c r="CQ5" s="94"/>
-      <c r="CR5" s="94"/>
-      <c r="CS5" s="94"/>
-      <c r="CT5" s="94"/>
-      <c r="CU5" s="94"/>
-      <c r="CV5" s="95"/>
-      <c r="CW5" s="93"/>
-      <c r="CX5" s="94"/>
-      <c r="CY5" s="94"/>
-      <c r="CZ5" s="94"/>
-      <c r="DA5" s="94"/>
-      <c r="DB5" s="94"/>
-      <c r="DC5" s="95"/>
-      <c r="DD5" s="93"/>
-      <c r="DE5" s="94"/>
-      <c r="DF5" s="94"/>
-      <c r="DG5" s="94"/>
-      <c r="DH5" s="94"/>
-      <c r="DI5" s="94"/>
-      <c r="DJ5" s="95"/>
-      <c r="DK5" s="90" t="s">
+    <row r="5" spans="1:149" ht="19" thickBot="1">
+      <c r="A5" s="105" t="s">
         <v>94</v>
       </c>
-      <c r="DL5" s="91"/>
-      <c r="DM5" s="91"/>
-      <c r="DN5" s="91"/>
-      <c r="DO5" s="91"/>
-      <c r="DP5" s="91"/>
-      <c r="DQ5" s="92"/>
-      <c r="DR5" s="90" t="s">
+      <c r="B5" s="106"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="80"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
+      <c r="W5" s="81"/>
+      <c r="X5" s="79"/>
+      <c r="Y5" s="80"/>
+      <c r="Z5" s="80"/>
+      <c r="AA5" s="80"/>
+      <c r="AB5" s="80"/>
+      <c r="AC5" s="80"/>
+      <c r="AD5" s="81"/>
+      <c r="AE5" s="79"/>
+      <c r="AF5" s="80"/>
+      <c r="AG5" s="80"/>
+      <c r="AH5" s="80"/>
+      <c r="AI5" s="80"/>
+      <c r="AJ5" s="80"/>
+      <c r="AK5" s="81"/>
+      <c r="AL5" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="DS5" s="91"/>
-      <c r="DT5" s="91"/>
-      <c r="DU5" s="91"/>
-      <c r="DV5" s="91"/>
-      <c r="DW5" s="91"/>
-      <c r="DX5" s="92"/>
-      <c r="DY5" s="93"/>
-      <c r="DZ5" s="94"/>
-      <c r="EA5" s="94"/>
-      <c r="EB5" s="94"/>
-      <c r="EC5" s="94"/>
-      <c r="ED5" s="94"/>
-      <c r="EE5" s="95"/>
-      <c r="EF5" s="93"/>
-      <c r="EG5" s="94"/>
-      <c r="EH5" s="94"/>
-      <c r="EI5" s="94"/>
-      <c r="EJ5" s="94"/>
-      <c r="EK5" s="94"/>
-      <c r="EL5" s="95"/>
+      <c r="AM5" s="86"/>
+      <c r="AN5" s="86"/>
+      <c r="AO5" s="86"/>
+      <c r="AP5" s="86"/>
+      <c r="AQ5" s="86"/>
+      <c r="AR5" s="87"/>
+      <c r="AS5" s="79"/>
+      <c r="AT5" s="80"/>
+      <c r="AU5" s="80"/>
+      <c r="AV5" s="80"/>
+      <c r="AW5" s="80"/>
+      <c r="AX5" s="80"/>
+      <c r="AY5" s="81"/>
+      <c r="AZ5" s="79"/>
+      <c r="BA5" s="80"/>
+      <c r="BB5" s="80"/>
+      <c r="BC5" s="80"/>
+      <c r="BD5" s="80"/>
+      <c r="BE5" s="80"/>
+      <c r="BF5" s="81"/>
+      <c r="BG5" s="79"/>
+      <c r="BH5" s="80"/>
+      <c r="BI5" s="80"/>
+      <c r="BJ5" s="80"/>
+      <c r="BK5" s="80"/>
+      <c r="BL5" s="80"/>
+      <c r="BM5" s="81"/>
+      <c r="BN5" s="79"/>
+      <c r="BO5" s="80"/>
+      <c r="BP5" s="80"/>
+      <c r="BQ5" s="80"/>
+      <c r="BR5" s="80"/>
+      <c r="BS5" s="80"/>
+      <c r="BT5" s="81"/>
+      <c r="BU5" s="79"/>
+      <c r="BV5" s="80"/>
+      <c r="BW5" s="80"/>
+      <c r="BX5" s="80"/>
+      <c r="BY5" s="80"/>
+      <c r="BZ5" s="80"/>
+      <c r="CA5" s="81"/>
+      <c r="CB5" s="79"/>
+      <c r="CC5" s="80"/>
+      <c r="CD5" s="80"/>
+      <c r="CE5" s="80"/>
+      <c r="CF5" s="80"/>
+      <c r="CG5" s="80"/>
+      <c r="CH5" s="81"/>
+      <c r="CI5" s="79"/>
+      <c r="CJ5" s="80"/>
+      <c r="CK5" s="80"/>
+      <c r="CL5" s="80"/>
+      <c r="CM5" s="80"/>
+      <c r="CN5" s="80"/>
+      <c r="CO5" s="81"/>
+      <c r="CP5" s="79"/>
+      <c r="CQ5" s="80"/>
+      <c r="CR5" s="80"/>
+      <c r="CS5" s="80"/>
+      <c r="CT5" s="80"/>
+      <c r="CU5" s="80"/>
+      <c r="CV5" s="81"/>
+      <c r="CW5" s="79"/>
+      <c r="CX5" s="80"/>
+      <c r="CY5" s="80"/>
+      <c r="CZ5" s="80"/>
+      <c r="DA5" s="80"/>
+      <c r="DB5" s="80"/>
+      <c r="DC5" s="81"/>
+      <c r="DD5" s="79"/>
+      <c r="DE5" s="80"/>
+      <c r="DF5" s="80"/>
+      <c r="DG5" s="80"/>
+      <c r="DH5" s="80"/>
+      <c r="DI5" s="80"/>
+      <c r="DJ5" s="81"/>
+      <c r="DK5" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="DL5" s="83"/>
+      <c r="DM5" s="83"/>
+      <c r="DN5" s="83"/>
+      <c r="DO5" s="83"/>
+      <c r="DP5" s="83"/>
+      <c r="DQ5" s="84"/>
+      <c r="DR5" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="DS5" s="83"/>
+      <c r="DT5" s="83"/>
+      <c r="DU5" s="83"/>
+      <c r="DV5" s="83"/>
+      <c r="DW5" s="83"/>
+      <c r="DX5" s="84"/>
+      <c r="DY5" s="79"/>
+      <c r="DZ5" s="80"/>
+      <c r="EA5" s="80"/>
+      <c r="EB5" s="80"/>
+      <c r="EC5" s="80"/>
+      <c r="ED5" s="80"/>
+      <c r="EE5" s="81"/>
+      <c r="EF5" s="79"/>
+      <c r="EG5" s="80"/>
+      <c r="EH5" s="80"/>
+      <c r="EI5" s="80"/>
+      <c r="EJ5" s="80"/>
+      <c r="EK5" s="80"/>
+      <c r="EL5" s="81"/>
       <c r="EM5" s="2"/>
       <c r="EN5" s="2"/>
       <c r="EO5" s="2"/>
@@ -3398,7 +3398,7 @@
       <c r="ES5" s="2"/>
     </row>
     <row r="6" spans="1:149" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="104" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -3581,8 +3581,8 @@
       <c r="EK6" s="15"/>
       <c r="EL6" s="16"/>
     </row>
-    <row r="7" spans="1:149" ht="15.75" thickBot="1">
-      <c r="A7" s="80"/>
+    <row r="7" spans="1:149" ht="15" thickBot="1">
+      <c r="A7" s="92"/>
       <c r="B7" s="66" t="s">
         <v>32</v>
       </c>
@@ -3733,9 +3733,9 @@
       <c r="EK7" s="21"/>
       <c r="EL7" s="22"/>
     </row>
-    <row r="8" spans="1:149" ht="15.75" thickBot="1">
-      <c r="A8" s="85" t="s">
-        <v>93</v>
+    <row r="8" spans="1:149" ht="15" thickBot="1">
+      <c r="A8" s="93" t="s">
+        <v>92</v>
       </c>
       <c r="B8" s="65" t="s">
         <v>31</v>
@@ -3889,8 +3889,8 @@
       <c r="EK8" s="21"/>
       <c r="EL8" s="22"/>
     </row>
-    <row r="9" spans="1:149" ht="15.75" thickBot="1">
-      <c r="A9" s="86"/>
+    <row r="9" spans="1:149" ht="15" thickBot="1">
+      <c r="A9" s="94"/>
       <c r="B9" s="66" t="s">
         <v>32</v>
       </c>
@@ -4045,8 +4045,8 @@
       <c r="EK9" s="21"/>
       <c r="EL9" s="22"/>
     </row>
-    <row r="10" spans="1:149" ht="15.75" thickBot="1">
-      <c r="A10" s="79" t="s">
+    <row r="10" spans="1:149" ht="15" thickBot="1">
+      <c r="A10" s="91" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="65" t="s">
@@ -4199,8 +4199,8 @@
       <c r="EK10" s="21"/>
       <c r="EL10" s="22"/>
     </row>
-    <row r="11" spans="1:149" ht="15.75" thickBot="1">
-      <c r="A11" s="80"/>
+    <row r="11" spans="1:149" ht="15" thickBot="1">
+      <c r="A11" s="92"/>
       <c r="B11" s="66" t="s">
         <v>32</v>
       </c>
@@ -4351,9 +4351,9 @@
       <c r="EK11" s="21"/>
       <c r="EL11" s="22"/>
     </row>
-    <row r="12" spans="1:149" ht="15.75" thickBot="1">
-      <c r="A12" s="79" t="s">
-        <v>79</v>
+    <row r="12" spans="1:149" ht="15" thickBot="1">
+      <c r="A12" s="91" t="s">
+        <v>78</v>
       </c>
       <c r="B12" s="65" t="s">
         <v>31</v>
@@ -4505,8 +4505,8 @@
       <c r="EK12" s="21"/>
       <c r="EL12" s="22"/>
     </row>
-    <row r="13" spans="1:149" ht="15.75" thickBot="1">
-      <c r="A13" s="80"/>
+    <row r="13" spans="1:149" ht="15" thickBot="1">
+      <c r="A13" s="92"/>
       <c r="B13" s="66" t="s">
         <v>32</v>
       </c>
@@ -4657,9 +4657,9 @@
       <c r="EK13" s="21"/>
       <c r="EL13" s="22"/>
     </row>
-    <row r="14" spans="1:149" ht="15.75" thickBot="1">
-      <c r="A14" s="85" t="s">
-        <v>92</v>
+    <row r="14" spans="1:149" ht="15" thickBot="1">
+      <c r="A14" s="93" t="s">
+        <v>91</v>
       </c>
       <c r="B14" s="65" t="s">
         <v>31</v>
@@ -4811,8 +4811,8 @@
       <c r="EK14" s="21"/>
       <c r="EL14" s="22"/>
     </row>
-    <row r="15" spans="1:149" ht="15.75" thickBot="1">
-      <c r="A15" s="86"/>
+    <row r="15" spans="1:149" ht="15" thickBot="1">
+      <c r="A15" s="94"/>
       <c r="B15" s="66" t="s">
         <v>32</v>
       </c>
@@ -4961,8 +4961,8 @@
       <c r="EK15" s="21"/>
       <c r="EL15" s="22"/>
     </row>
-    <row r="16" spans="1:149" ht="15.75" thickBot="1">
-      <c r="A16" s="79" t="s">
+    <row r="16" spans="1:149" ht="15" thickBot="1">
+      <c r="A16" s="91" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="65" t="s">
@@ -5115,8 +5115,8 @@
       <c r="EK16" s="21"/>
       <c r="EL16" s="22"/>
     </row>
-    <row r="17" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A17" s="87"/>
+    <row r="17" spans="1:142" ht="15" thickBot="1">
+      <c r="A17" s="97"/>
       <c r="B17" s="66" t="s">
         <v>32</v>
       </c>
@@ -5261,8 +5261,8 @@
       <c r="EK17" s="21"/>
       <c r="EL17" s="22"/>
     </row>
-    <row r="18" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A18" s="79" t="s">
+    <row r="18" spans="1:142" ht="15" thickBot="1">
+      <c r="A18" s="91" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="65" t="s">
@@ -5413,8 +5413,8 @@
       <c r="EK18" s="21"/>
       <c r="EL18" s="22"/>
     </row>
-    <row r="19" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A19" s="87"/>
+    <row r="19" spans="1:142" ht="15" thickBot="1">
+      <c r="A19" s="97"/>
       <c r="B19" s="66" t="s">
         <v>32</v>
       </c>
@@ -5559,8 +5559,8 @@
       <c r="EK19" s="21"/>
       <c r="EL19" s="22"/>
     </row>
-    <row r="20" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A20" s="79" t="s">
+    <row r="20" spans="1:142" ht="15" thickBot="1">
+      <c r="A20" s="91" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="65" t="s">
@@ -5713,8 +5713,8 @@
       <c r="EK20" s="21"/>
       <c r="EL20" s="22"/>
     </row>
-    <row r="21" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A21" s="87"/>
+    <row r="21" spans="1:142" ht="15" thickBot="1">
+      <c r="A21" s="97"/>
       <c r="B21" s="66" t="s">
         <v>32</v>
       </c>
@@ -5859,9 +5859,9 @@
       <c r="EK21" s="21"/>
       <c r="EL21" s="22"/>
     </row>
-    <row r="22" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A22" s="85" t="s">
-        <v>87</v>
+    <row r="22" spans="1:142" ht="15" thickBot="1">
+      <c r="A22" s="93" t="s">
+        <v>86</v>
       </c>
       <c r="B22" s="65" t="s">
         <v>31</v>
@@ -6013,8 +6013,8 @@
       <c r="EK22" s="21"/>
       <c r="EL22" s="22"/>
     </row>
-    <row r="23" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A23" s="86"/>
+    <row r="23" spans="1:142" ht="15" thickBot="1">
+      <c r="A23" s="94"/>
       <c r="B23" s="66" t="s">
         <v>32</v>
       </c>
@@ -6159,9 +6159,9 @@
       <c r="EK23" s="21"/>
       <c r="EL23" s="22"/>
     </row>
-    <row r="24" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A24" s="98" t="s">
-        <v>88</v>
+    <row r="24" spans="1:142" ht="15" thickBot="1">
+      <c r="A24" s="76" t="s">
+        <v>87</v>
       </c>
       <c r="B24" s="65" t="s">
         <v>31</v>
@@ -6309,8 +6309,8 @@
       <c r="EK24" s="21"/>
       <c r="EL24" s="22"/>
     </row>
-    <row r="25" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A25" s="99"/>
+    <row r="25" spans="1:142" ht="15" thickBot="1">
+      <c r="A25" s="77"/>
       <c r="B25" s="66" t="s">
         <v>32</v>
       </c>
@@ -6455,9 +6455,9 @@
       <c r="EK25" s="21"/>
       <c r="EL25" s="22"/>
     </row>
-    <row r="26" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A26" s="98" t="s">
-        <v>97</v>
+    <row r="26" spans="1:142" ht="15" thickBot="1">
+      <c r="A26" s="76" t="s">
+        <v>96</v>
       </c>
       <c r="B26" s="65" t="s">
         <v>31</v>
@@ -6609,8 +6609,8 @@
       <c r="EK26" s="21"/>
       <c r="EL26" s="22"/>
     </row>
-    <row r="27" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A27" s="100"/>
+    <row r="27" spans="1:142" ht="15" thickBot="1">
+      <c r="A27" s="78"/>
       <c r="B27" s="66" t="s">
         <v>32</v>
       </c>
@@ -6755,8 +6755,8 @@
       <c r="EK27" s="21"/>
       <c r="EL27" s="22"/>
     </row>
-    <row r="28" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A28" s="85" t="s">
+    <row r="28" spans="1:142" ht="15" thickBot="1">
+      <c r="A28" s="93" t="s">
         <v>34</v>
       </c>
       <c r="B28" s="65" t="s">
@@ -6907,8 +6907,8 @@
       <c r="EK28" s="21"/>
       <c r="EL28" s="22"/>
     </row>
-    <row r="29" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A29" s="86"/>
+    <row r="29" spans="1:142" ht="15" thickBot="1">
+      <c r="A29" s="94"/>
       <c r="B29" s="66" t="s">
         <v>32</v>
       </c>
@@ -7053,9 +7053,9 @@
       <c r="EK29" s="21"/>
       <c r="EL29" s="22"/>
     </row>
-    <row r="30" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A30" s="85" t="s">
-        <v>89</v>
+    <row r="30" spans="1:142" ht="15" thickBot="1">
+      <c r="A30" s="93" t="s">
+        <v>88</v>
       </c>
       <c r="B30" s="65" t="s">
         <v>31</v>
@@ -7227,8 +7227,8 @@
       <c r="EK30" s="21"/>
       <c r="EL30" s="22"/>
     </row>
-    <row r="31" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A31" s="86"/>
+    <row r="31" spans="1:142" ht="15" thickBot="1">
+      <c r="A31" s="94"/>
       <c r="B31" s="66" t="s">
         <v>32</v>
       </c>
@@ -7373,9 +7373,9 @@
       <c r="EK31" s="21"/>
       <c r="EL31" s="22"/>
     </row>
-    <row r="32" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A32" s="85" t="s">
-        <v>90</v>
+    <row r="32" spans="1:142" ht="15" thickBot="1">
+      <c r="A32" s="93" t="s">
+        <v>89</v>
       </c>
       <c r="B32" s="65" t="s">
         <v>31</v>
@@ -7527,8 +7527,8 @@
       <c r="EK32" s="21"/>
       <c r="EL32" s="22"/>
     </row>
-    <row r="33" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A33" s="88"/>
+    <row r="33" spans="1:142" ht="15" thickBot="1">
+      <c r="A33" s="95"/>
       <c r="B33" s="66" t="s">
         <v>32</v>
       </c>
@@ -7673,8 +7673,8 @@
       <c r="EK33" s="21"/>
       <c r="EL33" s="22"/>
     </row>
-    <row r="34" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A34" s="85" t="s">
+    <row r="34" spans="1:142" ht="15" thickBot="1">
+      <c r="A34" s="93" t="s">
         <v>35</v>
       </c>
       <c r="B34" s="65" t="s">
@@ -7837,8 +7837,8 @@
       <c r="EK34" s="21"/>
       <c r="EL34" s="22"/>
     </row>
-    <row r="35" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A35" s="86"/>
+    <row r="35" spans="1:142" ht="15" thickBot="1">
+      <c r="A35" s="94"/>
       <c r="B35" s="66" t="s">
         <v>32</v>
       </c>
@@ -7983,9 +7983,9 @@
       <c r="EK35" s="21"/>
       <c r="EL35" s="22"/>
     </row>
-    <row r="36" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A36" s="85" t="s">
-        <v>91</v>
+    <row r="36" spans="1:142" ht="15" thickBot="1">
+      <c r="A36" s="93" t="s">
+        <v>90</v>
       </c>
       <c r="B36" s="65" t="s">
         <v>31</v>
@@ -8133,8 +8133,8 @@
       <c r="EK36" s="21"/>
       <c r="EL36" s="22"/>
     </row>
-    <row r="37" spans="1:142" ht="15.75" thickBot="1">
-      <c r="A37" s="89"/>
+    <row r="37" spans="1:142" ht="15" thickBot="1">
+      <c r="A37" s="96"/>
       <c r="B37" s="66" t="s">
         <v>32</v>
       </c>
@@ -8281,6 +8281,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="Q3:W3"/>
+    <mergeCell ref="X3:AD3"/>
+    <mergeCell ref="DY3:EE3"/>
+    <mergeCell ref="EF3:EL3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="DD3:DJ3"/>
+    <mergeCell ref="DK3:DQ3"/>
+    <mergeCell ref="DR5:DX5"/>
+    <mergeCell ref="DY5:EE5"/>
+    <mergeCell ref="EF5:EL5"/>
+    <mergeCell ref="BU5:CA5"/>
+    <mergeCell ref="CB5:CH5"/>
+    <mergeCell ref="CI5:CO5"/>
+    <mergeCell ref="CP5:CV5"/>
+    <mergeCell ref="CW5:DC5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="CB3:CH3"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="DR3:DX3"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="CI3:CO3"/>
+    <mergeCell ref="CP3:CV3"/>
+    <mergeCell ref="CW3:DC3"/>
+    <mergeCell ref="BU3:CA3"/>
+    <mergeCell ref="AE3:AK3"/>
+    <mergeCell ref="AL3:AR3"/>
+    <mergeCell ref="AS3:AY3"/>
+    <mergeCell ref="AZ3:BF3"/>
+    <mergeCell ref="BG3:BM3"/>
+    <mergeCell ref="BN3:BT3"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="DD5:DJ5"/>
@@ -8296,49 +8338,7 @@
     <mergeCell ref="X5:AD5"/>
     <mergeCell ref="AE5:AK5"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="DR3:DX3"/>
-    <mergeCell ref="DY3:EE3"/>
-    <mergeCell ref="EF3:EL3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="DD3:DJ3"/>
-    <mergeCell ref="DK3:DQ3"/>
-    <mergeCell ref="DR5:DX5"/>
-    <mergeCell ref="DY5:EE5"/>
-    <mergeCell ref="EF5:EL5"/>
-    <mergeCell ref="BU5:CA5"/>
-    <mergeCell ref="CB5:CH5"/>
-    <mergeCell ref="CI5:CO5"/>
-    <mergeCell ref="CP5:CV5"/>
-    <mergeCell ref="CW5:DC5"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="CB3:CH3"/>
-    <mergeCell ref="CI3:CO3"/>
-    <mergeCell ref="CP3:CV3"/>
-    <mergeCell ref="CW3:DC3"/>
-    <mergeCell ref="BU3:CA3"/>
-    <mergeCell ref="AE3:AK3"/>
-    <mergeCell ref="AL3:AR3"/>
-    <mergeCell ref="AS3:AY3"/>
-    <mergeCell ref="AZ3:BF3"/>
-    <mergeCell ref="BG3:BM3"/>
-    <mergeCell ref="BN3:BT3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="J3:P3"/>
-    <mergeCell ref="Q3:W3"/>
-    <mergeCell ref="X3:AD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8349,82 +8349,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91FF6EFD-F608-4DA6-AB00-E35874012156}">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A44" zoomScale="109" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.140625" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="94.1796875" customWidth="1"/>
+    <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5">
-      <c r="A1" s="107" t="s">
+    <row r="1" spans="1:5" ht="19">
+      <c r="A1" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="107"/>
+      <c r="B1" s="109"/>
       <c r="C1" s="62"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="108"/>
+      <c r="C3" s="110"/>
       <c r="D3" s="60"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="110">
+      <c r="B4" s="112">
         <v>1</v>
       </c>
-      <c r="C4" s="110"/>
+      <c r="C4" s="112"/>
       <c r="D4" s="60"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="108"/>
+      <c r="C5" s="110"/>
       <c r="D5" s="60"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="111">
+      <c r="B6" s="113">
         <v>45524</v>
       </c>
-      <c r="C6" s="111"/>
+      <c r="C6" s="113"/>
       <c r="D6" s="60"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="112">
+      <c r="B7" s="114">
         <v>45671</v>
       </c>
-      <c r="C7" s="112"/>
+      <c r="C7" s="114"/>
       <c r="D7" s="60"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="108" t="s">
+      <c r="B8" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="108"/>
+      <c r="C8" s="110"/>
       <c r="D8" s="60"/>
     </row>
     <row r="9" spans="1:5">
@@ -8437,11 +8437,11 @@
       <c r="A10" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="109" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
+      <c r="B10" s="111" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
       <c r="E10" s="59"/>
     </row>
     <row r="11" spans="1:5">
@@ -8457,22 +8457,22 @@
       <c r="D12" s="60"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="109" t="s">
+      <c r="A13" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="109"/>
-      <c r="C13" s="109"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="111"/>
       <c r="D13" s="60"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1"/>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A15" s="116" t="s">
+    <row r="14" spans="1:5" ht="15" thickBot="1"/>
+    <row r="15" spans="1:5" ht="15" thickBot="1">
+      <c r="A15" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="117" t="s">
+      <c r="B15" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="117" t="s">
+      <c r="C15" s="75" t="s">
         <v>51</v>
       </c>
     </row>
@@ -8481,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" s="40" t="s">
         <v>52</v>
@@ -8492,7 +8492,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="42" t="s">
         <v>52</v>
@@ -8503,18 +8503,18 @@
         <v>3</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" s="44" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="30">
+    <row r="19" spans="1:8">
       <c r="A19" s="45">
         <v>4</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19" s="46" t="s">
         <v>52</v>
@@ -8536,7 +8536,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" s="42" t="s">
         <v>52</v>
@@ -8568,12 +8568,12 @@
       <c r="C23" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="114" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="115"/>
+      <c r="D23" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
       <c r="H23" s="60"/>
     </row>
     <row r="24" spans="1:8">
@@ -8597,7 +8597,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="56" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="C25" s="42" t="s">
         <v>52</v>
@@ -8640,7 +8640,7 @@
       <c r="G27" s="60"/>
       <c r="H27" s="60"/>
     </row>
-    <row r="28" spans="1:8" ht="30">
+    <row r="28" spans="1:8" ht="29">
       <c r="A28" s="48">
         <v>13</v>
       </c>
@@ -8656,7 +8656,7 @@
       <c r="G28" s="60"/>
       <c r="H28" s="60"/>
     </row>
-    <row r="29" spans="1:8" ht="30">
+    <row r="29" spans="1:8" ht="29">
       <c r="A29" s="45">
         <v>14</v>
       </c>
@@ -8666,10 +8666,10 @@
       <c r="C29" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="113" t="s">
-        <v>83</v>
-      </c>
-      <c r="E29" s="109"/>
+      <c r="D29" s="115" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="111"/>
       <c r="F29" s="60"/>
       <c r="G29" s="60"/>
       <c r="H29" s="60"/>
@@ -8679,7 +8679,7 @@
         <v>15</v>
       </c>
       <c r="B30" s="38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C30" s="44" t="s">
         <v>52</v>
@@ -8695,7 +8695,7 @@
         <v>16</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C31" s="42" t="s">
         <v>52</v>
@@ -8711,7 +8711,7 @@
         <v>17</v>
       </c>
       <c r="B32" s="38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C32" s="44" t="s">
         <v>52</v>
@@ -8727,7 +8727,7 @@
         <v>18</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C33" s="42" t="s">
         <v>52</v>
@@ -8769,27 +8769,27 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1">
+    <row r="38" spans="1:3" ht="15" thickBot="1">
       <c r="A38" s="49"/>
       <c r="B38" s="57"/>
       <c r="C38" s="50"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="109" t="s">
+      <c r="A42" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="109"/>
-      <c r="C42" s="109"/>
+      <c r="B42" s="111"/>
+      <c r="C42" s="111"/>
     </row>
-    <row r="43" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="44" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A44" s="116" t="s">
+    <row r="43" spans="1:3" ht="15" thickBot="1"/>
+    <row r="44" spans="1:3" ht="15" thickBot="1">
+      <c r="A44" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="117" t="s">
+      <c r="B44" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="117" t="s">
+      <c r="C44" s="75" t="s">
         <v>51</v>
       </c>
     </row>
@@ -8853,7 +8853,7 @@
         <v>6</v>
       </c>
       <c r="B50" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C50" s="42" t="s">
         <v>52</v>
@@ -8912,7 +8912,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.75" thickBot="1">
+    <row r="56" spans="1:3" ht="15" thickBot="1">
       <c r="A56" s="51"/>
       <c r="B56" s="58"/>
       <c r="C56" s="52"/>

--- a/documentation/Marvin_AudioAnlage_Anforderungen_NoraHueppi_20240917.xlsx
+++ b/documentation/Marvin_AudioAnlage_Anforderungen_NoraHueppi_20240917.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd4b8c2adf92642a/Berufsschule/BuP/5_Semester/Marvin/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{222596FB-A639-49AC-A788-7FE2CF6654A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82547B62-EABD-458C-816F-291901F4E59F}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{222596FB-A639-49AC-A788-7FE2CF6654A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A3A450E-FBDB-493E-BB77-A482F3AE20F9}"/>
   <bookViews>
-    <workbookView xWindow="6910" yWindow="1160" windowWidth="8600" windowHeight="6170" xr2:uid="{5CC49039-70A6-4A49-B6FD-A7C35AB692E8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{5CC49039-70A6-4A49-B6FD-A7C35AB692E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplan" sheetId="4" r:id="rId1"/>
     <sheet name="Anforderungen" sheetId="2" r:id="rId2"/>
+    <sheet name="BoM" sheetId="5" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="Aufgabe">[1]Stammdaten!$D$3:$D$128</definedName>
@@ -1377,14 +1378,50 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1395,14 +1432,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1420,60 +1475,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1877,6 +1878,10 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2198,9 +2203,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{730C7784-EAA3-4F75-A441-9364A27E8BAB}">
   <dimension ref="A1:ES37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="EO46" sqref="EO46"/>
+    <sheetView topLeftCell="A18" zoomScale="95" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -2331,10 +2336,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:149" ht="21">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
+      <c r="B1" s="76"/>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
@@ -2628,186 +2633,186 @@
         <f>SUM(C6:EL6,C8:EL8,C10:EL10,C12:EL12,C14:EL14,C16:EL16,C18:EL18,C20:EL20,C22:EL22,C24:EL24,C26:EL26,C28:EL28,C30:EL30,C32:EL32,C34:EL34,C36:EL36)</f>
         <v>121</v>
       </c>
-      <c r="C3" s="98" t="s">
+      <c r="C3" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="108" t="s">
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="99"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="98" t="s">
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="99"/>
-      <c r="S3" s="99"/>
-      <c r="T3" s="99"/>
-      <c r="U3" s="99"/>
-      <c r="V3" s="99"/>
-      <c r="W3" s="100"/>
-      <c r="X3" s="98" t="s">
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="Y3" s="99"/>
-      <c r="Z3" s="99"/>
-      <c r="AA3" s="99"/>
-      <c r="AB3" s="99"/>
-      <c r="AC3" s="99"/>
-      <c r="AD3" s="100"/>
-      <c r="AE3" s="98" t="s">
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="78"/>
+      <c r="AB3" s="78"/>
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="AF3" s="99"/>
-      <c r="AG3" s="99"/>
-      <c r="AH3" s="99"/>
-      <c r="AI3" s="99"/>
-      <c r="AJ3" s="99"/>
-      <c r="AK3" s="100"/>
-      <c r="AL3" s="98" t="s">
+      <c r="AF3" s="78"/>
+      <c r="AG3" s="78"/>
+      <c r="AH3" s="78"/>
+      <c r="AI3" s="78"/>
+      <c r="AJ3" s="78"/>
+      <c r="AK3" s="79"/>
+      <c r="AL3" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="AM3" s="99"/>
-      <c r="AN3" s="99"/>
-      <c r="AO3" s="99"/>
-      <c r="AP3" s="99"/>
-      <c r="AQ3" s="99"/>
-      <c r="AR3" s="100"/>
-      <c r="AS3" s="98" t="s">
+      <c r="AM3" s="78"/>
+      <c r="AN3" s="78"/>
+      <c r="AO3" s="78"/>
+      <c r="AP3" s="78"/>
+      <c r="AQ3" s="78"/>
+      <c r="AR3" s="79"/>
+      <c r="AS3" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="99"/>
-      <c r="AU3" s="99"/>
-      <c r="AV3" s="99"/>
-      <c r="AW3" s="99"/>
-      <c r="AX3" s="99"/>
-      <c r="AY3" s="100"/>
-      <c r="AZ3" s="98" t="s">
+      <c r="AT3" s="78"/>
+      <c r="AU3" s="78"/>
+      <c r="AV3" s="78"/>
+      <c r="AW3" s="78"/>
+      <c r="AX3" s="78"/>
+      <c r="AY3" s="79"/>
+      <c r="AZ3" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="BA3" s="99"/>
-      <c r="BB3" s="99"/>
-      <c r="BC3" s="99"/>
-      <c r="BD3" s="99"/>
-      <c r="BE3" s="99"/>
-      <c r="BF3" s="100"/>
-      <c r="BG3" s="98" t="s">
+      <c r="BA3" s="78"/>
+      <c r="BB3" s="78"/>
+      <c r="BC3" s="78"/>
+      <c r="BD3" s="78"/>
+      <c r="BE3" s="78"/>
+      <c r="BF3" s="79"/>
+      <c r="BG3" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="BH3" s="99"/>
-      <c r="BI3" s="99"/>
-      <c r="BJ3" s="99"/>
-      <c r="BK3" s="99"/>
-      <c r="BL3" s="99"/>
-      <c r="BM3" s="100"/>
-      <c r="BN3" s="98" t="s">
+      <c r="BH3" s="78"/>
+      <c r="BI3" s="78"/>
+      <c r="BJ3" s="78"/>
+      <c r="BK3" s="78"/>
+      <c r="BL3" s="78"/>
+      <c r="BM3" s="79"/>
+      <c r="BN3" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="BO3" s="99"/>
-      <c r="BP3" s="99"/>
-      <c r="BQ3" s="99"/>
-      <c r="BR3" s="99"/>
-      <c r="BS3" s="99"/>
-      <c r="BT3" s="100"/>
-      <c r="BU3" s="98" t="s">
+      <c r="BO3" s="78"/>
+      <c r="BP3" s="78"/>
+      <c r="BQ3" s="78"/>
+      <c r="BR3" s="78"/>
+      <c r="BS3" s="78"/>
+      <c r="BT3" s="79"/>
+      <c r="BU3" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="BV3" s="99"/>
-      <c r="BW3" s="99"/>
-      <c r="BX3" s="99"/>
-      <c r="BY3" s="99"/>
-      <c r="BZ3" s="99"/>
-      <c r="CA3" s="100"/>
-      <c r="CB3" s="98" t="s">
+      <c r="BV3" s="78"/>
+      <c r="BW3" s="78"/>
+      <c r="BX3" s="78"/>
+      <c r="BY3" s="78"/>
+      <c r="BZ3" s="78"/>
+      <c r="CA3" s="79"/>
+      <c r="CB3" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="CC3" s="99"/>
-      <c r="CD3" s="99"/>
-      <c r="CE3" s="99"/>
-      <c r="CF3" s="99"/>
-      <c r="CG3" s="99"/>
-      <c r="CH3" s="100"/>
-      <c r="CI3" s="98" t="s">
+      <c r="CC3" s="78"/>
+      <c r="CD3" s="78"/>
+      <c r="CE3" s="78"/>
+      <c r="CF3" s="78"/>
+      <c r="CG3" s="78"/>
+      <c r="CH3" s="79"/>
+      <c r="CI3" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="CJ3" s="99"/>
-      <c r="CK3" s="99"/>
-      <c r="CL3" s="99"/>
-      <c r="CM3" s="99"/>
-      <c r="CN3" s="99"/>
-      <c r="CO3" s="100"/>
-      <c r="CP3" s="98" t="s">
+      <c r="CJ3" s="78"/>
+      <c r="CK3" s="78"/>
+      <c r="CL3" s="78"/>
+      <c r="CM3" s="78"/>
+      <c r="CN3" s="78"/>
+      <c r="CO3" s="79"/>
+      <c r="CP3" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="CQ3" s="99"/>
-      <c r="CR3" s="99"/>
-      <c r="CS3" s="99"/>
-      <c r="CT3" s="99"/>
-      <c r="CU3" s="99"/>
-      <c r="CV3" s="100"/>
-      <c r="CW3" s="98" t="s">
+      <c r="CQ3" s="78"/>
+      <c r="CR3" s="78"/>
+      <c r="CS3" s="78"/>
+      <c r="CT3" s="78"/>
+      <c r="CU3" s="78"/>
+      <c r="CV3" s="79"/>
+      <c r="CW3" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="CX3" s="99"/>
-      <c r="CY3" s="99"/>
-      <c r="CZ3" s="99"/>
-      <c r="DA3" s="99"/>
-      <c r="DB3" s="99"/>
-      <c r="DC3" s="100"/>
-      <c r="DD3" s="98" t="s">
+      <c r="CX3" s="78"/>
+      <c r="CY3" s="78"/>
+      <c r="CZ3" s="78"/>
+      <c r="DA3" s="78"/>
+      <c r="DB3" s="78"/>
+      <c r="DC3" s="79"/>
+      <c r="DD3" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="DE3" s="99"/>
-      <c r="DF3" s="99"/>
-      <c r="DG3" s="99"/>
-      <c r="DH3" s="99"/>
-      <c r="DI3" s="99"/>
-      <c r="DJ3" s="100"/>
-      <c r="DK3" s="98" t="s">
+      <c r="DE3" s="78"/>
+      <c r="DF3" s="78"/>
+      <c r="DG3" s="78"/>
+      <c r="DH3" s="78"/>
+      <c r="DI3" s="78"/>
+      <c r="DJ3" s="79"/>
+      <c r="DK3" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="DL3" s="99"/>
-      <c r="DM3" s="99"/>
-      <c r="DN3" s="99"/>
-      <c r="DO3" s="99"/>
-      <c r="DP3" s="99"/>
-      <c r="DQ3" s="100"/>
-      <c r="DR3" s="98" t="s">
+      <c r="DL3" s="78"/>
+      <c r="DM3" s="78"/>
+      <c r="DN3" s="78"/>
+      <c r="DO3" s="78"/>
+      <c r="DP3" s="78"/>
+      <c r="DQ3" s="79"/>
+      <c r="DR3" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="DS3" s="99"/>
-      <c r="DT3" s="99"/>
-      <c r="DU3" s="99"/>
-      <c r="DV3" s="99"/>
-      <c r="DW3" s="99"/>
-      <c r="DX3" s="100"/>
-      <c r="DY3" s="101" t="s">
+      <c r="DS3" s="78"/>
+      <c r="DT3" s="78"/>
+      <c r="DU3" s="78"/>
+      <c r="DV3" s="78"/>
+      <c r="DW3" s="78"/>
+      <c r="DX3" s="79"/>
+      <c r="DY3" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="DZ3" s="102"/>
-      <c r="EA3" s="102"/>
-      <c r="EB3" s="102"/>
-      <c r="EC3" s="102"/>
-      <c r="ED3" s="102"/>
-      <c r="EE3" s="103"/>
-      <c r="EF3" s="101" t="s">
+      <c r="DZ3" s="82"/>
+      <c r="EA3" s="82"/>
+      <c r="EB3" s="82"/>
+      <c r="EC3" s="82"/>
+      <c r="ED3" s="82"/>
+      <c r="EE3" s="83"/>
+      <c r="EF3" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="EG3" s="102"/>
-      <c r="EH3" s="102"/>
-      <c r="EI3" s="102"/>
-      <c r="EJ3" s="102"/>
-      <c r="EK3" s="102"/>
-      <c r="EL3" s="103"/>
+      <c r="EG3" s="82"/>
+      <c r="EH3" s="82"/>
+      <c r="EI3" s="82"/>
+      <c r="EJ3" s="82"/>
+      <c r="EK3" s="82"/>
+      <c r="EL3" s="83"/>
     </row>
     <row r="4" spans="1:149" ht="15" thickBot="1">
       <c r="A4" s="4" t="s">
@@ -3239,156 +3244,156 @@
       </c>
     </row>
     <row r="5" spans="1:149" ht="19" thickBot="1">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="94" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="80"/>
-      <c r="T5" s="80"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
-      <c r="W5" s="81"/>
-      <c r="X5" s="79"/>
-      <c r="Y5" s="80"/>
-      <c r="Z5" s="80"/>
-      <c r="AA5" s="80"/>
-      <c r="AB5" s="80"/>
-      <c r="AC5" s="80"/>
-      <c r="AD5" s="81"/>
-      <c r="AE5" s="79"/>
-      <c r="AF5" s="80"/>
-      <c r="AG5" s="80"/>
-      <c r="AH5" s="80"/>
-      <c r="AI5" s="80"/>
-      <c r="AJ5" s="80"/>
-      <c r="AK5" s="81"/>
-      <c r="AL5" s="85" t="s">
+      <c r="B5" s="95"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="92"/>
+      <c r="S5" s="92"/>
+      <c r="T5" s="92"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="92"/>
+      <c r="W5" s="93"/>
+      <c r="X5" s="91"/>
+      <c r="Y5" s="92"/>
+      <c r="Z5" s="92"/>
+      <c r="AA5" s="92"/>
+      <c r="AB5" s="92"/>
+      <c r="AC5" s="92"/>
+      <c r="AD5" s="93"/>
+      <c r="AE5" s="91"/>
+      <c r="AF5" s="92"/>
+      <c r="AG5" s="92"/>
+      <c r="AH5" s="92"/>
+      <c r="AI5" s="92"/>
+      <c r="AJ5" s="92"/>
+      <c r="AK5" s="93"/>
+      <c r="AL5" s="103" t="s">
         <v>94</v>
       </c>
-      <c r="AM5" s="86"/>
-      <c r="AN5" s="86"/>
-      <c r="AO5" s="86"/>
-      <c r="AP5" s="86"/>
-      <c r="AQ5" s="86"/>
-      <c r="AR5" s="87"/>
-      <c r="AS5" s="79"/>
-      <c r="AT5" s="80"/>
-      <c r="AU5" s="80"/>
-      <c r="AV5" s="80"/>
-      <c r="AW5" s="80"/>
-      <c r="AX5" s="80"/>
-      <c r="AY5" s="81"/>
-      <c r="AZ5" s="79"/>
-      <c r="BA5" s="80"/>
-      <c r="BB5" s="80"/>
-      <c r="BC5" s="80"/>
-      <c r="BD5" s="80"/>
-      <c r="BE5" s="80"/>
-      <c r="BF5" s="81"/>
-      <c r="BG5" s="79"/>
-      <c r="BH5" s="80"/>
-      <c r="BI5" s="80"/>
-      <c r="BJ5" s="80"/>
-      <c r="BK5" s="80"/>
-      <c r="BL5" s="80"/>
-      <c r="BM5" s="81"/>
-      <c r="BN5" s="79"/>
-      <c r="BO5" s="80"/>
-      <c r="BP5" s="80"/>
-      <c r="BQ5" s="80"/>
-      <c r="BR5" s="80"/>
-      <c r="BS5" s="80"/>
-      <c r="BT5" s="81"/>
-      <c r="BU5" s="79"/>
-      <c r="BV5" s="80"/>
-      <c r="BW5" s="80"/>
-      <c r="BX5" s="80"/>
-      <c r="BY5" s="80"/>
-      <c r="BZ5" s="80"/>
-      <c r="CA5" s="81"/>
-      <c r="CB5" s="79"/>
-      <c r="CC5" s="80"/>
-      <c r="CD5" s="80"/>
-      <c r="CE5" s="80"/>
-      <c r="CF5" s="80"/>
-      <c r="CG5" s="80"/>
-      <c r="CH5" s="81"/>
-      <c r="CI5" s="79"/>
-      <c r="CJ5" s="80"/>
-      <c r="CK5" s="80"/>
-      <c r="CL5" s="80"/>
-      <c r="CM5" s="80"/>
-      <c r="CN5" s="80"/>
-      <c r="CO5" s="81"/>
-      <c r="CP5" s="79"/>
-      <c r="CQ5" s="80"/>
-      <c r="CR5" s="80"/>
-      <c r="CS5" s="80"/>
-      <c r="CT5" s="80"/>
-      <c r="CU5" s="80"/>
-      <c r="CV5" s="81"/>
-      <c r="CW5" s="79"/>
-      <c r="CX5" s="80"/>
-      <c r="CY5" s="80"/>
-      <c r="CZ5" s="80"/>
-      <c r="DA5" s="80"/>
-      <c r="DB5" s="80"/>
-      <c r="DC5" s="81"/>
-      <c r="DD5" s="79"/>
-      <c r="DE5" s="80"/>
-      <c r="DF5" s="80"/>
-      <c r="DG5" s="80"/>
-      <c r="DH5" s="80"/>
-      <c r="DI5" s="80"/>
-      <c r="DJ5" s="81"/>
-      <c r="DK5" s="82" t="s">
+      <c r="AM5" s="104"/>
+      <c r="AN5" s="104"/>
+      <c r="AO5" s="104"/>
+      <c r="AP5" s="104"/>
+      <c r="AQ5" s="104"/>
+      <c r="AR5" s="105"/>
+      <c r="AS5" s="91"/>
+      <c r="AT5" s="92"/>
+      <c r="AU5" s="92"/>
+      <c r="AV5" s="92"/>
+      <c r="AW5" s="92"/>
+      <c r="AX5" s="92"/>
+      <c r="AY5" s="93"/>
+      <c r="AZ5" s="91"/>
+      <c r="BA5" s="92"/>
+      <c r="BB5" s="92"/>
+      <c r="BC5" s="92"/>
+      <c r="BD5" s="92"/>
+      <c r="BE5" s="92"/>
+      <c r="BF5" s="93"/>
+      <c r="BG5" s="91"/>
+      <c r="BH5" s="92"/>
+      <c r="BI5" s="92"/>
+      <c r="BJ5" s="92"/>
+      <c r="BK5" s="92"/>
+      <c r="BL5" s="92"/>
+      <c r="BM5" s="93"/>
+      <c r="BN5" s="91"/>
+      <c r="BO5" s="92"/>
+      <c r="BP5" s="92"/>
+      <c r="BQ5" s="92"/>
+      <c r="BR5" s="92"/>
+      <c r="BS5" s="92"/>
+      <c r="BT5" s="93"/>
+      <c r="BU5" s="91"/>
+      <c r="BV5" s="92"/>
+      <c r="BW5" s="92"/>
+      <c r="BX5" s="92"/>
+      <c r="BY5" s="92"/>
+      <c r="BZ5" s="92"/>
+      <c r="CA5" s="93"/>
+      <c r="CB5" s="91"/>
+      <c r="CC5" s="92"/>
+      <c r="CD5" s="92"/>
+      <c r="CE5" s="92"/>
+      <c r="CF5" s="92"/>
+      <c r="CG5" s="92"/>
+      <c r="CH5" s="93"/>
+      <c r="CI5" s="91"/>
+      <c r="CJ5" s="92"/>
+      <c r="CK5" s="92"/>
+      <c r="CL5" s="92"/>
+      <c r="CM5" s="92"/>
+      <c r="CN5" s="92"/>
+      <c r="CO5" s="93"/>
+      <c r="CP5" s="91"/>
+      <c r="CQ5" s="92"/>
+      <c r="CR5" s="92"/>
+      <c r="CS5" s="92"/>
+      <c r="CT5" s="92"/>
+      <c r="CU5" s="92"/>
+      <c r="CV5" s="93"/>
+      <c r="CW5" s="91"/>
+      <c r="CX5" s="92"/>
+      <c r="CY5" s="92"/>
+      <c r="CZ5" s="92"/>
+      <c r="DA5" s="92"/>
+      <c r="DB5" s="92"/>
+      <c r="DC5" s="93"/>
+      <c r="DD5" s="91"/>
+      <c r="DE5" s="92"/>
+      <c r="DF5" s="92"/>
+      <c r="DG5" s="92"/>
+      <c r="DH5" s="92"/>
+      <c r="DI5" s="92"/>
+      <c r="DJ5" s="93"/>
+      <c r="DK5" s="88" t="s">
         <v>93</v>
       </c>
-      <c r="DL5" s="83"/>
-      <c r="DM5" s="83"/>
-      <c r="DN5" s="83"/>
-      <c r="DO5" s="83"/>
-      <c r="DP5" s="83"/>
-      <c r="DQ5" s="84"/>
-      <c r="DR5" s="82" t="s">
+      <c r="DL5" s="89"/>
+      <c r="DM5" s="89"/>
+      <c r="DN5" s="89"/>
+      <c r="DO5" s="89"/>
+      <c r="DP5" s="89"/>
+      <c r="DQ5" s="90"/>
+      <c r="DR5" s="88" t="s">
         <v>93</v>
       </c>
-      <c r="DS5" s="83"/>
-      <c r="DT5" s="83"/>
-      <c r="DU5" s="83"/>
-      <c r="DV5" s="83"/>
-      <c r="DW5" s="83"/>
-      <c r="DX5" s="84"/>
-      <c r="DY5" s="79"/>
-      <c r="DZ5" s="80"/>
-      <c r="EA5" s="80"/>
-      <c r="EB5" s="80"/>
-      <c r="EC5" s="80"/>
-      <c r="ED5" s="80"/>
-      <c r="EE5" s="81"/>
-      <c r="EF5" s="79"/>
-      <c r="EG5" s="80"/>
-      <c r="EH5" s="80"/>
-      <c r="EI5" s="80"/>
-      <c r="EJ5" s="80"/>
-      <c r="EK5" s="80"/>
-      <c r="EL5" s="81"/>
+      <c r="DS5" s="89"/>
+      <c r="DT5" s="89"/>
+      <c r="DU5" s="89"/>
+      <c r="DV5" s="89"/>
+      <c r="DW5" s="89"/>
+      <c r="DX5" s="90"/>
+      <c r="DY5" s="91"/>
+      <c r="DZ5" s="92"/>
+      <c r="EA5" s="92"/>
+      <c r="EB5" s="92"/>
+      <c r="EC5" s="92"/>
+      <c r="ED5" s="92"/>
+      <c r="EE5" s="93"/>
+      <c r="EF5" s="91"/>
+      <c r="EG5" s="92"/>
+      <c r="EH5" s="92"/>
+      <c r="EI5" s="92"/>
+      <c r="EJ5" s="92"/>
+      <c r="EK5" s="92"/>
+      <c r="EL5" s="93"/>
       <c r="EM5" s="2"/>
       <c r="EN5" s="2"/>
       <c r="EO5" s="2"/>
@@ -3398,7 +3403,7 @@
       <c r="ES5" s="2"/>
     </row>
     <row r="6" spans="1:149" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="84" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -3582,7 +3587,7 @@
       <c r="EL6" s="16"/>
     </row>
     <row r="7" spans="1:149" ht="15" thickBot="1">
-      <c r="A7" s="92"/>
+      <c r="A7" s="85"/>
       <c r="B7" s="66" t="s">
         <v>32</v>
       </c>
@@ -3734,7 +3739,7 @@
       <c r="EL7" s="22"/>
     </row>
     <row r="8" spans="1:149" ht="15" thickBot="1">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="86" t="s">
         <v>92</v>
       </c>
       <c r="B8" s="65" t="s">
@@ -3890,7 +3895,7 @@
       <c r="EL8" s="22"/>
     </row>
     <row r="9" spans="1:149" ht="15" thickBot="1">
-      <c r="A9" s="94"/>
+      <c r="A9" s="87"/>
       <c r="B9" s="66" t="s">
         <v>32</v>
       </c>
@@ -4046,7 +4051,7 @@
       <c r="EL9" s="22"/>
     </row>
     <row r="10" spans="1:149" ht="15" thickBot="1">
-      <c r="A10" s="91" t="s">
+      <c r="A10" s="96" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="65" t="s">
@@ -4200,7 +4205,7 @@
       <c r="EL10" s="22"/>
     </row>
     <row r="11" spans="1:149" ht="15" thickBot="1">
-      <c r="A11" s="92"/>
+      <c r="A11" s="85"/>
       <c r="B11" s="66" t="s">
         <v>32</v>
       </c>
@@ -4352,7 +4357,7 @@
       <c r="EL11" s="22"/>
     </row>
     <row r="12" spans="1:149" ht="15" thickBot="1">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="96" t="s">
         <v>78</v>
       </c>
       <c r="B12" s="65" t="s">
@@ -4506,7 +4511,7 @@
       <c r="EL12" s="22"/>
     </row>
     <row r="13" spans="1:149" ht="15" thickBot="1">
-      <c r="A13" s="92"/>
+      <c r="A13" s="85"/>
       <c r="B13" s="66" t="s">
         <v>32</v>
       </c>
@@ -4658,7 +4663,7 @@
       <c r="EL13" s="22"/>
     </row>
     <row r="14" spans="1:149" ht="15" thickBot="1">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="86" t="s">
         <v>91</v>
       </c>
       <c r="B14" s="65" t="s">
@@ -4812,7 +4817,7 @@
       <c r="EL14" s="22"/>
     </row>
     <row r="15" spans="1:149" ht="15" thickBot="1">
-      <c r="A15" s="94"/>
+      <c r="A15" s="87"/>
       <c r="B15" s="66" t="s">
         <v>32</v>
       </c>
@@ -4962,7 +4967,7 @@
       <c r="EL15" s="22"/>
     </row>
     <row r="16" spans="1:149" ht="15" thickBot="1">
-      <c r="A16" s="91" t="s">
+      <c r="A16" s="96" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="65" t="s">
@@ -5262,7 +5267,7 @@
       <c r="EL17" s="22"/>
     </row>
     <row r="18" spans="1:142" ht="15" thickBot="1">
-      <c r="A18" s="91" t="s">
+      <c r="A18" s="96" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="65" t="s">
@@ -5560,7 +5565,7 @@
       <c r="EL19" s="22"/>
     </row>
     <row r="20" spans="1:142" ht="15" thickBot="1">
-      <c r="A20" s="91" t="s">
+      <c r="A20" s="96" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="65" t="s">
@@ -5860,7 +5865,7 @@
       <c r="EL21" s="22"/>
     </row>
     <row r="22" spans="1:142" ht="15" thickBot="1">
-      <c r="A22" s="93" t="s">
+      <c r="A22" s="86" t="s">
         <v>86</v>
       </c>
       <c r="B22" s="65" t="s">
@@ -6014,7 +6019,7 @@
       <c r="EL22" s="22"/>
     </row>
     <row r="23" spans="1:142" ht="15" thickBot="1">
-      <c r="A23" s="94"/>
+      <c r="A23" s="87"/>
       <c r="B23" s="66" t="s">
         <v>32</v>
       </c>
@@ -6160,7 +6165,7 @@
       <c r="EL23" s="22"/>
     </row>
     <row r="24" spans="1:142" ht="15" thickBot="1">
-      <c r="A24" s="76" t="s">
+      <c r="A24" s="100" t="s">
         <v>87</v>
       </c>
       <c r="B24" s="65" t="s">
@@ -6310,7 +6315,7 @@
       <c r="EL24" s="22"/>
     </row>
     <row r="25" spans="1:142" ht="15" thickBot="1">
-      <c r="A25" s="77"/>
+      <c r="A25" s="101"/>
       <c r="B25" s="66" t="s">
         <v>32</v>
       </c>
@@ -6456,7 +6461,7 @@
       <c r="EL25" s="22"/>
     </row>
     <row r="26" spans="1:142" ht="15" thickBot="1">
-      <c r="A26" s="76" t="s">
+      <c r="A26" s="100" t="s">
         <v>96</v>
       </c>
       <c r="B26" s="65" t="s">
@@ -6610,7 +6615,7 @@
       <c r="EL26" s="22"/>
     </row>
     <row r="27" spans="1:142" ht="15" thickBot="1">
-      <c r="A27" s="78"/>
+      <c r="A27" s="102"/>
       <c r="B27" s="66" t="s">
         <v>32</v>
       </c>
@@ -6756,7 +6761,7 @@
       <c r="EL27" s="22"/>
     </row>
     <row r="28" spans="1:142" ht="15" thickBot="1">
-      <c r="A28" s="93" t="s">
+      <c r="A28" s="86" t="s">
         <v>34</v>
       </c>
       <c r="B28" s="65" t="s">
@@ -6908,7 +6913,7 @@
       <c r="EL28" s="22"/>
     </row>
     <row r="29" spans="1:142" ht="15" thickBot="1">
-      <c r="A29" s="94"/>
+      <c r="A29" s="87"/>
       <c r="B29" s="66" t="s">
         <v>32</v>
       </c>
@@ -7054,7 +7059,7 @@
       <c r="EL29" s="22"/>
     </row>
     <row r="30" spans="1:142" ht="15" thickBot="1">
-      <c r="A30" s="93" t="s">
+      <c r="A30" s="86" t="s">
         <v>88</v>
       </c>
       <c r="B30" s="65" t="s">
@@ -7228,7 +7233,7 @@
       <c r="EL30" s="22"/>
     </row>
     <row r="31" spans="1:142" ht="15" thickBot="1">
-      <c r="A31" s="94"/>
+      <c r="A31" s="87"/>
       <c r="B31" s="66" t="s">
         <v>32</v>
       </c>
@@ -7374,7 +7379,7 @@
       <c r="EL31" s="22"/>
     </row>
     <row r="32" spans="1:142" ht="15" thickBot="1">
-      <c r="A32" s="93" t="s">
+      <c r="A32" s="86" t="s">
         <v>89</v>
       </c>
       <c r="B32" s="65" t="s">
@@ -7528,7 +7533,7 @@
       <c r="EL32" s="22"/>
     </row>
     <row r="33" spans="1:142" ht="15" thickBot="1">
-      <c r="A33" s="95"/>
+      <c r="A33" s="98"/>
       <c r="B33" s="66" t="s">
         <v>32</v>
       </c>
@@ -7674,7 +7679,7 @@
       <c r="EL33" s="22"/>
     </row>
     <row r="34" spans="1:142" ht="15" thickBot="1">
-      <c r="A34" s="93" t="s">
+      <c r="A34" s="86" t="s">
         <v>35</v>
       </c>
       <c r="B34" s="65" t="s">
@@ -7838,7 +7843,7 @@
       <c r="EL34" s="22"/>
     </row>
     <row r="35" spans="1:142" ht="15" thickBot="1">
-      <c r="A35" s="94"/>
+      <c r="A35" s="87"/>
       <c r="B35" s="66" t="s">
         <v>32</v>
       </c>
@@ -7984,7 +7989,7 @@
       <c r="EL35" s="22"/>
     </row>
     <row r="36" spans="1:142" ht="15" thickBot="1">
-      <c r="A36" s="93" t="s">
+      <c r="A36" s="86" t="s">
         <v>90</v>
       </c>
       <c r="B36" s="65" t="s">
@@ -8134,7 +8139,7 @@
       <c r="EL36" s="22"/>
     </row>
     <row r="37" spans="1:142" ht="15" thickBot="1">
-      <c r="A37" s="96"/>
+      <c r="A37" s="99"/>
       <c r="B37" s="66" t="s">
         <v>32</v>
       </c>
@@ -8281,11 +8286,43 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="J3:P3"/>
-    <mergeCell ref="Q3:W3"/>
-    <mergeCell ref="X3:AD3"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="DD5:DJ5"/>
+    <mergeCell ref="DK5:DQ5"/>
+    <mergeCell ref="AL5:AR5"/>
+    <mergeCell ref="AS5:AY5"/>
+    <mergeCell ref="AZ5:BF5"/>
+    <mergeCell ref="BG5:BM5"/>
+    <mergeCell ref="BN5:BT5"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="Q5:W5"/>
+    <mergeCell ref="X5:AD5"/>
+    <mergeCell ref="AE5:AK5"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="DR3:DX3"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="CI3:CO3"/>
+    <mergeCell ref="CP3:CV3"/>
+    <mergeCell ref="CW3:DC3"/>
+    <mergeCell ref="BU3:CA3"/>
+    <mergeCell ref="AE3:AK3"/>
+    <mergeCell ref="AL3:AR3"/>
+    <mergeCell ref="AS3:AY3"/>
+    <mergeCell ref="AZ3:BF3"/>
+    <mergeCell ref="BG3:BM3"/>
+    <mergeCell ref="BN3:BT3"/>
     <mergeCell ref="DY3:EE3"/>
     <mergeCell ref="EF3:EL3"/>
     <mergeCell ref="A6:A7"/>
@@ -8302,43 +8339,11 @@
     <mergeCell ref="CW5:DC5"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="CB3:CH3"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="DR3:DX3"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="CI3:CO3"/>
-    <mergeCell ref="CP3:CV3"/>
-    <mergeCell ref="CW3:DC3"/>
-    <mergeCell ref="BU3:CA3"/>
-    <mergeCell ref="AE3:AK3"/>
-    <mergeCell ref="AL3:AR3"/>
-    <mergeCell ref="AS3:AY3"/>
-    <mergeCell ref="AZ3:BF3"/>
-    <mergeCell ref="BG3:BM3"/>
-    <mergeCell ref="BN3:BT3"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="DD5:DJ5"/>
-    <mergeCell ref="DK5:DQ5"/>
-    <mergeCell ref="AL5:AR5"/>
-    <mergeCell ref="AS5:AY5"/>
-    <mergeCell ref="AZ5:BF5"/>
-    <mergeCell ref="BG5:BM5"/>
-    <mergeCell ref="BN5:BT5"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="J5:P5"/>
-    <mergeCell ref="Q5:W5"/>
-    <mergeCell ref="X5:AD5"/>
-    <mergeCell ref="AE5:AK5"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="Q3:W3"/>
+    <mergeCell ref="X3:AD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8934,4 +8939,16 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE61892C-FE6C-4A4A-BAF9-D966EA164C2A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documentation/Marvin_AudioAnlage_Anforderungen_NoraHueppi_20240917.xlsx
+++ b/documentation/Marvin_AudioAnlage_Anforderungen_NoraHueppi_20240917.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd4b8c2adf92642a/Berufsschule/BuP/5_Semester/Marvin/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{222596FB-A639-49AC-A788-7FE2CF6654A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A3A450E-FBDB-493E-BB77-A482F3AE20F9}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="13_ncr:1_{222596FB-A639-49AC-A788-7FE2CF6654A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9D91153-441C-47D1-B360-ED162A866621}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{5CC49039-70A6-4A49-B6FD-A7C35AB692E8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5CC49039-70A6-4A49-B6FD-A7C35AB692E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplan" sheetId="4" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="100">
   <si>
     <t>Zeitplan</t>
   </si>
@@ -137,15 +137,9 @@
     <t>KW 3</t>
   </si>
   <si>
-    <t>Stückliste</t>
-  </si>
-  <si>
     <t>Schema</t>
   </si>
   <si>
-    <t>Layout</t>
-  </si>
-  <si>
     <t>Soll</t>
   </si>
   <si>
@@ -153,9 +147,6 @@
   </si>
   <si>
     <t>Dokumentation</t>
-  </si>
-  <si>
-    <t>Audio aufnehmen</t>
   </si>
   <si>
     <t>Präsentation vorbereiten</t>
@@ -447,6 +438,21 @@
   </si>
   <si>
     <t>Es soll eine Zeitschalterfunktion geben, mit der die Anlage zu einer bestimmten Uhrzeit aktiviert wird.</t>
+  </si>
+  <si>
+    <t>BoM</t>
+  </si>
+  <si>
+    <t>Gelötet</t>
+  </si>
+  <si>
+    <t>Audio aufnehmen und bearbeiten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 </t>
+  </si>
+  <si>
+    <t>awq</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1378,50 +1384,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1432,32 +1402,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1475,6 +1427,60 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1504,6 +1510,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2203,9 +2219,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{730C7784-EAA3-4F75-A441-9364A27E8BAB}">
   <dimension ref="A1:ES37"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="95" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:B1"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="CU1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DB13" sqref="DB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -2336,10 +2352,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:149" ht="21">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76"/>
+      <c r="B1" s="107"/>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
@@ -2627,200 +2643,200 @@
     </row>
     <row r="3" spans="1:149" ht="15" thickBot="1">
       <c r="A3" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B3" s="67">
         <f>SUM(C6:EL6,C8:EL8,C10:EL10,C12:EL12,C14:EL14,C16:EL16,C18:EL18,C20:EL20,C22:EL22,C24:EL24,C26:EL26,C28:EL28,C30:EL30,C32:EL32,C34:EL34,C36:EL36)</f>
-        <v>121</v>
-      </c>
-      <c r="C3" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="80" t="s">
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="77" t="s">
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="79"/>
-      <c r="X3" s="77" t="s">
+      <c r="R3" s="99"/>
+      <c r="S3" s="99"/>
+      <c r="T3" s="99"/>
+      <c r="U3" s="99"/>
+      <c r="V3" s="99"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="78"/>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="79"/>
-      <c r="AE3" s="77" t="s">
+      <c r="Y3" s="99"/>
+      <c r="Z3" s="99"/>
+      <c r="AA3" s="99"/>
+      <c r="AB3" s="99"/>
+      <c r="AC3" s="99"/>
+      <c r="AD3" s="100"/>
+      <c r="AE3" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="AF3" s="78"/>
-      <c r="AG3" s="78"/>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="78"/>
-      <c r="AJ3" s="78"/>
-      <c r="AK3" s="79"/>
-      <c r="AL3" s="77" t="s">
+      <c r="AF3" s="99"/>
+      <c r="AG3" s="99"/>
+      <c r="AH3" s="99"/>
+      <c r="AI3" s="99"/>
+      <c r="AJ3" s="99"/>
+      <c r="AK3" s="100"/>
+      <c r="AL3" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="AM3" s="78"/>
-      <c r="AN3" s="78"/>
-      <c r="AO3" s="78"/>
-      <c r="AP3" s="78"/>
-      <c r="AQ3" s="78"/>
-      <c r="AR3" s="79"/>
-      <c r="AS3" s="77" t="s">
+      <c r="AM3" s="99"/>
+      <c r="AN3" s="99"/>
+      <c r="AO3" s="99"/>
+      <c r="AP3" s="99"/>
+      <c r="AQ3" s="99"/>
+      <c r="AR3" s="100"/>
+      <c r="AS3" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="78"/>
-      <c r="AU3" s="78"/>
-      <c r="AV3" s="78"/>
-      <c r="AW3" s="78"/>
-      <c r="AX3" s="78"/>
-      <c r="AY3" s="79"/>
-      <c r="AZ3" s="77" t="s">
+      <c r="AT3" s="99"/>
+      <c r="AU3" s="99"/>
+      <c r="AV3" s="99"/>
+      <c r="AW3" s="99"/>
+      <c r="AX3" s="99"/>
+      <c r="AY3" s="100"/>
+      <c r="AZ3" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="BA3" s="78"/>
-      <c r="BB3" s="78"/>
-      <c r="BC3" s="78"/>
-      <c r="BD3" s="78"/>
-      <c r="BE3" s="78"/>
-      <c r="BF3" s="79"/>
-      <c r="BG3" s="77" t="s">
+      <c r="BA3" s="99"/>
+      <c r="BB3" s="99"/>
+      <c r="BC3" s="99"/>
+      <c r="BD3" s="99"/>
+      <c r="BE3" s="99"/>
+      <c r="BF3" s="100"/>
+      <c r="BG3" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="BH3" s="78"/>
-      <c r="BI3" s="78"/>
-      <c r="BJ3" s="78"/>
-      <c r="BK3" s="78"/>
-      <c r="BL3" s="78"/>
-      <c r="BM3" s="79"/>
-      <c r="BN3" s="77" t="s">
+      <c r="BH3" s="99"/>
+      <c r="BI3" s="99"/>
+      <c r="BJ3" s="99"/>
+      <c r="BK3" s="99"/>
+      <c r="BL3" s="99"/>
+      <c r="BM3" s="100"/>
+      <c r="BN3" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="BO3" s="78"/>
-      <c r="BP3" s="78"/>
-      <c r="BQ3" s="78"/>
-      <c r="BR3" s="78"/>
-      <c r="BS3" s="78"/>
-      <c r="BT3" s="79"/>
-      <c r="BU3" s="77" t="s">
+      <c r="BO3" s="99"/>
+      <c r="BP3" s="99"/>
+      <c r="BQ3" s="99"/>
+      <c r="BR3" s="99"/>
+      <c r="BS3" s="99"/>
+      <c r="BT3" s="100"/>
+      <c r="BU3" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="BV3" s="78"/>
-      <c r="BW3" s="78"/>
-      <c r="BX3" s="78"/>
-      <c r="BY3" s="78"/>
-      <c r="BZ3" s="78"/>
-      <c r="CA3" s="79"/>
-      <c r="CB3" s="77" t="s">
+      <c r="BV3" s="99"/>
+      <c r="BW3" s="99"/>
+      <c r="BX3" s="99"/>
+      <c r="BY3" s="99"/>
+      <c r="BZ3" s="99"/>
+      <c r="CA3" s="100"/>
+      <c r="CB3" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="CC3" s="78"/>
-      <c r="CD3" s="78"/>
-      <c r="CE3" s="78"/>
-      <c r="CF3" s="78"/>
-      <c r="CG3" s="78"/>
-      <c r="CH3" s="79"/>
-      <c r="CI3" s="77" t="s">
+      <c r="CC3" s="99"/>
+      <c r="CD3" s="99"/>
+      <c r="CE3" s="99"/>
+      <c r="CF3" s="99"/>
+      <c r="CG3" s="99"/>
+      <c r="CH3" s="100"/>
+      <c r="CI3" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="CJ3" s="78"/>
-      <c r="CK3" s="78"/>
-      <c r="CL3" s="78"/>
-      <c r="CM3" s="78"/>
-      <c r="CN3" s="78"/>
-      <c r="CO3" s="79"/>
-      <c r="CP3" s="77" t="s">
+      <c r="CJ3" s="99"/>
+      <c r="CK3" s="99"/>
+      <c r="CL3" s="99"/>
+      <c r="CM3" s="99"/>
+      <c r="CN3" s="99"/>
+      <c r="CO3" s="100"/>
+      <c r="CP3" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="CQ3" s="78"/>
-      <c r="CR3" s="78"/>
-      <c r="CS3" s="78"/>
-      <c r="CT3" s="78"/>
-      <c r="CU3" s="78"/>
-      <c r="CV3" s="79"/>
-      <c r="CW3" s="77" t="s">
+      <c r="CQ3" s="99"/>
+      <c r="CR3" s="99"/>
+      <c r="CS3" s="99"/>
+      <c r="CT3" s="99"/>
+      <c r="CU3" s="99"/>
+      <c r="CV3" s="100"/>
+      <c r="CW3" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="CX3" s="78"/>
-      <c r="CY3" s="78"/>
-      <c r="CZ3" s="78"/>
-      <c r="DA3" s="78"/>
-      <c r="DB3" s="78"/>
-      <c r="DC3" s="79"/>
-      <c r="DD3" s="77" t="s">
+      <c r="CX3" s="99"/>
+      <c r="CY3" s="99"/>
+      <c r="CZ3" s="99"/>
+      <c r="DA3" s="99"/>
+      <c r="DB3" s="99"/>
+      <c r="DC3" s="100"/>
+      <c r="DD3" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="DE3" s="78"/>
-      <c r="DF3" s="78"/>
-      <c r="DG3" s="78"/>
-      <c r="DH3" s="78"/>
-      <c r="DI3" s="78"/>
-      <c r="DJ3" s="79"/>
-      <c r="DK3" s="77" t="s">
+      <c r="DE3" s="99"/>
+      <c r="DF3" s="99"/>
+      <c r="DG3" s="99"/>
+      <c r="DH3" s="99"/>
+      <c r="DI3" s="99"/>
+      <c r="DJ3" s="100"/>
+      <c r="DK3" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="DL3" s="78"/>
-      <c r="DM3" s="78"/>
-      <c r="DN3" s="78"/>
-      <c r="DO3" s="78"/>
-      <c r="DP3" s="78"/>
-      <c r="DQ3" s="79"/>
-      <c r="DR3" s="77" t="s">
+      <c r="DL3" s="99"/>
+      <c r="DM3" s="99"/>
+      <c r="DN3" s="99"/>
+      <c r="DO3" s="99"/>
+      <c r="DP3" s="99"/>
+      <c r="DQ3" s="100"/>
+      <c r="DR3" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="DS3" s="78"/>
-      <c r="DT3" s="78"/>
-      <c r="DU3" s="78"/>
-      <c r="DV3" s="78"/>
-      <c r="DW3" s="78"/>
-      <c r="DX3" s="79"/>
-      <c r="DY3" s="81" t="s">
+      <c r="DS3" s="99"/>
+      <c r="DT3" s="99"/>
+      <c r="DU3" s="99"/>
+      <c r="DV3" s="99"/>
+      <c r="DW3" s="99"/>
+      <c r="DX3" s="100"/>
+      <c r="DY3" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="DZ3" s="82"/>
-      <c r="EA3" s="82"/>
-      <c r="EB3" s="82"/>
-      <c r="EC3" s="82"/>
-      <c r="ED3" s="82"/>
-      <c r="EE3" s="83"/>
-      <c r="EF3" s="81" t="s">
+      <c r="DZ3" s="102"/>
+      <c r="EA3" s="102"/>
+      <c r="EB3" s="102"/>
+      <c r="EC3" s="102"/>
+      <c r="ED3" s="102"/>
+      <c r="EE3" s="103"/>
+      <c r="EF3" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="EG3" s="82"/>
-      <c r="EH3" s="82"/>
-      <c r="EI3" s="82"/>
-      <c r="EJ3" s="82"/>
-      <c r="EK3" s="82"/>
-      <c r="EL3" s="83"/>
+      <c r="EG3" s="102"/>
+      <c r="EH3" s="102"/>
+      <c r="EI3" s="102"/>
+      <c r="EJ3" s="102"/>
+      <c r="EK3" s="102"/>
+      <c r="EL3" s="103"/>
     </row>
     <row r="4" spans="1:149" ht="15" thickBot="1">
       <c r="A4" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B4" s="64">
         <f>SUM(C7:EL7,C9:EL9,C11:EL11,C13:EL13,C15:EL15,C17:EL17,C19:EL19,C21:EL21,C23:EL23,C25:EL25,C27:EL27,C29:EL29,C31:EL31,C33:EL33,C35:EL35,C37:EL37)</f>
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="C4" s="35" t="s">
         <v>1</v>
@@ -3244,156 +3260,156 @@
       </c>
     </row>
     <row r="5" spans="1:149" ht="19" thickBot="1">
-      <c r="A5" s="94" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="92"/>
-      <c r="S5" s="92"/>
-      <c r="T5" s="92"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
-      <c r="W5" s="93"/>
-      <c r="X5" s="91"/>
-      <c r="Y5" s="92"/>
-      <c r="Z5" s="92"/>
-      <c r="AA5" s="92"/>
-      <c r="AB5" s="92"/>
-      <c r="AC5" s="92"/>
-      <c r="AD5" s="93"/>
-      <c r="AE5" s="91"/>
-      <c r="AF5" s="92"/>
-      <c r="AG5" s="92"/>
-      <c r="AH5" s="92"/>
-      <c r="AI5" s="92"/>
-      <c r="AJ5" s="92"/>
-      <c r="AK5" s="93"/>
-      <c r="AL5" s="103" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM5" s="104"/>
-      <c r="AN5" s="104"/>
-      <c r="AO5" s="104"/>
-      <c r="AP5" s="104"/>
-      <c r="AQ5" s="104"/>
-      <c r="AR5" s="105"/>
-      <c r="AS5" s="91"/>
-      <c r="AT5" s="92"/>
-      <c r="AU5" s="92"/>
-      <c r="AV5" s="92"/>
-      <c r="AW5" s="92"/>
-      <c r="AX5" s="92"/>
-      <c r="AY5" s="93"/>
-      <c r="AZ5" s="91"/>
-      <c r="BA5" s="92"/>
-      <c r="BB5" s="92"/>
-      <c r="BC5" s="92"/>
-      <c r="BD5" s="92"/>
-      <c r="BE5" s="92"/>
-      <c r="BF5" s="93"/>
-      <c r="BG5" s="91"/>
-      <c r="BH5" s="92"/>
-      <c r="BI5" s="92"/>
-      <c r="BJ5" s="92"/>
-      <c r="BK5" s="92"/>
-      <c r="BL5" s="92"/>
-      <c r="BM5" s="93"/>
-      <c r="BN5" s="91"/>
-      <c r="BO5" s="92"/>
-      <c r="BP5" s="92"/>
-      <c r="BQ5" s="92"/>
-      <c r="BR5" s="92"/>
-      <c r="BS5" s="92"/>
-      <c r="BT5" s="93"/>
-      <c r="BU5" s="91"/>
-      <c r="BV5" s="92"/>
-      <c r="BW5" s="92"/>
-      <c r="BX5" s="92"/>
-      <c r="BY5" s="92"/>
-      <c r="BZ5" s="92"/>
-      <c r="CA5" s="93"/>
-      <c r="CB5" s="91"/>
-      <c r="CC5" s="92"/>
-      <c r="CD5" s="92"/>
-      <c r="CE5" s="92"/>
-      <c r="CF5" s="92"/>
-      <c r="CG5" s="92"/>
-      <c r="CH5" s="93"/>
-      <c r="CI5" s="91"/>
-      <c r="CJ5" s="92"/>
-      <c r="CK5" s="92"/>
-      <c r="CL5" s="92"/>
-      <c r="CM5" s="92"/>
-      <c r="CN5" s="92"/>
-      <c r="CO5" s="93"/>
-      <c r="CP5" s="91"/>
-      <c r="CQ5" s="92"/>
-      <c r="CR5" s="92"/>
-      <c r="CS5" s="92"/>
-      <c r="CT5" s="92"/>
-      <c r="CU5" s="92"/>
-      <c r="CV5" s="93"/>
-      <c r="CW5" s="91"/>
-      <c r="CX5" s="92"/>
-      <c r="CY5" s="92"/>
-      <c r="CZ5" s="92"/>
-      <c r="DA5" s="92"/>
-      <c r="DB5" s="92"/>
-      <c r="DC5" s="93"/>
-      <c r="DD5" s="91"/>
-      <c r="DE5" s="92"/>
-      <c r="DF5" s="92"/>
-      <c r="DG5" s="92"/>
-      <c r="DH5" s="92"/>
-      <c r="DI5" s="92"/>
-      <c r="DJ5" s="93"/>
-      <c r="DK5" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="DL5" s="89"/>
-      <c r="DM5" s="89"/>
-      <c r="DN5" s="89"/>
-      <c r="DO5" s="89"/>
-      <c r="DP5" s="89"/>
-      <c r="DQ5" s="90"/>
-      <c r="DR5" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="DS5" s="89"/>
-      <c r="DT5" s="89"/>
-      <c r="DU5" s="89"/>
-      <c r="DV5" s="89"/>
-      <c r="DW5" s="89"/>
-      <c r="DX5" s="90"/>
-      <c r="DY5" s="91"/>
-      <c r="DZ5" s="92"/>
-      <c r="EA5" s="92"/>
-      <c r="EB5" s="92"/>
-      <c r="EC5" s="92"/>
-      <c r="ED5" s="92"/>
-      <c r="EE5" s="93"/>
-      <c r="EF5" s="91"/>
-      <c r="EG5" s="92"/>
-      <c r="EH5" s="92"/>
-      <c r="EI5" s="92"/>
-      <c r="EJ5" s="92"/>
-      <c r="EK5" s="92"/>
-      <c r="EL5" s="93"/>
+      <c r="A5" s="105" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="106"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="80"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
+      <c r="W5" s="81"/>
+      <c r="X5" s="79"/>
+      <c r="Y5" s="80"/>
+      <c r="Z5" s="80"/>
+      <c r="AA5" s="80"/>
+      <c r="AB5" s="80"/>
+      <c r="AC5" s="80"/>
+      <c r="AD5" s="81"/>
+      <c r="AE5" s="79"/>
+      <c r="AF5" s="80"/>
+      <c r="AG5" s="80"/>
+      <c r="AH5" s="80"/>
+      <c r="AI5" s="80"/>
+      <c r="AJ5" s="80"/>
+      <c r="AK5" s="81"/>
+      <c r="AL5" s="85" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM5" s="86"/>
+      <c r="AN5" s="86"/>
+      <c r="AO5" s="86"/>
+      <c r="AP5" s="86"/>
+      <c r="AQ5" s="86"/>
+      <c r="AR5" s="87"/>
+      <c r="AS5" s="79"/>
+      <c r="AT5" s="80"/>
+      <c r="AU5" s="80"/>
+      <c r="AV5" s="80"/>
+      <c r="AW5" s="80"/>
+      <c r="AX5" s="80"/>
+      <c r="AY5" s="81"/>
+      <c r="AZ5" s="79"/>
+      <c r="BA5" s="80"/>
+      <c r="BB5" s="80"/>
+      <c r="BC5" s="80"/>
+      <c r="BD5" s="80"/>
+      <c r="BE5" s="80"/>
+      <c r="BF5" s="81"/>
+      <c r="BG5" s="79"/>
+      <c r="BH5" s="80"/>
+      <c r="BI5" s="80"/>
+      <c r="BJ5" s="80"/>
+      <c r="BK5" s="80"/>
+      <c r="BL5" s="80"/>
+      <c r="BM5" s="81"/>
+      <c r="BN5" s="79"/>
+      <c r="BO5" s="80"/>
+      <c r="BP5" s="80"/>
+      <c r="BQ5" s="80"/>
+      <c r="BR5" s="80"/>
+      <c r="BS5" s="80"/>
+      <c r="BT5" s="81"/>
+      <c r="BU5" s="79"/>
+      <c r="BV5" s="80"/>
+      <c r="BW5" s="80"/>
+      <c r="BX5" s="80"/>
+      <c r="BY5" s="80"/>
+      <c r="BZ5" s="80"/>
+      <c r="CA5" s="81"/>
+      <c r="CB5" s="79"/>
+      <c r="CC5" s="80"/>
+      <c r="CD5" s="80"/>
+      <c r="CE5" s="80"/>
+      <c r="CF5" s="80"/>
+      <c r="CG5" s="80"/>
+      <c r="CH5" s="81"/>
+      <c r="CI5" s="79"/>
+      <c r="CJ5" s="80"/>
+      <c r="CK5" s="80"/>
+      <c r="CL5" s="80"/>
+      <c r="CM5" s="80"/>
+      <c r="CN5" s="80"/>
+      <c r="CO5" s="81"/>
+      <c r="CP5" s="79"/>
+      <c r="CQ5" s="80"/>
+      <c r="CR5" s="80"/>
+      <c r="CS5" s="80"/>
+      <c r="CT5" s="80"/>
+      <c r="CU5" s="80"/>
+      <c r="CV5" s="81"/>
+      <c r="CW5" s="79"/>
+      <c r="CX5" s="80"/>
+      <c r="CY5" s="80"/>
+      <c r="CZ5" s="80"/>
+      <c r="DA5" s="80"/>
+      <c r="DB5" s="80"/>
+      <c r="DC5" s="81"/>
+      <c r="DD5" s="79"/>
+      <c r="DE5" s="80"/>
+      <c r="DF5" s="80"/>
+      <c r="DG5" s="80"/>
+      <c r="DH5" s="80"/>
+      <c r="DI5" s="80"/>
+      <c r="DJ5" s="81"/>
+      <c r="DK5" s="82" t="s">
+        <v>90</v>
+      </c>
+      <c r="DL5" s="83"/>
+      <c r="DM5" s="83"/>
+      <c r="DN5" s="83"/>
+      <c r="DO5" s="83"/>
+      <c r="DP5" s="83"/>
+      <c r="DQ5" s="84"/>
+      <c r="DR5" s="82" t="s">
+        <v>90</v>
+      </c>
+      <c r="DS5" s="83"/>
+      <c r="DT5" s="83"/>
+      <c r="DU5" s="83"/>
+      <c r="DV5" s="83"/>
+      <c r="DW5" s="83"/>
+      <c r="DX5" s="84"/>
+      <c r="DY5" s="79"/>
+      <c r="DZ5" s="80"/>
+      <c r="EA5" s="80"/>
+      <c r="EB5" s="80"/>
+      <c r="EC5" s="80"/>
+      <c r="ED5" s="80"/>
+      <c r="EE5" s="81"/>
+      <c r="EF5" s="79"/>
+      <c r="EG5" s="80"/>
+      <c r="EH5" s="80"/>
+      <c r="EI5" s="80"/>
+      <c r="EJ5" s="80"/>
+      <c r="EK5" s="80"/>
+      <c r="EL5" s="81"/>
       <c r="EM5" s="2"/>
       <c r="EN5" s="2"/>
       <c r="EO5" s="2"/>
@@ -3403,11 +3419,11 @@
       <c r="ES5" s="2"/>
     </row>
     <row r="6" spans="1:149" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="84" t="s">
-        <v>33</v>
+      <c r="A6" s="104" t="s">
+        <v>31</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6" s="71"/>
       <c r="D6" s="72"/>
@@ -3567,16 +3583,10 @@
       <c r="DZ6" s="17">
         <v>1</v>
       </c>
-      <c r="EA6" s="17">
-        <v>1</v>
-      </c>
-      <c r="EB6" s="17">
-        <v>1</v>
-      </c>
-      <c r="EC6" s="17">
-        <v>1</v>
-      </c>
-      <c r="ED6" s="15"/>
+      <c r="EA6" s="119"/>
+      <c r="EB6" s="119"/>
+      <c r="EC6" s="119"/>
+      <c r="ED6" s="119"/>
       <c r="EE6" s="16"/>
       <c r="EF6" s="14"/>
       <c r="EG6" s="15"/>
@@ -3587,9 +3597,9 @@
       <c r="EL6" s="16"/>
     </row>
     <row r="7" spans="1:149" ht="15" thickBot="1">
-      <c r="A7" s="85"/>
+      <c r="A7" s="92"/>
       <c r="B7" s="66" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
@@ -3640,49 +3650,63 @@
       <c r="AQ7" s="8"/>
       <c r="AR7" s="9"/>
       <c r="AS7" s="25"/>
-      <c r="AT7" s="21"/>
+      <c r="AT7" s="23">
+        <v>1</v>
+      </c>
       <c r="AU7" s="21"/>
       <c r="AV7" s="21"/>
       <c r="AW7" s="21"/>
       <c r="AX7" s="21"/>
       <c r="AY7" s="22"/>
       <c r="AZ7" s="20"/>
-      <c r="BA7" s="21"/>
+      <c r="BA7" s="23">
+        <v>1</v>
+      </c>
       <c r="BB7" s="21"/>
       <c r="BC7" s="21"/>
       <c r="BD7" s="21"/>
       <c r="BE7" s="21"/>
       <c r="BF7" s="22"/>
       <c r="BG7" s="20"/>
-      <c r="BH7" s="21"/>
+      <c r="BH7" s="23">
+        <v>1</v>
+      </c>
       <c r="BI7" s="21"/>
       <c r="BJ7" s="21"/>
       <c r="BK7" s="21"/>
       <c r="BL7" s="21"/>
       <c r="BM7" s="22"/>
       <c r="BN7" s="20"/>
-      <c r="BO7" s="21"/>
+      <c r="BO7" s="23">
+        <v>1</v>
+      </c>
       <c r="BP7" s="21"/>
       <c r="BQ7" s="21"/>
       <c r="BR7" s="21"/>
       <c r="BS7" s="21"/>
       <c r="BT7" s="22"/>
       <c r="BU7" s="20"/>
-      <c r="BV7" s="21"/>
+      <c r="BV7" s="23">
+        <v>1</v>
+      </c>
       <c r="BW7" s="21"/>
       <c r="BX7" s="21"/>
       <c r="BY7" s="21"/>
       <c r="BZ7" s="21"/>
       <c r="CA7" s="22"/>
       <c r="CB7" s="20"/>
-      <c r="CC7" s="21"/>
+      <c r="CC7" s="23">
+        <v>1</v>
+      </c>
       <c r="CD7" s="21"/>
       <c r="CE7" s="21"/>
       <c r="CF7" s="21"/>
       <c r="CG7" s="21"/>
       <c r="CH7" s="22"/>
       <c r="CI7" s="20"/>
-      <c r="CJ7" s="21"/>
+      <c r="CJ7" s="23">
+        <v>1</v>
+      </c>
       <c r="CK7" s="21"/>
       <c r="CL7" s="21"/>
       <c r="CM7" s="21"/>
@@ -3696,7 +3720,7 @@
       <c r="CU7" s="21"/>
       <c r="CV7" s="22"/>
       <c r="CW7" s="20"/>
-      <c r="CX7" s="21"/>
+      <c r="CX7" s="118"/>
       <c r="CY7" s="21"/>
       <c r="CZ7" s="21"/>
       <c r="DA7" s="21"/>
@@ -3712,19 +3736,33 @@
       <c r="DK7" s="7"/>
       <c r="DL7" s="8"/>
       <c r="DM7" s="8"/>
-      <c r="DN7" s="8"/>
-      <c r="DO7" s="8"/>
+      <c r="DN7" s="121">
+        <v>2</v>
+      </c>
+      <c r="DO7" s="121">
+        <v>2</v>
+      </c>
       <c r="DP7" s="8"/>
       <c r="DQ7" s="9"/>
       <c r="DR7" s="7"/>
       <c r="DS7" s="8"/>
       <c r="DT7" s="8"/>
       <c r="DU7" s="8"/>
-      <c r="DV7" s="8"/>
-      <c r="DW7" s="8"/>
-      <c r="DX7" s="9"/>
-      <c r="DY7" s="25"/>
-      <c r="DZ7" s="21"/>
+      <c r="DV7" s="121">
+        <v>2</v>
+      </c>
+      <c r="DW7" s="121">
+        <v>3</v>
+      </c>
+      <c r="DX7" s="122">
+        <v>5</v>
+      </c>
+      <c r="DY7" s="123">
+        <v>3</v>
+      </c>
+      <c r="DZ7" s="23">
+        <v>4</v>
+      </c>
       <c r="EA7" s="21"/>
       <c r="EB7" s="21"/>
       <c r="EC7" s="21"/>
@@ -3739,11 +3777,11 @@
       <c r="EL7" s="22"/>
     </row>
     <row r="8" spans="1:149" ht="15" thickBot="1">
-      <c r="A8" s="86" t="s">
-        <v>92</v>
+      <c r="A8" s="93" t="s">
+        <v>89</v>
       </c>
       <c r="B8" s="65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="26">
@@ -3895,9 +3933,9 @@
       <c r="EL8" s="22"/>
     </row>
     <row r="9" spans="1:149" ht="15" thickBot="1">
-      <c r="A9" s="87"/>
+      <c r="A9" s="94"/>
       <c r="B9" s="66" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="23">
@@ -4051,11 +4089,11 @@
       <c r="EL9" s="22"/>
     </row>
     <row r="10" spans="1:149" ht="15" thickBot="1">
-      <c r="A10" s="96" t="s">
-        <v>36</v>
+      <c r="A10" s="91" t="s">
+        <v>33</v>
       </c>
       <c r="B10" s="65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
@@ -4205,9 +4243,9 @@
       <c r="EL10" s="22"/>
     </row>
     <row r="11" spans="1:149" ht="15" thickBot="1">
-      <c r="A11" s="85"/>
+      <c r="A11" s="92"/>
       <c r="B11" s="66" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="21"/>
@@ -4357,11 +4395,11 @@
       <c r="EL11" s="22"/>
     </row>
     <row r="12" spans="1:149" ht="15" thickBot="1">
-      <c r="A12" s="96" t="s">
-        <v>78</v>
+      <c r="A12" s="91" t="s">
+        <v>75</v>
       </c>
       <c r="B12" s="65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="21"/>
@@ -4511,9 +4549,9 @@
       <c r="EL12" s="22"/>
     </row>
     <row r="13" spans="1:149" ht="15" thickBot="1">
-      <c r="A13" s="85"/>
+      <c r="A13" s="92"/>
       <c r="B13" s="66" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="21"/>
@@ -4553,7 +4591,9 @@
       <c r="AF13" s="21"/>
       <c r="AG13" s="21"/>
       <c r="AH13" s="21"/>
-      <c r="AI13" s="21"/>
+      <c r="AI13" s="23">
+        <v>1</v>
+      </c>
       <c r="AJ13" s="21"/>
       <c r="AK13" s="24"/>
       <c r="AL13" s="7"/>
@@ -4624,7 +4664,9 @@
       <c r="CY13" s="21"/>
       <c r="CZ13" s="21"/>
       <c r="DA13" s="21"/>
-      <c r="DB13" s="21"/>
+      <c r="DB13" s="21" t="s">
+        <v>99</v>
+      </c>
       <c r="DC13" s="22"/>
       <c r="DD13" s="20"/>
       <c r="DE13" s="21"/>
@@ -4663,11 +4705,11 @@
       <c r="EL13" s="22"/>
     </row>
     <row r="14" spans="1:149" ht="15" thickBot="1">
-      <c r="A14" s="86" t="s">
-        <v>91</v>
+      <c r="A14" s="93" t="s">
+        <v>88</v>
       </c>
       <c r="B14" s="65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="21"/>
@@ -4817,9 +4859,9 @@
       <c r="EL14" s="22"/>
     </row>
     <row r="15" spans="1:149" ht="15" thickBot="1">
-      <c r="A15" s="87"/>
+      <c r="A15" s="94"/>
       <c r="B15" s="66" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="21"/>
@@ -4967,11 +5009,11 @@
       <c r="EL15" s="22"/>
     </row>
     <row r="16" spans="1:149" ht="15" thickBot="1">
-      <c r="A16" s="96" t="s">
+      <c r="A16" s="91" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="65" t="s">
         <v>29</v>
-      </c>
-      <c r="B16" s="65" t="s">
-        <v>31</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="21"/>
@@ -5123,7 +5165,7 @@
     <row r="17" spans="1:142" ht="15" thickBot="1">
       <c r="A17" s="97"/>
       <c r="B17" s="66" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="21"/>
@@ -5171,7 +5213,9 @@
       <c r="AT17" s="21"/>
       <c r="AU17" s="21"/>
       <c r="AV17" s="21"/>
-      <c r="AW17" s="21"/>
+      <c r="AW17" s="23">
+        <v>4</v>
+      </c>
       <c r="AX17" s="21"/>
       <c r="AY17" s="22"/>
       <c r="AZ17" s="20"/>
@@ -5267,11 +5311,11 @@
       <c r="EL17" s="22"/>
     </row>
     <row r="18" spans="1:142" ht="15" thickBot="1">
-      <c r="A18" s="96" t="s">
-        <v>28</v>
+      <c r="A18" s="91" t="s">
+        <v>95</v>
       </c>
       <c r="B18" s="65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="21"/>
@@ -5319,15 +5363,13 @@
       <c r="AT18" s="21"/>
       <c r="AU18" s="21"/>
       <c r="AV18" s="21"/>
-      <c r="AW18" s="26">
-        <v>1</v>
-      </c>
+      <c r="AW18" s="118"/>
       <c r="AX18" s="21"/>
       <c r="AY18" s="22"/>
       <c r="AZ18" s="20"/>
       <c r="BA18" s="21"/>
       <c r="BB18" s="26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC18" s="63"/>
       <c r="BD18" s="21"/>
@@ -5421,7 +5463,7 @@
     <row r="19" spans="1:142" ht="15" thickBot="1">
       <c r="A19" s="97"/>
       <c r="B19" s="66" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="21"/>
@@ -5565,11 +5607,11 @@
       <c r="EL19" s="22"/>
     </row>
     <row r="20" spans="1:142" ht="15" thickBot="1">
-      <c r="A20" s="96" t="s">
-        <v>30</v>
+      <c r="A20" s="91" t="s">
+        <v>96</v>
       </c>
       <c r="B20" s="65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="21"/>
@@ -5721,7 +5763,7 @@
     <row r="21" spans="1:142" ht="15" thickBot="1">
       <c r="A21" s="97"/>
       <c r="B21" s="66" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="21"/>
@@ -5865,11 +5907,11 @@
       <c r="EL21" s="22"/>
     </row>
     <row r="22" spans="1:142" ht="15" thickBot="1">
-      <c r="A22" s="86" t="s">
-        <v>86</v>
+      <c r="A22" s="93" t="s">
+        <v>83</v>
       </c>
       <c r="B22" s="65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="21"/>
@@ -6019,9 +6061,9 @@
       <c r="EL22" s="22"/>
     </row>
     <row r="23" spans="1:142" ht="15" thickBot="1">
-      <c r="A23" s="87"/>
+      <c r="A23" s="94"/>
       <c r="B23" s="66" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="21"/>
@@ -6081,14 +6123,22 @@
       <c r="BF23" s="22"/>
       <c r="BG23" s="20"/>
       <c r="BH23" s="21"/>
-      <c r="BI23" s="21"/>
-      <c r="BJ23" s="21"/>
-      <c r="BK23" s="21"/>
+      <c r="BI23" s="23">
+        <v>2</v>
+      </c>
+      <c r="BJ23" s="23">
+        <v>4</v>
+      </c>
+      <c r="BK23" s="23">
+        <v>4</v>
+      </c>
       <c r="BL23" s="21"/>
       <c r="BM23" s="22"/>
       <c r="BN23" s="20"/>
       <c r="BO23" s="21"/>
-      <c r="BP23" s="21"/>
+      <c r="BP23" s="23">
+        <v>1</v>
+      </c>
       <c r="BQ23" s="21"/>
       <c r="BR23" s="21"/>
       <c r="BS23" s="21"/>
@@ -6165,11 +6215,11 @@
       <c r="EL23" s="22"/>
     </row>
     <row r="24" spans="1:142" ht="15" thickBot="1">
-      <c r="A24" s="100" t="s">
-        <v>87</v>
+      <c r="A24" s="76" t="s">
+        <v>84</v>
       </c>
       <c r="B24" s="65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="21"/>
@@ -6232,9 +6282,11 @@
       <c r="BI24" s="21"/>
       <c r="BJ24" s="21"/>
       <c r="BK24" s="26">
-        <v>4</v>
-      </c>
-      <c r="BL24" s="21"/>
+        <v>10</v>
+      </c>
+      <c r="BL24" s="26">
+        <v>7</v>
+      </c>
       <c r="BM24" s="22"/>
       <c r="BN24" s="20"/>
       <c r="BO24" s="21"/>
@@ -6315,9 +6367,9 @@
       <c r="EL24" s="22"/>
     </row>
     <row r="25" spans="1:142" ht="15" thickBot="1">
-      <c r="A25" s="101"/>
+      <c r="A25" s="77"/>
       <c r="B25" s="66" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="21"/>
@@ -6379,13 +6431,21 @@
       <c r="BH25" s="21"/>
       <c r="BI25" s="21"/>
       <c r="BJ25" s="21"/>
-      <c r="BK25" s="21"/>
-      <c r="BL25" s="21"/>
+      <c r="BK25" s="23">
+        <v>10</v>
+      </c>
+      <c r="BL25" s="23">
+        <v>7</v>
+      </c>
       <c r="BM25" s="22"/>
       <c r="BN25" s="20"/>
       <c r="BO25" s="21"/>
-      <c r="BP25" s="21"/>
-      <c r="BQ25" s="21"/>
+      <c r="BP25" s="23">
+        <v>12</v>
+      </c>
+      <c r="BQ25" s="23">
+        <v>5</v>
+      </c>
       <c r="BR25" s="21"/>
       <c r="BS25" s="21"/>
       <c r="BT25" s="22"/>
@@ -6461,11 +6521,11 @@
       <c r="EL25" s="22"/>
     </row>
     <row r="26" spans="1:142" ht="15" thickBot="1">
-      <c r="A26" s="100" t="s">
-        <v>96</v>
+      <c r="A26" s="76" t="s">
+        <v>93</v>
       </c>
       <c r="B26" s="65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C26" s="20"/>
       <c r="D26" s="21"/>
@@ -6615,9 +6675,9 @@
       <c r="EL26" s="22"/>
     </row>
     <row r="27" spans="1:142" ht="15" thickBot="1">
-      <c r="A27" s="102"/>
+      <c r="A27" s="78"/>
       <c r="B27" s="66" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="21"/>
@@ -6685,10 +6745,18 @@
       <c r="BN27" s="20"/>
       <c r="BO27" s="21"/>
       <c r="BP27" s="21"/>
-      <c r="BQ27" s="21"/>
-      <c r="BR27" s="21"/>
-      <c r="BS27" s="21"/>
-      <c r="BT27" s="22"/>
+      <c r="BQ27" s="23">
+        <v>1</v>
+      </c>
+      <c r="BR27" s="23">
+        <v>2</v>
+      </c>
+      <c r="BS27" s="23">
+        <v>2</v>
+      </c>
+      <c r="BT27" s="120">
+        <v>4</v>
+      </c>
       <c r="BU27" s="20"/>
       <c r="BV27" s="21"/>
       <c r="BW27" s="21"/>
@@ -6761,11 +6829,11 @@
       <c r="EL27" s="22"/>
     </row>
     <row r="28" spans="1:142" ht="15" thickBot="1">
-      <c r="A28" s="86" t="s">
-        <v>34</v>
+      <c r="A28" s="93" t="s">
+        <v>97</v>
       </c>
       <c r="B28" s="65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="21"/>
@@ -6913,9 +6981,9 @@
       <c r="EL28" s="22"/>
     </row>
     <row r="29" spans="1:142" ht="15" thickBot="1">
-      <c r="A29" s="87"/>
+      <c r="A29" s="94"/>
       <c r="B29" s="66" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="21"/>
@@ -6989,9 +7057,15 @@
       <c r="BT29" s="22"/>
       <c r="BU29" s="20"/>
       <c r="BV29" s="21"/>
-      <c r="BW29" s="21"/>
-      <c r="BX29" s="21"/>
-      <c r="BY29" s="21"/>
+      <c r="BW29" s="23">
+        <v>2</v>
+      </c>
+      <c r="BX29" s="23">
+        <v>3</v>
+      </c>
+      <c r="BY29" s="23">
+        <v>3</v>
+      </c>
       <c r="BZ29" s="21"/>
       <c r="CA29" s="22"/>
       <c r="CB29" s="20"/>
@@ -7059,11 +7133,11 @@
       <c r="EL29" s="22"/>
     </row>
     <row r="30" spans="1:142" ht="15" thickBot="1">
-      <c r="A30" s="86" t="s">
-        <v>88</v>
+      <c r="A30" s="93" t="s">
+        <v>85</v>
       </c>
       <c r="B30" s="65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C30" s="20"/>
       <c r="D30" s="21"/>
@@ -7233,9 +7307,9 @@
       <c r="EL30" s="22"/>
     </row>
     <row r="31" spans="1:142" ht="15" thickBot="1">
-      <c r="A31" s="87"/>
+      <c r="A31" s="94"/>
       <c r="B31" s="66" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C31" s="20"/>
       <c r="D31" s="21"/>
@@ -7317,28 +7391,46 @@
       <c r="CB31" s="20"/>
       <c r="CC31" s="21"/>
       <c r="CD31" s="21"/>
-      <c r="CE31" s="21"/>
-      <c r="CF31" s="21"/>
+      <c r="CE31" s="23">
+        <v>2</v>
+      </c>
+      <c r="CF31" s="23">
+        <v>2</v>
+      </c>
       <c r="CG31" s="21"/>
       <c r="CH31" s="22"/>
-      <c r="CI31" s="20"/>
+      <c r="CI31" s="20" t="s">
+        <v>98</v>
+      </c>
       <c r="CJ31" s="21"/>
-      <c r="CK31" s="21"/>
-      <c r="CL31" s="21"/>
+      <c r="CK31" s="23">
+        <v>2</v>
+      </c>
+      <c r="CL31" s="23">
+        <v>2</v>
+      </c>
       <c r="CM31" s="21"/>
       <c r="CN31" s="21"/>
       <c r="CO31" s="22"/>
       <c r="CP31" s="20"/>
       <c r="CQ31" s="21"/>
-      <c r="CR31" s="21"/>
-      <c r="CS31" s="21"/>
+      <c r="CR31" s="23">
+        <v>2</v>
+      </c>
+      <c r="CS31" s="23">
+        <v>2</v>
+      </c>
       <c r="CT31" s="21"/>
       <c r="CU31" s="21"/>
       <c r="CV31" s="22"/>
       <c r="CW31" s="20"/>
       <c r="CX31" s="21"/>
-      <c r="CY31" s="21"/>
-      <c r="CZ31" s="21"/>
+      <c r="CY31" s="23">
+        <v>2</v>
+      </c>
+      <c r="CZ31" s="23">
+        <v>4</v>
+      </c>
       <c r="DA31" s="21"/>
       <c r="DB31" s="21"/>
       <c r="DC31" s="22"/>
@@ -7379,11 +7471,11 @@
       <c r="EL31" s="22"/>
     </row>
     <row r="32" spans="1:142" ht="15" thickBot="1">
-      <c r="A32" s="86" t="s">
-        <v>89</v>
+      <c r="A32" s="93" t="s">
+        <v>86</v>
       </c>
       <c r="B32" s="65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="21"/>
@@ -7533,9 +7625,9 @@
       <c r="EL32" s="22"/>
     </row>
     <row r="33" spans="1:142" ht="15" thickBot="1">
-      <c r="A33" s="98"/>
+      <c r="A33" s="95"/>
       <c r="B33" s="66" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="21"/>
@@ -7645,8 +7737,12 @@
       <c r="DD33" s="20"/>
       <c r="DE33" s="21"/>
       <c r="DF33" s="21"/>
-      <c r="DG33" s="21"/>
-      <c r="DH33" s="21"/>
+      <c r="DG33" s="23">
+        <v>1</v>
+      </c>
+      <c r="DH33" s="23">
+        <v>1</v>
+      </c>
       <c r="DI33" s="21"/>
       <c r="DJ33" s="24"/>
       <c r="DK33" s="7"/>
@@ -7679,11 +7775,11 @@
       <c r="EL33" s="22"/>
     </row>
     <row r="34" spans="1:142" ht="15" thickBot="1">
-      <c r="A34" s="86" t="s">
-        <v>35</v>
+      <c r="A34" s="93" t="s">
+        <v>32</v>
       </c>
       <c r="B34" s="65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C34" s="20"/>
       <c r="D34" s="21"/>
@@ -7843,9 +7939,9 @@
       <c r="EL34" s="22"/>
     </row>
     <row r="35" spans="1:142" ht="15" thickBot="1">
-      <c r="A35" s="87"/>
+      <c r="A35" s="94"/>
       <c r="B35" s="66" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C35" s="20"/>
       <c r="D35" s="21"/>
@@ -7989,11 +8085,11 @@
       <c r="EL35" s="22"/>
     </row>
     <row r="36" spans="1:142" ht="15" thickBot="1">
-      <c r="A36" s="86" t="s">
-        <v>90</v>
+      <c r="A36" s="93" t="s">
+        <v>87</v>
       </c>
       <c r="B36" s="65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="21"/>
@@ -8139,9 +8235,9 @@
       <c r="EL36" s="22"/>
     </row>
     <row r="37" spans="1:142" ht="15" thickBot="1">
-      <c r="A37" s="99"/>
+      <c r="A37" s="96"/>
       <c r="B37" s="66" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C37" s="30"/>
       <c r="D37" s="31"/>
@@ -8286,6 +8382,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="Q3:W3"/>
+    <mergeCell ref="X3:AD3"/>
+    <mergeCell ref="DY3:EE3"/>
+    <mergeCell ref="EF3:EL3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="DD3:DJ3"/>
+    <mergeCell ref="DK3:DQ3"/>
+    <mergeCell ref="DR5:DX5"/>
+    <mergeCell ref="DY5:EE5"/>
+    <mergeCell ref="EF5:EL5"/>
+    <mergeCell ref="BU5:CA5"/>
+    <mergeCell ref="CB5:CH5"/>
+    <mergeCell ref="CI5:CO5"/>
+    <mergeCell ref="CP5:CV5"/>
+    <mergeCell ref="CW5:DC5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="CB3:CH3"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="DR3:DX3"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="CI3:CO3"/>
+    <mergeCell ref="CP3:CV3"/>
+    <mergeCell ref="CW3:DC3"/>
+    <mergeCell ref="BU3:CA3"/>
+    <mergeCell ref="AE3:AK3"/>
+    <mergeCell ref="AL3:AR3"/>
+    <mergeCell ref="AS3:AY3"/>
+    <mergeCell ref="AZ3:BF3"/>
+    <mergeCell ref="BG3:BM3"/>
+    <mergeCell ref="BN3:BT3"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="DD5:DJ5"/>
@@ -8302,48 +8440,6 @@
     <mergeCell ref="AE5:AK5"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="DR3:DX3"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="CI3:CO3"/>
-    <mergeCell ref="CP3:CV3"/>
-    <mergeCell ref="CW3:DC3"/>
-    <mergeCell ref="BU3:CA3"/>
-    <mergeCell ref="AE3:AK3"/>
-    <mergeCell ref="AL3:AR3"/>
-    <mergeCell ref="AS3:AY3"/>
-    <mergeCell ref="AZ3:BF3"/>
-    <mergeCell ref="BG3:BM3"/>
-    <mergeCell ref="BN3:BT3"/>
-    <mergeCell ref="DY3:EE3"/>
-    <mergeCell ref="EF3:EL3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="DD3:DJ3"/>
-    <mergeCell ref="DK3:DQ3"/>
-    <mergeCell ref="DR5:DX5"/>
-    <mergeCell ref="DY5:EE5"/>
-    <mergeCell ref="EF5:EL5"/>
-    <mergeCell ref="BU5:CA5"/>
-    <mergeCell ref="CB5:CH5"/>
-    <mergeCell ref="CI5:CO5"/>
-    <mergeCell ref="CP5:CV5"/>
-    <mergeCell ref="CW5:DC5"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="CB3:CH3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="J3:P3"/>
-    <mergeCell ref="Q3:W3"/>
-    <mergeCell ref="X3:AD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8354,8 +8450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91FF6EFD-F608-4DA6-AB00-E35874012156}">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="109" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A10" zoomScale="109" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -8367,24 +8463,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="19">
       <c r="A1" s="109" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B1" s="109"/>
       <c r="C1" s="62"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="61" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B3" s="110" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C3" s="110"/>
       <c r="D3" s="60"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="61" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B4" s="112">
         <v>1</v>
@@ -8394,17 +8490,17 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B5" s="110" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C5" s="110"/>
       <c r="D5" s="60"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="61" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6" s="113">
         <v>45524</v>
@@ -8414,7 +8510,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="61" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B7" s="114">
         <v>45671</v>
@@ -8424,10 +8520,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="61" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B8" s="110" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C8" s="110"/>
       <c r="D8" s="60"/>
@@ -8440,10 +8536,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="60" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B10" s="111" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C10" s="111"/>
       <c r="D10" s="111"/>
@@ -8463,7 +8559,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="111" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B13" s="111"/>
       <c r="C13" s="111"/>
@@ -8472,13 +8568,13 @@
     <row r="14" spans="1:5" ht="15" thickBot="1"/>
     <row r="15" spans="1:5" ht="15" thickBot="1">
       <c r="A15" s="74" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B15" s="75" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C15" s="75" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -8486,10 +8582,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="53" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -8497,10 +8593,10 @@
         <v>2</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -8508,10 +8604,10 @@
         <v>3</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -8519,10 +8615,10 @@
         <v>4</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -8530,10 +8626,10 @@
         <v>5</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C20" s="47" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -8541,10 +8637,10 @@
         <v>6</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -8552,10 +8648,10 @@
         <v>7</v>
       </c>
       <c r="B22" s="54" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C22" s="44" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D22" s="60"/>
       <c r="E22" s="60"/>
@@ -8568,13 +8664,13 @@
         <v>8</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D23" s="116" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E23" s="117"/>
       <c r="F23" s="117"/>
@@ -8586,10 +8682,10 @@
         <v>9</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C24" s="44" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D24" s="60"/>
       <c r="E24" s="60"/>
@@ -8602,10 +8698,10 @@
         <v>10</v>
       </c>
       <c r="B25" s="56" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D25" s="60"/>
       <c r="E25" s="60"/>
@@ -8618,10 +8714,10 @@
         <v>11</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C26" s="44" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D26" s="60"/>
       <c r="E26" s="60"/>
@@ -8634,10 +8730,10 @@
         <v>12</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D27" s="60"/>
       <c r="E27" s="60"/>
@@ -8650,10 +8746,10 @@
         <v>13</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C28" s="47" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D28" s="60"/>
       <c r="E28" s="60"/>
@@ -8666,13 +8762,13 @@
         <v>14</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C29" s="46" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D29" s="115" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E29" s="111"/>
       <c r="F29" s="60"/>
@@ -8684,10 +8780,10 @@
         <v>15</v>
       </c>
       <c r="B30" s="38" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C30" s="44" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D30" s="60"/>
       <c r="E30" s="60"/>
@@ -8700,10 +8796,10 @@
         <v>16</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D31" s="60"/>
       <c r="E31" s="60"/>
@@ -8716,10 +8812,10 @@
         <v>17</v>
       </c>
       <c r="B32" s="38" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C32" s="44" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D32" s="60"/>
       <c r="E32" s="60"/>
@@ -8732,10 +8828,10 @@
         <v>18</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C33" s="42" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -8744,7 +8840,7 @@
       </c>
       <c r="B34" s="38"/>
       <c r="C34" s="44" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -8753,7 +8849,7 @@
       </c>
       <c r="B35" s="37"/>
       <c r="C35" s="42" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -8762,7 +8858,7 @@
       </c>
       <c r="B36" s="38"/>
       <c r="C36" s="44" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -8771,7 +8867,7 @@
       </c>
       <c r="B37" s="37"/>
       <c r="C37" s="42" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" thickBot="1">
@@ -8781,7 +8877,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="111" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B42" s="111"/>
       <c r="C42" s="111"/>
@@ -8789,13 +8885,13 @@
     <row r="43" spans="1:3" ht="15" thickBot="1"/>
     <row r="44" spans="1:3" ht="15" thickBot="1">
       <c r="A44" s="74" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B44" s="75" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C44" s="75" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -8803,10 +8899,10 @@
         <v>1</v>
       </c>
       <c r="B45" s="53" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -8814,10 +8910,10 @@
         <v>2</v>
       </c>
       <c r="B46" s="37" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C46" s="42" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -8825,10 +8921,10 @@
         <v>3</v>
       </c>
       <c r="B47" s="38" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C47" s="44" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -8836,10 +8932,10 @@
         <v>4</v>
       </c>
       <c r="B48" s="37" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C48" s="42" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -8847,10 +8943,10 @@
         <v>5</v>
       </c>
       <c r="B49" s="38" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C49" s="44" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -8858,10 +8954,10 @@
         <v>6</v>
       </c>
       <c r="B50" s="37" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C50" s="42" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -8869,10 +8965,10 @@
         <v>7</v>
       </c>
       <c r="B51" s="38" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C51" s="44" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -8880,10 +8976,10 @@
         <v>8</v>
       </c>
       <c r="B52" s="37" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C52" s="42" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -8891,10 +8987,10 @@
         <v>9</v>
       </c>
       <c r="B53" s="38" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C53" s="44" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -8902,10 +8998,10 @@
         <v>10</v>
       </c>
       <c r="B54" s="37" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C54" s="42" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -8914,7 +9010,7 @@
       </c>
       <c r="B55" s="38"/>
       <c r="C55" s="44" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15" thickBot="1">
@@ -8945,7 +9041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE61892C-FE6C-4A4A-BAF9-D966EA164C2A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <sheetData/>

--- a/documentation/Marvin_AudioAnlage_Anforderungen_NoraHueppi_20240917.xlsx
+++ b/documentation/Marvin_AudioAnlage_Anforderungen_NoraHueppi_20240917.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd4b8c2adf92642a/Berufsschule/BuP/5_Semester/Marvin/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="13_ncr:1_{222596FB-A639-49AC-A788-7FE2CF6654A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9D91153-441C-47D1-B360-ED162A866621}"/>
+  <xr:revisionPtr revIDLastSave="368" documentId="13_ncr:1_{222596FB-A639-49AC-A788-7FE2CF6654A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29EFC348-AAF4-456C-89F3-8FC9E1C512BF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5CC49039-70A6-4A49-B6FD-A7C35AB692E8}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="104">
   <si>
     <t>Zeitplan</t>
   </si>
@@ -216,9 +216,6 @@
   </si>
   <si>
     <t>Das die Gehäuse so klein wie möglich sind</t>
-  </si>
-  <si>
-    <t>Das die Gehäuse eine möglichst ähnliche Farbe haben wie die Wand</t>
   </si>
   <si>
     <t>Auf der Platine des Sensors ein Kleines Motiv von Marvin ist (aus Hitchhickers guide to the galaxy)</t>
@@ -452,7 +449,22 @@
     <t xml:space="preserve">                 </t>
   </si>
   <si>
-    <t>awq</t>
+    <t>Projekt Idee</t>
+  </si>
+  <si>
+    <t>Einführungen</t>
+  </si>
+  <si>
+    <t>KW 35</t>
+  </si>
+  <si>
+    <t>KW 34</t>
+  </si>
+  <si>
+    <t>Das die Gehäuse ein Motiv von Marvin darauf haben sollen.</t>
+  </si>
+  <si>
+    <t>l</t>
   </si>
 </sst>
 </file>
@@ -594,7 +606,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -935,19 +947,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1251,11 +1250,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1294,23 +1339,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1321,29 +1366,29 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="1" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1355,10 +1400,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1370,27 +1415,93 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1405,7 +1516,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1414,25 +1525,16 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1441,23 +1543,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1468,9 +1561,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1480,7 +1570,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1510,16 +1600,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2217,159 +2297,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{730C7784-EAA3-4F75-A441-9364A27E8BAB}">
-  <dimension ref="A1:ES37"/>
+  <dimension ref="A1:FG41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CU1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DB13" sqref="DB13"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="132" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AE1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A22" sqref="A22:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.1796875" customWidth="1"/>
-    <col min="9" max="9" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.26953125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.453125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.54296875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.26953125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="3.453125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3.54296875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="3.26953125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3.453125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="3.54296875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="3.26953125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="3.453125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="3.54296875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="3.26953125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="3.453125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="50" max="51" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="3.54296875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="3.26953125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="3.453125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="3.54296875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="3.26953125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="3.453125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="64" max="65" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="3.54296875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="3.26953125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="3.453125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="71" max="72" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="3.54296875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="3.26953125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="3.453125" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="78" max="79" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="3.54296875" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="3.26953125" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="3.453125" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="85" max="86" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="3.54296875" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="3.26953125" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="3.453125" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="92" max="93" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="3.54296875" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="3.26953125" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="3.453125" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="99" max="100" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="3.54296875" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="3.26953125" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="3.453125" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="106" max="107" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="3.54296875" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="3.26953125" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="3.453125" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="113" max="114" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="3.54296875" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="3.453125" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="120" max="121" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="3.54296875" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="3.26953125" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="3.453125" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="127" max="128" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="3.54296875" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="3.26953125" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="3.453125" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="134" max="135" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="136" max="137" width="4.1796875" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="3.453125" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="156" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:149" ht="21">
-      <c r="A1" s="107" t="s">
+    <row r="1" spans="1:163" ht="21">
+      <c r="A1" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
       <c r="Q1" s="10"/>
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
@@ -2496,8 +2456,22 @@
       <c r="EJ1" s="10"/>
       <c r="EK1" s="10"/>
       <c r="EL1" s="10"/>
+      <c r="EM1" s="10"/>
+      <c r="EN1" s="10"/>
+      <c r="EO1" s="10"/>
+      <c r="EP1" s="10"/>
+      <c r="EQ1" s="10"/>
+      <c r="ER1" s="10"/>
+      <c r="ES1" s="10"/>
+      <c r="ET1" s="10"/>
+      <c r="EU1" s="10"/>
+      <c r="EV1" s="10"/>
+      <c r="EW1" s="10"/>
+      <c r="EX1" s="10"/>
+      <c r="EY1" s="10"/>
+      <c r="EZ1" s="10"/>
     </row>
-    <row r="2" spans="1:149" ht="15" thickBot="1">
+    <row r="2" spans="1:163" ht="15" thickBot="1">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -2640,203 +2614,235 @@
       <c r="EJ2" s="10"/>
       <c r="EK2" s="10"/>
       <c r="EL2" s="10"/>
+      <c r="EM2" s="10"/>
+      <c r="EN2" s="10"/>
+      <c r="EO2" s="10"/>
+      <c r="EP2" s="10"/>
+      <c r="EQ2" s="10"/>
+      <c r="ER2" s="10"/>
+      <c r="ES2" s="10"/>
+      <c r="ET2" s="10"/>
+      <c r="EU2" s="10"/>
+      <c r="EV2" s="10"/>
+      <c r="EW2" s="10"/>
+      <c r="EX2" s="10"/>
+      <c r="EY2" s="10"/>
+      <c r="EZ2" s="10"/>
     </row>
-    <row r="3" spans="1:149" ht="15" thickBot="1">
+    <row r="3" spans="1:163" ht="15" thickBot="1">
       <c r="A3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="67">
+        <f>SUM(C6:EZ6,C8:EZ8,C10:EZ10,C12:EZ12,C14:EL14,C16:EZ16,C18:EZ18,C20:EZ20,C22:EZ22,C24:EZ24,C26:EZ26,C28:EZ28,C30:EZ30,C32:EZ32,C34:EZ34,C36:EZ36,C38:EZ38,C40:EZ40)</f>
+        <v>128</v>
+      </c>
+      <c r="C3" s="99" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="99" t="s">
+        <v>100</v>
+      </c>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="101"/>
+      <c r="X3" s="131" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y3" s="100"/>
+      <c r="Z3" s="100"/>
+      <c r="AA3" s="100"/>
+      <c r="AB3" s="100"/>
+      <c r="AC3" s="100"/>
+      <c r="AD3" s="101"/>
+      <c r="AE3" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF3" s="100"/>
+      <c r="AG3" s="100"/>
+      <c r="AH3" s="100"/>
+      <c r="AI3" s="100"/>
+      <c r="AJ3" s="100"/>
+      <c r="AK3" s="101"/>
+      <c r="AL3" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM3" s="100"/>
+      <c r="AN3" s="100"/>
+      <c r="AO3" s="100"/>
+      <c r="AP3" s="100"/>
+      <c r="AQ3" s="100"/>
+      <c r="AR3" s="101"/>
+      <c r="AS3" s="99" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT3" s="100"/>
+      <c r="AU3" s="100"/>
+      <c r="AV3" s="100"/>
+      <c r="AW3" s="100"/>
+      <c r="AX3" s="100"/>
+      <c r="AY3" s="101"/>
+      <c r="AZ3" s="99" t="s">
+        <v>13</v>
+      </c>
+      <c r="BA3" s="100"/>
+      <c r="BB3" s="100"/>
+      <c r="BC3" s="100"/>
+      <c r="BD3" s="100"/>
+      <c r="BE3" s="100"/>
+      <c r="BF3" s="101"/>
+      <c r="BG3" s="99" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH3" s="100"/>
+      <c r="BI3" s="100"/>
+      <c r="BJ3" s="100"/>
+      <c r="BK3" s="100"/>
+      <c r="BL3" s="100"/>
+      <c r="BM3" s="101"/>
+      <c r="BN3" s="99" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO3" s="100"/>
+      <c r="BP3" s="100"/>
+      <c r="BQ3" s="100"/>
+      <c r="BR3" s="100"/>
+      <c r="BS3" s="100"/>
+      <c r="BT3" s="101"/>
+      <c r="BU3" s="99" t="s">
+        <v>16</v>
+      </c>
+      <c r="BV3" s="100"/>
+      <c r="BW3" s="100"/>
+      <c r="BX3" s="100"/>
+      <c r="BY3" s="100"/>
+      <c r="BZ3" s="100"/>
+      <c r="CA3" s="101"/>
+      <c r="CB3" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="CC3" s="100"/>
+      <c r="CD3" s="100"/>
+      <c r="CE3" s="100"/>
+      <c r="CF3" s="100"/>
+      <c r="CG3" s="100"/>
+      <c r="CH3" s="101"/>
+      <c r="CI3" s="99" t="s">
+        <v>18</v>
+      </c>
+      <c r="CJ3" s="100"/>
+      <c r="CK3" s="100"/>
+      <c r="CL3" s="100"/>
+      <c r="CM3" s="100"/>
+      <c r="CN3" s="100"/>
+      <c r="CO3" s="101"/>
+      <c r="CP3" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="CQ3" s="100"/>
+      <c r="CR3" s="100"/>
+      <c r="CS3" s="100"/>
+      <c r="CT3" s="100"/>
+      <c r="CU3" s="100"/>
+      <c r="CV3" s="101"/>
+      <c r="CW3" s="99" t="s">
+        <v>20</v>
+      </c>
+      <c r="CX3" s="100"/>
+      <c r="CY3" s="100"/>
+      <c r="CZ3" s="100"/>
+      <c r="DA3" s="100"/>
+      <c r="DB3" s="100"/>
+      <c r="DC3" s="101"/>
+      <c r="DD3" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="DE3" s="100"/>
+      <c r="DF3" s="100"/>
+      <c r="DG3" s="100"/>
+      <c r="DH3" s="100"/>
+      <c r="DI3" s="100"/>
+      <c r="DJ3" s="101"/>
+      <c r="DK3" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="DL3" s="100"/>
+      <c r="DM3" s="100"/>
+      <c r="DN3" s="100"/>
+      <c r="DO3" s="100"/>
+      <c r="DP3" s="100"/>
+      <c r="DQ3" s="101"/>
+      <c r="DR3" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="DS3" s="100"/>
+      <c r="DT3" s="100"/>
+      <c r="DU3" s="100"/>
+      <c r="DV3" s="100"/>
+      <c r="DW3" s="100"/>
+      <c r="DX3" s="101"/>
+      <c r="DY3" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="DZ3" s="100"/>
+      <c r="EA3" s="100"/>
+      <c r="EB3" s="100"/>
+      <c r="EC3" s="100"/>
+      <c r="ED3" s="100"/>
+      <c r="EE3" s="101"/>
+      <c r="EF3" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="EG3" s="100"/>
+      <c r="EH3" s="100"/>
+      <c r="EI3" s="100"/>
+      <c r="EJ3" s="100"/>
+      <c r="EK3" s="100"/>
+      <c r="EL3" s="101"/>
+      <c r="EM3" s="125" t="s">
+        <v>26</v>
+      </c>
+      <c r="EN3" s="126"/>
+      <c r="EO3" s="126"/>
+      <c r="EP3" s="126"/>
+      <c r="EQ3" s="126"/>
+      <c r="ER3" s="126"/>
+      <c r="ES3" s="127"/>
+      <c r="ET3" s="125" t="s">
+        <v>27</v>
+      </c>
+      <c r="EU3" s="126"/>
+      <c r="EV3" s="126"/>
+      <c r="EW3" s="126"/>
+      <c r="EX3" s="126"/>
+      <c r="EY3" s="126"/>
+      <c r="EZ3" s="127"/>
+    </row>
+    <row r="4" spans="1:163" ht="15" thickBot="1">
+      <c r="A4" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="67">
-        <f>SUM(C6:EL6,C8:EL8,C10:EL10,C12:EL12,C14:EL14,C16:EL16,C18:EL18,C20:EL20,C22:EL22,C24:EL24,C26:EL26,C28:EL28,C30:EL30,C32:EL32,C34:EL34,C36:EL36)</f>
-        <v>129</v>
-      </c>
-      <c r="C3" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="108" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="99"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="98" t="s">
-        <v>10</v>
-      </c>
-      <c r="R3" s="99"/>
-      <c r="S3" s="99"/>
-      <c r="T3" s="99"/>
-      <c r="U3" s="99"/>
-      <c r="V3" s="99"/>
-      <c r="W3" s="100"/>
-      <c r="X3" s="98" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y3" s="99"/>
-      <c r="Z3" s="99"/>
-      <c r="AA3" s="99"/>
-      <c r="AB3" s="99"/>
-      <c r="AC3" s="99"/>
-      <c r="AD3" s="100"/>
-      <c r="AE3" s="98" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF3" s="99"/>
-      <c r="AG3" s="99"/>
-      <c r="AH3" s="99"/>
-      <c r="AI3" s="99"/>
-      <c r="AJ3" s="99"/>
-      <c r="AK3" s="100"/>
-      <c r="AL3" s="98" t="s">
-        <v>13</v>
-      </c>
-      <c r="AM3" s="99"/>
-      <c r="AN3" s="99"/>
-      <c r="AO3" s="99"/>
-      <c r="AP3" s="99"/>
-      <c r="AQ3" s="99"/>
-      <c r="AR3" s="100"/>
-      <c r="AS3" s="98" t="s">
-        <v>14</v>
-      </c>
-      <c r="AT3" s="99"/>
-      <c r="AU3" s="99"/>
-      <c r="AV3" s="99"/>
-      <c r="AW3" s="99"/>
-      <c r="AX3" s="99"/>
-      <c r="AY3" s="100"/>
-      <c r="AZ3" s="98" t="s">
-        <v>15</v>
-      </c>
-      <c r="BA3" s="99"/>
-      <c r="BB3" s="99"/>
-      <c r="BC3" s="99"/>
-      <c r="BD3" s="99"/>
-      <c r="BE3" s="99"/>
-      <c r="BF3" s="100"/>
-      <c r="BG3" s="98" t="s">
-        <v>16</v>
-      </c>
-      <c r="BH3" s="99"/>
-      <c r="BI3" s="99"/>
-      <c r="BJ3" s="99"/>
-      <c r="BK3" s="99"/>
-      <c r="BL3" s="99"/>
-      <c r="BM3" s="100"/>
-      <c r="BN3" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="BO3" s="99"/>
-      <c r="BP3" s="99"/>
-      <c r="BQ3" s="99"/>
-      <c r="BR3" s="99"/>
-      <c r="BS3" s="99"/>
-      <c r="BT3" s="100"/>
-      <c r="BU3" s="98" t="s">
-        <v>18</v>
-      </c>
-      <c r="BV3" s="99"/>
-      <c r="BW3" s="99"/>
-      <c r="BX3" s="99"/>
-      <c r="BY3" s="99"/>
-      <c r="BZ3" s="99"/>
-      <c r="CA3" s="100"/>
-      <c r="CB3" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="CC3" s="99"/>
-      <c r="CD3" s="99"/>
-      <c r="CE3" s="99"/>
-      <c r="CF3" s="99"/>
-      <c r="CG3" s="99"/>
-      <c r="CH3" s="100"/>
-      <c r="CI3" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="CJ3" s="99"/>
-      <c r="CK3" s="99"/>
-      <c r="CL3" s="99"/>
-      <c r="CM3" s="99"/>
-      <c r="CN3" s="99"/>
-      <c r="CO3" s="100"/>
-      <c r="CP3" s="98" t="s">
-        <v>21</v>
-      </c>
-      <c r="CQ3" s="99"/>
-      <c r="CR3" s="99"/>
-      <c r="CS3" s="99"/>
-      <c r="CT3" s="99"/>
-      <c r="CU3" s="99"/>
-      <c r="CV3" s="100"/>
-      <c r="CW3" s="98" t="s">
-        <v>22</v>
-      </c>
-      <c r="CX3" s="99"/>
-      <c r="CY3" s="99"/>
-      <c r="CZ3" s="99"/>
-      <c r="DA3" s="99"/>
-      <c r="DB3" s="99"/>
-      <c r="DC3" s="100"/>
-      <c r="DD3" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="DE3" s="99"/>
-      <c r="DF3" s="99"/>
-      <c r="DG3" s="99"/>
-      <c r="DH3" s="99"/>
-      <c r="DI3" s="99"/>
-      <c r="DJ3" s="100"/>
-      <c r="DK3" s="98" t="s">
-        <v>24</v>
-      </c>
-      <c r="DL3" s="99"/>
-      <c r="DM3" s="99"/>
-      <c r="DN3" s="99"/>
-      <c r="DO3" s="99"/>
-      <c r="DP3" s="99"/>
-      <c r="DQ3" s="100"/>
-      <c r="DR3" s="98" t="s">
-        <v>25</v>
-      </c>
-      <c r="DS3" s="99"/>
-      <c r="DT3" s="99"/>
-      <c r="DU3" s="99"/>
-      <c r="DV3" s="99"/>
-      <c r="DW3" s="99"/>
-      <c r="DX3" s="100"/>
-      <c r="DY3" s="101" t="s">
-        <v>26</v>
-      </c>
-      <c r="DZ3" s="102"/>
-      <c r="EA3" s="102"/>
-      <c r="EB3" s="102"/>
-      <c r="EC3" s="102"/>
-      <c r="ED3" s="102"/>
-      <c r="EE3" s="103"/>
-      <c r="EF3" s="101" t="s">
-        <v>27</v>
-      </c>
-      <c r="EG3" s="102"/>
-      <c r="EH3" s="102"/>
-      <c r="EI3" s="102"/>
-      <c r="EJ3" s="102"/>
-      <c r="EK3" s="102"/>
-      <c r="EL3" s="103"/>
-    </row>
-    <row r="4" spans="1:149" ht="15" thickBot="1">
-      <c r="A4" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="B4" s="64">
-        <f>SUM(C7:EL7,C9:EL9,C11:EL11,C13:EL13,C15:EL15,C17:EL17,C19:EL19,C21:EL21,C23:EL23,C25:EL25,C27:EL27,C29:EL29,C31:EL31,C33:EL33,C35:EL35,C37:EL37)</f>
-        <v>148</v>
+        <f>SUM(C7:EZ7,C9:EZ9,C11:EZ11,C13:EZ13,C15:EZ15,C17:EZ17,C19:EZ19,C21:EZ21,C23:EZ23,C25:EZ25,C27:EZ27,C29:EZ29,C31:EZ31,C33:EZ33,C35:EZ35,C37:EZ37,C39:EZ39,C41:EZ41)</f>
+        <v>160</v>
       </c>
       <c r="C4" s="35" t="s">
         <v>1</v>
@@ -2859,67 +2865,67 @@
       <c r="I4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="68" t="s">
+      <c r="J4" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="69" t="s">
+      <c r="L4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="69" t="s">
+      <c r="M4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="69" t="s">
+      <c r="N4" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="69" t="s">
+      <c r="O4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="70" t="s">
         <v>7</v>
       </c>
       <c r="Q4" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="35" t="s">
+      <c r="R4" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="35" t="s">
+      <c r="S4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="T4" s="35" t="s">
+      <c r="T4" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="U4" s="35" t="s">
+      <c r="U4" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="V4" s="35" t="s">
+      <c r="V4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="W4" s="35" t="s">
+      <c r="W4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="X4" s="35" t="s">
+      <c r="X4" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="Y4" s="35" t="s">
+      <c r="Y4" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="Z4" s="35" t="s">
+      <c r="Z4" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="AA4" s="35" t="s">
+      <c r="AA4" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="AB4" s="35" t="s">
+      <c r="AB4" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="AC4" s="35" t="s">
+      <c r="AC4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="35" t="s">
+      <c r="AD4" s="69" t="s">
         <v>7</v>
       </c>
       <c r="AE4" s="35" t="s">
@@ -3174,25 +3180,25 @@
       <c r="DJ4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="DK4" s="36" t="s">
+      <c r="DK4" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="DL4" s="36" t="s">
+      <c r="DL4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="DM4" s="36" t="s">
+      <c r="DM4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="DN4" s="36" t="s">
+      <c r="DN4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="DO4" s="36" t="s">
+      <c r="DO4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="DP4" s="36" t="s">
+      <c r="DP4" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="DQ4" s="36" t="s">
+      <c r="DQ4" s="35" t="s">
         <v>7</v>
       </c>
       <c r="DR4" s="35" t="s">
@@ -3216,25 +3222,25 @@
       <c r="DX4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="DY4" s="35" t="s">
+      <c r="DY4" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="DZ4" s="35" t="s">
+      <c r="DZ4" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="EA4" s="35" t="s">
+      <c r="EA4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="EB4" s="35" t="s">
+      <c r="EB4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="EC4" s="35" t="s">
+      <c r="EC4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="ED4" s="35" t="s">
+      <c r="ED4" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="EE4" s="35" t="s">
+      <c r="EE4" s="36" t="s">
         <v>7</v>
       </c>
       <c r="EF4" s="35" t="s">
@@ -3258,168 +3264,224 @@
       <c r="EL4" s="35" t="s">
         <v>7</v>
       </c>
+      <c r="EM4" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="EN4" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="EO4" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="EP4" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="EQ4" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="ER4" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="ES4" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="ET4" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="EU4" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="EV4" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="EW4" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="EX4" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="EY4" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="EZ4" s="35" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:149" ht="19" thickBot="1">
-      <c r="A5" s="105" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="80"/>
-      <c r="T5" s="80"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
-      <c r="W5" s="81"/>
-      <c r="X5" s="79"/>
-      <c r="Y5" s="80"/>
-      <c r="Z5" s="80"/>
-      <c r="AA5" s="80"/>
-      <c r="AB5" s="80"/>
-      <c r="AC5" s="80"/>
-      <c r="AD5" s="81"/>
-      <c r="AE5" s="79"/>
-      <c r="AF5" s="80"/>
-      <c r="AG5" s="80"/>
-      <c r="AH5" s="80"/>
-      <c r="AI5" s="80"/>
-      <c r="AJ5" s="80"/>
-      <c r="AK5" s="81"/>
-      <c r="AL5" s="85" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM5" s="86"/>
-      <c r="AN5" s="86"/>
-      <c r="AO5" s="86"/>
-      <c r="AP5" s="86"/>
-      <c r="AQ5" s="86"/>
-      <c r="AR5" s="87"/>
-      <c r="AS5" s="79"/>
-      <c r="AT5" s="80"/>
-      <c r="AU5" s="80"/>
-      <c r="AV5" s="80"/>
-      <c r="AW5" s="80"/>
-      <c r="AX5" s="80"/>
-      <c r="AY5" s="81"/>
-      <c r="AZ5" s="79"/>
-      <c r="BA5" s="80"/>
-      <c r="BB5" s="80"/>
-      <c r="BC5" s="80"/>
-      <c r="BD5" s="80"/>
-      <c r="BE5" s="80"/>
-      <c r="BF5" s="81"/>
-      <c r="BG5" s="79"/>
-      <c r="BH5" s="80"/>
-      <c r="BI5" s="80"/>
-      <c r="BJ5" s="80"/>
-      <c r="BK5" s="80"/>
-      <c r="BL5" s="80"/>
-      <c r="BM5" s="81"/>
-      <c r="BN5" s="79"/>
-      <c r="BO5" s="80"/>
-      <c r="BP5" s="80"/>
-      <c r="BQ5" s="80"/>
-      <c r="BR5" s="80"/>
-      <c r="BS5" s="80"/>
-      <c r="BT5" s="81"/>
-      <c r="BU5" s="79"/>
-      <c r="BV5" s="80"/>
-      <c r="BW5" s="80"/>
-      <c r="BX5" s="80"/>
-      <c r="BY5" s="80"/>
-      <c r="BZ5" s="80"/>
-      <c r="CA5" s="81"/>
-      <c r="CB5" s="79"/>
-      <c r="CC5" s="80"/>
-      <c r="CD5" s="80"/>
-      <c r="CE5" s="80"/>
-      <c r="CF5" s="80"/>
-      <c r="CG5" s="80"/>
-      <c r="CH5" s="81"/>
-      <c r="CI5" s="79"/>
-      <c r="CJ5" s="80"/>
-      <c r="CK5" s="80"/>
-      <c r="CL5" s="80"/>
-      <c r="CM5" s="80"/>
-      <c r="CN5" s="80"/>
-      <c r="CO5" s="81"/>
-      <c r="CP5" s="79"/>
-      <c r="CQ5" s="80"/>
-      <c r="CR5" s="80"/>
-      <c r="CS5" s="80"/>
-      <c r="CT5" s="80"/>
-      <c r="CU5" s="80"/>
-      <c r="CV5" s="81"/>
-      <c r="CW5" s="79"/>
-      <c r="CX5" s="80"/>
-      <c r="CY5" s="80"/>
-      <c r="CZ5" s="80"/>
-      <c r="DA5" s="80"/>
-      <c r="DB5" s="80"/>
-      <c r="DC5" s="81"/>
-      <c r="DD5" s="79"/>
-      <c r="DE5" s="80"/>
-      <c r="DF5" s="80"/>
-      <c r="DG5" s="80"/>
-      <c r="DH5" s="80"/>
-      <c r="DI5" s="80"/>
-      <c r="DJ5" s="81"/>
-      <c r="DK5" s="82" t="s">
+    <row r="5" spans="1:163" ht="19" thickBot="1">
+      <c r="A5" s="128" t="s">
         <v>90</v>
       </c>
-      <c r="DL5" s="83"/>
-      <c r="DM5" s="83"/>
-      <c r="DN5" s="83"/>
-      <c r="DO5" s="83"/>
-      <c r="DP5" s="83"/>
-      <c r="DQ5" s="84"/>
-      <c r="DR5" s="82" t="s">
+      <c r="B5" s="129"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="102"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="103"/>
+      <c r="T5" s="103"/>
+      <c r="U5" s="103"/>
+      <c r="V5" s="103"/>
+      <c r="W5" s="104"/>
+      <c r="X5" s="110"/>
+      <c r="Y5" s="110"/>
+      <c r="Z5" s="110"/>
+      <c r="AA5" s="110"/>
+      <c r="AB5" s="110"/>
+      <c r="AC5" s="110"/>
+      <c r="AD5" s="111"/>
+      <c r="AE5" s="109"/>
+      <c r="AF5" s="110"/>
+      <c r="AG5" s="110"/>
+      <c r="AH5" s="110"/>
+      <c r="AI5" s="110"/>
+      <c r="AJ5" s="110"/>
+      <c r="AK5" s="111"/>
+      <c r="AL5" s="109"/>
+      <c r="AM5" s="110"/>
+      <c r="AN5" s="110"/>
+      <c r="AO5" s="110"/>
+      <c r="AP5" s="110"/>
+      <c r="AQ5" s="110"/>
+      <c r="AR5" s="111"/>
+      <c r="AS5" s="109"/>
+      <c r="AT5" s="110"/>
+      <c r="AU5" s="110"/>
+      <c r="AV5" s="110"/>
+      <c r="AW5" s="110"/>
+      <c r="AX5" s="110"/>
+      <c r="AY5" s="111"/>
+      <c r="AZ5" s="115" t="s">
         <v>90</v>
       </c>
-      <c r="DS5" s="83"/>
-      <c r="DT5" s="83"/>
-      <c r="DU5" s="83"/>
-      <c r="DV5" s="83"/>
-      <c r="DW5" s="83"/>
-      <c r="DX5" s="84"/>
-      <c r="DY5" s="79"/>
-      <c r="DZ5" s="80"/>
-      <c r="EA5" s="80"/>
-      <c r="EB5" s="80"/>
-      <c r="EC5" s="80"/>
-      <c r="ED5" s="80"/>
-      <c r="EE5" s="81"/>
-      <c r="EF5" s="79"/>
-      <c r="EG5" s="80"/>
-      <c r="EH5" s="80"/>
-      <c r="EI5" s="80"/>
-      <c r="EJ5" s="80"/>
-      <c r="EK5" s="80"/>
-      <c r="EL5" s="81"/>
-      <c r="EM5" s="2"/>
-      <c r="EN5" s="2"/>
-      <c r="EO5" s="2"/>
-      <c r="EP5" s="2"/>
-      <c r="EQ5" s="2"/>
-      <c r="ER5" s="2"/>
-      <c r="ES5" s="2"/>
+      <c r="BA5" s="116"/>
+      <c r="BB5" s="116"/>
+      <c r="BC5" s="116"/>
+      <c r="BD5" s="116"/>
+      <c r="BE5" s="116"/>
+      <c r="BF5" s="117"/>
+      <c r="BG5" s="109"/>
+      <c r="BH5" s="110"/>
+      <c r="BI5" s="110"/>
+      <c r="BJ5" s="110"/>
+      <c r="BK5" s="110"/>
+      <c r="BL5" s="110"/>
+      <c r="BM5" s="111"/>
+      <c r="BN5" s="109"/>
+      <c r="BO5" s="110"/>
+      <c r="BP5" s="110"/>
+      <c r="BQ5" s="110"/>
+      <c r="BR5" s="110"/>
+      <c r="BS5" s="110"/>
+      <c r="BT5" s="111"/>
+      <c r="BU5" s="109"/>
+      <c r="BV5" s="110"/>
+      <c r="BW5" s="110"/>
+      <c r="BX5" s="110"/>
+      <c r="BY5" s="110"/>
+      <c r="BZ5" s="110"/>
+      <c r="CA5" s="111"/>
+      <c r="CB5" s="109"/>
+      <c r="CC5" s="110"/>
+      <c r="CD5" s="110"/>
+      <c r="CE5" s="110"/>
+      <c r="CF5" s="110"/>
+      <c r="CG5" s="110"/>
+      <c r="CH5" s="111"/>
+      <c r="CI5" s="109"/>
+      <c r="CJ5" s="110"/>
+      <c r="CK5" s="110"/>
+      <c r="CL5" s="110"/>
+      <c r="CM5" s="110"/>
+      <c r="CN5" s="110"/>
+      <c r="CO5" s="111"/>
+      <c r="CP5" s="109"/>
+      <c r="CQ5" s="110"/>
+      <c r="CR5" s="110"/>
+      <c r="CS5" s="110"/>
+      <c r="CT5" s="110"/>
+      <c r="CU5" s="110"/>
+      <c r="CV5" s="111"/>
+      <c r="CW5" s="109"/>
+      <c r="CX5" s="110"/>
+      <c r="CY5" s="110"/>
+      <c r="CZ5" s="110"/>
+      <c r="DA5" s="110"/>
+      <c r="DB5" s="110"/>
+      <c r="DC5" s="111"/>
+      <c r="DD5" s="109"/>
+      <c r="DE5" s="110"/>
+      <c r="DF5" s="110"/>
+      <c r="DG5" s="110"/>
+      <c r="DH5" s="110"/>
+      <c r="DI5" s="110"/>
+      <c r="DJ5" s="111"/>
+      <c r="DK5" s="109"/>
+      <c r="DL5" s="110"/>
+      <c r="DM5" s="110"/>
+      <c r="DN5" s="110"/>
+      <c r="DO5" s="110"/>
+      <c r="DP5" s="110"/>
+      <c r="DQ5" s="111"/>
+      <c r="DR5" s="109"/>
+      <c r="DS5" s="110"/>
+      <c r="DT5" s="110"/>
+      <c r="DU5" s="110"/>
+      <c r="DV5" s="110"/>
+      <c r="DW5" s="110"/>
+      <c r="DX5" s="111"/>
+      <c r="DY5" s="112" t="s">
+        <v>89</v>
+      </c>
+      <c r="DZ5" s="113"/>
+      <c r="EA5" s="113"/>
+      <c r="EB5" s="113"/>
+      <c r="EC5" s="113"/>
+      <c r="ED5" s="113"/>
+      <c r="EE5" s="114"/>
+      <c r="EF5" s="113" t="s">
+        <v>89</v>
+      </c>
+      <c r="EG5" s="113"/>
+      <c r="EH5" s="113"/>
+      <c r="EI5" s="113"/>
+      <c r="EJ5" s="113"/>
+      <c r="EK5" s="113"/>
+      <c r="EL5" s="114"/>
+      <c r="EM5" s="109"/>
+      <c r="EN5" s="110"/>
+      <c r="EO5" s="110"/>
+      <c r="EP5" s="110"/>
+      <c r="EQ5" s="110"/>
+      <c r="ER5" s="110"/>
+      <c r="ES5" s="111"/>
+      <c r="ET5" s="109"/>
+      <c r="EU5" s="110"/>
+      <c r="EV5" s="110"/>
+      <c r="EW5" s="110"/>
+      <c r="EX5" s="110"/>
+      <c r="EY5" s="110"/>
+      <c r="EZ5" s="111"/>
+      <c r="FA5" s="2"/>
+      <c r="FB5" s="2"/>
+      <c r="FC5" s="2"/>
+      <c r="FD5" s="2"/>
+      <c r="FE5" s="2"/>
+      <c r="FF5" s="2"/>
+      <c r="FG5" s="2"/>
     </row>
-    <row r="6" spans="1:149" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="104" t="s">
+    <row r="6" spans="1:163" ht="15" customHeight="1" thickBot="1">
+      <c r="A6" s="95" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -3432,31 +3494,25 @@
       <c r="G6" s="72"/>
       <c r="H6" s="72"/>
       <c r="I6" s="73"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="17">
-        <v>1</v>
-      </c>
-      <c r="O6" s="15"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="17">
-        <v>1</v>
-      </c>
-      <c r="V6" s="15"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="14"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="72"/>
+      <c r="U6" s="72"/>
+      <c r="V6" s="72"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="19"/>
       <c r="Y6" s="15"/>
       <c r="Z6" s="15"/>
       <c r="AA6" s="15"/>
-      <c r="AB6" s="17">
-        <v>1</v>
-      </c>
+      <c r="AB6" s="15"/>
       <c r="AC6" s="15"/>
       <c r="AD6" s="16"/>
       <c r="AE6" s="14"/>
@@ -3467,15 +3523,17 @@
         <v>1</v>
       </c>
       <c r="AJ6" s="15"/>
-      <c r="AK6" s="18"/>
-      <c r="AL6" s="1"/>
-      <c r="AM6" s="5"/>
-      <c r="AN6" s="5"/>
-      <c r="AO6" s="5"/>
-      <c r="AP6" s="5"/>
-      <c r="AQ6" s="5"/>
-      <c r="AR6" s="6"/>
-      <c r="AS6" s="19"/>
+      <c r="AK6" s="16"/>
+      <c r="AL6" s="14"/>
+      <c r="AM6" s="15"/>
+      <c r="AN6" s="15"/>
+      <c r="AO6" s="15"/>
+      <c r="AP6" s="17">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="15"/>
+      <c r="AR6" s="16"/>
+      <c r="AS6" s="14"/>
       <c r="AT6" s="15"/>
       <c r="AU6" s="15"/>
       <c r="AV6" s="15"/>
@@ -3483,17 +3541,15 @@
         <v>1</v>
       </c>
       <c r="AX6" s="15"/>
-      <c r="AY6" s="16"/>
-      <c r="AZ6" s="14"/>
-      <c r="BA6" s="15"/>
-      <c r="BB6" s="15"/>
-      <c r="BC6" s="15"/>
-      <c r="BD6" s="17">
-        <v>1</v>
-      </c>
-      <c r="BE6" s="15"/>
-      <c r="BF6" s="16"/>
-      <c r="BG6" s="14"/>
+      <c r="AY6" s="18"/>
+      <c r="AZ6" s="1"/>
+      <c r="BA6" s="5"/>
+      <c r="BB6" s="5"/>
+      <c r="BC6" s="5"/>
+      <c r="BD6" s="5"/>
+      <c r="BE6" s="5"/>
+      <c r="BF6" s="6"/>
+      <c r="BG6" s="19"/>
       <c r="BH6" s="15"/>
       <c r="BI6" s="15"/>
       <c r="BJ6" s="15"/>
@@ -3564,687 +3620,749 @@
         <v>1</v>
       </c>
       <c r="DI6" s="15"/>
-      <c r="DJ6" s="18"/>
-      <c r="DK6" s="1"/>
-      <c r="DL6" s="5"/>
-      <c r="DM6" s="5"/>
-      <c r="DN6" s="5"/>
-      <c r="DO6" s="5"/>
-      <c r="DP6" s="5"/>
-      <c r="DQ6" s="6"/>
-      <c r="DR6" s="1"/>
-      <c r="DS6" s="5"/>
-      <c r="DT6" s="5"/>
-      <c r="DU6" s="5"/>
-      <c r="DV6" s="5"/>
-      <c r="DW6" s="5"/>
-      <c r="DX6" s="6"/>
-      <c r="DY6" s="19"/>
-      <c r="DZ6" s="17">
+      <c r="DJ6" s="16"/>
+      <c r="DK6" s="14"/>
+      <c r="DL6" s="15"/>
+      <c r="DM6" s="15"/>
+      <c r="DN6" s="15"/>
+      <c r="DO6" s="17">
         <v>1</v>
       </c>
-      <c r="EA6" s="119"/>
-      <c r="EB6" s="119"/>
-      <c r="EC6" s="119"/>
-      <c r="ED6" s="119"/>
-      <c r="EE6" s="16"/>
-      <c r="EF6" s="14"/>
-      <c r="EG6" s="15"/>
-      <c r="EH6" s="15"/>
-      <c r="EI6" s="15"/>
-      <c r="EJ6" s="15"/>
-      <c r="EK6" s="15"/>
-      <c r="EL6" s="16"/>
+      <c r="DP6" s="15"/>
+      <c r="DQ6" s="16"/>
+      <c r="DR6" s="14"/>
+      <c r="DS6" s="15"/>
+      <c r="DT6" s="15"/>
+      <c r="DU6" s="15"/>
+      <c r="DV6" s="17">
+        <v>1</v>
+      </c>
+      <c r="DW6" s="15"/>
+      <c r="DX6" s="18"/>
+      <c r="DY6" s="1"/>
+      <c r="DZ6" s="5"/>
+      <c r="EA6" s="5"/>
+      <c r="EB6" s="5"/>
+      <c r="EC6" s="5"/>
+      <c r="ED6" s="5"/>
+      <c r="EE6" s="6"/>
+      <c r="EF6" s="1"/>
+      <c r="EG6" s="5"/>
+      <c r="EH6" s="5"/>
+      <c r="EI6" s="5"/>
+      <c r="EJ6" s="5"/>
+      <c r="EK6" s="5"/>
+      <c r="EL6" s="6"/>
+      <c r="EM6" s="19"/>
+      <c r="EN6" s="17">
+        <v>1</v>
+      </c>
+      <c r="EO6" s="15"/>
+      <c r="EP6" s="15"/>
+      <c r="EQ6" s="15"/>
+      <c r="ER6" s="15"/>
+      <c r="ES6" s="16"/>
+      <c r="ET6" s="14"/>
+      <c r="EU6" s="15"/>
+      <c r="EV6" s="15"/>
+      <c r="EW6" s="15"/>
+      <c r="EX6" s="15"/>
+      <c r="EY6" s="15"/>
+      <c r="EZ6" s="16"/>
     </row>
-    <row r="7" spans="1:149" ht="15" thickBot="1">
-      <c r="A7" s="92"/>
+    <row r="7" spans="1:163" ht="15" customHeight="1" thickBot="1">
+      <c r="A7" s="96"/>
       <c r="B7" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="23">
+      <c r="C7" s="71"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="73"/>
+      <c r="X7" s="82"/>
+      <c r="Y7" s="72"/>
+      <c r="Z7" s="72"/>
+      <c r="AA7" s="72"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="72"/>
+      <c r="AD7" s="73"/>
+      <c r="AE7" s="71"/>
+      <c r="AF7" s="72"/>
+      <c r="AG7" s="72"/>
+      <c r="AH7" s="72"/>
+      <c r="AI7" s="23">
         <v>2</v>
       </c>
-      <c r="O7" s="21"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="23">
+      <c r="AJ7" s="72"/>
+      <c r="AK7" s="73"/>
+      <c r="AL7" s="71"/>
+      <c r="AM7" s="72"/>
+      <c r="AN7" s="72"/>
+      <c r="AO7" s="72"/>
+      <c r="AP7" s="23">
         <v>2</v>
       </c>
-      <c r="V7" s="21"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="23">
+      <c r="AQ7" s="72"/>
+      <c r="AR7" s="73"/>
+      <c r="AS7" s="71"/>
+      <c r="AT7" s="72"/>
+      <c r="AU7" s="72"/>
+      <c r="AV7" s="72"/>
+      <c r="AW7" s="72"/>
+      <c r="AX7" s="72"/>
+      <c r="AY7" s="84"/>
+      <c r="AZ7" s="85"/>
+      <c r="BA7" s="86"/>
+      <c r="BB7" s="86"/>
+      <c r="BC7" s="86"/>
+      <c r="BD7" s="86"/>
+      <c r="BE7" s="86"/>
+      <c r="BF7" s="87"/>
+      <c r="BG7" s="82"/>
+      <c r="BH7" s="72"/>
+      <c r="BI7" s="72"/>
+      <c r="BJ7" s="72"/>
+      <c r="BK7" s="72"/>
+      <c r="BL7" s="72"/>
+      <c r="BM7" s="73"/>
+      <c r="BN7" s="71"/>
+      <c r="BO7" s="72"/>
+      <c r="BP7" s="72"/>
+      <c r="BQ7" s="72"/>
+      <c r="BR7" s="72"/>
+      <c r="BS7" s="72"/>
+      <c r="BT7" s="73"/>
+      <c r="BU7" s="71"/>
+      <c r="BV7" s="72"/>
+      <c r="BW7" s="72"/>
+      <c r="BX7" s="72"/>
+      <c r="BY7" s="72"/>
+      <c r="BZ7" s="72"/>
+      <c r="CA7" s="73"/>
+      <c r="CB7" s="71"/>
+      <c r="CC7" s="72"/>
+      <c r="CD7" s="72"/>
+      <c r="CE7" s="72"/>
+      <c r="CF7" s="72"/>
+      <c r="CG7" s="72"/>
+      <c r="CH7" s="73"/>
+      <c r="CI7" s="71"/>
+      <c r="CJ7" s="72"/>
+      <c r="CK7" s="72"/>
+      <c r="CL7" s="72"/>
+      <c r="CM7" s="72"/>
+      <c r="CN7" s="72"/>
+      <c r="CO7" s="73"/>
+      <c r="CP7" s="71"/>
+      <c r="CQ7" s="72"/>
+      <c r="CR7" s="72"/>
+      <c r="CS7" s="72"/>
+      <c r="CT7" s="72"/>
+      <c r="CU7" s="72"/>
+      <c r="CV7" s="73"/>
+      <c r="CW7" s="71"/>
+      <c r="CX7" s="72"/>
+      <c r="CY7" s="72"/>
+      <c r="CZ7" s="72"/>
+      <c r="DA7" s="72"/>
+      <c r="DB7" s="72"/>
+      <c r="DC7" s="73"/>
+      <c r="DD7" s="71"/>
+      <c r="DE7" s="72"/>
+      <c r="DF7" s="72"/>
+      <c r="DG7" s="72"/>
+      <c r="DH7" s="72"/>
+      <c r="DI7" s="72"/>
+      <c r="DJ7" s="73"/>
+      <c r="DK7" s="71"/>
+      <c r="DL7" s="72"/>
+      <c r="DM7" s="72"/>
+      <c r="DN7" s="72"/>
+      <c r="DO7" s="72"/>
+      <c r="DP7" s="72"/>
+      <c r="DQ7" s="73"/>
+      <c r="DR7" s="71"/>
+      <c r="DS7" s="72"/>
+      <c r="DT7" s="72"/>
+      <c r="DU7" s="72"/>
+      <c r="DV7" s="72"/>
+      <c r="DW7" s="72"/>
+      <c r="DX7" s="84"/>
+      <c r="DY7" s="85"/>
+      <c r="DZ7" s="86"/>
+      <c r="EA7" s="86"/>
+      <c r="EB7" s="78">
         <v>2</v>
       </c>
-      <c r="AC7" s="21"/>
-      <c r="AD7" s="22"/>
-      <c r="AE7" s="20"/>
-      <c r="AF7" s="21"/>
-      <c r="AG7" s="21"/>
-      <c r="AH7" s="21"/>
-      <c r="AI7" s="21"/>
-      <c r="AJ7" s="21"/>
-      <c r="AK7" s="24"/>
-      <c r="AL7" s="7"/>
-      <c r="AM7" s="8"/>
-      <c r="AN7" s="8"/>
-      <c r="AO7" s="8"/>
-      <c r="AP7" s="8"/>
-      <c r="AQ7" s="8"/>
-      <c r="AR7" s="9"/>
-      <c r="AS7" s="25"/>
-      <c r="AT7" s="23">
+      <c r="EC7" s="78">
+        <v>2</v>
+      </c>
+      <c r="ED7" s="8"/>
+      <c r="EE7" s="9"/>
+      <c r="EF7" s="7"/>
+      <c r="EG7" s="8"/>
+      <c r="EH7" s="8"/>
+      <c r="EI7" s="8"/>
+      <c r="EJ7" s="78">
+        <v>2</v>
+      </c>
+      <c r="EK7" s="78">
+        <v>3</v>
+      </c>
+      <c r="EL7" s="79">
+        <v>5</v>
+      </c>
+      <c r="EM7" s="80">
+        <v>3</v>
+      </c>
+      <c r="EN7" s="23">
+        <v>4</v>
+      </c>
+      <c r="EO7" s="72"/>
+      <c r="EP7" s="72"/>
+      <c r="EQ7" s="72"/>
+      <c r="ER7" s="72"/>
+      <c r="ES7" s="73"/>
+      <c r="ET7" s="71"/>
+      <c r="EU7" s="72"/>
+      <c r="EV7" s="72"/>
+      <c r="EW7" s="72"/>
+      <c r="EX7" s="72"/>
+      <c r="EY7" s="72"/>
+      <c r="EZ7" s="73"/>
+    </row>
+    <row r="8" spans="1:163" ht="15" customHeight="1" thickBot="1">
+      <c r="A8" s="105" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="71"/>
+      <c r="D8" s="83">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="83">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="83">
+        <v>0.5</v>
+      </c>
+      <c r="S8" s="72"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="72"/>
+      <c r="W8" s="73"/>
+      <c r="X8" s="82"/>
+      <c r="Y8" s="83">
+        <v>0.5</v>
+      </c>
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="72"/>
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="72"/>
+      <c r="AD8" s="73"/>
+      <c r="AE8" s="71"/>
+      <c r="AF8" s="83">
+        <v>0.5</v>
+      </c>
+      <c r="AG8" s="72"/>
+      <c r="AH8" s="72"/>
+      <c r="AI8" s="72"/>
+      <c r="AJ8" s="72"/>
+      <c r="AK8" s="73"/>
+      <c r="AL8" s="71"/>
+      <c r="AM8" s="83">
+        <v>0.5</v>
+      </c>
+      <c r="AN8" s="72"/>
+      <c r="AO8" s="72"/>
+      <c r="AP8" s="72"/>
+      <c r="AQ8" s="72"/>
+      <c r="AR8" s="73"/>
+      <c r="AS8" s="71"/>
+      <c r="AT8" s="72"/>
+      <c r="AU8" s="72"/>
+      <c r="AV8" s="72"/>
+      <c r="AW8" s="72"/>
+      <c r="AX8" s="72"/>
+      <c r="AY8" s="84"/>
+      <c r="AZ8" s="85"/>
+      <c r="BA8" s="86"/>
+      <c r="BB8" s="86"/>
+      <c r="BC8" s="86"/>
+      <c r="BD8" s="86"/>
+      <c r="BE8" s="86"/>
+      <c r="BF8" s="87"/>
+      <c r="BG8" s="82"/>
+      <c r="BH8" s="72"/>
+      <c r="BI8" s="72"/>
+      <c r="BJ8" s="72"/>
+      <c r="BK8" s="72"/>
+      <c r="BL8" s="72"/>
+      <c r="BM8" s="73"/>
+      <c r="BN8" s="71"/>
+      <c r="BO8" s="72"/>
+      <c r="BP8" s="72"/>
+      <c r="BQ8" s="72"/>
+      <c r="BR8" s="72"/>
+      <c r="BS8" s="72"/>
+      <c r="BT8" s="73"/>
+      <c r="BU8" s="71"/>
+      <c r="BV8" s="72"/>
+      <c r="BW8" s="72"/>
+      <c r="BX8" s="72"/>
+      <c r="BY8" s="72"/>
+      <c r="BZ8" s="72"/>
+      <c r="CA8" s="73"/>
+      <c r="CB8" s="71"/>
+      <c r="CC8" s="72"/>
+      <c r="CD8" s="72"/>
+      <c r="CE8" s="72"/>
+      <c r="CF8" s="72"/>
+      <c r="CG8" s="72"/>
+      <c r="CH8" s="73"/>
+      <c r="CI8" s="71"/>
+      <c r="CJ8" s="72"/>
+      <c r="CK8" s="72"/>
+      <c r="CL8" s="72"/>
+      <c r="CM8" s="72"/>
+      <c r="CN8" s="72"/>
+      <c r="CO8" s="73"/>
+      <c r="CP8" s="71"/>
+      <c r="CQ8" s="72"/>
+      <c r="CR8" s="72"/>
+      <c r="CS8" s="72"/>
+      <c r="CT8" s="72"/>
+      <c r="CU8" s="72"/>
+      <c r="CV8" s="73"/>
+      <c r="CW8" s="71"/>
+      <c r="CX8" s="72"/>
+      <c r="CY8" s="72"/>
+      <c r="CZ8" s="72"/>
+      <c r="DA8" s="72"/>
+      <c r="DB8" s="72"/>
+      <c r="DC8" s="73"/>
+      <c r="DD8" s="71"/>
+      <c r="DE8" s="72"/>
+      <c r="DF8" s="72"/>
+      <c r="DG8" s="72"/>
+      <c r="DH8" s="72"/>
+      <c r="DI8" s="72"/>
+      <c r="DJ8" s="73"/>
+      <c r="DK8" s="71"/>
+      <c r="DL8" s="72"/>
+      <c r="DM8" s="72"/>
+      <c r="DN8" s="72"/>
+      <c r="DO8" s="72"/>
+      <c r="DP8" s="72"/>
+      <c r="DQ8" s="73"/>
+      <c r="DR8" s="71"/>
+      <c r="DS8" s="72"/>
+      <c r="DT8" s="72"/>
+      <c r="DU8" s="72"/>
+      <c r="DV8" s="72"/>
+      <c r="DW8" s="72"/>
+      <c r="DX8" s="84"/>
+      <c r="DY8" s="85"/>
+      <c r="DZ8" s="86"/>
+      <c r="EA8" s="86"/>
+      <c r="EB8" s="86"/>
+      <c r="EC8" s="86"/>
+      <c r="ED8" s="86"/>
+      <c r="EE8" s="87"/>
+      <c r="EF8" s="93"/>
+      <c r="EG8" s="86"/>
+      <c r="EH8" s="86"/>
+      <c r="EI8" s="86"/>
+      <c r="EJ8" s="86"/>
+      <c r="EK8" s="86"/>
+      <c r="EL8" s="87"/>
+      <c r="EM8" s="82"/>
+      <c r="EN8" s="72"/>
+      <c r="EO8" s="72"/>
+      <c r="EP8" s="72"/>
+      <c r="EQ8" s="72"/>
+      <c r="ER8" s="72"/>
+      <c r="ES8" s="73"/>
+      <c r="ET8" s="71"/>
+      <c r="EU8" s="72"/>
+      <c r="EV8" s="72"/>
+      <c r="EW8" s="72"/>
+      <c r="EX8" s="72"/>
+      <c r="EY8" s="72"/>
+      <c r="EZ8" s="73"/>
+    </row>
+    <row r="9" spans="1:163" ht="15" customHeight="1" thickBot="1">
+      <c r="A9" s="97"/>
+      <c r="B9" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="71"/>
+      <c r="D9" s="89">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="89">
+        <v>0.5</v>
+      </c>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="S9" s="81"/>
+      <c r="T9" s="81"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="72"/>
+      <c r="W9" s="73"/>
+      <c r="X9" s="82"/>
+      <c r="Y9" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="Z9" s="72"/>
+      <c r="AA9" s="72"/>
+      <c r="AB9" s="72"/>
+      <c r="AC9" s="72"/>
+      <c r="AD9" s="73"/>
+      <c r="AE9" s="71"/>
+      <c r="AF9" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="AG9" s="72"/>
+      <c r="AH9" s="72"/>
+      <c r="AI9" s="72"/>
+      <c r="AJ9" s="72"/>
+      <c r="AK9" s="73"/>
+      <c r="AL9" s="71"/>
+      <c r="AM9" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="AN9" s="72"/>
+      <c r="AO9" s="72"/>
+      <c r="AP9" s="72"/>
+      <c r="AQ9" s="72"/>
+      <c r="AR9" s="73"/>
+      <c r="AS9" s="71"/>
+      <c r="AT9" s="72"/>
+      <c r="AU9" s="72"/>
+      <c r="AV9" s="72"/>
+      <c r="AW9" s="72"/>
+      <c r="AX9" s="72"/>
+      <c r="AY9" s="84"/>
+      <c r="AZ9" s="85"/>
+      <c r="BA9" s="86"/>
+      <c r="BB9" s="86"/>
+      <c r="BC9" s="86"/>
+      <c r="BD9" s="86"/>
+      <c r="BE9" s="86"/>
+      <c r="BF9" s="87"/>
+      <c r="BG9" s="82"/>
+      <c r="BH9" s="72"/>
+      <c r="BI9" s="72"/>
+      <c r="BJ9" s="72"/>
+      <c r="BK9" s="72"/>
+      <c r="BL9" s="72"/>
+      <c r="BM9" s="73"/>
+      <c r="BN9" s="71"/>
+      <c r="BO9" s="72"/>
+      <c r="BP9" s="72"/>
+      <c r="BQ9" s="72"/>
+      <c r="BR9" s="72"/>
+      <c r="BS9" s="72"/>
+      <c r="BT9" s="73"/>
+      <c r="BU9" s="71"/>
+      <c r="BV9" s="72"/>
+      <c r="BW9" s="72"/>
+      <c r="BX9" s="72"/>
+      <c r="BY9" s="72"/>
+      <c r="BZ9" s="72"/>
+      <c r="CA9" s="73"/>
+      <c r="CB9" s="71"/>
+      <c r="CC9" s="72"/>
+      <c r="CD9" s="72"/>
+      <c r="CE9" s="72"/>
+      <c r="CF9" s="72"/>
+      <c r="CG9" s="72"/>
+      <c r="CH9" s="73"/>
+      <c r="CI9" s="71"/>
+      <c r="CJ9" s="72"/>
+      <c r="CK9" s="72"/>
+      <c r="CL9" s="72"/>
+      <c r="CM9" s="72"/>
+      <c r="CN9" s="72"/>
+      <c r="CO9" s="73"/>
+      <c r="CP9" s="71"/>
+      <c r="CQ9" s="72"/>
+      <c r="CR9" s="72"/>
+      <c r="CS9" s="72"/>
+      <c r="CT9" s="72"/>
+      <c r="CU9" s="72"/>
+      <c r="CV9" s="73"/>
+      <c r="CW9" s="71"/>
+      <c r="CX9" s="72"/>
+      <c r="CY9" s="72"/>
+      <c r="CZ9" s="72"/>
+      <c r="DA9" s="72"/>
+      <c r="DB9" s="72"/>
+      <c r="DC9" s="73"/>
+      <c r="DD9" s="71"/>
+      <c r="DE9" s="72"/>
+      <c r="DF9" s="72"/>
+      <c r="DG9" s="72"/>
+      <c r="DH9" s="72"/>
+      <c r="DI9" s="72"/>
+      <c r="DJ9" s="73"/>
+      <c r="DK9" s="71"/>
+      <c r="DL9" s="72"/>
+      <c r="DM9" s="72"/>
+      <c r="DN9" s="72"/>
+      <c r="DO9" s="72"/>
+      <c r="DP9" s="72"/>
+      <c r="DQ9" s="73"/>
+      <c r="DR9" s="71"/>
+      <c r="DS9" s="72"/>
+      <c r="DT9" s="72"/>
+      <c r="DU9" s="72"/>
+      <c r="DV9" s="72"/>
+      <c r="DW9" s="72"/>
+      <c r="DX9" s="84"/>
+      <c r="DY9" s="85"/>
+      <c r="DZ9" s="86"/>
+      <c r="EA9" s="86"/>
+      <c r="EB9" s="86"/>
+      <c r="EC9" s="86"/>
+      <c r="ED9" s="86"/>
+      <c r="EE9" s="87"/>
+      <c r="EF9" s="93"/>
+      <c r="EG9" s="86"/>
+      <c r="EH9" s="86"/>
+      <c r="EI9" s="86"/>
+      <c r="EJ9" s="86"/>
+      <c r="EK9" s="86"/>
+      <c r="EL9" s="87"/>
+      <c r="EM9" s="82"/>
+      <c r="EN9" s="72"/>
+      <c r="EO9" s="72"/>
+      <c r="EP9" s="72"/>
+      <c r="EQ9" s="72"/>
+      <c r="ER9" s="72"/>
+      <c r="ES9" s="73"/>
+      <c r="ET9" s="71"/>
+      <c r="EU9" s="72"/>
+      <c r="EV9" s="72"/>
+      <c r="EW9" s="72"/>
+      <c r="EX9" s="72"/>
+      <c r="EY9" s="72"/>
+      <c r="EZ9" s="73"/>
+    </row>
+    <row r="10" spans="1:163" ht="15" customHeight="1" thickBot="1">
+      <c r="A10" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="71"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="83">
+        <v>2</v>
+      </c>
+      <c r="L10" s="83">
         <v>1</v>
       </c>
-      <c r="AU7" s="21"/>
-      <c r="AV7" s="21"/>
-      <c r="AW7" s="21"/>
-      <c r="AX7" s="21"/>
-      <c r="AY7" s="22"/>
-      <c r="AZ7" s="20"/>
-      <c r="BA7" s="23">
-        <v>1</v>
-      </c>
-      <c r="BB7" s="21"/>
-      <c r="BC7" s="21"/>
-      <c r="BD7" s="21"/>
-      <c r="BE7" s="21"/>
-      <c r="BF7" s="22"/>
-      <c r="BG7" s="20"/>
-      <c r="BH7" s="23">
-        <v>1</v>
-      </c>
-      <c r="BI7" s="21"/>
-      <c r="BJ7" s="21"/>
-      <c r="BK7" s="21"/>
-      <c r="BL7" s="21"/>
-      <c r="BM7" s="22"/>
-      <c r="BN7" s="20"/>
-      <c r="BO7" s="23">
-        <v>1</v>
-      </c>
-      <c r="BP7" s="21"/>
-      <c r="BQ7" s="21"/>
-      <c r="BR7" s="21"/>
-      <c r="BS7" s="21"/>
-      <c r="BT7" s="22"/>
-      <c r="BU7" s="20"/>
-      <c r="BV7" s="23">
-        <v>1</v>
-      </c>
-      <c r="BW7" s="21"/>
-      <c r="BX7" s="21"/>
-      <c r="BY7" s="21"/>
-      <c r="BZ7" s="21"/>
-      <c r="CA7" s="22"/>
-      <c r="CB7" s="20"/>
-      <c r="CC7" s="23">
-        <v>1</v>
-      </c>
-      <c r="CD7" s="21"/>
-      <c r="CE7" s="21"/>
-      <c r="CF7" s="21"/>
-      <c r="CG7" s="21"/>
-      <c r="CH7" s="22"/>
-      <c r="CI7" s="20"/>
-      <c r="CJ7" s="23">
-        <v>1</v>
-      </c>
-      <c r="CK7" s="21"/>
-      <c r="CL7" s="21"/>
-      <c r="CM7" s="21"/>
-      <c r="CN7" s="21"/>
-      <c r="CO7" s="22"/>
-      <c r="CP7" s="20"/>
-      <c r="CQ7" s="21"/>
-      <c r="CR7" s="21"/>
-      <c r="CS7" s="21"/>
-      <c r="CT7" s="21"/>
-      <c r="CU7" s="21"/>
-      <c r="CV7" s="22"/>
-      <c r="CW7" s="20"/>
-      <c r="CX7" s="118"/>
-      <c r="CY7" s="21"/>
-      <c r="CZ7" s="21"/>
-      <c r="DA7" s="21"/>
-      <c r="DB7" s="21"/>
-      <c r="DC7" s="22"/>
-      <c r="DD7" s="20"/>
-      <c r="DE7" s="21"/>
-      <c r="DF7" s="21"/>
-      <c r="DG7" s="21"/>
-      <c r="DH7" s="21"/>
-      <c r="DI7" s="21"/>
-      <c r="DJ7" s="24"/>
-      <c r="DK7" s="7"/>
-      <c r="DL7" s="8"/>
-      <c r="DM7" s="8"/>
-      <c r="DN7" s="121">
-        <v>2</v>
-      </c>
-      <c r="DO7" s="121">
-        <v>2</v>
-      </c>
-      <c r="DP7" s="8"/>
-      <c r="DQ7" s="9"/>
-      <c r="DR7" s="7"/>
-      <c r="DS7" s="8"/>
-      <c r="DT7" s="8"/>
-      <c r="DU7" s="8"/>
-      <c r="DV7" s="121">
-        <v>2</v>
-      </c>
-      <c r="DW7" s="121">
-        <v>3</v>
-      </c>
-      <c r="DX7" s="122">
-        <v>5</v>
-      </c>
-      <c r="DY7" s="123">
-        <v>3</v>
-      </c>
-      <c r="DZ7" s="23">
-        <v>4</v>
-      </c>
-      <c r="EA7" s="21"/>
-      <c r="EB7" s="21"/>
-      <c r="EC7" s="21"/>
-      <c r="ED7" s="21"/>
-      <c r="EE7" s="22"/>
-      <c r="EF7" s="20"/>
-      <c r="EG7" s="21"/>
-      <c r="EH7" s="21"/>
-      <c r="EI7" s="21"/>
-      <c r="EJ7" s="21"/>
-      <c r="EK7" s="21"/>
-      <c r="EL7" s="22"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="81"/>
+      <c r="S10" s="81"/>
+      <c r="T10" s="81"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="72"/>
+      <c r="W10" s="73"/>
+      <c r="X10" s="82"/>
+      <c r="Y10" s="72"/>
+      <c r="Z10" s="72"/>
+      <c r="AA10" s="72"/>
+      <c r="AB10" s="72"/>
+      <c r="AC10" s="72"/>
+      <c r="AD10" s="73"/>
+      <c r="AE10" s="71"/>
+      <c r="AF10" s="72"/>
+      <c r="AG10" s="72"/>
+      <c r="AH10" s="72"/>
+      <c r="AI10" s="72"/>
+      <c r="AJ10" s="72"/>
+      <c r="AK10" s="73"/>
+      <c r="AL10" s="71"/>
+      <c r="AM10" s="72"/>
+      <c r="AN10" s="72"/>
+      <c r="AO10" s="72"/>
+      <c r="AP10" s="72"/>
+      <c r="AQ10" s="72"/>
+      <c r="AR10" s="73"/>
+      <c r="AS10" s="71"/>
+      <c r="AT10" s="72"/>
+      <c r="AU10" s="72"/>
+      <c r="AV10" s="72"/>
+      <c r="AW10" s="72"/>
+      <c r="AX10" s="72"/>
+      <c r="AY10" s="84"/>
+      <c r="AZ10" s="85"/>
+      <c r="BA10" s="86"/>
+      <c r="BB10" s="86"/>
+      <c r="BC10" s="86"/>
+      <c r="BD10" s="86"/>
+      <c r="BE10" s="86"/>
+      <c r="BF10" s="87"/>
+      <c r="BG10" s="82"/>
+      <c r="BH10" s="72"/>
+      <c r="BI10" s="72"/>
+      <c r="BJ10" s="72"/>
+      <c r="BK10" s="72"/>
+      <c r="BL10" s="72"/>
+      <c r="BM10" s="73"/>
+      <c r="BN10" s="71"/>
+      <c r="BO10" s="72"/>
+      <c r="BP10" s="72"/>
+      <c r="BQ10" s="72"/>
+      <c r="BR10" s="72"/>
+      <c r="BS10" s="72"/>
+      <c r="BT10" s="73"/>
+      <c r="BU10" s="71"/>
+      <c r="BV10" s="72"/>
+      <c r="BW10" s="72"/>
+      <c r="BX10" s="72"/>
+      <c r="BY10" s="72"/>
+      <c r="BZ10" s="72"/>
+      <c r="CA10" s="73"/>
+      <c r="CB10" s="71"/>
+      <c r="CC10" s="72"/>
+      <c r="CD10" s="72"/>
+      <c r="CE10" s="72"/>
+      <c r="CF10" s="72"/>
+      <c r="CG10" s="72"/>
+      <c r="CH10" s="73"/>
+      <c r="CI10" s="71"/>
+      <c r="CJ10" s="72"/>
+      <c r="CK10" s="72"/>
+      <c r="CL10" s="72"/>
+      <c r="CM10" s="72"/>
+      <c r="CN10" s="72"/>
+      <c r="CO10" s="73"/>
+      <c r="CP10" s="71"/>
+      <c r="CQ10" s="72"/>
+      <c r="CR10" s="72"/>
+      <c r="CS10" s="72"/>
+      <c r="CT10" s="72"/>
+      <c r="CU10" s="72"/>
+      <c r="CV10" s="73"/>
+      <c r="CW10" s="71"/>
+      <c r="CX10" s="72"/>
+      <c r="CY10" s="72"/>
+      <c r="CZ10" s="72"/>
+      <c r="DA10" s="72"/>
+      <c r="DB10" s="72"/>
+      <c r="DC10" s="73"/>
+      <c r="DD10" s="71"/>
+      <c r="DE10" s="72"/>
+      <c r="DF10" s="72"/>
+      <c r="DG10" s="72"/>
+      <c r="DH10" s="72"/>
+      <c r="DI10" s="72"/>
+      <c r="DJ10" s="73"/>
+      <c r="DK10" s="71"/>
+      <c r="DL10" s="72"/>
+      <c r="DM10" s="72"/>
+      <c r="DN10" s="72"/>
+      <c r="DO10" s="72"/>
+      <c r="DP10" s="72"/>
+      <c r="DQ10" s="73"/>
+      <c r="DR10" s="71"/>
+      <c r="DS10" s="72"/>
+      <c r="DT10" s="72"/>
+      <c r="DU10" s="72"/>
+      <c r="DV10" s="72"/>
+      <c r="DW10" s="72"/>
+      <c r="DX10" s="84"/>
+      <c r="DY10" s="85"/>
+      <c r="DZ10" s="86"/>
+      <c r="EA10" s="86"/>
+      <c r="EB10" s="86"/>
+      <c r="EC10" s="86"/>
+      <c r="ED10" s="86"/>
+      <c r="EE10" s="87"/>
+      <c r="EF10" s="85"/>
+      <c r="EG10" s="86"/>
+      <c r="EH10" s="86"/>
+      <c r="EI10" s="86"/>
+      <c r="EJ10" s="86"/>
+      <c r="EK10" s="86"/>
+      <c r="EL10" s="87"/>
+      <c r="EM10" s="82"/>
+      <c r="EN10" s="72"/>
+      <c r="EO10" s="72"/>
+      <c r="EP10" s="72"/>
+      <c r="EQ10" s="72"/>
+      <c r="ER10" s="72"/>
+      <c r="ES10" s="73"/>
+      <c r="ET10" s="71"/>
+      <c r="EU10" s="72"/>
+      <c r="EV10" s="72"/>
+      <c r="EW10" s="72"/>
+      <c r="EX10" s="72"/>
+      <c r="EY10" s="72"/>
+      <c r="EZ10" s="73"/>
     </row>
-    <row r="8" spans="1:149" ht="15" thickBot="1">
-      <c r="A8" s="93" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="26">
-        <v>2</v>
-      </c>
-      <c r="E8" s="26">
-        <v>2</v>
-      </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="26">
-        <v>2</v>
-      </c>
-      <c r="L8" s="26">
-        <v>2</v>
-      </c>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="21"/>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="22"/>
-      <c r="AE8" s="20"/>
-      <c r="AF8" s="21"/>
-      <c r="AG8" s="21"/>
-      <c r="AH8" s="21"/>
-      <c r="AI8" s="21"/>
-      <c r="AJ8" s="21"/>
-      <c r="AK8" s="24"/>
-      <c r="AL8" s="7"/>
-      <c r="AM8" s="8"/>
-      <c r="AN8" s="8"/>
-      <c r="AO8" s="8"/>
-      <c r="AP8" s="8"/>
-      <c r="AQ8" s="8"/>
-      <c r="AR8" s="9"/>
-      <c r="AS8" s="25"/>
-      <c r="AT8" s="21"/>
-      <c r="AU8" s="21"/>
-      <c r="AV8" s="21"/>
-      <c r="AW8" s="21"/>
-      <c r="AX8" s="21"/>
-      <c r="AY8" s="22"/>
-      <c r="AZ8" s="20"/>
-      <c r="BA8" s="21"/>
-      <c r="BB8" s="21"/>
-      <c r="BC8" s="21"/>
-      <c r="BD8" s="21"/>
-      <c r="BE8" s="21"/>
-      <c r="BF8" s="22"/>
-      <c r="BG8" s="20"/>
-      <c r="BH8" s="21"/>
-      <c r="BI8" s="21"/>
-      <c r="BJ8" s="21"/>
-      <c r="BK8" s="21"/>
-      <c r="BL8" s="21"/>
-      <c r="BM8" s="22"/>
-      <c r="BN8" s="20"/>
-      <c r="BO8" s="21"/>
-      <c r="BP8" s="21"/>
-      <c r="BQ8" s="21"/>
-      <c r="BR8" s="21"/>
-      <c r="BS8" s="21"/>
-      <c r="BT8" s="22"/>
-      <c r="BU8" s="20"/>
-      <c r="BV8" s="21"/>
-      <c r="BW8" s="21"/>
-      <c r="BX8" s="21"/>
-      <c r="BY8" s="21"/>
-      <c r="BZ8" s="21"/>
-      <c r="CA8" s="22"/>
-      <c r="CB8" s="20"/>
-      <c r="CC8" s="21"/>
-      <c r="CD8" s="21"/>
-      <c r="CE8" s="21"/>
-      <c r="CF8" s="21"/>
-      <c r="CG8" s="21"/>
-      <c r="CH8" s="22"/>
-      <c r="CI8" s="20"/>
-      <c r="CJ8" s="21"/>
-      <c r="CK8" s="21"/>
-      <c r="CL8" s="21"/>
-      <c r="CM8" s="21"/>
-      <c r="CN8" s="21"/>
-      <c r="CO8" s="22"/>
-      <c r="CP8" s="20"/>
-      <c r="CQ8" s="21"/>
-      <c r="CR8" s="21"/>
-      <c r="CS8" s="21"/>
-      <c r="CT8" s="21"/>
-      <c r="CU8" s="21"/>
-      <c r="CV8" s="22"/>
-      <c r="CW8" s="20"/>
-      <c r="CX8" s="21"/>
-      <c r="CY8" s="21"/>
-      <c r="CZ8" s="21"/>
-      <c r="DA8" s="21"/>
-      <c r="DB8" s="21"/>
-      <c r="DC8" s="22"/>
-      <c r="DD8" s="20"/>
-      <c r="DE8" s="21"/>
-      <c r="DF8" s="21"/>
-      <c r="DG8" s="21"/>
-      <c r="DH8" s="21"/>
-      <c r="DI8" s="21"/>
-      <c r="DJ8" s="24"/>
-      <c r="DK8" s="7"/>
-      <c r="DL8" s="8"/>
-      <c r="DM8" s="8"/>
-      <c r="DN8" s="8"/>
-      <c r="DO8" s="8"/>
-      <c r="DP8" s="8"/>
-      <c r="DQ8" s="9"/>
-      <c r="DR8" s="7"/>
-      <c r="DS8" s="8"/>
-      <c r="DT8" s="8"/>
-      <c r="DU8" s="8"/>
-      <c r="DV8" s="8"/>
-      <c r="DW8" s="8"/>
-      <c r="DX8" s="9"/>
-      <c r="DY8" s="25"/>
-      <c r="DZ8" s="21"/>
-      <c r="EA8" s="21"/>
-      <c r="EB8" s="21"/>
-      <c r="EC8" s="21"/>
-      <c r="ED8" s="21"/>
-      <c r="EE8" s="22"/>
-      <c r="EF8" s="20"/>
-      <c r="EG8" s="21"/>
-      <c r="EH8" s="21"/>
-      <c r="EI8" s="21"/>
-      <c r="EJ8" s="21"/>
-      <c r="EK8" s="21"/>
-      <c r="EL8" s="22"/>
-    </row>
-    <row r="9" spans="1:149" ht="15" thickBot="1">
-      <c r="A9" s="94"/>
-      <c r="B9" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="23">
-        <v>2</v>
-      </c>
-      <c r="E9" s="23">
-        <v>2</v>
-      </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="23">
-        <v>2</v>
-      </c>
-      <c r="L9" s="23">
-        <v>2</v>
-      </c>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="22"/>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="21"/>
-      <c r="AG9" s="23">
-        <v>3</v>
-      </c>
-      <c r="AH9" s="21"/>
-      <c r="AI9" s="21"/>
-      <c r="AJ9" s="21"/>
-      <c r="AK9" s="24"/>
-      <c r="AL9" s="7"/>
-      <c r="AM9" s="8"/>
-      <c r="AN9" s="8"/>
-      <c r="AO9" s="8"/>
-      <c r="AP9" s="8"/>
-      <c r="AQ9" s="8"/>
-      <c r="AR9" s="9"/>
-      <c r="AS9" s="25"/>
-      <c r="AT9" s="21"/>
-      <c r="AU9" s="21"/>
-      <c r="AV9" s="21"/>
-      <c r="AW9" s="21"/>
-      <c r="AX9" s="21"/>
-      <c r="AY9" s="22"/>
-      <c r="AZ9" s="20"/>
-      <c r="BA9" s="21"/>
-      <c r="BB9" s="21"/>
-      <c r="BC9" s="21"/>
-      <c r="BD9" s="21"/>
-      <c r="BE9" s="21"/>
-      <c r="BF9" s="22"/>
-      <c r="BG9" s="20"/>
-      <c r="BH9" s="21"/>
-      <c r="BI9" s="21"/>
-      <c r="BJ9" s="21"/>
-      <c r="BK9" s="21"/>
-      <c r="BL9" s="21"/>
-      <c r="BM9" s="22"/>
-      <c r="BN9" s="20"/>
-      <c r="BO9" s="21"/>
-      <c r="BP9" s="21"/>
-      <c r="BQ9" s="21"/>
-      <c r="BR9" s="21"/>
-      <c r="BS9" s="21"/>
-      <c r="BT9" s="22"/>
-      <c r="BU9" s="20"/>
-      <c r="BV9" s="21"/>
-      <c r="BW9" s="21"/>
-      <c r="BX9" s="21"/>
-      <c r="BY9" s="21"/>
-      <c r="BZ9" s="21"/>
-      <c r="CA9" s="22"/>
-      <c r="CB9" s="20"/>
-      <c r="CC9" s="21"/>
-      <c r="CD9" s="21"/>
-      <c r="CE9" s="21"/>
-      <c r="CF9" s="21"/>
-      <c r="CG9" s="21"/>
-      <c r="CH9" s="22"/>
-      <c r="CI9" s="20"/>
-      <c r="CJ9" s="21"/>
-      <c r="CK9" s="21"/>
-      <c r="CL9" s="21"/>
-      <c r="CM9" s="21"/>
-      <c r="CN9" s="21"/>
-      <c r="CO9" s="22"/>
-      <c r="CP9" s="20"/>
-      <c r="CQ9" s="21"/>
-      <c r="CR9" s="21"/>
-      <c r="CS9" s="21"/>
-      <c r="CT9" s="21"/>
-      <c r="CU9" s="21"/>
-      <c r="CV9" s="22"/>
-      <c r="CW9" s="20"/>
-      <c r="CX9" s="21"/>
-      <c r="CY9" s="21"/>
-      <c r="CZ9" s="21"/>
-      <c r="DA9" s="21"/>
-      <c r="DB9" s="21"/>
-      <c r="DC9" s="22"/>
-      <c r="DD9" s="20"/>
-      <c r="DE9" s="21"/>
-      <c r="DF9" s="21"/>
-      <c r="DG9" s="21"/>
-      <c r="DH9" s="21"/>
-      <c r="DI9" s="21"/>
-      <c r="DJ9" s="24"/>
-      <c r="DK9" s="7"/>
-      <c r="DL9" s="8"/>
-      <c r="DM9" s="8"/>
-      <c r="DN9" s="8"/>
-      <c r="DO9" s="8"/>
-      <c r="DP9" s="8"/>
-      <c r="DQ9" s="9"/>
-      <c r="DR9" s="7"/>
-      <c r="DS9" s="8"/>
-      <c r="DT9" s="8"/>
-      <c r="DU9" s="8"/>
-      <c r="DV9" s="8"/>
-      <c r="DW9" s="8"/>
-      <c r="DX9" s="9"/>
-      <c r="DY9" s="25"/>
-      <c r="DZ9" s="21"/>
-      <c r="EA9" s="21"/>
-      <c r="EB9" s="21"/>
-      <c r="EC9" s="21"/>
-      <c r="ED9" s="21"/>
-      <c r="EE9" s="22"/>
-      <c r="EF9" s="20"/>
-      <c r="EG9" s="21"/>
-      <c r="EH9" s="21"/>
-      <c r="EI9" s="21"/>
-      <c r="EJ9" s="21"/>
-      <c r="EK9" s="21"/>
-      <c r="EL9" s="22"/>
-    </row>
-    <row r="10" spans="1:149" ht="15" thickBot="1">
-      <c r="A10" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="26">
-        <v>2</v>
-      </c>
-      <c r="S10" s="26">
-        <v>1</v>
-      </c>
-      <c r="T10" s="26">
-        <v>1</v>
-      </c>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21"/>
-      <c r="AA10" s="21"/>
-      <c r="AB10" s="21"/>
-      <c r="AC10" s="21"/>
-      <c r="AD10" s="22"/>
-      <c r="AE10" s="20"/>
-      <c r="AF10" s="21"/>
-      <c r="AG10" s="21"/>
-      <c r="AH10" s="21"/>
-      <c r="AI10" s="21"/>
-      <c r="AJ10" s="21"/>
-      <c r="AK10" s="24"/>
-      <c r="AL10" s="7"/>
-      <c r="AM10" s="8"/>
-      <c r="AN10" s="8"/>
-      <c r="AO10" s="8"/>
-      <c r="AP10" s="8"/>
-      <c r="AQ10" s="8"/>
-      <c r="AR10" s="9"/>
-      <c r="AS10" s="25"/>
-      <c r="AT10" s="21"/>
-      <c r="AU10" s="21"/>
-      <c r="AV10" s="21"/>
-      <c r="AW10" s="21"/>
-      <c r="AX10" s="21"/>
-      <c r="AY10" s="22"/>
-      <c r="AZ10" s="20"/>
-      <c r="BA10" s="21"/>
-      <c r="BB10" s="21"/>
-      <c r="BC10" s="21"/>
-      <c r="BD10" s="21"/>
-      <c r="BE10" s="21"/>
-      <c r="BF10" s="22"/>
-      <c r="BG10" s="20"/>
-      <c r="BH10" s="21"/>
-      <c r="BI10" s="21"/>
-      <c r="BJ10" s="21"/>
-      <c r="BK10" s="21"/>
-      <c r="BL10" s="21"/>
-      <c r="BM10" s="22"/>
-      <c r="BN10" s="20"/>
-      <c r="BO10" s="21"/>
-      <c r="BP10" s="21"/>
-      <c r="BQ10" s="21"/>
-      <c r="BR10" s="21"/>
-      <c r="BS10" s="21"/>
-      <c r="BT10" s="22"/>
-      <c r="BU10" s="20"/>
-      <c r="BV10" s="21"/>
-      <c r="BW10" s="21"/>
-      <c r="BX10" s="21"/>
-      <c r="BY10" s="21"/>
-      <c r="BZ10" s="21"/>
-      <c r="CA10" s="22"/>
-      <c r="CB10" s="20"/>
-      <c r="CC10" s="21"/>
-      <c r="CD10" s="21"/>
-      <c r="CE10" s="21"/>
-      <c r="CF10" s="21"/>
-      <c r="CG10" s="21"/>
-      <c r="CH10" s="22"/>
-      <c r="CI10" s="20"/>
-      <c r="CJ10" s="21"/>
-      <c r="CK10" s="21"/>
-      <c r="CL10" s="21"/>
-      <c r="CM10" s="21"/>
-      <c r="CN10" s="21"/>
-      <c r="CO10" s="22"/>
-      <c r="CP10" s="20"/>
-      <c r="CQ10" s="21"/>
-      <c r="CR10" s="21"/>
-      <c r="CS10" s="21"/>
-      <c r="CT10" s="21"/>
-      <c r="CU10" s="21"/>
-      <c r="CV10" s="22"/>
-      <c r="CW10" s="20"/>
-      <c r="CX10" s="21"/>
-      <c r="CY10" s="21"/>
-      <c r="CZ10" s="21"/>
-      <c r="DA10" s="21"/>
-      <c r="DB10" s="21"/>
-      <c r="DC10" s="22"/>
-      <c r="DD10" s="20"/>
-      <c r="DE10" s="21"/>
-      <c r="DF10" s="21"/>
-      <c r="DG10" s="21"/>
-      <c r="DH10" s="21"/>
-      <c r="DI10" s="21"/>
-      <c r="DJ10" s="24"/>
-      <c r="DK10" s="7"/>
-      <c r="DL10" s="8"/>
-      <c r="DM10" s="8"/>
-      <c r="DN10" s="8"/>
-      <c r="DO10" s="8"/>
-      <c r="DP10" s="8"/>
-      <c r="DQ10" s="9"/>
-      <c r="DR10" s="7"/>
-      <c r="DS10" s="8"/>
-      <c r="DT10" s="8"/>
-      <c r="DU10" s="8"/>
-      <c r="DV10" s="8"/>
-      <c r="DW10" s="8"/>
-      <c r="DX10" s="9"/>
-      <c r="DY10" s="25"/>
-      <c r="DZ10" s="21"/>
-      <c r="EA10" s="21"/>
-      <c r="EB10" s="21"/>
-      <c r="EC10" s="21"/>
-      <c r="ED10" s="21"/>
-      <c r="EE10" s="22"/>
-      <c r="EF10" s="20"/>
-      <c r="EG10" s="21"/>
-      <c r="EH10" s="21"/>
-      <c r="EI10" s="21"/>
-      <c r="EJ10" s="21"/>
-      <c r="EK10" s="21"/>
-      <c r="EL10" s="22"/>
-    </row>
-    <row r="11" spans="1:149" ht="15" thickBot="1">
-      <c r="A11" s="92"/>
-      <c r="B11" s="66" t="s">
+    <row r="11" spans="1:163" ht="15" thickBot="1">
+      <c r="A11" s="98"/>
+      <c r="B11" s="88" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="20"/>
@@ -4254,105 +4372,114 @@
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="22"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="23">
+        <v>2</v>
+      </c>
+      <c r="L11" s="23">
+        <v>1</v>
+      </c>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
       <c r="O11" s="21"/>
       <c r="P11" s="22"/>
       <c r="Q11" s="20"/>
-      <c r="R11" s="23">
-        <v>2</v>
-      </c>
-      <c r="S11" s="23">
-        <v>2</v>
-      </c>
-      <c r="T11" s="23">
-        <v>2</v>
-      </c>
+      <c r="R11" s="81"/>
+      <c r="S11" s="81"/>
+      <c r="T11" s="81"/>
       <c r="U11" s="21"/>
       <c r="V11" s="21"/>
       <c r="W11" s="22"/>
-      <c r="X11" s="20"/>
+      <c r="X11" s="25"/>
       <c r="Y11" s="21"/>
       <c r="Z11" s="21"/>
       <c r="AA11" s="21"/>
-      <c r="AB11" s="21"/>
       <c r="AC11" s="21"/>
       <c r="AD11" s="22"/>
       <c r="AE11" s="20"/>
       <c r="AF11" s="21"/>
       <c r="AG11" s="21"/>
       <c r="AH11" s="21"/>
-      <c r="AI11" s="21"/>
       <c r="AJ11" s="21"/>
-      <c r="AK11" s="24"/>
-      <c r="AL11" s="7"/>
-      <c r="AM11" s="8"/>
-      <c r="AN11" s="8"/>
-      <c r="AO11" s="8"/>
-      <c r="AP11" s="8"/>
-      <c r="AQ11" s="8"/>
-      <c r="AR11" s="9"/>
-      <c r="AS11" s="25"/>
+      <c r="AK11" s="22"/>
+      <c r="AL11" s="20"/>
+      <c r="AM11" s="21"/>
+      <c r="AN11" s="21"/>
+      <c r="AO11" s="21"/>
+      <c r="AQ11" s="21"/>
+      <c r="AR11" s="22"/>
+      <c r="AS11" s="20"/>
       <c r="AT11" s="21"/>
       <c r="AU11" s="21"/>
       <c r="AV11" s="21"/>
       <c r="AW11" s="21"/>
       <c r="AX11" s="21"/>
-      <c r="AY11" s="22"/>
-      <c r="AZ11" s="20"/>
-      <c r="BA11" s="21"/>
-      <c r="BB11" s="21"/>
-      <c r="BC11" s="21"/>
-      <c r="BD11" s="21"/>
-      <c r="BE11" s="21"/>
-      <c r="BF11" s="22"/>
-      <c r="BG11" s="20"/>
-      <c r="BH11" s="21"/>
+      <c r="AY11" s="24"/>
+      <c r="AZ11" s="7"/>
+      <c r="BA11" s="8"/>
+      <c r="BB11" s="8"/>
+      <c r="BC11" s="8"/>
+      <c r="BD11" s="8"/>
+      <c r="BE11" s="8"/>
+      <c r="BF11" s="9"/>
+      <c r="BG11" s="25"/>
+      <c r="BH11" s="23">
+        <v>1</v>
+      </c>
       <c r="BI11" s="21"/>
       <c r="BJ11" s="21"/>
       <c r="BK11" s="21"/>
       <c r="BL11" s="21"/>
       <c r="BM11" s="22"/>
       <c r="BN11" s="20"/>
-      <c r="BO11" s="21"/>
+      <c r="BO11" s="23">
+        <v>1</v>
+      </c>
       <c r="BP11" s="21"/>
       <c r="BQ11" s="21"/>
       <c r="BR11" s="21"/>
       <c r="BS11" s="21"/>
       <c r="BT11" s="22"/>
       <c r="BU11" s="20"/>
-      <c r="BV11" s="21"/>
+      <c r="BV11" s="23">
+        <v>1</v>
+      </c>
       <c r="BW11" s="21"/>
       <c r="BX11" s="21"/>
       <c r="BY11" s="21"/>
       <c r="BZ11" s="21"/>
       <c r="CA11" s="22"/>
       <c r="CB11" s="20"/>
-      <c r="CC11" s="21"/>
+      <c r="CC11" s="23">
+        <v>1</v>
+      </c>
       <c r="CD11" s="21"/>
       <c r="CE11" s="21"/>
       <c r="CF11" s="21"/>
       <c r="CG11" s="21"/>
       <c r="CH11" s="22"/>
       <c r="CI11" s="20"/>
-      <c r="CJ11" s="21"/>
+      <c r="CJ11" s="23">
+        <v>1</v>
+      </c>
       <c r="CK11" s="21"/>
       <c r="CL11" s="21"/>
       <c r="CM11" s="21"/>
       <c r="CN11" s="21"/>
       <c r="CO11" s="22"/>
       <c r="CP11" s="20"/>
-      <c r="CQ11" s="21"/>
+      <c r="CQ11" s="23">
+        <v>1</v>
+      </c>
       <c r="CR11" s="21"/>
       <c r="CS11" s="21"/>
       <c r="CT11" s="21"/>
       <c r="CU11" s="21"/>
       <c r="CV11" s="22"/>
       <c r="CW11" s="20"/>
-      <c r="CX11" s="21"/>
+      <c r="CX11" s="23">
+        <v>1</v>
+      </c>
       <c r="CY11" s="21"/>
       <c r="CZ11" s="21"/>
       <c r="DA11" s="21"/>
@@ -4364,39 +4491,52 @@
       <c r="DG11" s="21"/>
       <c r="DH11" s="21"/>
       <c r="DI11" s="21"/>
-      <c r="DJ11" s="24"/>
-      <c r="DK11" s="7"/>
-      <c r="DL11" s="8"/>
-      <c r="DM11" s="8"/>
-      <c r="DN11" s="8"/>
-      <c r="DO11" s="8"/>
-      <c r="DP11" s="8"/>
-      <c r="DQ11" s="9"/>
-      <c r="DR11" s="7"/>
-      <c r="DS11" s="8"/>
-      <c r="DT11" s="8"/>
-      <c r="DU11" s="8"/>
-      <c r="DV11" s="8"/>
-      <c r="DW11" s="8"/>
-      <c r="DX11" s="9"/>
-      <c r="DY11" s="25"/>
-      <c r="DZ11" s="21"/>
-      <c r="EA11" s="21"/>
-      <c r="EB11" s="21"/>
-      <c r="EC11" s="21"/>
-      <c r="ED11" s="21"/>
-      <c r="EE11" s="22"/>
-      <c r="EF11" s="20"/>
-      <c r="EG11" s="21"/>
-      <c r="EH11" s="21"/>
-      <c r="EI11" s="21"/>
-      <c r="EJ11" s="21"/>
-      <c r="EK11" s="21"/>
-      <c r="EL11" s="22"/>
+      <c r="DJ11" s="22"/>
+      <c r="DK11" s="20"/>
+      <c r="DL11" s="21"/>
+      <c r="DM11" s="21"/>
+      <c r="DN11" s="21"/>
+      <c r="DO11" s="21"/>
+      <c r="DP11" s="21"/>
+      <c r="DQ11" s="22"/>
+      <c r="DR11" s="20"/>
+      <c r="DS11" s="21"/>
+      <c r="DT11" s="21"/>
+      <c r="DU11" s="21"/>
+      <c r="DV11" s="21"/>
+      <c r="DW11" s="21"/>
+      <c r="DX11" s="24"/>
+      <c r="DY11" s="7"/>
+      <c r="DZ11" s="8"/>
+      <c r="EA11" s="8"/>
+      <c r="EB11" s="90"/>
+      <c r="EC11" s="90"/>
+      <c r="ED11" s="90"/>
+      <c r="EE11" s="91"/>
+      <c r="EF11" s="92"/>
+      <c r="EG11" s="90"/>
+      <c r="EH11" s="90"/>
+      <c r="EI11" s="90"/>
+      <c r="EJ11" s="90"/>
+      <c r="EK11" s="90"/>
+      <c r="EL11" s="91"/>
+      <c r="EN11" s="81"/>
+      <c r="EO11" s="21"/>
+      <c r="EP11" s="21"/>
+      <c r="EQ11" s="21"/>
+      <c r="ER11" s="21"/>
+      <c r="ES11" s="22"/>
+      <c r="ET11" s="20"/>
+      <c r="EU11" s="21"/>
+      <c r="EV11" s="21"/>
+      <c r="EW11" s="21"/>
+      <c r="EX11" s="21"/>
+      <c r="EY11" s="21"/>
+      <c r="EZ11" s="22"/>
     </row>
-    <row r="12" spans="1:149" ht="15" thickBot="1">
-      <c r="A12" s="91" t="s">
-        <v>75</v>
+    <row r="12" spans="1:163" ht="15" thickBot="1">
+      <c r="A12" s="120" t="s">
+        <v>88</v>
       </c>
       <c r="B12" s="65" t="s">
         <v>29</v>
@@ -4408,62 +4548,62 @@
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
       <c r="I12" s="22"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
+      <c r="J12" s="20"/>
+      <c r="L12" s="81"/>
       <c r="N12" s="21"/>
       <c r="O12" s="21"/>
       <c r="P12" s="22"/>
       <c r="Q12" s="20"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
+      <c r="R12" s="26">
+        <v>2</v>
+      </c>
+      <c r="S12" s="26">
+        <v>2</v>
+      </c>
       <c r="T12" s="21"/>
       <c r="U12" s="21"/>
       <c r="V12" s="21"/>
       <c r="W12" s="22"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="21"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="26">
+        <v>2</v>
+      </c>
       <c r="Z12" s="26">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="26">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="26">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="AA12" s="81"/>
+      <c r="AB12" s="21"/>
       <c r="AC12" s="21"/>
       <c r="AD12" s="22"/>
       <c r="AE12" s="20"/>
-      <c r="AF12" s="21"/>
-      <c r="AG12" s="21"/>
+      <c r="AF12" s="81"/>
+      <c r="AG12" s="81"/>
       <c r="AH12" s="21"/>
       <c r="AI12" s="21"/>
       <c r="AJ12" s="21"/>
-      <c r="AK12" s="24"/>
-      <c r="AL12" s="7"/>
-      <c r="AM12" s="8"/>
-      <c r="AN12" s="8"/>
-      <c r="AO12" s="8"/>
-      <c r="AP12" s="8"/>
-      <c r="AQ12" s="8"/>
-      <c r="AR12" s="9"/>
-      <c r="AS12" s="25"/>
+      <c r="AK12" s="22"/>
+      <c r="AL12" s="20"/>
+      <c r="AM12" s="21"/>
+      <c r="AN12" s="21"/>
+      <c r="AO12" s="21"/>
+      <c r="AP12" s="21"/>
+      <c r="AQ12" s="21"/>
+      <c r="AR12" s="22"/>
+      <c r="AS12" s="20"/>
       <c r="AT12" s="21"/>
       <c r="AU12" s="21"/>
       <c r="AV12" s="21"/>
       <c r="AW12" s="21"/>
       <c r="AX12" s="21"/>
-      <c r="AY12" s="22"/>
-      <c r="AZ12" s="20"/>
-      <c r="BA12" s="21"/>
-      <c r="BB12" s="21"/>
-      <c r="BC12" s="21"/>
-      <c r="BD12" s="21"/>
-      <c r="BE12" s="21"/>
-      <c r="BF12" s="22"/>
-      <c r="BG12" s="20"/>
+      <c r="AY12" s="24"/>
+      <c r="AZ12" s="7"/>
+      <c r="BA12" s="8"/>
+      <c r="BB12" s="8"/>
+      <c r="BC12" s="8"/>
+      <c r="BD12" s="8"/>
+      <c r="BE12" s="8"/>
+      <c r="BF12" s="9"/>
+      <c r="BG12" s="25"/>
       <c r="BH12" s="21"/>
       <c r="BI12" s="21"/>
       <c r="BJ12" s="21"/>
@@ -4518,38 +4658,52 @@
       <c r="DG12" s="21"/>
       <c r="DH12" s="21"/>
       <c r="DI12" s="21"/>
-      <c r="DJ12" s="24"/>
-      <c r="DK12" s="7"/>
-      <c r="DL12" s="8"/>
-      <c r="DM12" s="8"/>
-      <c r="DN12" s="8"/>
-      <c r="DO12" s="8"/>
-      <c r="DP12" s="8"/>
-      <c r="DQ12" s="9"/>
-      <c r="DR12" s="7"/>
-      <c r="DS12" s="8"/>
-      <c r="DT12" s="8"/>
-      <c r="DU12" s="8"/>
-      <c r="DV12" s="8"/>
-      <c r="DW12" s="8"/>
-      <c r="DX12" s="9"/>
-      <c r="DY12" s="25"/>
-      <c r="DZ12" s="21"/>
-      <c r="EA12" s="21"/>
-      <c r="EB12" s="21"/>
-      <c r="EC12" s="21"/>
-      <c r="ED12" s="21"/>
-      <c r="EE12" s="22"/>
-      <c r="EF12" s="20"/>
-      <c r="EG12" s="21"/>
-      <c r="EH12" s="21"/>
-      <c r="EI12" s="21"/>
-      <c r="EJ12" s="21"/>
-      <c r="EK12" s="21"/>
-      <c r="EL12" s="22"/>
+      <c r="DJ12" s="22"/>
+      <c r="DK12" s="20"/>
+      <c r="DL12" s="21"/>
+      <c r="DM12" s="21"/>
+      <c r="DN12" s="21"/>
+      <c r="DO12" s="21"/>
+      <c r="DP12" s="21"/>
+      <c r="DQ12" s="22"/>
+      <c r="DR12" s="20"/>
+      <c r="DS12" s="21"/>
+      <c r="DT12" s="21"/>
+      <c r="DU12" s="21"/>
+      <c r="DV12" s="21"/>
+      <c r="DW12" s="21"/>
+      <c r="DX12" s="24"/>
+      <c r="DY12" s="7"/>
+      <c r="DZ12" s="8"/>
+      <c r="EA12" s="8"/>
+      <c r="EB12" s="8"/>
+      <c r="EC12" s="8"/>
+      <c r="ED12" s="8"/>
+      <c r="EE12" s="9"/>
+      <c r="EF12" s="7"/>
+      <c r="EG12" s="8"/>
+      <c r="EH12" s="8"/>
+      <c r="EI12" s="8"/>
+      <c r="EJ12" s="8"/>
+      <c r="EK12" s="8"/>
+      <c r="EL12" s="9"/>
+      <c r="EM12" s="25"/>
+      <c r="EN12" s="21"/>
+      <c r="EO12" s="21"/>
+      <c r="EP12" s="21"/>
+      <c r="EQ12" s="21"/>
+      <c r="ER12" s="21"/>
+      <c r="ES12" s="22"/>
+      <c r="ET12" s="20"/>
+      <c r="EU12" s="21"/>
+      <c r="EV12" s="21"/>
+      <c r="EW12" s="21"/>
+      <c r="EX12" s="21"/>
+      <c r="EY12" s="21"/>
+      <c r="EZ12" s="22"/>
     </row>
-    <row r="13" spans="1:149" ht="15" thickBot="1">
-      <c r="A13" s="92"/>
+    <row r="13" spans="1:163" ht="15" thickBot="1">
+      <c r="A13" s="121"/>
       <c r="B13" s="66" t="s">
         <v>30</v>
       </c>
@@ -4560,7 +4714,7 @@
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="22"/>
-      <c r="J13" s="25"/>
+      <c r="J13" s="20"/>
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
       <c r="M13" s="21"/>
@@ -4568,56 +4722,57 @@
       <c r="O13" s="21"/>
       <c r="P13" s="22"/>
       <c r="Q13" s="20"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
+      <c r="R13" s="23">
+        <v>2</v>
+      </c>
+      <c r="S13" s="23">
+        <v>2</v>
+      </c>
       <c r="T13" s="21"/>
       <c r="U13" s="21"/>
       <c r="V13" s="21"/>
       <c r="W13" s="22"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="21"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="23">
+        <v>2</v>
+      </c>
       <c r="Z13" s="23">
-        <v>2</v>
-      </c>
-      <c r="AA13" s="23">
-        <v>2</v>
-      </c>
-      <c r="AB13" s="23">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="AA13" s="81"/>
+      <c r="AB13" s="21"/>
       <c r="AC13" s="21"/>
       <c r="AD13" s="22"/>
       <c r="AE13" s="20"/>
-      <c r="AF13" s="21"/>
-      <c r="AG13" s="21"/>
+      <c r="AF13" s="23">
+        <v>3</v>
+      </c>
+      <c r="AG13" s="81"/>
       <c r="AH13" s="21"/>
-      <c r="AI13" s="23">
-        <v>1</v>
-      </c>
+      <c r="AI13" s="21"/>
       <c r="AJ13" s="21"/>
-      <c r="AK13" s="24"/>
-      <c r="AL13" s="7"/>
-      <c r="AM13" s="8"/>
-      <c r="AN13" s="8"/>
-      <c r="AO13" s="8"/>
-      <c r="AP13" s="8"/>
-      <c r="AQ13" s="8"/>
-      <c r="AR13" s="9"/>
-      <c r="AS13" s="25"/>
+      <c r="AK13" s="22"/>
+      <c r="AL13" s="20"/>
+      <c r="AN13" s="21"/>
+      <c r="AO13" s="21"/>
+      <c r="AP13" s="21"/>
+      <c r="AQ13" s="21"/>
+      <c r="AR13" s="22"/>
+      <c r="AS13" s="20"/>
       <c r="AT13" s="21"/>
-      <c r="AU13" s="21"/>
-      <c r="AV13" s="21"/>
-      <c r="AW13" s="21"/>
+      <c r="AU13" s="81"/>
+      <c r="AV13" s="81"/>
+      <c r="AW13" s="81"/>
       <c r="AX13" s="21"/>
-      <c r="AY13" s="22"/>
-      <c r="AZ13" s="20"/>
-      <c r="BA13" s="21"/>
-      <c r="BB13" s="21"/>
-      <c r="BC13" s="21"/>
-      <c r="BD13" s="21"/>
-      <c r="BE13" s="21"/>
-      <c r="BF13" s="22"/>
-      <c r="BG13" s="20"/>
+      <c r="AY13" s="24"/>
+      <c r="AZ13" s="7"/>
+      <c r="BA13" s="8"/>
+      <c r="BB13" s="8"/>
+      <c r="BC13" s="8"/>
+      <c r="BD13" s="8"/>
+      <c r="BE13" s="8"/>
+      <c r="BF13" s="9"/>
+      <c r="BG13" s="25"/>
       <c r="BH13" s="21"/>
       <c r="BI13" s="21"/>
       <c r="BJ13" s="21"/>
@@ -4664,9 +4819,7 @@
       <c r="CY13" s="21"/>
       <c r="CZ13" s="21"/>
       <c r="DA13" s="21"/>
-      <c r="DB13" s="21" t="s">
-        <v>99</v>
-      </c>
+      <c r="DB13" s="21"/>
       <c r="DC13" s="22"/>
       <c r="DD13" s="20"/>
       <c r="DE13" s="21"/>
@@ -4674,39 +4827,53 @@
       <c r="DG13" s="21"/>
       <c r="DH13" s="21"/>
       <c r="DI13" s="21"/>
-      <c r="DJ13" s="24"/>
-      <c r="DK13" s="7"/>
-      <c r="DL13" s="8"/>
-      <c r="DM13" s="8"/>
-      <c r="DN13" s="8"/>
-      <c r="DO13" s="8"/>
-      <c r="DP13" s="8"/>
-      <c r="DQ13" s="9"/>
-      <c r="DR13" s="7"/>
-      <c r="DS13" s="8"/>
-      <c r="DT13" s="8"/>
-      <c r="DU13" s="8"/>
-      <c r="DV13" s="8"/>
-      <c r="DW13" s="8"/>
-      <c r="DX13" s="9"/>
-      <c r="DY13" s="25"/>
-      <c r="DZ13" s="21"/>
-      <c r="EA13" s="21"/>
-      <c r="EB13" s="21"/>
-      <c r="EC13" s="21"/>
-      <c r="ED13" s="21"/>
-      <c r="EE13" s="22"/>
-      <c r="EF13" s="20"/>
-      <c r="EG13" s="21"/>
-      <c r="EH13" s="21"/>
-      <c r="EI13" s="21"/>
-      <c r="EJ13" s="21"/>
-      <c r="EK13" s="21"/>
-      <c r="EL13" s="22"/>
+      <c r="DJ13" s="22"/>
+      <c r="DK13" s="20"/>
+      <c r="DL13" s="21"/>
+      <c r="DM13" s="21"/>
+      <c r="DN13" s="21"/>
+      <c r="DO13" s="21"/>
+      <c r="DP13" s="21"/>
+      <c r="DQ13" s="22"/>
+      <c r="DR13" s="20"/>
+      <c r="DS13" s="21"/>
+      <c r="DT13" s="21"/>
+      <c r="DU13" s="21"/>
+      <c r="DV13" s="21"/>
+      <c r="DW13" s="21"/>
+      <c r="DX13" s="24"/>
+      <c r="DY13" s="7"/>
+      <c r="DZ13" s="8"/>
+      <c r="EA13" s="8"/>
+      <c r="EB13" s="8"/>
+      <c r="EC13" s="8"/>
+      <c r="ED13" s="8"/>
+      <c r="EE13" s="9"/>
+      <c r="EF13" s="7"/>
+      <c r="EG13" s="8"/>
+      <c r="EH13" s="8"/>
+      <c r="EI13" s="8"/>
+      <c r="EJ13" s="8"/>
+      <c r="EK13" s="8"/>
+      <c r="EL13" s="9"/>
+      <c r="EM13" s="25"/>
+      <c r="EN13" s="21"/>
+      <c r="EO13" s="21"/>
+      <c r="EP13" s="21"/>
+      <c r="EQ13" s="21"/>
+      <c r="ER13" s="21"/>
+      <c r="ES13" s="22"/>
+      <c r="ET13" s="20"/>
+      <c r="EU13" s="21"/>
+      <c r="EV13" s="21"/>
+      <c r="EW13" s="21"/>
+      <c r="EX13" s="21"/>
+      <c r="EY13" s="21"/>
+      <c r="EZ13" s="22"/>
     </row>
-    <row r="14" spans="1:149" ht="15" thickBot="1">
-      <c r="A14" s="93" t="s">
-        <v>88</v>
+    <row r="14" spans="1:163" ht="15" thickBot="1">
+      <c r="A14" s="118" t="s">
+        <v>33</v>
       </c>
       <c r="B14" s="65" t="s">
         <v>29</v>
@@ -4718,7 +4885,7 @@
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
       <c r="I14" s="22"/>
-      <c r="J14" s="25"/>
+      <c r="J14" s="20"/>
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
@@ -4732,48 +4899,48 @@
       <c r="U14" s="21"/>
       <c r="V14" s="21"/>
       <c r="W14" s="22"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="21"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="63"/>
       <c r="Z14" s="21"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="21"/>
       <c r="AC14" s="21"/>
       <c r="AD14" s="22"/>
       <c r="AE14" s="20"/>
-      <c r="AF14" s="21"/>
+      <c r="AF14" s="26">
+        <v>2</v>
+      </c>
       <c r="AG14" s="26">
         <v>1</v>
       </c>
       <c r="AH14" s="26">
         <v>1</v>
       </c>
-      <c r="AI14" s="26">
-        <v>1</v>
-      </c>
+      <c r="AI14" s="21"/>
       <c r="AJ14" s="21"/>
-      <c r="AK14" s="24"/>
-      <c r="AL14" s="7"/>
-      <c r="AM14" s="8"/>
-      <c r="AN14" s="8"/>
-      <c r="AO14" s="8"/>
-      <c r="AP14" s="8"/>
-      <c r="AQ14" s="8"/>
-      <c r="AR14" s="9"/>
-      <c r="AS14" s="25"/>
+      <c r="AK14" s="22"/>
+      <c r="AL14" s="20"/>
+      <c r="AM14" s="21"/>
+      <c r="AN14" s="21"/>
+      <c r="AO14" s="21"/>
+      <c r="AP14" s="81"/>
+      <c r="AQ14" s="21"/>
+      <c r="AR14" s="22"/>
+      <c r="AS14" s="20"/>
       <c r="AT14" s="21"/>
-      <c r="AU14" s="21"/>
-      <c r="AV14" s="21"/>
-      <c r="AW14" s="21"/>
+      <c r="AU14" s="81"/>
+      <c r="AV14" s="81"/>
+      <c r="AW14" s="81"/>
       <c r="AX14" s="21"/>
-      <c r="AY14" s="22"/>
-      <c r="AZ14" s="20"/>
-      <c r="BA14" s="21"/>
-      <c r="BB14" s="21"/>
-      <c r="BC14" s="21"/>
-      <c r="BD14" s="21"/>
-      <c r="BE14" s="21"/>
-      <c r="BF14" s="22"/>
-      <c r="BG14" s="20"/>
+      <c r="AY14" s="24"/>
+      <c r="AZ14" s="7"/>
+      <c r="BA14" s="8"/>
+      <c r="BB14" s="8"/>
+      <c r="BC14" s="8"/>
+      <c r="BD14" s="8"/>
+      <c r="BE14" s="8"/>
+      <c r="BF14" s="9"/>
+      <c r="BG14" s="25"/>
       <c r="BH14" s="21"/>
       <c r="BI14" s="21"/>
       <c r="BJ14" s="21"/>
@@ -4828,38 +4995,52 @@
       <c r="DG14" s="21"/>
       <c r="DH14" s="21"/>
       <c r="DI14" s="21"/>
-      <c r="DJ14" s="24"/>
-      <c r="DK14" s="7"/>
-      <c r="DL14" s="8"/>
-      <c r="DM14" s="8"/>
-      <c r="DN14" s="8"/>
-      <c r="DO14" s="8"/>
-      <c r="DP14" s="8"/>
-      <c r="DQ14" s="9"/>
-      <c r="DR14" s="7"/>
-      <c r="DS14" s="8"/>
-      <c r="DT14" s="8"/>
-      <c r="DU14" s="8"/>
-      <c r="DV14" s="8"/>
-      <c r="DW14" s="8"/>
-      <c r="DX14" s="9"/>
-      <c r="DY14" s="25"/>
-      <c r="DZ14" s="21"/>
-      <c r="EA14" s="21"/>
-      <c r="EB14" s="21"/>
-      <c r="EC14" s="21"/>
-      <c r="ED14" s="21"/>
-      <c r="EE14" s="22"/>
-      <c r="EF14" s="20"/>
-      <c r="EG14" s="21"/>
-      <c r="EH14" s="21"/>
-      <c r="EI14" s="21"/>
-      <c r="EJ14" s="21"/>
-      <c r="EK14" s="21"/>
-      <c r="EL14" s="22"/>
+      <c r="DJ14" s="22"/>
+      <c r="DK14" s="20"/>
+      <c r="DL14" s="21"/>
+      <c r="DM14" s="21"/>
+      <c r="DN14" s="21"/>
+      <c r="DO14" s="21"/>
+      <c r="DP14" s="21"/>
+      <c r="DQ14" s="22"/>
+      <c r="DR14" s="20"/>
+      <c r="DS14" s="21"/>
+      <c r="DT14" s="21"/>
+      <c r="DU14" s="21"/>
+      <c r="DV14" s="21"/>
+      <c r="DW14" s="21"/>
+      <c r="DX14" s="24"/>
+      <c r="DY14" s="7"/>
+      <c r="DZ14" s="8"/>
+      <c r="EA14" s="8"/>
+      <c r="EB14" s="8"/>
+      <c r="EC14" s="8"/>
+      <c r="ED14" s="8"/>
+      <c r="EE14" s="9"/>
+      <c r="EF14" s="7"/>
+      <c r="EG14" s="8"/>
+      <c r="EH14" s="8"/>
+      <c r="EI14" s="8"/>
+      <c r="EJ14" s="8"/>
+      <c r="EK14" s="8"/>
+      <c r="EL14" s="9"/>
+      <c r="EM14" s="25"/>
+      <c r="EN14" s="21"/>
+      <c r="EO14" s="21"/>
+      <c r="EP14" s="21"/>
+      <c r="EQ14" s="21"/>
+      <c r="ER14" s="21"/>
+      <c r="ES14" s="22"/>
+      <c r="ET14" s="20"/>
+      <c r="EU14" s="21"/>
+      <c r="EV14" s="21"/>
+      <c r="EW14" s="21"/>
+      <c r="EX14" s="21"/>
+      <c r="EY14" s="21"/>
+      <c r="EZ14" s="22"/>
     </row>
-    <row r="15" spans="1:149" ht="15" thickBot="1">
-      <c r="A15" s="94"/>
+    <row r="15" spans="1:163" ht="15" thickBot="1">
+      <c r="A15" s="119"/>
       <c r="B15" s="66" t="s">
         <v>30</v>
       </c>
@@ -4870,7 +5051,7 @@
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
       <c r="I15" s="22"/>
-      <c r="J15" s="25"/>
+      <c r="J15" s="20"/>
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
@@ -4884,7 +5065,7 @@
       <c r="U15" s="21"/>
       <c r="V15" s="21"/>
       <c r="W15" s="22"/>
-      <c r="X15" s="20"/>
+      <c r="X15" s="25"/>
       <c r="Y15" s="21"/>
       <c r="Z15" s="21"/>
       <c r="AA15" s="21"/>
@@ -4892,38 +5073,40 @@
       <c r="AC15" s="21"/>
       <c r="AD15" s="22"/>
       <c r="AE15" s="20"/>
-      <c r="AF15" s="21"/>
+      <c r="AF15" s="23">
+        <v>2</v>
+      </c>
       <c r="AG15" s="23">
         <v>2</v>
       </c>
       <c r="AH15" s="23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI15" s="21"/>
       <c r="AJ15" s="21"/>
-      <c r="AK15" s="24"/>
-      <c r="AL15" s="7"/>
-      <c r="AM15" s="8"/>
-      <c r="AN15" s="8"/>
-      <c r="AO15" s="8"/>
-      <c r="AP15" s="8"/>
-      <c r="AQ15" s="8"/>
-      <c r="AR15" s="9"/>
-      <c r="AS15" s="25"/>
+      <c r="AK15" s="22"/>
+      <c r="AL15" s="20"/>
+      <c r="AM15" s="21"/>
+      <c r="AN15" s="21"/>
+      <c r="AO15" s="21"/>
+      <c r="AP15" s="81"/>
+      <c r="AQ15" s="21"/>
+      <c r="AR15" s="22"/>
+      <c r="AS15" s="20"/>
       <c r="AT15" s="21"/>
-      <c r="AU15" s="21"/>
-      <c r="AV15" s="21"/>
-      <c r="AW15" s="21"/>
+      <c r="AU15" s="81"/>
+      <c r="AV15" s="81"/>
+      <c r="AW15" s="81"/>
       <c r="AX15" s="21"/>
-      <c r="AY15" s="22"/>
-      <c r="AZ15" s="20"/>
-      <c r="BA15" s="21"/>
-      <c r="BB15" s="21"/>
-      <c r="BC15" s="21"/>
-      <c r="BD15" s="21"/>
-      <c r="BE15" s="21"/>
-      <c r="BF15" s="22"/>
-      <c r="BG15" s="20"/>
+      <c r="AY15" s="24"/>
+      <c r="AZ15" s="7"/>
+      <c r="BA15" s="8"/>
+      <c r="BB15" s="8"/>
+      <c r="BC15" s="8"/>
+      <c r="BD15" s="8"/>
+      <c r="BE15" s="8"/>
+      <c r="BF15" s="9"/>
+      <c r="BG15" s="25"/>
       <c r="BH15" s="21"/>
       <c r="BI15" s="21"/>
       <c r="BJ15" s="21"/>
@@ -4978,39 +5161,53 @@
       <c r="DG15" s="21"/>
       <c r="DH15" s="21"/>
       <c r="DI15" s="21"/>
-      <c r="DJ15" s="24"/>
-      <c r="DK15" s="7"/>
-      <c r="DL15" s="8"/>
-      <c r="DM15" s="8"/>
-      <c r="DN15" s="8"/>
-      <c r="DO15" s="8"/>
-      <c r="DP15" s="8"/>
-      <c r="DQ15" s="9"/>
-      <c r="DR15" s="7"/>
-      <c r="DS15" s="8"/>
-      <c r="DT15" s="8"/>
-      <c r="DU15" s="8"/>
-      <c r="DV15" s="8"/>
-      <c r="DW15" s="8"/>
-      <c r="DX15" s="9"/>
-      <c r="DY15" s="25"/>
-      <c r="DZ15" s="21"/>
-      <c r="EA15" s="21"/>
-      <c r="EB15" s="21"/>
-      <c r="EC15" s="21"/>
-      <c r="ED15" s="21"/>
-      <c r="EE15" s="22"/>
-      <c r="EF15" s="20"/>
-      <c r="EG15" s="21"/>
-      <c r="EH15" s="21"/>
-      <c r="EI15" s="21"/>
-      <c r="EJ15" s="21"/>
-      <c r="EK15" s="21"/>
-      <c r="EL15" s="22"/>
+      <c r="DJ15" s="22"/>
+      <c r="DK15" s="20"/>
+      <c r="DL15" s="21"/>
+      <c r="DM15" s="21"/>
+      <c r="DN15" s="21"/>
+      <c r="DO15" s="21"/>
+      <c r="DP15" s="21"/>
+      <c r="DQ15" s="22"/>
+      <c r="DR15" s="20"/>
+      <c r="DS15" s="21"/>
+      <c r="DT15" s="21"/>
+      <c r="DU15" s="21"/>
+      <c r="DV15" s="21"/>
+      <c r="DW15" s="21"/>
+      <c r="DX15" s="24"/>
+      <c r="DY15" s="7"/>
+      <c r="DZ15" s="8"/>
+      <c r="EA15" s="8"/>
+      <c r="EB15" s="8"/>
+      <c r="EC15" s="8"/>
+      <c r="ED15" s="8"/>
+      <c r="EE15" s="9"/>
+      <c r="EF15" s="7"/>
+      <c r="EG15" s="8"/>
+      <c r="EH15" s="8"/>
+      <c r="EI15" s="8"/>
+      <c r="EJ15" s="8"/>
+      <c r="EK15" s="8"/>
+      <c r="EL15" s="9"/>
+      <c r="EM15" s="25"/>
+      <c r="EN15" s="21"/>
+      <c r="EO15" s="21"/>
+      <c r="EP15" s="21"/>
+      <c r="EQ15" s="21"/>
+      <c r="ER15" s="21"/>
+      <c r="ES15" s="22"/>
+      <c r="ET15" s="20"/>
+      <c r="EU15" s="21"/>
+      <c r="EV15" s="21"/>
+      <c r="EW15" s="21"/>
+      <c r="EX15" s="21"/>
+      <c r="EY15" s="21"/>
+      <c r="EZ15" s="22"/>
     </row>
-    <row r="16" spans="1:149" ht="15" thickBot="1">
-      <c r="A16" s="91" t="s">
-        <v>28</v>
+    <row r="16" spans="1:163" ht="15" thickBot="1">
+      <c r="A16" s="118" t="s">
+        <v>74</v>
       </c>
       <c r="B16" s="65" t="s">
         <v>29</v>
@@ -5022,7 +5219,7 @@
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
       <c r="I16" s="22"/>
-      <c r="J16" s="25"/>
+      <c r="J16" s="20"/>
       <c r="K16" s="21"/>
       <c r="L16" s="21"/>
       <c r="M16" s="21"/>
@@ -5036,7 +5233,7 @@
       <c r="U16" s="21"/>
       <c r="V16" s="21"/>
       <c r="W16" s="22"/>
-      <c r="X16" s="20"/>
+      <c r="X16" s="25"/>
       <c r="Y16" s="21"/>
       <c r="Z16" s="21"/>
       <c r="AA16" s="21"/>
@@ -5049,35 +5246,31 @@
       <c r="AH16" s="21"/>
       <c r="AI16" s="21"/>
       <c r="AJ16" s="21"/>
-      <c r="AK16" s="24"/>
-      <c r="AL16" s="7"/>
-      <c r="AM16" s="8"/>
-      <c r="AN16" s="8"/>
-      <c r="AO16" s="8"/>
-      <c r="AP16" s="8"/>
-      <c r="AQ16" s="8"/>
-      <c r="AR16" s="9"/>
-      <c r="AS16" s="25"/>
+      <c r="AK16" s="22"/>
+      <c r="AL16" s="20"/>
+      <c r="AM16" s="21"/>
+      <c r="AN16" s="21"/>
+      <c r="AO16" s="26">
+        <v>1</v>
+      </c>
+      <c r="AP16" s="81"/>
+      <c r="AQ16" s="21"/>
+      <c r="AR16" s="22"/>
+      <c r="AS16" s="20"/>
       <c r="AT16" s="21"/>
-      <c r="AU16" s="26">
-        <v>2</v>
-      </c>
-      <c r="AV16" s="26">
-        <v>2</v>
-      </c>
-      <c r="AW16" s="26">
-        <v>2</v>
-      </c>
+      <c r="AU16" s="81"/>
+      <c r="AV16" s="81"/>
+      <c r="AW16" s="81"/>
       <c r="AX16" s="21"/>
-      <c r="AY16" s="22"/>
-      <c r="AZ16" s="20"/>
-      <c r="BA16" s="21"/>
-      <c r="BB16" s="21"/>
-      <c r="BC16" s="21"/>
-      <c r="BD16" s="21"/>
-      <c r="BE16" s="21"/>
-      <c r="BF16" s="22"/>
-      <c r="BG16" s="20"/>
+      <c r="AY16" s="24"/>
+      <c r="AZ16" s="7"/>
+      <c r="BA16" s="8"/>
+      <c r="BB16" s="8"/>
+      <c r="BC16" s="8"/>
+      <c r="BD16" s="8"/>
+      <c r="BE16" s="8"/>
+      <c r="BF16" s="9"/>
+      <c r="BG16" s="25"/>
       <c r="BH16" s="21"/>
       <c r="BI16" s="21"/>
       <c r="BJ16" s="21"/>
@@ -5132,38 +5325,52 @@
       <c r="DG16" s="21"/>
       <c r="DH16" s="21"/>
       <c r="DI16" s="21"/>
-      <c r="DJ16" s="24"/>
-      <c r="DK16" s="7"/>
-      <c r="DL16" s="8"/>
-      <c r="DM16" s="8"/>
-      <c r="DN16" s="8"/>
-      <c r="DO16" s="8"/>
-      <c r="DP16" s="8"/>
-      <c r="DQ16" s="9"/>
-      <c r="DR16" s="7"/>
-      <c r="DS16" s="8"/>
-      <c r="DT16" s="8"/>
-      <c r="DU16" s="8"/>
-      <c r="DV16" s="8"/>
-      <c r="DW16" s="8"/>
-      <c r="DX16" s="9"/>
-      <c r="DY16" s="25"/>
-      <c r="DZ16" s="21"/>
-      <c r="EA16" s="21"/>
-      <c r="EB16" s="21"/>
-      <c r="EC16" s="21"/>
-      <c r="ED16" s="21"/>
-      <c r="EE16" s="22"/>
-      <c r="EF16" s="20"/>
-      <c r="EG16" s="21"/>
-      <c r="EH16" s="21"/>
-      <c r="EI16" s="21"/>
-      <c r="EJ16" s="21"/>
-      <c r="EK16" s="21"/>
-      <c r="EL16" s="22"/>
+      <c r="DJ16" s="22"/>
+      <c r="DK16" s="20"/>
+      <c r="DL16" s="21"/>
+      <c r="DM16" s="21"/>
+      <c r="DN16" s="21"/>
+      <c r="DO16" s="21"/>
+      <c r="DP16" s="21"/>
+      <c r="DQ16" s="22"/>
+      <c r="DR16" s="20"/>
+      <c r="DS16" s="21"/>
+      <c r="DT16" s="21"/>
+      <c r="DU16" s="21"/>
+      <c r="DV16" s="21"/>
+      <c r="DW16" s="21"/>
+      <c r="DX16" s="24"/>
+      <c r="DY16" s="7"/>
+      <c r="DZ16" s="8"/>
+      <c r="EA16" s="8"/>
+      <c r="EB16" s="8"/>
+      <c r="EC16" s="8"/>
+      <c r="ED16" s="8"/>
+      <c r="EE16" s="9"/>
+      <c r="EF16" s="7"/>
+      <c r="EG16" s="8"/>
+      <c r="EH16" s="8"/>
+      <c r="EI16" s="8"/>
+      <c r="EJ16" s="8"/>
+      <c r="EK16" s="8"/>
+      <c r="EL16" s="9"/>
+      <c r="EM16" s="25"/>
+      <c r="EN16" s="21"/>
+      <c r="EO16" s="21"/>
+      <c r="EP16" s="21"/>
+      <c r="EQ16" s="21"/>
+      <c r="ER16" s="21"/>
+      <c r="ES16" s="22"/>
+      <c r="ET16" s="20"/>
+      <c r="EU16" s="21"/>
+      <c r="EV16" s="21"/>
+      <c r="EW16" s="21"/>
+      <c r="EX16" s="21"/>
+      <c r="EY16" s="21"/>
+      <c r="EZ16" s="22"/>
     </row>
-    <row r="17" spans="1:142" ht="15" thickBot="1">
-      <c r="A17" s="97"/>
+    <row r="17" spans="1:156" ht="15" thickBot="1">
+      <c r="A17" s="119"/>
       <c r="B17" s="66" t="s">
         <v>30</v>
       </c>
@@ -5174,7 +5381,7 @@
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
       <c r="I17" s="22"/>
-      <c r="J17" s="25"/>
+      <c r="J17" s="20"/>
       <c r="K17" s="21"/>
       <c r="L17" s="21"/>
       <c r="M17" s="21"/>
@@ -5188,7 +5395,7 @@
       <c r="U17" s="21"/>
       <c r="V17" s="21"/>
       <c r="W17" s="22"/>
-      <c r="X17" s="20"/>
+      <c r="X17" s="25"/>
       <c r="Y17" s="21"/>
       <c r="Z17" s="21"/>
       <c r="AA17" s="21"/>
@@ -5201,40 +5408,41 @@
       <c r="AH17" s="21"/>
       <c r="AI17" s="21"/>
       <c r="AJ17" s="21"/>
-      <c r="AK17" s="24"/>
-      <c r="AL17" s="7"/>
-      <c r="AM17" s="8"/>
-      <c r="AN17" s="8"/>
-      <c r="AO17" s="8"/>
-      <c r="AP17" s="8"/>
-      <c r="AQ17" s="8"/>
-      <c r="AR17" s="9"/>
-      <c r="AS17" s="25"/>
+      <c r="AK17" s="22"/>
+      <c r="AL17" s="20"/>
+      <c r="AM17" s="21"/>
+      <c r="AN17" s="21"/>
+      <c r="AO17" s="23">
+        <v>2</v>
+      </c>
+      <c r="AP17" s="81"/>
+      <c r="AQ17" s="21"/>
+      <c r="AR17" s="22"/>
+      <c r="AS17" s="20"/>
       <c r="AT17" s="21"/>
       <c r="AU17" s="21"/>
       <c r="AV17" s="21"/>
-      <c r="AW17" s="23">
-        <v>4</v>
-      </c>
       <c r="AX17" s="21"/>
-      <c r="AY17" s="22"/>
-      <c r="AZ17" s="20"/>
-      <c r="BA17" s="21"/>
-      <c r="BB17" s="21"/>
-      <c r="BC17" s="21"/>
-      <c r="BD17" s="21"/>
-      <c r="BE17" s="21"/>
-      <c r="BF17" s="22"/>
-      <c r="BG17" s="20"/>
-      <c r="BH17" s="21"/>
-      <c r="BI17" s="21"/>
-      <c r="BJ17" s="21"/>
-      <c r="BK17" s="21"/>
+      <c r="AY17" s="24"/>
+      <c r="AZ17" s="7"/>
+      <c r="BA17" s="8"/>
+      <c r="BB17" s="8"/>
+      <c r="BC17" s="8"/>
+      <c r="BD17" s="8"/>
+      <c r="BE17" s="8"/>
+      <c r="BF17" s="9"/>
+      <c r="BG17" s="25"/>
+      <c r="BH17" s="81"/>
+      <c r="BI17" s="81"/>
+      <c r="BJ17" s="81"/>
+      <c r="BK17" s="81"/>
       <c r="BL17" s="21"/>
       <c r="BM17" s="22"/>
       <c r="BN17" s="20"/>
       <c r="BO17" s="21"/>
-      <c r="BP17" s="21"/>
+      <c r="BP17" s="23" t="s">
+        <v>103</v>
+      </c>
       <c r="BQ17" s="21"/>
       <c r="BR17" s="21"/>
       <c r="BS17" s="21"/>
@@ -5280,39 +5488,53 @@
       <c r="DG17" s="21"/>
       <c r="DH17" s="21"/>
       <c r="DI17" s="21"/>
-      <c r="DJ17" s="24"/>
-      <c r="DK17" s="7"/>
-      <c r="DL17" s="8"/>
-      <c r="DM17" s="8"/>
-      <c r="DN17" s="8"/>
-      <c r="DO17" s="8"/>
-      <c r="DP17" s="8"/>
-      <c r="DQ17" s="9"/>
-      <c r="DR17" s="7"/>
-      <c r="DS17" s="8"/>
-      <c r="DT17" s="8"/>
-      <c r="DU17" s="8"/>
-      <c r="DV17" s="8"/>
-      <c r="DW17" s="8"/>
-      <c r="DX17" s="9"/>
-      <c r="DY17" s="25"/>
-      <c r="DZ17" s="21"/>
-      <c r="EA17" s="21"/>
-      <c r="EB17" s="21"/>
-      <c r="EC17" s="21"/>
-      <c r="ED17" s="21"/>
-      <c r="EE17" s="22"/>
-      <c r="EF17" s="20"/>
-      <c r="EG17" s="21"/>
-      <c r="EH17" s="21"/>
-      <c r="EI17" s="21"/>
-      <c r="EJ17" s="21"/>
-      <c r="EK17" s="21"/>
-      <c r="EL17" s="22"/>
+      <c r="DJ17" s="22"/>
+      <c r="DK17" s="20"/>
+      <c r="DL17" s="21"/>
+      <c r="DM17" s="21"/>
+      <c r="DN17" s="21"/>
+      <c r="DO17" s="21"/>
+      <c r="DP17" s="21"/>
+      <c r="DQ17" s="22"/>
+      <c r="DR17" s="20"/>
+      <c r="DS17" s="21"/>
+      <c r="DT17" s="21"/>
+      <c r="DU17" s="21"/>
+      <c r="DV17" s="21"/>
+      <c r="DW17" s="21"/>
+      <c r="DX17" s="24"/>
+      <c r="DY17" s="7"/>
+      <c r="DZ17" s="8"/>
+      <c r="EA17" s="8"/>
+      <c r="EB17" s="8"/>
+      <c r="EC17" s="8"/>
+      <c r="ED17" s="8"/>
+      <c r="EE17" s="9"/>
+      <c r="EF17" s="7"/>
+      <c r="EG17" s="8"/>
+      <c r="EH17" s="8"/>
+      <c r="EI17" s="8"/>
+      <c r="EJ17" s="8"/>
+      <c r="EK17" s="8"/>
+      <c r="EL17" s="9"/>
+      <c r="EM17" s="25"/>
+      <c r="EN17" s="21"/>
+      <c r="EO17" s="21"/>
+      <c r="EP17" s="21"/>
+      <c r="EQ17" s="21"/>
+      <c r="ER17" s="21"/>
+      <c r="ES17" s="22"/>
+      <c r="ET17" s="20"/>
+      <c r="EU17" s="21"/>
+      <c r="EV17" s="21"/>
+      <c r="EW17" s="21"/>
+      <c r="EX17" s="21"/>
+      <c r="EY17" s="21"/>
+      <c r="EZ17" s="22"/>
     </row>
-    <row r="18" spans="1:142" ht="15" thickBot="1">
-      <c r="A18" s="91" t="s">
-        <v>95</v>
+    <row r="18" spans="1:156" ht="15" thickBot="1">
+      <c r="A18" s="120" t="s">
+        <v>87</v>
       </c>
       <c r="B18" s="65" t="s">
         <v>29</v>
@@ -5324,7 +5546,7 @@
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="22"/>
-      <c r="J18" s="25"/>
+      <c r="J18" s="20"/>
       <c r="K18" s="21"/>
       <c r="L18" s="21"/>
       <c r="M18" s="21"/>
@@ -5338,7 +5560,7 @@
       <c r="U18" s="21"/>
       <c r="V18" s="21"/>
       <c r="W18" s="22"/>
-      <c r="X18" s="20"/>
+      <c r="X18" s="25"/>
       <c r="Y18" s="21"/>
       <c r="Z18" s="21"/>
       <c r="AA18" s="21"/>
@@ -5351,35 +5573,39 @@
       <c r="AH18" s="21"/>
       <c r="AI18" s="21"/>
       <c r="AJ18" s="21"/>
-      <c r="AK18" s="24"/>
-      <c r="AL18" s="7"/>
-      <c r="AM18" s="8"/>
-      <c r="AN18" s="8"/>
-      <c r="AO18" s="8"/>
-      <c r="AP18" s="8"/>
-      <c r="AQ18" s="8"/>
-      <c r="AR18" s="9"/>
-      <c r="AS18" s="25"/>
+      <c r="AK18" s="22"/>
+      <c r="AL18" s="20"/>
+      <c r="AM18" s="21"/>
+      <c r="AN18" s="21"/>
+      <c r="AO18" s="21"/>
+      <c r="AP18" s="21"/>
+      <c r="AQ18" s="21"/>
+      <c r="AR18" s="22"/>
+      <c r="AS18" s="20"/>
       <c r="AT18" s="21"/>
-      <c r="AU18" s="21"/>
-      <c r="AV18" s="21"/>
-      <c r="AW18" s="118"/>
+      <c r="AU18" s="26">
+        <v>1</v>
+      </c>
+      <c r="AV18" s="26">
+        <v>1</v>
+      </c>
+      <c r="AW18" s="26">
+        <v>1</v>
+      </c>
       <c r="AX18" s="21"/>
-      <c r="AY18" s="22"/>
-      <c r="AZ18" s="20"/>
-      <c r="BA18" s="21"/>
-      <c r="BB18" s="26">
-        <v>1</v>
-      </c>
-      <c r="BC18" s="63"/>
-      <c r="BD18" s="21"/>
-      <c r="BE18" s="21"/>
-      <c r="BF18" s="22"/>
-      <c r="BG18" s="20"/>
-      <c r="BH18" s="21"/>
-      <c r="BI18" s="21"/>
-      <c r="BJ18" s="21"/>
-      <c r="BK18" s="21"/>
+      <c r="AY18" s="24"/>
+      <c r="AZ18" s="7"/>
+      <c r="BA18" s="8"/>
+      <c r="BB18" s="8"/>
+      <c r="BC18" s="8"/>
+      <c r="BD18" s="8"/>
+      <c r="BE18" s="8"/>
+      <c r="BF18" s="9"/>
+      <c r="BG18" s="25"/>
+      <c r="BH18" s="81"/>
+      <c r="BI18" s="81"/>
+      <c r="BJ18" s="81"/>
+      <c r="BK18" s="81"/>
       <c r="BL18" s="21"/>
       <c r="BM18" s="22"/>
       <c r="BN18" s="20"/>
@@ -5430,38 +5656,52 @@
       <c r="DG18" s="21"/>
       <c r="DH18" s="21"/>
       <c r="DI18" s="21"/>
-      <c r="DJ18" s="24"/>
-      <c r="DK18" s="7"/>
-      <c r="DL18" s="8"/>
-      <c r="DM18" s="8"/>
-      <c r="DN18" s="8"/>
-      <c r="DO18" s="8"/>
-      <c r="DP18" s="8"/>
-      <c r="DQ18" s="9"/>
-      <c r="DR18" s="7"/>
-      <c r="DS18" s="8"/>
-      <c r="DT18" s="8"/>
-      <c r="DU18" s="8"/>
-      <c r="DV18" s="8"/>
-      <c r="DW18" s="8"/>
-      <c r="DX18" s="9"/>
-      <c r="DY18" s="25"/>
-      <c r="DZ18" s="21"/>
-      <c r="EA18" s="21"/>
-      <c r="EB18" s="21"/>
-      <c r="EC18" s="21"/>
-      <c r="ED18" s="21"/>
-      <c r="EE18" s="22"/>
-      <c r="EF18" s="20"/>
-      <c r="EG18" s="21"/>
-      <c r="EH18" s="21"/>
-      <c r="EI18" s="21"/>
-      <c r="EJ18" s="21"/>
-      <c r="EK18" s="21"/>
-      <c r="EL18" s="22"/>
+      <c r="DJ18" s="22"/>
+      <c r="DK18" s="20"/>
+      <c r="DL18" s="21"/>
+      <c r="DM18" s="21"/>
+      <c r="DN18" s="21"/>
+      <c r="DO18" s="21"/>
+      <c r="DP18" s="21"/>
+      <c r="DQ18" s="22"/>
+      <c r="DR18" s="20"/>
+      <c r="DS18" s="21"/>
+      <c r="DT18" s="21"/>
+      <c r="DU18" s="21"/>
+      <c r="DV18" s="21"/>
+      <c r="DW18" s="21"/>
+      <c r="DX18" s="24"/>
+      <c r="DY18" s="7"/>
+      <c r="DZ18" s="8"/>
+      <c r="EA18" s="8"/>
+      <c r="EB18" s="8"/>
+      <c r="EC18" s="8"/>
+      <c r="ED18" s="8"/>
+      <c r="EE18" s="9"/>
+      <c r="EF18" s="7"/>
+      <c r="EG18" s="8"/>
+      <c r="EH18" s="8"/>
+      <c r="EI18" s="8"/>
+      <c r="EJ18" s="8"/>
+      <c r="EK18" s="8"/>
+      <c r="EL18" s="9"/>
+      <c r="EM18" s="25"/>
+      <c r="EN18" s="21"/>
+      <c r="EO18" s="21"/>
+      <c r="EP18" s="21"/>
+      <c r="EQ18" s="21"/>
+      <c r="ER18" s="21"/>
+      <c r="ES18" s="22"/>
+      <c r="ET18" s="20"/>
+      <c r="EU18" s="21"/>
+      <c r="EV18" s="21"/>
+      <c r="EW18" s="21"/>
+      <c r="EX18" s="21"/>
+      <c r="EY18" s="21"/>
+      <c r="EZ18" s="22"/>
     </row>
-    <row r="19" spans="1:142" ht="15" thickBot="1">
-      <c r="A19" s="97"/>
+    <row r="19" spans="1:156" ht="15" thickBot="1">
+      <c r="A19" s="121"/>
       <c r="B19" s="66" t="s">
         <v>30</v>
       </c>
@@ -5472,7 +5712,7 @@
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
       <c r="I19" s="22"/>
-      <c r="J19" s="25"/>
+      <c r="J19" s="20"/>
       <c r="K19" s="21"/>
       <c r="L19" s="21"/>
       <c r="M19" s="21"/>
@@ -5486,7 +5726,7 @@
       <c r="U19" s="21"/>
       <c r="V19" s="21"/>
       <c r="W19" s="22"/>
-      <c r="X19" s="20"/>
+      <c r="X19" s="25"/>
       <c r="Y19" s="21"/>
       <c r="Z19" s="21"/>
       <c r="AA19" s="21"/>
@@ -5499,33 +5739,37 @@
       <c r="AH19" s="21"/>
       <c r="AI19" s="21"/>
       <c r="AJ19" s="21"/>
-      <c r="AK19" s="24"/>
-      <c r="AL19" s="7"/>
-      <c r="AM19" s="8"/>
-      <c r="AN19" s="8"/>
-      <c r="AO19" s="8"/>
-      <c r="AP19" s="8"/>
-      <c r="AQ19" s="8"/>
-      <c r="AR19" s="9"/>
-      <c r="AS19" s="25"/>
+      <c r="AK19" s="22"/>
+      <c r="AL19" s="20"/>
+      <c r="AM19" s="21"/>
+      <c r="AN19" s="21"/>
+      <c r="AO19" s="21"/>
+      <c r="AP19" s="21"/>
+      <c r="AQ19" s="21"/>
+      <c r="AR19" s="22"/>
+      <c r="AS19" s="20"/>
       <c r="AT19" s="21"/>
-      <c r="AU19" s="21"/>
-      <c r="AV19" s="21"/>
+      <c r="AU19" s="23">
+        <v>2</v>
+      </c>
+      <c r="AV19" s="23">
+        <v>3</v>
+      </c>
       <c r="AW19" s="21"/>
       <c r="AX19" s="21"/>
-      <c r="AY19" s="22"/>
-      <c r="AZ19" s="20"/>
-      <c r="BA19" s="21"/>
-      <c r="BB19" s="21"/>
-      <c r="BC19" s="21"/>
-      <c r="BD19" s="21"/>
-      <c r="BE19" s="21"/>
-      <c r="BF19" s="22"/>
-      <c r="BG19" s="20"/>
-      <c r="BH19" s="21"/>
-      <c r="BI19" s="21"/>
-      <c r="BJ19" s="21"/>
-      <c r="BK19" s="21"/>
+      <c r="AY19" s="24"/>
+      <c r="AZ19" s="7"/>
+      <c r="BA19" s="8"/>
+      <c r="BB19" s="8"/>
+      <c r="BC19" s="8"/>
+      <c r="BD19" s="8"/>
+      <c r="BE19" s="8"/>
+      <c r="BF19" s="9"/>
+      <c r="BG19" s="25"/>
+      <c r="BH19" s="81"/>
+      <c r="BI19" s="81"/>
+      <c r="BJ19" s="81"/>
+      <c r="BK19" s="81"/>
       <c r="BL19" s="21"/>
       <c r="BM19" s="22"/>
       <c r="BN19" s="20"/>
@@ -5576,39 +5820,53 @@
       <c r="DG19" s="21"/>
       <c r="DH19" s="21"/>
       <c r="DI19" s="21"/>
-      <c r="DJ19" s="24"/>
-      <c r="DK19" s="7"/>
-      <c r="DL19" s="8"/>
-      <c r="DM19" s="8"/>
-      <c r="DN19" s="8"/>
-      <c r="DO19" s="8"/>
-      <c r="DP19" s="8"/>
-      <c r="DQ19" s="9"/>
-      <c r="DR19" s="7"/>
-      <c r="DS19" s="8"/>
-      <c r="DT19" s="8"/>
-      <c r="DU19" s="8"/>
-      <c r="DV19" s="8"/>
-      <c r="DW19" s="8"/>
-      <c r="DX19" s="9"/>
-      <c r="DY19" s="25"/>
-      <c r="DZ19" s="21"/>
-      <c r="EA19" s="21"/>
-      <c r="EB19" s="21"/>
-      <c r="EC19" s="21"/>
-      <c r="ED19" s="21"/>
-      <c r="EE19" s="22"/>
-      <c r="EF19" s="20"/>
-      <c r="EG19" s="21"/>
-      <c r="EH19" s="21"/>
-      <c r="EI19" s="21"/>
-      <c r="EJ19" s="21"/>
-      <c r="EK19" s="21"/>
-      <c r="EL19" s="22"/>
+      <c r="DJ19" s="22"/>
+      <c r="DK19" s="20"/>
+      <c r="DL19" s="21"/>
+      <c r="DM19" s="21"/>
+      <c r="DN19" s="21"/>
+      <c r="DO19" s="21"/>
+      <c r="DP19" s="21"/>
+      <c r="DQ19" s="22"/>
+      <c r="DR19" s="20"/>
+      <c r="DS19" s="21"/>
+      <c r="DT19" s="21"/>
+      <c r="DU19" s="21"/>
+      <c r="DV19" s="21"/>
+      <c r="DW19" s="21"/>
+      <c r="DX19" s="24"/>
+      <c r="DY19" s="7"/>
+      <c r="DZ19" s="8"/>
+      <c r="EA19" s="8"/>
+      <c r="EB19" s="8"/>
+      <c r="EC19" s="8"/>
+      <c r="ED19" s="8"/>
+      <c r="EE19" s="9"/>
+      <c r="EF19" s="7"/>
+      <c r="EG19" s="8"/>
+      <c r="EH19" s="8"/>
+      <c r="EI19" s="8"/>
+      <c r="EJ19" s="8"/>
+      <c r="EK19" s="8"/>
+      <c r="EL19" s="9"/>
+      <c r="EM19" s="25"/>
+      <c r="EN19" s="21"/>
+      <c r="EO19" s="21"/>
+      <c r="EP19" s="21"/>
+      <c r="EQ19" s="21"/>
+      <c r="ER19" s="21"/>
+      <c r="ES19" s="22"/>
+      <c r="ET19" s="20"/>
+      <c r="EU19" s="21"/>
+      <c r="EV19" s="21"/>
+      <c r="EW19" s="21"/>
+      <c r="EX19" s="21"/>
+      <c r="EY19" s="21"/>
+      <c r="EZ19" s="22"/>
     </row>
-    <row r="20" spans="1:142" ht="15" thickBot="1">
-      <c r="A20" s="91" t="s">
-        <v>96</v>
+    <row r="20" spans="1:156" ht="15" thickBot="1">
+      <c r="A20" s="118" t="s">
+        <v>28</v>
       </c>
       <c r="B20" s="65" t="s">
         <v>29</v>
@@ -5620,7 +5878,7 @@
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
       <c r="I20" s="22"/>
-      <c r="J20" s="25"/>
+      <c r="J20" s="20"/>
       <c r="K20" s="21"/>
       <c r="L20" s="21"/>
       <c r="M20" s="21"/>
@@ -5634,7 +5892,7 @@
       <c r="U20" s="21"/>
       <c r="V20" s="21"/>
       <c r="W20" s="22"/>
-      <c r="X20" s="20"/>
+      <c r="X20" s="25"/>
       <c r="Y20" s="21"/>
       <c r="Z20" s="21"/>
       <c r="AA20" s="21"/>
@@ -5647,46 +5905,45 @@
       <c r="AH20" s="21"/>
       <c r="AI20" s="21"/>
       <c r="AJ20" s="21"/>
-      <c r="AK20" s="24"/>
-      <c r="AL20" s="7"/>
-      <c r="AM20" s="8"/>
-      <c r="AN20" s="8"/>
-      <c r="AO20" s="8"/>
-      <c r="AP20" s="8"/>
-      <c r="AQ20" s="8"/>
-      <c r="AR20" s="9"/>
-      <c r="AS20" s="25"/>
+      <c r="AK20" s="22"/>
+      <c r="AL20" s="20"/>
+      <c r="AM20" s="21"/>
+      <c r="AN20" s="21"/>
+      <c r="AO20" s="21"/>
+      <c r="AP20" s="21"/>
+      <c r="AQ20" s="21"/>
+      <c r="AR20" s="22"/>
+      <c r="AS20" s="20"/>
       <c r="AT20" s="21"/>
-      <c r="AU20" s="21"/>
-      <c r="AV20" s="21"/>
-      <c r="AW20" s="21"/>
+      <c r="AU20" s="81"/>
+      <c r="AV20" s="81"/>
+      <c r="AW20" s="81"/>
       <c r="AX20" s="21"/>
-      <c r="AY20" s="22"/>
-      <c r="AZ20" s="20"/>
-      <c r="BA20" s="21"/>
-      <c r="BB20" s="26">
+      <c r="AY20" s="24"/>
+      <c r="AZ20" s="7"/>
+      <c r="BA20" s="8"/>
+      <c r="BB20" s="8"/>
+      <c r="BC20" s="8"/>
+      <c r="BD20" s="8"/>
+      <c r="BE20" s="8"/>
+      <c r="BF20" s="9"/>
+      <c r="BG20" s="25"/>
+      <c r="BI20" s="83">
         <v>2</v>
       </c>
-      <c r="BC20" s="26">
+      <c r="BJ20" s="83">
         <v>2</v>
       </c>
-      <c r="BD20" s="26">
+      <c r="BK20" s="83">
         <v>2</v>
       </c>
-      <c r="BE20" s="21"/>
-      <c r="BF20" s="22"/>
-      <c r="BG20" s="20"/>
-      <c r="BH20" s="21"/>
-      <c r="BI20" s="21"/>
-      <c r="BJ20" s="21"/>
-      <c r="BK20" s="21"/>
       <c r="BL20" s="21"/>
       <c r="BM20" s="22"/>
       <c r="BN20" s="20"/>
       <c r="BO20" s="21"/>
-      <c r="BP20" s="21"/>
-      <c r="BQ20" s="21"/>
-      <c r="BR20" s="21"/>
+      <c r="BP20" s="81"/>
+      <c r="BQ20" s="81"/>
+      <c r="BR20" s="81"/>
       <c r="BS20" s="21"/>
       <c r="BT20" s="22"/>
       <c r="BU20" s="20"/>
@@ -5730,38 +5987,52 @@
       <c r="DG20" s="21"/>
       <c r="DH20" s="21"/>
       <c r="DI20" s="21"/>
-      <c r="DJ20" s="24"/>
-      <c r="DK20" s="7"/>
-      <c r="DL20" s="8"/>
-      <c r="DM20" s="8"/>
-      <c r="DN20" s="8"/>
-      <c r="DO20" s="8"/>
-      <c r="DP20" s="8"/>
-      <c r="DQ20" s="9"/>
-      <c r="DR20" s="7"/>
-      <c r="DS20" s="8"/>
-      <c r="DT20" s="8"/>
-      <c r="DU20" s="8"/>
-      <c r="DV20" s="8"/>
-      <c r="DW20" s="8"/>
-      <c r="DX20" s="9"/>
-      <c r="DY20" s="25"/>
-      <c r="DZ20" s="21"/>
-      <c r="EA20" s="21"/>
-      <c r="EB20" s="21"/>
-      <c r="EC20" s="21"/>
-      <c r="ED20" s="21"/>
-      <c r="EE20" s="22"/>
-      <c r="EF20" s="20"/>
-      <c r="EG20" s="21"/>
-      <c r="EH20" s="21"/>
-      <c r="EI20" s="21"/>
-      <c r="EJ20" s="21"/>
-      <c r="EK20" s="21"/>
-      <c r="EL20" s="22"/>
+      <c r="DJ20" s="22"/>
+      <c r="DK20" s="20"/>
+      <c r="DL20" s="21"/>
+      <c r="DM20" s="21"/>
+      <c r="DN20" s="21"/>
+      <c r="DO20" s="21"/>
+      <c r="DP20" s="21"/>
+      <c r="DQ20" s="22"/>
+      <c r="DR20" s="20"/>
+      <c r="DS20" s="21"/>
+      <c r="DT20" s="21"/>
+      <c r="DU20" s="21"/>
+      <c r="DV20" s="21"/>
+      <c r="DW20" s="21"/>
+      <c r="DX20" s="24"/>
+      <c r="DY20" s="7"/>
+      <c r="DZ20" s="8"/>
+      <c r="EA20" s="8"/>
+      <c r="EB20" s="8"/>
+      <c r="EC20" s="8"/>
+      <c r="ED20" s="8"/>
+      <c r="EE20" s="9"/>
+      <c r="EF20" s="7"/>
+      <c r="EG20" s="8"/>
+      <c r="EH20" s="8"/>
+      <c r="EI20" s="8"/>
+      <c r="EJ20" s="8"/>
+      <c r="EK20" s="8"/>
+      <c r="EL20" s="9"/>
+      <c r="EM20" s="25"/>
+      <c r="EN20" s="21"/>
+      <c r="EO20" s="21"/>
+      <c r="EP20" s="21"/>
+      <c r="EQ20" s="21"/>
+      <c r="ER20" s="21"/>
+      <c r="ES20" s="22"/>
+      <c r="ET20" s="20"/>
+      <c r="EU20" s="21"/>
+      <c r="EV20" s="21"/>
+      <c r="EW20" s="21"/>
+      <c r="EX20" s="21"/>
+      <c r="EY20" s="21"/>
+      <c r="EZ20" s="22"/>
     </row>
-    <row r="21" spans="1:142" ht="15" thickBot="1">
-      <c r="A21" s="97"/>
+    <row r="21" spans="1:156" ht="15" thickBot="1">
+      <c r="A21" s="124"/>
       <c r="B21" s="66" t="s">
         <v>30</v>
       </c>
@@ -5772,7 +6043,7 @@
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
       <c r="I21" s="22"/>
-      <c r="J21" s="25"/>
+      <c r="J21" s="20"/>
       <c r="K21" s="21"/>
       <c r="L21" s="21"/>
       <c r="M21" s="21"/>
@@ -5786,7 +6057,7 @@
       <c r="U21" s="21"/>
       <c r="V21" s="21"/>
       <c r="W21" s="22"/>
-      <c r="X21" s="20"/>
+      <c r="X21" s="25"/>
       <c r="Y21" s="21"/>
       <c r="Z21" s="21"/>
       <c r="AA21" s="21"/>
@@ -5799,40 +6070,42 @@
       <c r="AH21" s="21"/>
       <c r="AI21" s="21"/>
       <c r="AJ21" s="21"/>
-      <c r="AK21" s="24"/>
-      <c r="AL21" s="7"/>
-      <c r="AM21" s="8"/>
-      <c r="AN21" s="8"/>
-      <c r="AO21" s="8"/>
-      <c r="AP21" s="8"/>
-      <c r="AQ21" s="8"/>
-      <c r="AR21" s="9"/>
-      <c r="AS21" s="25"/>
+      <c r="AK21" s="22"/>
+      <c r="AL21" s="20"/>
+      <c r="AM21" s="21"/>
+      <c r="AN21" s="21"/>
+      <c r="AO21" s="21"/>
+      <c r="AP21" s="21"/>
+      <c r="AQ21" s="21"/>
+      <c r="AR21" s="22"/>
+      <c r="AS21" s="20"/>
       <c r="AT21" s="21"/>
       <c r="AU21" s="21"/>
       <c r="AV21" s="21"/>
       <c r="AW21" s="21"/>
       <c r="AX21" s="21"/>
-      <c r="AY21" s="22"/>
-      <c r="AZ21" s="20"/>
-      <c r="BA21" s="21"/>
-      <c r="BB21" s="21"/>
-      <c r="BC21" s="21"/>
-      <c r="BD21" s="21"/>
-      <c r="BE21" s="21"/>
-      <c r="BF21" s="22"/>
-      <c r="BG21" s="20"/>
+      <c r="AY21" s="24"/>
+      <c r="AZ21" s="7"/>
+      <c r="BA21" s="8"/>
+      <c r="BB21" s="8"/>
+      <c r="BC21" s="8"/>
+      <c r="BD21" s="8"/>
+      <c r="BE21" s="8"/>
+      <c r="BF21" s="9"/>
+      <c r="BG21" s="25"/>
       <c r="BH21" s="21"/>
       <c r="BI21" s="21"/>
       <c r="BJ21" s="21"/>
-      <c r="BK21" s="21"/>
+      <c r="BK21" s="23">
+        <v>4</v>
+      </c>
       <c r="BL21" s="21"/>
       <c r="BM21" s="22"/>
       <c r="BN21" s="20"/>
       <c r="BO21" s="21"/>
-      <c r="BP21" s="21"/>
-      <c r="BQ21" s="21"/>
-      <c r="BR21" s="21"/>
+      <c r="BP21" s="81"/>
+      <c r="BQ21" s="81"/>
+      <c r="BR21" s="81"/>
       <c r="BS21" s="21"/>
       <c r="BT21" s="22"/>
       <c r="BU21" s="20"/>
@@ -5876,39 +6149,53 @@
       <c r="DG21" s="21"/>
       <c r="DH21" s="21"/>
       <c r="DI21" s="21"/>
-      <c r="DJ21" s="24"/>
-      <c r="DK21" s="7"/>
-      <c r="DL21" s="8"/>
-      <c r="DM21" s="8"/>
-      <c r="DN21" s="8"/>
-      <c r="DO21" s="8"/>
-      <c r="DP21" s="8"/>
-      <c r="DQ21" s="9"/>
-      <c r="DR21" s="7"/>
-      <c r="DS21" s="8"/>
-      <c r="DT21" s="8"/>
-      <c r="DU21" s="8"/>
-      <c r="DV21" s="8"/>
-      <c r="DW21" s="8"/>
-      <c r="DX21" s="9"/>
-      <c r="DY21" s="25"/>
-      <c r="DZ21" s="21"/>
-      <c r="EA21" s="21"/>
-      <c r="EB21" s="21"/>
-      <c r="EC21" s="21"/>
-      <c r="ED21" s="21"/>
-      <c r="EE21" s="22"/>
-      <c r="EF21" s="20"/>
-      <c r="EG21" s="21"/>
-      <c r="EH21" s="21"/>
-      <c r="EI21" s="21"/>
-      <c r="EJ21" s="21"/>
-      <c r="EK21" s="21"/>
-      <c r="EL21" s="22"/>
+      <c r="DJ21" s="22"/>
+      <c r="DK21" s="20"/>
+      <c r="DL21" s="21"/>
+      <c r="DM21" s="21"/>
+      <c r="DN21" s="21"/>
+      <c r="DO21" s="21"/>
+      <c r="DP21" s="21"/>
+      <c r="DQ21" s="22"/>
+      <c r="DR21" s="20"/>
+      <c r="DS21" s="21"/>
+      <c r="DT21" s="21"/>
+      <c r="DU21" s="21"/>
+      <c r="DV21" s="21"/>
+      <c r="DW21" s="21"/>
+      <c r="DX21" s="24"/>
+      <c r="DY21" s="7"/>
+      <c r="DZ21" s="8"/>
+      <c r="EA21" s="8"/>
+      <c r="EB21" s="8"/>
+      <c r="EC21" s="8"/>
+      <c r="ED21" s="8"/>
+      <c r="EE21" s="9"/>
+      <c r="EF21" s="7"/>
+      <c r="EG21" s="8"/>
+      <c r="EH21" s="8"/>
+      <c r="EI21" s="8"/>
+      <c r="EJ21" s="8"/>
+      <c r="EK21" s="8"/>
+      <c r="EL21" s="9"/>
+      <c r="EM21" s="25"/>
+      <c r="EN21" s="21"/>
+      <c r="EO21" s="21"/>
+      <c r="EP21" s="21"/>
+      <c r="EQ21" s="21"/>
+      <c r="ER21" s="21"/>
+      <c r="ES21" s="22"/>
+      <c r="ET21" s="20"/>
+      <c r="EU21" s="21"/>
+      <c r="EV21" s="21"/>
+      <c r="EW21" s="21"/>
+      <c r="EX21" s="21"/>
+      <c r="EY21" s="21"/>
+      <c r="EZ21" s="22"/>
     </row>
-    <row r="22" spans="1:142" ht="15" thickBot="1">
-      <c r="A22" s="93" t="s">
-        <v>83</v>
+    <row r="22" spans="1:156" ht="15" thickBot="1">
+      <c r="A22" s="118" t="s">
+        <v>94</v>
       </c>
       <c r="B22" s="65" t="s">
         <v>29</v>
@@ -5920,7 +6207,7 @@
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
       <c r="I22" s="22"/>
-      <c r="J22" s="25"/>
+      <c r="J22" s="20"/>
       <c r="K22" s="21"/>
       <c r="L22" s="21"/>
       <c r="M22" s="21"/>
@@ -5934,7 +6221,7 @@
       <c r="U22" s="21"/>
       <c r="V22" s="21"/>
       <c r="W22" s="22"/>
-      <c r="X22" s="20"/>
+      <c r="X22" s="25"/>
       <c r="Y22" s="21"/>
       <c r="Z22" s="21"/>
       <c r="AA22" s="21"/>
@@ -5947,53 +6234,49 @@
       <c r="AH22" s="21"/>
       <c r="AI22" s="21"/>
       <c r="AJ22" s="21"/>
-      <c r="AK22" s="24"/>
-      <c r="AL22" s="7"/>
-      <c r="AM22" s="8"/>
-      <c r="AN22" s="8"/>
-      <c r="AO22" s="8"/>
-      <c r="AP22" s="8"/>
-      <c r="AQ22" s="8"/>
-      <c r="AR22" s="9"/>
-      <c r="AS22" s="25"/>
+      <c r="AK22" s="22"/>
+      <c r="AL22" s="20"/>
+      <c r="AM22" s="21"/>
+      <c r="AN22" s="21"/>
+      <c r="AO22" s="21"/>
+      <c r="AP22" s="21"/>
+      <c r="AQ22" s="21"/>
+      <c r="AR22" s="22"/>
+      <c r="AS22" s="20"/>
       <c r="AT22" s="21"/>
       <c r="AU22" s="21"/>
       <c r="AV22" s="21"/>
       <c r="AW22" s="21"/>
       <c r="AX22" s="21"/>
-      <c r="AY22" s="22"/>
-      <c r="AZ22" s="20"/>
-      <c r="BA22" s="21"/>
-      <c r="BB22" s="21"/>
-      <c r="BC22" s="21"/>
-      <c r="BD22" s="21"/>
-      <c r="BE22" s="21"/>
-      <c r="BF22" s="22"/>
-      <c r="BG22" s="20"/>
+      <c r="AY22" s="24"/>
+      <c r="AZ22" s="7"/>
+      <c r="BA22" s="8"/>
+      <c r="BB22" s="8"/>
+      <c r="BC22" s="8"/>
+      <c r="BD22" s="8"/>
+      <c r="BE22" s="8"/>
+      <c r="BF22" s="9"/>
+      <c r="BG22" s="25"/>
       <c r="BH22" s="21"/>
-      <c r="BI22" s="26">
-        <v>4</v>
-      </c>
-      <c r="BJ22" s="26">
-        <v>2</v>
-      </c>
-      <c r="BK22" s="26">
-        <v>2</v>
-      </c>
+      <c r="BI22" s="21"/>
+      <c r="BJ22" s="21"/>
+      <c r="BK22" s="21"/>
       <c r="BL22" s="21"/>
       <c r="BM22" s="22"/>
       <c r="BN22" s="20"/>
-      <c r="BO22" s="21"/>
-      <c r="BP22" s="21"/>
-      <c r="BQ22" s="21"/>
-      <c r="BR22" s="21"/>
+      <c r="BO22" s="83">
+        <v>1</v>
+      </c>
+      <c r="BP22" s="63"/>
+      <c r="BQ22" s="72"/>
+      <c r="BR22" s="72"/>
       <c r="BS22" s="21"/>
       <c r="BT22" s="22"/>
       <c r="BU22" s="20"/>
-      <c r="BV22" s="21"/>
-      <c r="BW22" s="21"/>
-      <c r="BX22" s="21"/>
-      <c r="BY22" s="21"/>
+      <c r="BV22" s="81"/>
+      <c r="BW22" s="81"/>
+      <c r="BX22" s="81"/>
+      <c r="BY22" s="81"/>
       <c r="BZ22" s="21"/>
       <c r="CA22" s="22"/>
       <c r="CB22" s="20"/>
@@ -6030,38 +6313,52 @@
       <c r="DG22" s="21"/>
       <c r="DH22" s="21"/>
       <c r="DI22" s="21"/>
-      <c r="DJ22" s="24"/>
-      <c r="DK22" s="7"/>
-      <c r="DL22" s="8"/>
-      <c r="DM22" s="8"/>
-      <c r="DN22" s="8"/>
-      <c r="DO22" s="8"/>
-      <c r="DP22" s="8"/>
-      <c r="DQ22" s="9"/>
-      <c r="DR22" s="7"/>
-      <c r="DS22" s="8"/>
-      <c r="DT22" s="8"/>
-      <c r="DU22" s="8"/>
-      <c r="DV22" s="8"/>
-      <c r="DW22" s="8"/>
-      <c r="DX22" s="9"/>
-      <c r="DY22" s="25"/>
-      <c r="DZ22" s="21"/>
-      <c r="EA22" s="21"/>
-      <c r="EB22" s="21"/>
-      <c r="EC22" s="21"/>
-      <c r="ED22" s="21"/>
-      <c r="EE22" s="22"/>
-      <c r="EF22" s="20"/>
-      <c r="EG22" s="21"/>
-      <c r="EH22" s="21"/>
-      <c r="EI22" s="21"/>
-      <c r="EJ22" s="21"/>
-      <c r="EK22" s="21"/>
-      <c r="EL22" s="22"/>
+      <c r="DJ22" s="22"/>
+      <c r="DK22" s="20"/>
+      <c r="DL22" s="21"/>
+      <c r="DM22" s="21"/>
+      <c r="DN22" s="21"/>
+      <c r="DO22" s="21"/>
+      <c r="DP22" s="21"/>
+      <c r="DQ22" s="22"/>
+      <c r="DR22" s="20"/>
+      <c r="DS22" s="21"/>
+      <c r="DT22" s="21"/>
+      <c r="DU22" s="21"/>
+      <c r="DV22" s="21"/>
+      <c r="DW22" s="21"/>
+      <c r="DX22" s="24"/>
+      <c r="DY22" s="7"/>
+      <c r="DZ22" s="8"/>
+      <c r="EA22" s="8"/>
+      <c r="EB22" s="8"/>
+      <c r="EC22" s="8"/>
+      <c r="ED22" s="8"/>
+      <c r="EE22" s="9"/>
+      <c r="EF22" s="7"/>
+      <c r="EG22" s="8"/>
+      <c r="EH22" s="8"/>
+      <c r="EI22" s="8"/>
+      <c r="EJ22" s="8"/>
+      <c r="EK22" s="8"/>
+      <c r="EL22" s="9"/>
+      <c r="EM22" s="25"/>
+      <c r="EN22" s="21"/>
+      <c r="EO22" s="21"/>
+      <c r="EP22" s="21"/>
+      <c r="EQ22" s="21"/>
+      <c r="ER22" s="21"/>
+      <c r="ES22" s="22"/>
+      <c r="ET22" s="20"/>
+      <c r="EU22" s="21"/>
+      <c r="EV22" s="21"/>
+      <c r="EW22" s="21"/>
+      <c r="EX22" s="21"/>
+      <c r="EY22" s="21"/>
+      <c r="EZ22" s="22"/>
     </row>
-    <row r="23" spans="1:142" ht="15" thickBot="1">
-      <c r="A23" s="94"/>
+    <row r="23" spans="1:156" ht="15" thickBot="1">
+      <c r="A23" s="124"/>
       <c r="B23" s="66" t="s">
         <v>30</v>
       </c>
@@ -6072,7 +6369,7 @@
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="I23" s="22"/>
-      <c r="J23" s="25"/>
+      <c r="J23" s="20"/>
       <c r="K23" s="21"/>
       <c r="L23" s="21"/>
       <c r="M23" s="21"/>
@@ -6086,7 +6383,7 @@
       <c r="U23" s="21"/>
       <c r="V23" s="21"/>
       <c r="W23" s="22"/>
-      <c r="X23" s="20"/>
+      <c r="X23" s="25"/>
       <c r="Y23" s="21"/>
       <c r="Z23" s="21"/>
       <c r="AA23" s="21"/>
@@ -6099,55 +6396,49 @@
       <c r="AH23" s="21"/>
       <c r="AI23" s="21"/>
       <c r="AJ23" s="21"/>
-      <c r="AK23" s="24"/>
-      <c r="AL23" s="7"/>
-      <c r="AM23" s="8"/>
-      <c r="AN23" s="8"/>
-      <c r="AO23" s="8"/>
-      <c r="AP23" s="8"/>
-      <c r="AQ23" s="8"/>
-      <c r="AR23" s="9"/>
-      <c r="AS23" s="25"/>
+      <c r="AK23" s="22"/>
+      <c r="AL23" s="20"/>
+      <c r="AM23" s="21"/>
+      <c r="AN23" s="21"/>
+      <c r="AO23" s="21"/>
+      <c r="AP23" s="21"/>
+      <c r="AQ23" s="21"/>
+      <c r="AR23" s="22"/>
+      <c r="AS23" s="20"/>
       <c r="AT23" s="21"/>
       <c r="AU23" s="21"/>
       <c r="AV23" s="21"/>
       <c r="AW23" s="21"/>
       <c r="AX23" s="21"/>
-      <c r="AY23" s="22"/>
-      <c r="AZ23" s="20"/>
-      <c r="BA23" s="21"/>
-      <c r="BB23" s="21"/>
-      <c r="BC23" s="21"/>
-      <c r="BD23" s="21"/>
-      <c r="BE23" s="21"/>
-      <c r="BF23" s="22"/>
-      <c r="BG23" s="20"/>
+      <c r="AY23" s="24"/>
+      <c r="AZ23" s="7"/>
+      <c r="BA23" s="8"/>
+      <c r="BB23" s="8"/>
+      <c r="BC23" s="8"/>
+      <c r="BD23" s="8"/>
+      <c r="BE23" s="8"/>
+      <c r="BF23" s="9"/>
+      <c r="BG23" s="25"/>
       <c r="BH23" s="21"/>
-      <c r="BI23" s="23">
-        <v>2</v>
-      </c>
-      <c r="BJ23" s="23">
-        <v>4</v>
-      </c>
-      <c r="BK23" s="23">
-        <v>4</v>
-      </c>
+      <c r="BI23" s="21"/>
+      <c r="BJ23" s="21"/>
+      <c r="BK23" s="21"/>
       <c r="BL23" s="21"/>
       <c r="BM23" s="22"/>
       <c r="BN23" s="20"/>
-      <c r="BO23" s="21"/>
-      <c r="BP23" s="23">
+      <c r="BO23" s="23">
         <v>1</v>
       </c>
+      <c r="BP23" s="21"/>
       <c r="BQ23" s="21"/>
       <c r="BR23" s="21"/>
       <c r="BS23" s="21"/>
       <c r="BT23" s="22"/>
       <c r="BU23" s="20"/>
-      <c r="BV23" s="21"/>
-      <c r="BW23" s="21"/>
-      <c r="BX23" s="21"/>
-      <c r="BY23" s="21"/>
+      <c r="BV23" s="81"/>
+      <c r="BW23" s="81"/>
+      <c r="BX23" s="81"/>
+      <c r="BY23" s="81"/>
       <c r="BZ23" s="21"/>
       <c r="CA23" s="22"/>
       <c r="CB23" s="20"/>
@@ -6184,39 +6475,53 @@
       <c r="DG23" s="21"/>
       <c r="DH23" s="21"/>
       <c r="DI23" s="21"/>
-      <c r="DJ23" s="24"/>
-      <c r="DK23" s="7"/>
-      <c r="DL23" s="8"/>
-      <c r="DM23" s="8"/>
-      <c r="DN23" s="8"/>
-      <c r="DO23" s="8"/>
-      <c r="DP23" s="8"/>
-      <c r="DQ23" s="9"/>
-      <c r="DR23" s="7"/>
-      <c r="DS23" s="8"/>
-      <c r="DT23" s="8"/>
-      <c r="DU23" s="8"/>
-      <c r="DV23" s="8"/>
-      <c r="DW23" s="8"/>
-      <c r="DX23" s="9"/>
-      <c r="DY23" s="25"/>
-      <c r="DZ23" s="21"/>
-      <c r="EA23" s="21"/>
-      <c r="EB23" s="21"/>
-      <c r="EC23" s="21"/>
-      <c r="ED23" s="21"/>
-      <c r="EE23" s="22"/>
-      <c r="EF23" s="20"/>
-      <c r="EG23" s="21"/>
-      <c r="EH23" s="21"/>
-      <c r="EI23" s="21"/>
-      <c r="EJ23" s="21"/>
-      <c r="EK23" s="21"/>
-      <c r="EL23" s="22"/>
+      <c r="DJ23" s="22"/>
+      <c r="DK23" s="20"/>
+      <c r="DL23" s="21"/>
+      <c r="DM23" s="21"/>
+      <c r="DN23" s="21"/>
+      <c r="DO23" s="21"/>
+      <c r="DP23" s="21"/>
+      <c r="DQ23" s="22"/>
+      <c r="DR23" s="20"/>
+      <c r="DS23" s="21"/>
+      <c r="DT23" s="21"/>
+      <c r="DU23" s="21"/>
+      <c r="DV23" s="21"/>
+      <c r="DW23" s="21"/>
+      <c r="DX23" s="24"/>
+      <c r="DY23" s="7"/>
+      <c r="DZ23" s="8"/>
+      <c r="EA23" s="8"/>
+      <c r="EB23" s="8"/>
+      <c r="EC23" s="8"/>
+      <c r="ED23" s="8"/>
+      <c r="EE23" s="9"/>
+      <c r="EF23" s="7"/>
+      <c r="EG23" s="8"/>
+      <c r="EH23" s="8"/>
+      <c r="EI23" s="8"/>
+      <c r="EJ23" s="8"/>
+      <c r="EK23" s="8"/>
+      <c r="EL23" s="9"/>
+      <c r="EM23" s="25"/>
+      <c r="EN23" s="21"/>
+      <c r="EO23" s="21"/>
+      <c r="EP23" s="21"/>
+      <c r="EQ23" s="21"/>
+      <c r="ER23" s="21"/>
+      <c r="ES23" s="22"/>
+      <c r="ET23" s="20"/>
+      <c r="EU23" s="21"/>
+      <c r="EV23" s="21"/>
+      <c r="EW23" s="21"/>
+      <c r="EX23" s="21"/>
+      <c r="EY23" s="21"/>
+      <c r="EZ23" s="22"/>
     </row>
-    <row r="24" spans="1:142" ht="15" thickBot="1">
-      <c r="A24" s="76" t="s">
-        <v>84</v>
+    <row r="24" spans="1:156" ht="15" thickBot="1">
+      <c r="A24" s="118" t="s">
+        <v>95</v>
       </c>
       <c r="B24" s="65" t="s">
         <v>29</v>
@@ -6228,7 +6533,7 @@
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
       <c r="I24" s="22"/>
-      <c r="J24" s="25"/>
+      <c r="J24" s="20"/>
       <c r="K24" s="21"/>
       <c r="L24" s="21"/>
       <c r="M24" s="21"/>
@@ -6242,7 +6547,7 @@
       <c r="U24" s="21"/>
       <c r="V24" s="21"/>
       <c r="W24" s="22"/>
-      <c r="X24" s="20"/>
+      <c r="X24" s="25"/>
       <c r="Y24" s="21"/>
       <c r="Z24" s="21"/>
       <c r="AA24" s="21"/>
@@ -6255,51 +6560,51 @@
       <c r="AH24" s="21"/>
       <c r="AI24" s="21"/>
       <c r="AJ24" s="21"/>
-      <c r="AK24" s="24"/>
-      <c r="AL24" s="7"/>
-      <c r="AM24" s="8"/>
-      <c r="AN24" s="8"/>
-      <c r="AO24" s="8"/>
-      <c r="AP24" s="8"/>
-      <c r="AQ24" s="8"/>
-      <c r="AR24" s="9"/>
-      <c r="AS24" s="25"/>
+      <c r="AK24" s="22"/>
+      <c r="AL24" s="20"/>
+      <c r="AM24" s="21"/>
+      <c r="AN24" s="21"/>
+      <c r="AO24" s="21"/>
+      <c r="AP24" s="21"/>
+      <c r="AQ24" s="21"/>
+      <c r="AR24" s="22"/>
+      <c r="AS24" s="20"/>
       <c r="AT24" s="21"/>
       <c r="AU24" s="21"/>
       <c r="AV24" s="21"/>
       <c r="AW24" s="21"/>
       <c r="AX24" s="21"/>
-      <c r="AY24" s="22"/>
-      <c r="AZ24" s="20"/>
-      <c r="BA24" s="21"/>
-      <c r="BB24" s="21"/>
-      <c r="BC24" s="21"/>
-      <c r="BD24" s="21"/>
-      <c r="BE24" s="21"/>
-      <c r="BF24" s="22"/>
-      <c r="BG24" s="20"/>
+      <c r="AY24" s="24"/>
+      <c r="AZ24" s="7"/>
+      <c r="BA24" s="8"/>
+      <c r="BB24" s="8"/>
+      <c r="BC24" s="8"/>
+      <c r="BD24" s="8"/>
+      <c r="BE24" s="8"/>
+      <c r="BF24" s="9"/>
+      <c r="BG24" s="25"/>
       <c r="BH24" s="21"/>
       <c r="BI24" s="21"/>
       <c r="BJ24" s="21"/>
-      <c r="BK24" s="26">
-        <v>10</v>
-      </c>
-      <c r="BL24" s="26">
-        <v>7</v>
-      </c>
+      <c r="BK24" s="21"/>
+      <c r="BL24" s="21"/>
       <c r="BM24" s="22"/>
       <c r="BN24" s="20"/>
       <c r="BO24" s="21"/>
-      <c r="BP24" s="21"/>
-      <c r="BQ24" s="21"/>
+      <c r="BP24" s="26">
+        <v>2</v>
+      </c>
+      <c r="BQ24" s="26">
+        <v>2</v>
+      </c>
       <c r="BR24" s="21"/>
       <c r="BS24" s="21"/>
       <c r="BT24" s="22"/>
       <c r="BU24" s="20"/>
-      <c r="BV24" s="21"/>
-      <c r="BW24" s="21"/>
-      <c r="BX24" s="21"/>
-      <c r="BY24" s="21"/>
+      <c r="BV24" s="81"/>
+      <c r="BW24" s="81"/>
+      <c r="BX24" s="81"/>
+      <c r="BY24" s="81"/>
       <c r="BZ24" s="21"/>
       <c r="CA24" s="22"/>
       <c r="CB24" s="20"/>
@@ -6336,38 +6641,52 @@
       <c r="DG24" s="21"/>
       <c r="DH24" s="21"/>
       <c r="DI24" s="21"/>
-      <c r="DJ24" s="24"/>
-      <c r="DK24" s="7"/>
-      <c r="DL24" s="8"/>
-      <c r="DM24" s="8"/>
-      <c r="DN24" s="8"/>
-      <c r="DO24" s="8"/>
-      <c r="DP24" s="8"/>
-      <c r="DQ24" s="9"/>
-      <c r="DR24" s="7"/>
-      <c r="DS24" s="8"/>
-      <c r="DT24" s="8"/>
-      <c r="DU24" s="8"/>
-      <c r="DV24" s="8"/>
-      <c r="DW24" s="8"/>
-      <c r="DX24" s="9"/>
-      <c r="DY24" s="25"/>
-      <c r="DZ24" s="21"/>
-      <c r="EA24" s="21"/>
-      <c r="EB24" s="21"/>
-      <c r="EC24" s="21"/>
-      <c r="ED24" s="21"/>
-      <c r="EE24" s="22"/>
-      <c r="EF24" s="20"/>
-      <c r="EG24" s="21"/>
-      <c r="EH24" s="21"/>
-      <c r="EI24" s="21"/>
-      <c r="EJ24" s="21"/>
-      <c r="EK24" s="21"/>
-      <c r="EL24" s="22"/>
+      <c r="DJ24" s="22"/>
+      <c r="DK24" s="20"/>
+      <c r="DL24" s="21"/>
+      <c r="DM24" s="21"/>
+      <c r="DN24" s="21"/>
+      <c r="DO24" s="21"/>
+      <c r="DP24" s="21"/>
+      <c r="DQ24" s="22"/>
+      <c r="DR24" s="20"/>
+      <c r="DS24" s="21"/>
+      <c r="DT24" s="21"/>
+      <c r="DU24" s="21"/>
+      <c r="DV24" s="21"/>
+      <c r="DW24" s="21"/>
+      <c r="DX24" s="24"/>
+      <c r="DY24" s="7"/>
+      <c r="DZ24" s="8"/>
+      <c r="EA24" s="8"/>
+      <c r="EB24" s="8"/>
+      <c r="EC24" s="8"/>
+      <c r="ED24" s="8"/>
+      <c r="EE24" s="9"/>
+      <c r="EF24" s="7"/>
+      <c r="EG24" s="8"/>
+      <c r="EH24" s="8"/>
+      <c r="EI24" s="8"/>
+      <c r="EJ24" s="8"/>
+      <c r="EK24" s="8"/>
+      <c r="EL24" s="9"/>
+      <c r="EM24" s="25"/>
+      <c r="EN24" s="21"/>
+      <c r="EO24" s="21"/>
+      <c r="EP24" s="21"/>
+      <c r="EQ24" s="21"/>
+      <c r="ER24" s="21"/>
+      <c r="ES24" s="22"/>
+      <c r="ET24" s="20"/>
+      <c r="EU24" s="21"/>
+      <c r="EV24" s="21"/>
+      <c r="EW24" s="21"/>
+      <c r="EX24" s="21"/>
+      <c r="EY24" s="21"/>
+      <c r="EZ24" s="22"/>
     </row>
-    <row r="25" spans="1:142" ht="15" thickBot="1">
-      <c r="A25" s="77"/>
+    <row r="25" spans="1:156" ht="15" thickBot="1">
+      <c r="A25" s="124"/>
       <c r="B25" s="66" t="s">
         <v>30</v>
       </c>
@@ -6378,7 +6697,7 @@
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
       <c r="I25" s="22"/>
-      <c r="J25" s="25"/>
+      <c r="J25" s="20"/>
       <c r="K25" s="21"/>
       <c r="L25" s="21"/>
       <c r="M25" s="21"/>
@@ -6392,7 +6711,7 @@
       <c r="U25" s="21"/>
       <c r="V25" s="21"/>
       <c r="W25" s="22"/>
-      <c r="X25" s="20"/>
+      <c r="X25" s="25"/>
       <c r="Y25" s="21"/>
       <c r="Z25" s="21"/>
       <c r="AA25" s="21"/>
@@ -6405,48 +6724,46 @@
       <c r="AH25" s="21"/>
       <c r="AI25" s="21"/>
       <c r="AJ25" s="21"/>
-      <c r="AK25" s="24"/>
-      <c r="AL25" s="7"/>
-      <c r="AM25" s="8"/>
-      <c r="AN25" s="8"/>
-      <c r="AO25" s="8"/>
-      <c r="AP25" s="8"/>
-      <c r="AQ25" s="8"/>
-      <c r="AR25" s="9"/>
-      <c r="AS25" s="25"/>
+      <c r="AK25" s="22"/>
+      <c r="AL25" s="20"/>
+      <c r="AM25" s="21"/>
+      <c r="AN25" s="21"/>
+      <c r="AO25" s="21"/>
+      <c r="AP25" s="21"/>
+      <c r="AQ25" s="21"/>
+      <c r="AR25" s="22"/>
+      <c r="AS25" s="20"/>
       <c r="AT25" s="21"/>
       <c r="AU25" s="21"/>
       <c r="AV25" s="21"/>
       <c r="AW25" s="21"/>
       <c r="AX25" s="21"/>
-      <c r="AY25" s="22"/>
-      <c r="AZ25" s="20"/>
-      <c r="BA25" s="21"/>
-      <c r="BB25" s="21"/>
-      <c r="BC25" s="21"/>
-      <c r="BD25" s="21"/>
-      <c r="BE25" s="21"/>
-      <c r="BF25" s="22"/>
-      <c r="BG25" s="20"/>
+      <c r="AY25" s="24"/>
+      <c r="AZ25" s="7"/>
+      <c r="BA25" s="8"/>
+      <c r="BB25" s="8"/>
+      <c r="BC25" s="8"/>
+      <c r="BD25" s="8"/>
+      <c r="BE25" s="8"/>
+      <c r="BF25" s="9"/>
+      <c r="BG25" s="25"/>
       <c r="BH25" s="21"/>
       <c r="BI25" s="21"/>
       <c r="BJ25" s="21"/>
-      <c r="BK25" s="23">
-        <v>10</v>
-      </c>
-      <c r="BL25" s="23">
-        <v>7</v>
-      </c>
+      <c r="BK25" s="21"/>
+      <c r="BL25" s="21"/>
       <c r="BM25" s="22"/>
       <c r="BN25" s="20"/>
       <c r="BO25" s="21"/>
       <c r="BP25" s="23">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="BQ25" s="23">
-        <v>5</v>
-      </c>
-      <c r="BR25" s="21"/>
+        <v>3</v>
+      </c>
+      <c r="BR25" s="23">
+        <v>1</v>
+      </c>
       <c r="BS25" s="21"/>
       <c r="BT25" s="22"/>
       <c r="BU25" s="20"/>
@@ -6490,39 +6807,53 @@
       <c r="DG25" s="21"/>
       <c r="DH25" s="21"/>
       <c r="DI25" s="21"/>
-      <c r="DJ25" s="24"/>
-      <c r="DK25" s="7"/>
-      <c r="DL25" s="8"/>
-      <c r="DM25" s="8"/>
-      <c r="DN25" s="8"/>
-      <c r="DO25" s="8"/>
-      <c r="DP25" s="8"/>
-      <c r="DQ25" s="9"/>
-      <c r="DR25" s="7"/>
-      <c r="DS25" s="8"/>
-      <c r="DT25" s="8"/>
-      <c r="DU25" s="8"/>
-      <c r="DV25" s="8"/>
-      <c r="DW25" s="8"/>
-      <c r="DX25" s="9"/>
-      <c r="DY25" s="25"/>
-      <c r="DZ25" s="21"/>
-      <c r="EA25" s="21"/>
-      <c r="EB25" s="21"/>
-      <c r="EC25" s="21"/>
-      <c r="ED25" s="21"/>
-      <c r="EE25" s="22"/>
-      <c r="EF25" s="20"/>
-      <c r="EG25" s="21"/>
-      <c r="EH25" s="21"/>
-      <c r="EI25" s="21"/>
-      <c r="EJ25" s="21"/>
-      <c r="EK25" s="21"/>
-      <c r="EL25" s="22"/>
+      <c r="DJ25" s="22"/>
+      <c r="DK25" s="20"/>
+      <c r="DL25" s="21"/>
+      <c r="DM25" s="21"/>
+      <c r="DN25" s="21"/>
+      <c r="DO25" s="21"/>
+      <c r="DP25" s="21"/>
+      <c r="DQ25" s="22"/>
+      <c r="DR25" s="20"/>
+      <c r="DS25" s="21"/>
+      <c r="DT25" s="21"/>
+      <c r="DU25" s="21"/>
+      <c r="DV25" s="21"/>
+      <c r="DW25" s="21"/>
+      <c r="DX25" s="24"/>
+      <c r="DY25" s="7"/>
+      <c r="DZ25" s="8"/>
+      <c r="EA25" s="8"/>
+      <c r="EB25" s="8"/>
+      <c r="EC25" s="8"/>
+      <c r="ED25" s="8"/>
+      <c r="EE25" s="9"/>
+      <c r="EF25" s="7"/>
+      <c r="EG25" s="8"/>
+      <c r="EH25" s="8"/>
+      <c r="EI25" s="8"/>
+      <c r="EJ25" s="8"/>
+      <c r="EK25" s="8"/>
+      <c r="EL25" s="9"/>
+      <c r="EM25" s="25"/>
+      <c r="EN25" s="21"/>
+      <c r="EO25" s="21"/>
+      <c r="EP25" s="21"/>
+      <c r="EQ25" s="21"/>
+      <c r="ER25" s="21"/>
+      <c r="ES25" s="22"/>
+      <c r="ET25" s="20"/>
+      <c r="EU25" s="21"/>
+      <c r="EV25" s="21"/>
+      <c r="EW25" s="21"/>
+      <c r="EX25" s="21"/>
+      <c r="EY25" s="21"/>
+      <c r="EZ25" s="22"/>
     </row>
-    <row r="26" spans="1:142" ht="15" thickBot="1">
-      <c r="A26" s="76" t="s">
-        <v>93</v>
+    <row r="26" spans="1:156" ht="15" thickBot="1">
+      <c r="A26" s="120" t="s">
+        <v>82</v>
       </c>
       <c r="B26" s="65" t="s">
         <v>29</v>
@@ -6534,7 +6865,7 @@
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
       <c r="I26" s="22"/>
-      <c r="J26" s="25"/>
+      <c r="J26" s="20"/>
       <c r="K26" s="21"/>
       <c r="L26" s="21"/>
       <c r="M26" s="21"/>
@@ -6548,7 +6879,7 @@
       <c r="U26" s="21"/>
       <c r="V26" s="21"/>
       <c r="W26" s="22"/>
-      <c r="X26" s="20"/>
+      <c r="X26" s="25"/>
       <c r="Y26" s="21"/>
       <c r="Z26" s="21"/>
       <c r="AA26" s="21"/>
@@ -6561,42 +6892,36 @@
       <c r="AH26" s="21"/>
       <c r="AI26" s="21"/>
       <c r="AJ26" s="21"/>
-      <c r="AK26" s="24"/>
-      <c r="AL26" s="7"/>
-      <c r="AM26" s="8"/>
-      <c r="AN26" s="8"/>
-      <c r="AO26" s="8"/>
-      <c r="AP26" s="8"/>
-      <c r="AQ26" s="8"/>
-      <c r="AR26" s="9"/>
-      <c r="AS26" s="25"/>
+      <c r="AK26" s="22"/>
+      <c r="AL26" s="20"/>
+      <c r="AM26" s="21"/>
+      <c r="AN26" s="21"/>
+      <c r="AO26" s="21"/>
+      <c r="AP26" s="21"/>
+      <c r="AQ26" s="21"/>
+      <c r="AR26" s="22"/>
+      <c r="AS26" s="20"/>
       <c r="AT26" s="21"/>
       <c r="AU26" s="21"/>
       <c r="AV26" s="21"/>
       <c r="AW26" s="21"/>
       <c r="AX26" s="21"/>
-      <c r="AY26" s="22"/>
-      <c r="AZ26" s="20"/>
-      <c r="BA26" s="21"/>
-      <c r="BB26" s="21"/>
-      <c r="BC26" s="21"/>
-      <c r="BD26" s="21"/>
-      <c r="BE26" s="21"/>
-      <c r="BF26" s="22"/>
-      <c r="BG26" s="20"/>
+      <c r="AY26" s="24"/>
+      <c r="AZ26" s="7"/>
+      <c r="BA26" s="8"/>
+      <c r="BB26" s="8"/>
+      <c r="BC26" s="8"/>
+      <c r="BD26" s="8"/>
+      <c r="BE26" s="8"/>
+      <c r="BF26" s="9"/>
+      <c r="BG26" s="25"/>
       <c r="BH26" s="21"/>
       <c r="BI26" s="21"/>
       <c r="BJ26" s="21"/>
       <c r="BK26" s="21"/>
-      <c r="BL26" s="26">
-        <v>3</v>
-      </c>
-      <c r="BM26" s="28">
-        <v>3</v>
-      </c>
-      <c r="BN26" s="29">
-        <v>3</v>
-      </c>
+      <c r="BL26" s="21"/>
+      <c r="BM26" s="22"/>
+      <c r="BN26" s="20"/>
       <c r="BO26" s="21"/>
       <c r="BP26" s="21"/>
       <c r="BQ26" s="21"/>
@@ -6605,17 +6930,23 @@
       <c r="BT26" s="22"/>
       <c r="BU26" s="20"/>
       <c r="BV26" s="21"/>
-      <c r="BW26" s="21"/>
-      <c r="BX26" s="21"/>
-      <c r="BY26" s="21"/>
+      <c r="BW26" s="26">
+        <v>4</v>
+      </c>
+      <c r="BX26" s="26">
+        <v>2</v>
+      </c>
+      <c r="BY26" s="26">
+        <v>2</v>
+      </c>
       <c r="BZ26" s="21"/>
       <c r="CA26" s="22"/>
       <c r="CB26" s="20"/>
       <c r="CC26" s="21"/>
-      <c r="CD26" s="21"/>
-      <c r="CE26" s="21"/>
-      <c r="CF26" s="21"/>
-      <c r="CG26" s="21"/>
+      <c r="CD26" s="81"/>
+      <c r="CE26" s="81"/>
+      <c r="CF26" s="81"/>
+      <c r="CG26" s="81"/>
       <c r="CH26" s="22"/>
       <c r="CI26" s="20"/>
       <c r="CJ26" s="21"/>
@@ -6644,38 +6975,52 @@
       <c r="DG26" s="21"/>
       <c r="DH26" s="21"/>
       <c r="DI26" s="21"/>
-      <c r="DJ26" s="24"/>
-      <c r="DK26" s="7"/>
-      <c r="DL26" s="8"/>
-      <c r="DM26" s="8"/>
-      <c r="DN26" s="8"/>
-      <c r="DO26" s="8"/>
-      <c r="DP26" s="8"/>
-      <c r="DQ26" s="9"/>
-      <c r="DR26" s="7"/>
-      <c r="DS26" s="8"/>
-      <c r="DT26" s="8"/>
-      <c r="DU26" s="8"/>
-      <c r="DV26" s="8"/>
-      <c r="DW26" s="8"/>
-      <c r="DX26" s="9"/>
-      <c r="DY26" s="25"/>
-      <c r="DZ26" s="21"/>
-      <c r="EA26" s="21"/>
-      <c r="EB26" s="21"/>
-      <c r="EC26" s="21"/>
-      <c r="ED26" s="21"/>
-      <c r="EE26" s="22"/>
-      <c r="EF26" s="20"/>
-      <c r="EG26" s="21"/>
-      <c r="EH26" s="21"/>
-      <c r="EI26" s="21"/>
-      <c r="EJ26" s="21"/>
-      <c r="EK26" s="21"/>
-      <c r="EL26" s="22"/>
+      <c r="DJ26" s="22"/>
+      <c r="DK26" s="20"/>
+      <c r="DL26" s="21"/>
+      <c r="DM26" s="21"/>
+      <c r="DN26" s="21"/>
+      <c r="DO26" s="21"/>
+      <c r="DP26" s="21"/>
+      <c r="DQ26" s="22"/>
+      <c r="DR26" s="20"/>
+      <c r="DS26" s="21"/>
+      <c r="DT26" s="21"/>
+      <c r="DU26" s="21"/>
+      <c r="DV26" s="21"/>
+      <c r="DW26" s="21"/>
+      <c r="DX26" s="24"/>
+      <c r="DY26" s="7"/>
+      <c r="DZ26" s="8"/>
+      <c r="EA26" s="8"/>
+      <c r="EB26" s="8"/>
+      <c r="EC26" s="8"/>
+      <c r="ED26" s="8"/>
+      <c r="EE26" s="9"/>
+      <c r="EF26" s="7"/>
+      <c r="EG26" s="8"/>
+      <c r="EH26" s="8"/>
+      <c r="EI26" s="8"/>
+      <c r="EJ26" s="8"/>
+      <c r="EK26" s="8"/>
+      <c r="EL26" s="9"/>
+      <c r="EM26" s="25"/>
+      <c r="EN26" s="21"/>
+      <c r="EO26" s="21"/>
+      <c r="EP26" s="21"/>
+      <c r="EQ26" s="21"/>
+      <c r="ER26" s="21"/>
+      <c r="ES26" s="22"/>
+      <c r="ET26" s="20"/>
+      <c r="EU26" s="21"/>
+      <c r="EV26" s="21"/>
+      <c r="EW26" s="21"/>
+      <c r="EX26" s="21"/>
+      <c r="EY26" s="21"/>
+      <c r="EZ26" s="22"/>
     </row>
-    <row r="27" spans="1:142" ht="15" thickBot="1">
-      <c r="A27" s="78"/>
+    <row r="27" spans="1:156" ht="15" thickBot="1">
+      <c r="A27" s="121"/>
       <c r="B27" s="66" t="s">
         <v>30</v>
       </c>
@@ -6686,7 +7031,7 @@
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
       <c r="I27" s="22"/>
-      <c r="J27" s="25"/>
+      <c r="J27" s="20"/>
       <c r="K27" s="21"/>
       <c r="L27" s="21"/>
       <c r="M27" s="21"/>
@@ -6700,7 +7045,7 @@
       <c r="U27" s="21"/>
       <c r="V27" s="21"/>
       <c r="W27" s="22"/>
-      <c r="X27" s="20"/>
+      <c r="X27" s="25"/>
       <c r="Y27" s="21"/>
       <c r="Z27" s="21"/>
       <c r="AA27" s="21"/>
@@ -6713,29 +7058,29 @@
       <c r="AH27" s="21"/>
       <c r="AI27" s="21"/>
       <c r="AJ27" s="21"/>
-      <c r="AK27" s="24"/>
-      <c r="AL27" s="7"/>
-      <c r="AM27" s="8"/>
-      <c r="AN27" s="8"/>
-      <c r="AO27" s="8"/>
-      <c r="AP27" s="8"/>
-      <c r="AQ27" s="8"/>
-      <c r="AR27" s="9"/>
-      <c r="AS27" s="25"/>
+      <c r="AK27" s="22"/>
+      <c r="AL27" s="20"/>
+      <c r="AM27" s="21"/>
+      <c r="AN27" s="21"/>
+      <c r="AO27" s="21"/>
+      <c r="AP27" s="21"/>
+      <c r="AQ27" s="21"/>
+      <c r="AR27" s="22"/>
+      <c r="AS27" s="20"/>
       <c r="AT27" s="21"/>
       <c r="AU27" s="21"/>
       <c r="AV27" s="21"/>
       <c r="AW27" s="21"/>
       <c r="AX27" s="21"/>
-      <c r="AY27" s="22"/>
-      <c r="AZ27" s="20"/>
-      <c r="BA27" s="21"/>
-      <c r="BB27" s="21"/>
-      <c r="BC27" s="21"/>
-      <c r="BD27" s="21"/>
-      <c r="BE27" s="21"/>
-      <c r="BF27" s="22"/>
-      <c r="BG27" s="20"/>
+      <c r="AY27" s="24"/>
+      <c r="AZ27" s="7"/>
+      <c r="BA27" s="8"/>
+      <c r="BB27" s="8"/>
+      <c r="BC27" s="8"/>
+      <c r="BD27" s="8"/>
+      <c r="BE27" s="8"/>
+      <c r="BF27" s="9"/>
+      <c r="BG27" s="25"/>
       <c r="BH27" s="21"/>
       <c r="BI27" s="21"/>
       <c r="BJ27" s="21"/>
@@ -6745,38 +7090,38 @@
       <c r="BN27" s="20"/>
       <c r="BO27" s="21"/>
       <c r="BP27" s="21"/>
-      <c r="BQ27" s="23">
-        <v>1</v>
-      </c>
-      <c r="BR27" s="23">
-        <v>2</v>
-      </c>
-      <c r="BS27" s="23">
-        <v>2</v>
-      </c>
-      <c r="BT27" s="120">
-        <v>4</v>
-      </c>
+      <c r="BQ27" s="21"/>
+      <c r="BR27" s="21"/>
+      <c r="BS27" s="21"/>
+      <c r="BT27" s="22"/>
       <c r="BU27" s="20"/>
       <c r="BV27" s="21"/>
-      <c r="BW27" s="21"/>
-      <c r="BX27" s="21"/>
-      <c r="BY27" s="21"/>
+      <c r="BW27" s="23">
+        <v>2</v>
+      </c>
+      <c r="BX27" s="23">
+        <v>4</v>
+      </c>
+      <c r="BY27" s="23">
+        <v>4</v>
+      </c>
       <c r="BZ27" s="21"/>
       <c r="CA27" s="22"/>
       <c r="CB27" s="20"/>
       <c r="CC27" s="21"/>
-      <c r="CD27" s="21"/>
+      <c r="CD27" s="23">
+        <v>1</v>
+      </c>
       <c r="CE27" s="21"/>
       <c r="CF27" s="21"/>
       <c r="CG27" s="21"/>
       <c r="CH27" s="22"/>
       <c r="CI27" s="20"/>
-      <c r="CJ27" s="21"/>
-      <c r="CK27" s="21"/>
-      <c r="CL27" s="21"/>
-      <c r="CM27" s="21"/>
-      <c r="CN27" s="21"/>
+      <c r="CJ27" s="81"/>
+      <c r="CK27" s="81"/>
+      <c r="CL27" s="81"/>
+      <c r="CM27" s="81"/>
+      <c r="CN27" s="81"/>
       <c r="CO27" s="22"/>
       <c r="CP27" s="20"/>
       <c r="CQ27" s="21"/>
@@ -6798,39 +7143,53 @@
       <c r="DG27" s="21"/>
       <c r="DH27" s="21"/>
       <c r="DI27" s="21"/>
-      <c r="DJ27" s="24"/>
-      <c r="DK27" s="7"/>
-      <c r="DL27" s="8"/>
-      <c r="DM27" s="8"/>
-      <c r="DN27" s="8"/>
-      <c r="DO27" s="8"/>
-      <c r="DP27" s="8"/>
-      <c r="DQ27" s="9"/>
-      <c r="DR27" s="7"/>
-      <c r="DS27" s="8"/>
-      <c r="DT27" s="8"/>
-      <c r="DU27" s="8"/>
-      <c r="DV27" s="8"/>
-      <c r="DW27" s="8"/>
-      <c r="DX27" s="9"/>
-      <c r="DY27" s="25"/>
-      <c r="DZ27" s="21"/>
-      <c r="EA27" s="21"/>
-      <c r="EB27" s="21"/>
-      <c r="EC27" s="21"/>
-      <c r="ED27" s="21"/>
-      <c r="EE27" s="22"/>
-      <c r="EF27" s="20"/>
-      <c r="EG27" s="21"/>
-      <c r="EH27" s="21"/>
-      <c r="EI27" s="21"/>
-      <c r="EJ27" s="21"/>
-      <c r="EK27" s="21"/>
-      <c r="EL27" s="22"/>
+      <c r="DJ27" s="22"/>
+      <c r="DK27" s="20"/>
+      <c r="DL27" s="21"/>
+      <c r="DM27" s="21"/>
+      <c r="DN27" s="21"/>
+      <c r="DO27" s="21"/>
+      <c r="DP27" s="21"/>
+      <c r="DQ27" s="22"/>
+      <c r="DR27" s="20"/>
+      <c r="DS27" s="21"/>
+      <c r="DT27" s="21"/>
+      <c r="DU27" s="21"/>
+      <c r="DV27" s="21"/>
+      <c r="DW27" s="21"/>
+      <c r="DX27" s="24"/>
+      <c r="DY27" s="7"/>
+      <c r="DZ27" s="8"/>
+      <c r="EA27" s="8"/>
+      <c r="EB27" s="8"/>
+      <c r="EC27" s="8"/>
+      <c r="ED27" s="8"/>
+      <c r="EE27" s="9"/>
+      <c r="EF27" s="7"/>
+      <c r="EG27" s="8"/>
+      <c r="EH27" s="8"/>
+      <c r="EI27" s="8"/>
+      <c r="EJ27" s="8"/>
+      <c r="EK27" s="8"/>
+      <c r="EL27" s="9"/>
+      <c r="EM27" s="25"/>
+      <c r="EN27" s="21"/>
+      <c r="EO27" s="21"/>
+      <c r="EP27" s="21"/>
+      <c r="EQ27" s="21"/>
+      <c r="ER27" s="21"/>
+      <c r="ES27" s="22"/>
+      <c r="ET27" s="20"/>
+      <c r="EU27" s="21"/>
+      <c r="EV27" s="21"/>
+      <c r="EW27" s="21"/>
+      <c r="EX27" s="21"/>
+      <c r="EY27" s="21"/>
+      <c r="EZ27" s="22"/>
     </row>
-    <row r="28" spans="1:142" ht="15" thickBot="1">
-      <c r="A28" s="93" t="s">
-        <v>97</v>
+    <row r="28" spans="1:156" ht="15" thickBot="1">
+      <c r="A28" s="106" t="s">
+        <v>83</v>
       </c>
       <c r="B28" s="65" t="s">
         <v>29</v>
@@ -6842,7 +7201,7 @@
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
       <c r="I28" s="22"/>
-      <c r="J28" s="25"/>
+      <c r="J28" s="20"/>
       <c r="K28" s="21"/>
       <c r="L28" s="21"/>
       <c r="M28" s="21"/>
@@ -6856,7 +7215,7 @@
       <c r="U28" s="21"/>
       <c r="V28" s="21"/>
       <c r="W28" s="22"/>
-      <c r="X28" s="20"/>
+      <c r="X28" s="25"/>
       <c r="Y28" s="21"/>
       <c r="Z28" s="21"/>
       <c r="AA28" s="21"/>
@@ -6869,29 +7228,29 @@
       <c r="AH28" s="21"/>
       <c r="AI28" s="21"/>
       <c r="AJ28" s="21"/>
-      <c r="AK28" s="24"/>
-      <c r="AL28" s="7"/>
-      <c r="AM28" s="8"/>
-      <c r="AN28" s="8"/>
-      <c r="AO28" s="8"/>
-      <c r="AP28" s="8"/>
-      <c r="AQ28" s="8"/>
-      <c r="AR28" s="9"/>
-      <c r="AS28" s="25"/>
+      <c r="AK28" s="22"/>
+      <c r="AL28" s="20"/>
+      <c r="AM28" s="21"/>
+      <c r="AN28" s="21"/>
+      <c r="AO28" s="21"/>
+      <c r="AP28" s="21"/>
+      <c r="AQ28" s="21"/>
+      <c r="AR28" s="22"/>
+      <c r="AS28" s="20"/>
       <c r="AT28" s="21"/>
       <c r="AU28" s="21"/>
       <c r="AV28" s="21"/>
       <c r="AW28" s="21"/>
       <c r="AX28" s="21"/>
-      <c r="AY28" s="22"/>
-      <c r="AZ28" s="20"/>
-      <c r="BA28" s="21"/>
-      <c r="BB28" s="21"/>
-      <c r="BC28" s="21"/>
-      <c r="BD28" s="21"/>
-      <c r="BE28" s="21"/>
-      <c r="BF28" s="22"/>
-      <c r="BG28" s="20"/>
+      <c r="AY28" s="24"/>
+      <c r="AZ28" s="7"/>
+      <c r="BA28" s="8"/>
+      <c r="BB28" s="8"/>
+      <c r="BC28" s="8"/>
+      <c r="BD28" s="8"/>
+      <c r="BE28" s="8"/>
+      <c r="BF28" s="9"/>
+      <c r="BG28" s="25"/>
       <c r="BH28" s="21"/>
       <c r="BI28" s="21"/>
       <c r="BJ28" s="21"/>
@@ -6899,12 +7258,8 @@
       <c r="BL28" s="21"/>
       <c r="BM28" s="22"/>
       <c r="BN28" s="20"/>
-      <c r="BO28" s="26">
-        <v>1</v>
-      </c>
-      <c r="BP28" s="26">
-        <v>1</v>
-      </c>
+      <c r="BO28" s="21"/>
+      <c r="BP28" s="21"/>
       <c r="BQ28" s="21"/>
       <c r="BR28" s="21"/>
       <c r="BS28" s="21"/>
@@ -6913,8 +7268,12 @@
       <c r="BV28" s="21"/>
       <c r="BW28" s="21"/>
       <c r="BX28" s="21"/>
-      <c r="BY28" s="21"/>
-      <c r="BZ28" s="21"/>
+      <c r="BY28" s="26">
+        <v>10</v>
+      </c>
+      <c r="BZ28" s="26">
+        <v>7</v>
+      </c>
       <c r="CA28" s="22"/>
       <c r="CB28" s="20"/>
       <c r="CC28" s="21"/>
@@ -6924,11 +7283,11 @@
       <c r="CG28" s="21"/>
       <c r="CH28" s="22"/>
       <c r="CI28" s="20"/>
-      <c r="CJ28" s="21"/>
-      <c r="CK28" s="21"/>
-      <c r="CL28" s="21"/>
-      <c r="CM28" s="21"/>
-      <c r="CN28" s="21"/>
+      <c r="CJ28" s="81"/>
+      <c r="CK28" s="81"/>
+      <c r="CL28" s="81"/>
+      <c r="CM28" s="81"/>
+      <c r="CN28" s="81"/>
       <c r="CO28" s="22"/>
       <c r="CP28" s="20"/>
       <c r="CQ28" s="21"/>
@@ -6950,38 +7309,52 @@
       <c r="DG28" s="21"/>
       <c r="DH28" s="21"/>
       <c r="DI28" s="21"/>
-      <c r="DJ28" s="24"/>
-      <c r="DK28" s="7"/>
-      <c r="DL28" s="8"/>
-      <c r="DM28" s="8"/>
-      <c r="DN28" s="8"/>
-      <c r="DO28" s="8"/>
-      <c r="DP28" s="8"/>
-      <c r="DQ28" s="9"/>
-      <c r="DR28" s="7"/>
-      <c r="DS28" s="8"/>
-      <c r="DT28" s="8"/>
-      <c r="DU28" s="8"/>
-      <c r="DV28" s="8"/>
-      <c r="DW28" s="8"/>
-      <c r="DX28" s="9"/>
-      <c r="DY28" s="25"/>
-      <c r="DZ28" s="21"/>
-      <c r="EA28" s="21"/>
-      <c r="EB28" s="21"/>
-      <c r="EC28" s="21"/>
-      <c r="ED28" s="21"/>
-      <c r="EE28" s="22"/>
-      <c r="EF28" s="20"/>
-      <c r="EG28" s="21"/>
-      <c r="EH28" s="21"/>
-      <c r="EI28" s="21"/>
-      <c r="EJ28" s="21"/>
-      <c r="EK28" s="21"/>
-      <c r="EL28" s="22"/>
+      <c r="DJ28" s="22"/>
+      <c r="DK28" s="20"/>
+      <c r="DL28" s="21"/>
+      <c r="DM28" s="21"/>
+      <c r="DN28" s="21"/>
+      <c r="DO28" s="21"/>
+      <c r="DP28" s="21"/>
+      <c r="DQ28" s="22"/>
+      <c r="DR28" s="20"/>
+      <c r="DS28" s="21"/>
+      <c r="DT28" s="21"/>
+      <c r="DU28" s="21"/>
+      <c r="DV28" s="21"/>
+      <c r="DW28" s="21"/>
+      <c r="DX28" s="24"/>
+      <c r="DY28" s="7"/>
+      <c r="DZ28" s="8"/>
+      <c r="EA28" s="8"/>
+      <c r="EB28" s="8"/>
+      <c r="EC28" s="8"/>
+      <c r="ED28" s="8"/>
+      <c r="EE28" s="9"/>
+      <c r="EF28" s="7"/>
+      <c r="EG28" s="8"/>
+      <c r="EH28" s="8"/>
+      <c r="EI28" s="8"/>
+      <c r="EJ28" s="8"/>
+      <c r="EK28" s="8"/>
+      <c r="EL28" s="9"/>
+      <c r="EM28" s="25"/>
+      <c r="EN28" s="21"/>
+      <c r="EO28" s="21"/>
+      <c r="EP28" s="21"/>
+      <c r="EQ28" s="21"/>
+      <c r="ER28" s="21"/>
+      <c r="ES28" s="22"/>
+      <c r="ET28" s="20"/>
+      <c r="EU28" s="21"/>
+      <c r="EV28" s="21"/>
+      <c r="EW28" s="21"/>
+      <c r="EX28" s="21"/>
+      <c r="EY28" s="21"/>
+      <c r="EZ28" s="22"/>
     </row>
-    <row r="29" spans="1:142" ht="15" thickBot="1">
-      <c r="A29" s="94"/>
+    <row r="29" spans="1:156" ht="15" thickBot="1">
+      <c r="A29" s="107"/>
       <c r="B29" s="66" t="s">
         <v>30</v>
       </c>
@@ -6992,7 +7365,7 @@
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
       <c r="I29" s="22"/>
-      <c r="J29" s="25"/>
+      <c r="J29" s="20"/>
       <c r="K29" s="21"/>
       <c r="L29" s="21"/>
       <c r="M29" s="21"/>
@@ -7006,7 +7379,7 @@
       <c r="U29" s="21"/>
       <c r="V29" s="21"/>
       <c r="W29" s="22"/>
-      <c r="X29" s="20"/>
+      <c r="X29" s="25"/>
       <c r="Y29" s="21"/>
       <c r="Z29" s="21"/>
       <c r="AA29" s="21"/>
@@ -7019,29 +7392,29 @@
       <c r="AH29" s="21"/>
       <c r="AI29" s="21"/>
       <c r="AJ29" s="21"/>
-      <c r="AK29" s="24"/>
-      <c r="AL29" s="7"/>
-      <c r="AM29" s="8"/>
-      <c r="AN29" s="8"/>
-      <c r="AO29" s="8"/>
-      <c r="AP29" s="8"/>
-      <c r="AQ29" s="8"/>
-      <c r="AR29" s="9"/>
-      <c r="AS29" s="25"/>
+      <c r="AK29" s="22"/>
+      <c r="AL29" s="20"/>
+      <c r="AM29" s="21"/>
+      <c r="AN29" s="21"/>
+      <c r="AO29" s="21"/>
+      <c r="AP29" s="21"/>
+      <c r="AQ29" s="21"/>
+      <c r="AR29" s="22"/>
+      <c r="AS29" s="20"/>
       <c r="AT29" s="21"/>
       <c r="AU29" s="21"/>
       <c r="AV29" s="21"/>
       <c r="AW29" s="21"/>
       <c r="AX29" s="21"/>
-      <c r="AY29" s="22"/>
-      <c r="AZ29" s="20"/>
-      <c r="BA29" s="21"/>
-      <c r="BB29" s="21"/>
-      <c r="BC29" s="21"/>
-      <c r="BD29" s="21"/>
-      <c r="BE29" s="21"/>
-      <c r="BF29" s="22"/>
-      <c r="BG29" s="20"/>
+      <c r="AY29" s="24"/>
+      <c r="AZ29" s="7"/>
+      <c r="BA29" s="8"/>
+      <c r="BB29" s="8"/>
+      <c r="BC29" s="8"/>
+      <c r="BD29" s="8"/>
+      <c r="BE29" s="8"/>
+      <c r="BF29" s="9"/>
+      <c r="BG29" s="25"/>
       <c r="BH29" s="21"/>
       <c r="BI29" s="21"/>
       <c r="BJ29" s="21"/>
@@ -7057,30 +7430,32 @@
       <c r="BT29" s="22"/>
       <c r="BU29" s="20"/>
       <c r="BV29" s="21"/>
-      <c r="BW29" s="23">
-        <v>2</v>
-      </c>
-      <c r="BX29" s="23">
-        <v>3</v>
-      </c>
+      <c r="BW29" s="21"/>
+      <c r="BX29" s="21"/>
       <c r="BY29" s="23">
-        <v>3</v>
-      </c>
-      <c r="BZ29" s="21"/>
+        <v>10</v>
+      </c>
+      <c r="BZ29" s="23">
+        <v>7</v>
+      </c>
       <c r="CA29" s="22"/>
       <c r="CB29" s="20"/>
       <c r="CC29" s="21"/>
-      <c r="CD29" s="21"/>
-      <c r="CE29" s="21"/>
+      <c r="CD29" s="23">
+        <v>12</v>
+      </c>
+      <c r="CE29" s="23">
+        <v>5</v>
+      </c>
       <c r="CF29" s="21"/>
       <c r="CG29" s="21"/>
       <c r="CH29" s="22"/>
       <c r="CI29" s="20"/>
-      <c r="CJ29" s="21"/>
-      <c r="CK29" s="21"/>
-      <c r="CL29" s="21"/>
-      <c r="CM29" s="21"/>
-      <c r="CN29" s="21"/>
+      <c r="CJ29" s="81"/>
+      <c r="CK29" s="81"/>
+      <c r="CL29" s="81"/>
+      <c r="CM29" s="81"/>
+      <c r="CN29" s="81"/>
       <c r="CO29" s="22"/>
       <c r="CP29" s="20"/>
       <c r="CQ29" s="21"/>
@@ -7102,39 +7477,53 @@
       <c r="DG29" s="21"/>
       <c r="DH29" s="21"/>
       <c r="DI29" s="21"/>
-      <c r="DJ29" s="24"/>
-      <c r="DK29" s="7"/>
-      <c r="DL29" s="8"/>
-      <c r="DM29" s="8"/>
-      <c r="DN29" s="8"/>
-      <c r="DO29" s="8"/>
-      <c r="DP29" s="8"/>
-      <c r="DQ29" s="9"/>
-      <c r="DR29" s="7"/>
-      <c r="DS29" s="8"/>
-      <c r="DT29" s="8"/>
-      <c r="DU29" s="8"/>
-      <c r="DV29" s="8"/>
-      <c r="DW29" s="8"/>
-      <c r="DX29" s="9"/>
-      <c r="DY29" s="25"/>
-      <c r="DZ29" s="21"/>
-      <c r="EA29" s="21"/>
-      <c r="EB29" s="21"/>
-      <c r="EC29" s="21"/>
-      <c r="ED29" s="21"/>
-      <c r="EE29" s="22"/>
-      <c r="EF29" s="20"/>
-      <c r="EG29" s="21"/>
-      <c r="EH29" s="21"/>
-      <c r="EI29" s="21"/>
-      <c r="EJ29" s="21"/>
-      <c r="EK29" s="21"/>
-      <c r="EL29" s="22"/>
+      <c r="DJ29" s="22"/>
+      <c r="DK29" s="20"/>
+      <c r="DL29" s="21"/>
+      <c r="DM29" s="21"/>
+      <c r="DN29" s="21"/>
+      <c r="DO29" s="21"/>
+      <c r="DP29" s="21"/>
+      <c r="DQ29" s="22"/>
+      <c r="DR29" s="20"/>
+      <c r="DS29" s="21"/>
+      <c r="DT29" s="21"/>
+      <c r="DU29" s="21"/>
+      <c r="DV29" s="21"/>
+      <c r="DW29" s="21"/>
+      <c r="DX29" s="24"/>
+      <c r="DY29" s="7"/>
+      <c r="DZ29" s="8"/>
+      <c r="EA29" s="8"/>
+      <c r="EB29" s="8"/>
+      <c r="EC29" s="8"/>
+      <c r="ED29" s="8"/>
+      <c r="EE29" s="9"/>
+      <c r="EF29" s="7"/>
+      <c r="EG29" s="8"/>
+      <c r="EH29" s="8"/>
+      <c r="EI29" s="8"/>
+      <c r="EJ29" s="8"/>
+      <c r="EK29" s="8"/>
+      <c r="EL29" s="9"/>
+      <c r="EM29" s="25"/>
+      <c r="EN29" s="21"/>
+      <c r="EO29" s="21"/>
+      <c r="EP29" s="21"/>
+      <c r="EQ29" s="21"/>
+      <c r="ER29" s="21"/>
+      <c r="ES29" s="22"/>
+      <c r="ET29" s="20"/>
+      <c r="EU29" s="21"/>
+      <c r="EV29" s="21"/>
+      <c r="EW29" s="21"/>
+      <c r="EX29" s="21"/>
+      <c r="EY29" s="21"/>
+      <c r="EZ29" s="22"/>
     </row>
-    <row r="30" spans="1:142" ht="15" thickBot="1">
-      <c r="A30" s="93" t="s">
-        <v>85</v>
+    <row r="30" spans="1:156" ht="15" thickBot="1">
+      <c r="A30" s="106" t="s">
+        <v>92</v>
       </c>
       <c r="B30" s="65" t="s">
         <v>29</v>
@@ -7146,7 +7535,7 @@
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="22"/>
-      <c r="J30" s="25"/>
+      <c r="J30" s="20"/>
       <c r="K30" s="21"/>
       <c r="L30" s="21"/>
       <c r="M30" s="21"/>
@@ -7160,7 +7549,7 @@
       <c r="U30" s="21"/>
       <c r="V30" s="21"/>
       <c r="W30" s="22"/>
-      <c r="X30" s="20"/>
+      <c r="X30" s="25"/>
       <c r="Y30" s="21"/>
       <c r="Z30" s="21"/>
       <c r="AA30" s="21"/>
@@ -7173,29 +7562,29 @@
       <c r="AH30" s="21"/>
       <c r="AI30" s="21"/>
       <c r="AJ30" s="21"/>
-      <c r="AK30" s="24"/>
-      <c r="AL30" s="7"/>
-      <c r="AM30" s="8"/>
-      <c r="AN30" s="8"/>
-      <c r="AO30" s="8"/>
-      <c r="AP30" s="8"/>
-      <c r="AQ30" s="8"/>
-      <c r="AR30" s="9"/>
-      <c r="AS30" s="25"/>
+      <c r="AK30" s="22"/>
+      <c r="AL30" s="20"/>
+      <c r="AM30" s="21"/>
+      <c r="AN30" s="21"/>
+      <c r="AO30" s="21"/>
+      <c r="AP30" s="21"/>
+      <c r="AQ30" s="21"/>
+      <c r="AR30" s="22"/>
+      <c r="AS30" s="20"/>
       <c r="AT30" s="21"/>
       <c r="AU30" s="21"/>
       <c r="AV30" s="21"/>
       <c r="AW30" s="21"/>
       <c r="AX30" s="21"/>
-      <c r="AY30" s="22"/>
-      <c r="AZ30" s="20"/>
-      <c r="BA30" s="21"/>
-      <c r="BB30" s="21"/>
-      <c r="BC30" s="21"/>
-      <c r="BD30" s="21"/>
-      <c r="BE30" s="21"/>
-      <c r="BF30" s="22"/>
-      <c r="BG30" s="20"/>
+      <c r="AY30" s="24"/>
+      <c r="AZ30" s="7"/>
+      <c r="BA30" s="8"/>
+      <c r="BB30" s="8"/>
+      <c r="BC30" s="8"/>
+      <c r="BD30" s="8"/>
+      <c r="BE30" s="8"/>
+      <c r="BF30" s="9"/>
+      <c r="BG30" s="25"/>
       <c r="BH30" s="21"/>
       <c r="BI30" s="21"/>
       <c r="BJ30" s="21"/>
@@ -7204,68 +7593,48 @@
       <c r="BM30" s="22"/>
       <c r="BN30" s="20"/>
       <c r="BO30" s="21"/>
-      <c r="BP30" s="26">
-        <v>2</v>
-      </c>
-      <c r="BQ30" s="26">
-        <v>2</v>
-      </c>
-      <c r="BR30" s="26">
-        <v>2</v>
-      </c>
+      <c r="BP30" s="21"/>
+      <c r="BQ30" s="21"/>
+      <c r="BR30" s="21"/>
       <c r="BS30" s="21"/>
       <c r="BT30" s="22"/>
       <c r="BU30" s="20"/>
-      <c r="BV30" s="26">
-        <v>3</v>
-      </c>
-      <c r="BW30" s="26">
-        <v>3</v>
-      </c>
+      <c r="BV30" s="21"/>
+      <c r="BW30" s="21"/>
       <c r="BX30" s="21"/>
       <c r="BY30" s="21"/>
-      <c r="BZ30" s="21"/>
-      <c r="CA30" s="22"/>
-      <c r="CB30" s="20"/>
-      <c r="CC30" s="26">
+      <c r="BZ30" s="26">
         <v>3</v>
       </c>
-      <c r="CD30" s="26">
+      <c r="CA30" s="28">
         <v>3</v>
       </c>
+      <c r="CB30" s="29">
+        <v>3</v>
+      </c>
+      <c r="CC30" s="21"/>
+      <c r="CD30" s="21"/>
       <c r="CE30" s="21"/>
       <c r="CF30" s="21"/>
       <c r="CG30" s="21"/>
       <c r="CH30" s="22"/>
       <c r="CI30" s="20"/>
-      <c r="CJ30" s="26">
-        <v>3</v>
-      </c>
-      <c r="CK30" s="26">
-        <v>3</v>
-      </c>
-      <c r="CL30" s="21"/>
-      <c r="CM30" s="21"/>
-      <c r="CN30" s="21"/>
+      <c r="CJ30" s="81"/>
+      <c r="CK30" s="81"/>
+      <c r="CL30" s="81"/>
+      <c r="CM30" s="81"/>
+      <c r="CN30" s="81"/>
       <c r="CO30" s="22"/>
       <c r="CP30" s="20"/>
-      <c r="CQ30" s="26">
-        <v>3</v>
-      </c>
-      <c r="CR30" s="26">
-        <v>3</v>
-      </c>
+      <c r="CQ30" s="21"/>
+      <c r="CR30" s="21"/>
       <c r="CS30" s="21"/>
       <c r="CT30" s="21"/>
       <c r="CU30" s="21"/>
       <c r="CV30" s="22"/>
       <c r="CW30" s="20"/>
-      <c r="CX30" s="26">
-        <v>3</v>
-      </c>
-      <c r="CY30" s="26">
-        <v>3</v>
-      </c>
+      <c r="CX30" s="21"/>
+      <c r="CY30" s="21"/>
       <c r="CZ30" s="21"/>
       <c r="DA30" s="21"/>
       <c r="DB30" s="21"/>
@@ -7276,38 +7645,52 @@
       <c r="DG30" s="21"/>
       <c r="DH30" s="21"/>
       <c r="DI30" s="21"/>
-      <c r="DJ30" s="24"/>
-      <c r="DK30" s="7"/>
-      <c r="DL30" s="8"/>
-      <c r="DM30" s="8"/>
-      <c r="DN30" s="8"/>
-      <c r="DO30" s="8"/>
-      <c r="DP30" s="8"/>
-      <c r="DQ30" s="9"/>
-      <c r="DR30" s="7"/>
-      <c r="DS30" s="8"/>
-      <c r="DT30" s="8"/>
-      <c r="DU30" s="8"/>
-      <c r="DV30" s="8"/>
-      <c r="DW30" s="8"/>
-      <c r="DX30" s="9"/>
-      <c r="DY30" s="25"/>
-      <c r="DZ30" s="21"/>
-      <c r="EA30" s="21"/>
-      <c r="EB30" s="21"/>
-      <c r="EC30" s="21"/>
-      <c r="ED30" s="21"/>
-      <c r="EE30" s="22"/>
-      <c r="EF30" s="20"/>
-      <c r="EG30" s="21"/>
-      <c r="EH30" s="21"/>
-      <c r="EI30" s="21"/>
-      <c r="EJ30" s="21"/>
-      <c r="EK30" s="21"/>
-      <c r="EL30" s="22"/>
+      <c r="DJ30" s="22"/>
+      <c r="DK30" s="20"/>
+      <c r="DL30" s="21"/>
+      <c r="DM30" s="21"/>
+      <c r="DN30" s="21"/>
+      <c r="DO30" s="21"/>
+      <c r="DP30" s="21"/>
+      <c r="DQ30" s="22"/>
+      <c r="DR30" s="20"/>
+      <c r="DS30" s="21"/>
+      <c r="DT30" s="21"/>
+      <c r="DU30" s="21"/>
+      <c r="DV30" s="21"/>
+      <c r="DW30" s="21"/>
+      <c r="DX30" s="24"/>
+      <c r="DY30" s="7"/>
+      <c r="DZ30" s="8"/>
+      <c r="EA30" s="8"/>
+      <c r="EB30" s="8"/>
+      <c r="EC30" s="8"/>
+      <c r="ED30" s="8"/>
+      <c r="EE30" s="9"/>
+      <c r="EF30" s="7"/>
+      <c r="EG30" s="8"/>
+      <c r="EH30" s="8"/>
+      <c r="EI30" s="8"/>
+      <c r="EJ30" s="8"/>
+      <c r="EK30" s="8"/>
+      <c r="EL30" s="9"/>
+      <c r="EM30" s="25"/>
+      <c r="EN30" s="21"/>
+      <c r="EO30" s="21"/>
+      <c r="EP30" s="21"/>
+      <c r="EQ30" s="21"/>
+      <c r="ER30" s="21"/>
+      <c r="ES30" s="22"/>
+      <c r="ET30" s="20"/>
+      <c r="EU30" s="21"/>
+      <c r="EV30" s="21"/>
+      <c r="EW30" s="21"/>
+      <c r="EX30" s="21"/>
+      <c r="EY30" s="21"/>
+      <c r="EZ30" s="22"/>
     </row>
-    <row r="31" spans="1:142" ht="15" thickBot="1">
-      <c r="A31" s="94"/>
+    <row r="31" spans="1:156" ht="15" thickBot="1">
+      <c r="A31" s="108"/>
       <c r="B31" s="66" t="s">
         <v>30</v>
       </c>
@@ -7318,7 +7701,7 @@
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
       <c r="I31" s="22"/>
-      <c r="J31" s="25"/>
+      <c r="J31" s="20"/>
       <c r="K31" s="21"/>
       <c r="L31" s="21"/>
       <c r="M31" s="21"/>
@@ -7332,7 +7715,7 @@
       <c r="U31" s="21"/>
       <c r="V31" s="21"/>
       <c r="W31" s="22"/>
-      <c r="X31" s="20"/>
+      <c r="X31" s="25"/>
       <c r="Y31" s="21"/>
       <c r="Z31" s="21"/>
       <c r="AA31" s="21"/>
@@ -7345,29 +7728,29 @@
       <c r="AH31" s="21"/>
       <c r="AI31" s="21"/>
       <c r="AJ31" s="21"/>
-      <c r="AK31" s="24"/>
-      <c r="AL31" s="7"/>
-      <c r="AM31" s="8"/>
-      <c r="AN31" s="8"/>
-      <c r="AO31" s="8"/>
-      <c r="AP31" s="8"/>
-      <c r="AQ31" s="8"/>
-      <c r="AR31" s="9"/>
-      <c r="AS31" s="25"/>
+      <c r="AK31" s="22"/>
+      <c r="AL31" s="20"/>
+      <c r="AM31" s="21"/>
+      <c r="AN31" s="21"/>
+      <c r="AO31" s="21"/>
+      <c r="AP31" s="21"/>
+      <c r="AQ31" s="21"/>
+      <c r="AR31" s="22"/>
+      <c r="AS31" s="20"/>
       <c r="AT31" s="21"/>
       <c r="AU31" s="21"/>
       <c r="AV31" s="21"/>
       <c r="AW31" s="21"/>
       <c r="AX31" s="21"/>
-      <c r="AY31" s="22"/>
-      <c r="AZ31" s="20"/>
-      <c r="BA31" s="21"/>
-      <c r="BB31" s="21"/>
-      <c r="BC31" s="21"/>
-      <c r="BD31" s="21"/>
-      <c r="BE31" s="21"/>
-      <c r="BF31" s="22"/>
-      <c r="BG31" s="20"/>
+      <c r="AY31" s="24"/>
+      <c r="AZ31" s="7"/>
+      <c r="BA31" s="8"/>
+      <c r="BB31" s="8"/>
+      <c r="BC31" s="8"/>
+      <c r="BD31" s="8"/>
+      <c r="BE31" s="8"/>
+      <c r="BF31" s="9"/>
+      <c r="BG31" s="25"/>
       <c r="BH31" s="21"/>
       <c r="BI31" s="21"/>
       <c r="BJ31" s="21"/>
@@ -7392,45 +7775,35 @@
       <c r="CC31" s="21"/>
       <c r="CD31" s="21"/>
       <c r="CE31" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CF31" s="23">
         <v>2</v>
       </c>
-      <c r="CG31" s="21"/>
-      <c r="CH31" s="22"/>
-      <c r="CI31" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="CJ31" s="21"/>
-      <c r="CK31" s="23">
+      <c r="CG31" s="23">
         <v>2</v>
       </c>
-      <c r="CL31" s="23">
-        <v>2</v>
-      </c>
-      <c r="CM31" s="21"/>
-      <c r="CN31" s="21"/>
+      <c r="CH31" s="77">
+        <v>4</v>
+      </c>
+      <c r="CI31" s="20"/>
+      <c r="CJ31" s="81"/>
+      <c r="CK31" s="81"/>
+      <c r="CL31" s="81"/>
+      <c r="CM31" s="81"/>
+      <c r="CN31" s="81"/>
       <c r="CO31" s="22"/>
       <c r="CP31" s="20"/>
       <c r="CQ31" s="21"/>
-      <c r="CR31" s="23">
-        <v>2</v>
-      </c>
-      <c r="CS31" s="23">
-        <v>2</v>
-      </c>
+      <c r="CR31" s="21"/>
+      <c r="CS31" s="21"/>
       <c r="CT31" s="21"/>
       <c r="CU31" s="21"/>
       <c r="CV31" s="22"/>
       <c r="CW31" s="20"/>
       <c r="CX31" s="21"/>
-      <c r="CY31" s="23">
-        <v>2</v>
-      </c>
-      <c r="CZ31" s="23">
-        <v>4</v>
-      </c>
+      <c r="CY31" s="21"/>
+      <c r="CZ31" s="21"/>
       <c r="DA31" s="21"/>
       <c r="DB31" s="21"/>
       <c r="DC31" s="22"/>
@@ -7440,39 +7813,53 @@
       <c r="DG31" s="21"/>
       <c r="DH31" s="21"/>
       <c r="DI31" s="21"/>
-      <c r="DJ31" s="24"/>
-      <c r="DK31" s="7"/>
-      <c r="DL31" s="8"/>
-      <c r="DM31" s="8"/>
-      <c r="DN31" s="8"/>
-      <c r="DO31" s="8"/>
-      <c r="DP31" s="8"/>
-      <c r="DQ31" s="9"/>
-      <c r="DR31" s="7"/>
-      <c r="DS31" s="8"/>
-      <c r="DT31" s="8"/>
-      <c r="DU31" s="8"/>
-      <c r="DV31" s="8"/>
-      <c r="DW31" s="8"/>
-      <c r="DX31" s="9"/>
-      <c r="DY31" s="25"/>
-      <c r="DZ31" s="21"/>
-      <c r="EA31" s="21"/>
-      <c r="EB31" s="21"/>
-      <c r="EC31" s="21"/>
-      <c r="ED31" s="21"/>
-      <c r="EE31" s="22"/>
-      <c r="EF31" s="20"/>
-      <c r="EG31" s="21"/>
-      <c r="EH31" s="21"/>
-      <c r="EI31" s="21"/>
-      <c r="EJ31" s="21"/>
-      <c r="EK31" s="21"/>
-      <c r="EL31" s="22"/>
+      <c r="DJ31" s="22"/>
+      <c r="DK31" s="20"/>
+      <c r="DL31" s="21"/>
+      <c r="DM31" s="21"/>
+      <c r="DN31" s="21"/>
+      <c r="DO31" s="21"/>
+      <c r="DP31" s="21"/>
+      <c r="DQ31" s="22"/>
+      <c r="DR31" s="20"/>
+      <c r="DS31" s="21"/>
+      <c r="DT31" s="21"/>
+      <c r="DU31" s="21"/>
+      <c r="DV31" s="21"/>
+      <c r="DW31" s="21"/>
+      <c r="DX31" s="24"/>
+      <c r="DY31" s="7"/>
+      <c r="DZ31" s="8"/>
+      <c r="EA31" s="8"/>
+      <c r="EB31" s="8"/>
+      <c r="EC31" s="8"/>
+      <c r="ED31" s="8"/>
+      <c r="EE31" s="9"/>
+      <c r="EF31" s="7"/>
+      <c r="EG31" s="8"/>
+      <c r="EH31" s="8"/>
+      <c r="EI31" s="8"/>
+      <c r="EJ31" s="8"/>
+      <c r="EK31" s="8"/>
+      <c r="EL31" s="9"/>
+      <c r="EM31" s="25"/>
+      <c r="EN31" s="21"/>
+      <c r="EO31" s="21"/>
+      <c r="EP31" s="21"/>
+      <c r="EQ31" s="21"/>
+      <c r="ER31" s="21"/>
+      <c r="ES31" s="22"/>
+      <c r="ET31" s="20"/>
+      <c r="EU31" s="21"/>
+      <c r="EV31" s="21"/>
+      <c r="EW31" s="21"/>
+      <c r="EX31" s="21"/>
+      <c r="EY31" s="21"/>
+      <c r="EZ31" s="22"/>
     </row>
-    <row r="32" spans="1:142" ht="15" thickBot="1">
-      <c r="A32" s="93" t="s">
-        <v>86</v>
+    <row r="32" spans="1:156" ht="15" thickBot="1">
+      <c r="A32" s="120" t="s">
+        <v>96</v>
       </c>
       <c r="B32" s="65" t="s">
         <v>29</v>
@@ -7484,7 +7871,7 @@
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
       <c r="I32" s="22"/>
-      <c r="J32" s="25"/>
+      <c r="J32" s="20"/>
       <c r="K32" s="21"/>
       <c r="L32" s="21"/>
       <c r="M32" s="21"/>
@@ -7498,7 +7885,7 @@
       <c r="U32" s="21"/>
       <c r="V32" s="21"/>
       <c r="W32" s="22"/>
-      <c r="X32" s="20"/>
+      <c r="X32" s="25"/>
       <c r="Y32" s="21"/>
       <c r="Z32" s="21"/>
       <c r="AA32" s="21"/>
@@ -7511,29 +7898,29 @@
       <c r="AH32" s="21"/>
       <c r="AI32" s="21"/>
       <c r="AJ32" s="21"/>
-      <c r="AK32" s="24"/>
-      <c r="AL32" s="7"/>
-      <c r="AM32" s="8"/>
-      <c r="AN32" s="8"/>
-      <c r="AO32" s="8"/>
-      <c r="AP32" s="8"/>
-      <c r="AQ32" s="8"/>
-      <c r="AR32" s="9"/>
-      <c r="AS32" s="25"/>
+      <c r="AK32" s="22"/>
+      <c r="AL32" s="20"/>
+      <c r="AM32" s="21"/>
+      <c r="AN32" s="21"/>
+      <c r="AO32" s="21"/>
+      <c r="AP32" s="21"/>
+      <c r="AQ32" s="21"/>
+      <c r="AR32" s="22"/>
+      <c r="AS32" s="20"/>
       <c r="AT32" s="21"/>
       <c r="AU32" s="21"/>
       <c r="AV32" s="21"/>
       <c r="AW32" s="21"/>
       <c r="AX32" s="21"/>
-      <c r="AY32" s="22"/>
-      <c r="AZ32" s="20"/>
-      <c r="BA32" s="21"/>
-      <c r="BB32" s="21"/>
-      <c r="BC32" s="21"/>
-      <c r="BD32" s="21"/>
-      <c r="BE32" s="21"/>
-      <c r="BF32" s="22"/>
-      <c r="BG32" s="20"/>
+      <c r="AY32" s="24"/>
+      <c r="AZ32" s="7"/>
+      <c r="BA32" s="8"/>
+      <c r="BB32" s="8"/>
+      <c r="BC32" s="8"/>
+      <c r="BD32" s="8"/>
+      <c r="BE32" s="8"/>
+      <c r="BF32" s="9"/>
+      <c r="BG32" s="25"/>
       <c r="BH32" s="21"/>
       <c r="BI32" s="21"/>
       <c r="BJ32" s="21"/>
@@ -7555,18 +7942,22 @@
       <c r="BZ32" s="21"/>
       <c r="CA32" s="22"/>
       <c r="CB32" s="20"/>
-      <c r="CC32" s="21"/>
-      <c r="CD32" s="21"/>
+      <c r="CC32" s="26">
+        <v>1</v>
+      </c>
+      <c r="CD32" s="26">
+        <v>1</v>
+      </c>
       <c r="CE32" s="21"/>
       <c r="CF32" s="21"/>
       <c r="CG32" s="21"/>
       <c r="CH32" s="22"/>
       <c r="CI32" s="20"/>
-      <c r="CJ32" s="21"/>
-      <c r="CK32" s="21"/>
-      <c r="CL32" s="21"/>
-      <c r="CM32" s="21"/>
-      <c r="CN32" s="21"/>
+      <c r="CJ32" s="81"/>
+      <c r="CK32" s="81"/>
+      <c r="CL32" s="81"/>
+      <c r="CM32" s="81"/>
+      <c r="CN32" s="81"/>
       <c r="CO32" s="22"/>
       <c r="CP32" s="20"/>
       <c r="CQ32" s="21"/>
@@ -7584,48 +7975,56 @@
       <c r="DC32" s="22"/>
       <c r="DD32" s="20"/>
       <c r="DE32" s="21"/>
-      <c r="DF32" s="26">
-        <v>1</v>
-      </c>
-      <c r="DG32" s="26">
-        <v>1</v>
-      </c>
-      <c r="DH32" s="26">
-        <v>1</v>
-      </c>
+      <c r="DF32" s="21"/>
+      <c r="DG32" s="21"/>
+      <c r="DH32" s="21"/>
       <c r="DI32" s="21"/>
-      <c r="DJ32" s="24"/>
-      <c r="DK32" s="7"/>
-      <c r="DL32" s="8"/>
-      <c r="DM32" s="8"/>
-      <c r="DN32" s="8"/>
-      <c r="DO32" s="8"/>
-      <c r="DP32" s="8"/>
-      <c r="DQ32" s="9"/>
-      <c r="DR32" s="7"/>
-      <c r="DS32" s="8"/>
-      <c r="DT32" s="8"/>
-      <c r="DU32" s="8"/>
-      <c r="DV32" s="8"/>
-      <c r="DW32" s="8"/>
-      <c r="DX32" s="9"/>
-      <c r="DY32" s="25"/>
-      <c r="DZ32" s="21"/>
-      <c r="EA32" s="21"/>
-      <c r="EB32" s="21"/>
-      <c r="EC32" s="21"/>
-      <c r="ED32" s="21"/>
-      <c r="EE32" s="22"/>
-      <c r="EF32" s="20"/>
-      <c r="EG32" s="21"/>
-      <c r="EH32" s="21"/>
-      <c r="EI32" s="21"/>
-      <c r="EJ32" s="21"/>
-      <c r="EK32" s="21"/>
-      <c r="EL32" s="22"/>
+      <c r="DJ32" s="22"/>
+      <c r="DK32" s="20"/>
+      <c r="DL32" s="21"/>
+      <c r="DM32" s="21"/>
+      <c r="DN32" s="21"/>
+      <c r="DO32" s="21"/>
+      <c r="DP32" s="21"/>
+      <c r="DQ32" s="22"/>
+      <c r="DR32" s="20"/>
+      <c r="DS32" s="21"/>
+      <c r="DT32" s="21"/>
+      <c r="DU32" s="21"/>
+      <c r="DV32" s="21"/>
+      <c r="DW32" s="21"/>
+      <c r="DX32" s="24"/>
+      <c r="DY32" s="7"/>
+      <c r="DZ32" s="8"/>
+      <c r="EA32" s="8"/>
+      <c r="EB32" s="8"/>
+      <c r="EC32" s="8"/>
+      <c r="ED32" s="8"/>
+      <c r="EE32" s="9"/>
+      <c r="EF32" s="7"/>
+      <c r="EG32" s="8"/>
+      <c r="EH32" s="8"/>
+      <c r="EI32" s="8"/>
+      <c r="EJ32" s="8"/>
+      <c r="EK32" s="8"/>
+      <c r="EL32" s="9"/>
+      <c r="EM32" s="25"/>
+      <c r="EN32" s="21"/>
+      <c r="EO32" s="21"/>
+      <c r="EP32" s="21"/>
+      <c r="EQ32" s="21"/>
+      <c r="ER32" s="21"/>
+      <c r="ES32" s="22"/>
+      <c r="ET32" s="20"/>
+      <c r="EU32" s="21"/>
+      <c r="EV32" s="21"/>
+      <c r="EW32" s="21"/>
+      <c r="EX32" s="21"/>
+      <c r="EY32" s="21"/>
+      <c r="EZ32" s="22"/>
     </row>
-    <row r="33" spans="1:142" ht="15" thickBot="1">
-      <c r="A33" s="95"/>
+    <row r="33" spans="1:156" ht="15" thickBot="1">
+      <c r="A33" s="121"/>
       <c r="B33" s="66" t="s">
         <v>30</v>
       </c>
@@ -7636,7 +8035,7 @@
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
       <c r="I33" s="22"/>
-      <c r="J33" s="25"/>
+      <c r="J33" s="20"/>
       <c r="K33" s="21"/>
       <c r="L33" s="21"/>
       <c r="M33" s="21"/>
@@ -7650,7 +8049,7 @@
       <c r="U33" s="21"/>
       <c r="V33" s="21"/>
       <c r="W33" s="22"/>
-      <c r="X33" s="20"/>
+      <c r="X33" s="25"/>
       <c r="Y33" s="21"/>
       <c r="Z33" s="21"/>
       <c r="AA33" s="21"/>
@@ -7663,29 +8062,29 @@
       <c r="AH33" s="21"/>
       <c r="AI33" s="21"/>
       <c r="AJ33" s="21"/>
-      <c r="AK33" s="24"/>
-      <c r="AL33" s="7"/>
-      <c r="AM33" s="8"/>
-      <c r="AN33" s="8"/>
-      <c r="AO33" s="8"/>
-      <c r="AP33" s="8"/>
-      <c r="AQ33" s="8"/>
-      <c r="AR33" s="9"/>
-      <c r="AS33" s="25"/>
+      <c r="AK33" s="22"/>
+      <c r="AL33" s="20"/>
+      <c r="AM33" s="21"/>
+      <c r="AN33" s="21"/>
+      <c r="AO33" s="21"/>
+      <c r="AP33" s="21"/>
+      <c r="AQ33" s="21"/>
+      <c r="AR33" s="22"/>
+      <c r="AS33" s="20"/>
       <c r="AT33" s="21"/>
       <c r="AU33" s="21"/>
       <c r="AV33" s="21"/>
       <c r="AW33" s="21"/>
       <c r="AX33" s="21"/>
-      <c r="AY33" s="22"/>
-      <c r="AZ33" s="20"/>
-      <c r="BA33" s="21"/>
-      <c r="BB33" s="21"/>
-      <c r="BC33" s="21"/>
-      <c r="BD33" s="21"/>
-      <c r="BE33" s="21"/>
-      <c r="BF33" s="22"/>
-      <c r="BG33" s="20"/>
+      <c r="AY33" s="24"/>
+      <c r="AZ33" s="7"/>
+      <c r="BA33" s="8"/>
+      <c r="BB33" s="8"/>
+      <c r="BC33" s="8"/>
+      <c r="BD33" s="8"/>
+      <c r="BE33" s="8"/>
+      <c r="BF33" s="9"/>
+      <c r="BG33" s="25"/>
       <c r="BH33" s="21"/>
       <c r="BI33" s="21"/>
       <c r="BJ33" s="21"/>
@@ -7714,11 +8113,17 @@
       <c r="CG33" s="21"/>
       <c r="CH33" s="22"/>
       <c r="CI33" s="20"/>
-      <c r="CJ33" s="21"/>
-      <c r="CK33" s="21"/>
-      <c r="CL33" s="21"/>
-      <c r="CM33" s="21"/>
-      <c r="CN33" s="21"/>
+      <c r="CJ33" s="81"/>
+      <c r="CK33" s="23">
+        <v>2</v>
+      </c>
+      <c r="CL33" s="23">
+        <v>3</v>
+      </c>
+      <c r="CM33" s="23">
+        <v>3</v>
+      </c>
+      <c r="CN33" s="81"/>
       <c r="CO33" s="22"/>
       <c r="CP33" s="20"/>
       <c r="CQ33" s="21"/>
@@ -7737,46 +8142,58 @@
       <c r="DD33" s="20"/>
       <c r="DE33" s="21"/>
       <c r="DF33" s="21"/>
-      <c r="DG33" s="23">
-        <v>1</v>
-      </c>
-      <c r="DH33" s="23">
-        <v>1</v>
-      </c>
+      <c r="DG33" s="21"/>
+      <c r="DH33" s="21"/>
       <c r="DI33" s="21"/>
-      <c r="DJ33" s="24"/>
-      <c r="DK33" s="7"/>
-      <c r="DL33" s="8"/>
-      <c r="DM33" s="8"/>
-      <c r="DN33" s="8"/>
-      <c r="DO33" s="8"/>
-      <c r="DP33" s="8"/>
-      <c r="DQ33" s="9"/>
-      <c r="DR33" s="7"/>
-      <c r="DS33" s="8"/>
-      <c r="DT33" s="8"/>
-      <c r="DU33" s="8"/>
-      <c r="DV33" s="8"/>
-      <c r="DW33" s="8"/>
-      <c r="DX33" s="9"/>
-      <c r="DY33" s="25"/>
-      <c r="DZ33" s="21"/>
-      <c r="EA33" s="21"/>
-      <c r="EB33" s="21"/>
-      <c r="EC33" s="21"/>
-      <c r="ED33" s="21"/>
-      <c r="EE33" s="22"/>
-      <c r="EF33" s="20"/>
-      <c r="EG33" s="21"/>
-      <c r="EH33" s="21"/>
-      <c r="EI33" s="21"/>
-      <c r="EJ33" s="21"/>
-      <c r="EK33" s="21"/>
-      <c r="EL33" s="22"/>
+      <c r="DJ33" s="22"/>
+      <c r="DK33" s="20"/>
+      <c r="DL33" s="21">
+        <v>4</v>
+      </c>
+      <c r="DM33" s="21"/>
+      <c r="DN33" s="21"/>
+      <c r="DO33" s="21"/>
+      <c r="DP33" s="21"/>
+      <c r="DQ33" s="22"/>
+      <c r="DR33" s="20"/>
+      <c r="DS33" s="21"/>
+      <c r="DT33" s="21"/>
+      <c r="DU33" s="21"/>
+      <c r="DV33" s="21"/>
+      <c r="DW33" s="21"/>
+      <c r="DX33" s="24"/>
+      <c r="DY33" s="7"/>
+      <c r="DZ33" s="8"/>
+      <c r="EA33" s="8"/>
+      <c r="EB33" s="8"/>
+      <c r="EC33" s="8"/>
+      <c r="ED33" s="8"/>
+      <c r="EE33" s="9"/>
+      <c r="EF33" s="7"/>
+      <c r="EG33" s="8"/>
+      <c r="EH33" s="8"/>
+      <c r="EI33" s="8"/>
+      <c r="EJ33" s="8"/>
+      <c r="EK33" s="8"/>
+      <c r="EL33" s="9"/>
+      <c r="EM33" s="25"/>
+      <c r="EN33" s="21"/>
+      <c r="EO33" s="21"/>
+      <c r="EP33" s="21"/>
+      <c r="EQ33" s="21"/>
+      <c r="ER33" s="21"/>
+      <c r="ES33" s="22"/>
+      <c r="ET33" s="20"/>
+      <c r="EU33" s="21"/>
+      <c r="EV33" s="21"/>
+      <c r="EW33" s="21"/>
+      <c r="EX33" s="21"/>
+      <c r="EY33" s="21"/>
+      <c r="EZ33" s="22"/>
     </row>
-    <row r="34" spans="1:142" ht="15" thickBot="1">
-      <c r="A34" s="93" t="s">
-        <v>32</v>
+    <row r="34" spans="1:156" ht="15" thickBot="1">
+      <c r="A34" s="120" t="s">
+        <v>84</v>
       </c>
       <c r="B34" s="65" t="s">
         <v>29</v>
@@ -7788,7 +8205,7 @@
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
       <c r="I34" s="22"/>
-      <c r="J34" s="25"/>
+      <c r="J34" s="20"/>
       <c r="K34" s="21"/>
       <c r="L34" s="21"/>
       <c r="M34" s="21"/>
@@ -7802,7 +8219,7 @@
       <c r="U34" s="21"/>
       <c r="V34" s="21"/>
       <c r="W34" s="22"/>
-      <c r="X34" s="20"/>
+      <c r="X34" s="25"/>
       <c r="Y34" s="21"/>
       <c r="Z34" s="21"/>
       <c r="AA34" s="21"/>
@@ -7815,29 +8232,29 @@
       <c r="AH34" s="21"/>
       <c r="AI34" s="21"/>
       <c r="AJ34" s="21"/>
-      <c r="AK34" s="24"/>
-      <c r="AL34" s="7"/>
-      <c r="AM34" s="8"/>
-      <c r="AN34" s="8"/>
-      <c r="AO34" s="8"/>
-      <c r="AP34" s="8"/>
-      <c r="AQ34" s="8"/>
-      <c r="AR34" s="9"/>
-      <c r="AS34" s="25"/>
+      <c r="AK34" s="22"/>
+      <c r="AL34" s="20"/>
+      <c r="AM34" s="21"/>
+      <c r="AN34" s="21"/>
+      <c r="AO34" s="21"/>
+      <c r="AP34" s="21"/>
+      <c r="AQ34" s="21"/>
+      <c r="AR34" s="22"/>
+      <c r="AS34" s="20"/>
       <c r="AT34" s="21"/>
       <c r="AU34" s="21"/>
       <c r="AV34" s="21"/>
       <c r="AW34" s="21"/>
       <c r="AX34" s="21"/>
-      <c r="AY34" s="22"/>
-      <c r="AZ34" s="20"/>
-      <c r="BA34" s="21"/>
-      <c r="BB34" s="21"/>
-      <c r="BC34" s="21"/>
-      <c r="BD34" s="21"/>
-      <c r="BE34" s="21"/>
-      <c r="BF34" s="22"/>
-      <c r="BG34" s="20"/>
+      <c r="AY34" s="24"/>
+      <c r="AZ34" s="7"/>
+      <c r="BA34" s="8"/>
+      <c r="BB34" s="8"/>
+      <c r="BC34" s="8"/>
+      <c r="BD34" s="8"/>
+      <c r="BE34" s="8"/>
+      <c r="BF34" s="9"/>
+      <c r="BG34" s="25"/>
       <c r="BH34" s="21"/>
       <c r="BI34" s="21"/>
       <c r="BJ34" s="21"/>
@@ -7860,86 +8277,110 @@
       <c r="CA34" s="22"/>
       <c r="CB34" s="20"/>
       <c r="CC34" s="21"/>
-      <c r="CD34" s="21"/>
-      <c r="CE34" s="21"/>
-      <c r="CF34" s="21"/>
+      <c r="CD34" s="26">
+        <v>2</v>
+      </c>
+      <c r="CE34" s="26">
+        <v>2</v>
+      </c>
+      <c r="CF34" s="26">
+        <v>2</v>
+      </c>
       <c r="CG34" s="21"/>
       <c r="CH34" s="22"/>
       <c r="CI34" s="20"/>
       <c r="CJ34" s="21"/>
-      <c r="CK34" s="21"/>
-      <c r="CL34" s="21"/>
+      <c r="CK34" s="26">
+        <v>2</v>
+      </c>
+      <c r="CL34" s="26">
+        <v>2</v>
+      </c>
       <c r="CM34" s="21"/>
-      <c r="CN34" s="21"/>
+      <c r="CN34" s="81"/>
       <c r="CO34" s="22"/>
       <c r="CP34" s="20"/>
-      <c r="CQ34" s="21"/>
-      <c r="CR34" s="21"/>
+      <c r="CQ34" s="26">
+        <v>2</v>
+      </c>
+      <c r="CR34" s="26">
+        <v>3</v>
+      </c>
       <c r="CS34" s="21"/>
       <c r="CT34" s="21"/>
       <c r="CU34" s="21"/>
       <c r="CV34" s="22"/>
       <c r="CW34" s="20"/>
-      <c r="CX34" s="21"/>
-      <c r="CY34" s="21"/>
+      <c r="CX34" s="26">
+        <v>2</v>
+      </c>
+      <c r="CY34" s="26">
+        <v>3</v>
+      </c>
       <c r="CZ34" s="21"/>
       <c r="DA34" s="21"/>
       <c r="DB34" s="21"/>
       <c r="DC34" s="22"/>
       <c r="DD34" s="20"/>
-      <c r="DE34" s="21"/>
-      <c r="DF34" s="21"/>
+      <c r="DE34" s="26">
+        <v>2</v>
+      </c>
+      <c r="DF34" s="26">
+        <v>3</v>
+      </c>
       <c r="DG34" s="21"/>
       <c r="DH34" s="21"/>
       <c r="DI34" s="21"/>
-      <c r="DJ34" s="24"/>
-      <c r="DK34" s="7"/>
-      <c r="DL34" s="8"/>
-      <c r="DM34" s="8"/>
-      <c r="DN34" s="8"/>
-      <c r="DO34" s="8"/>
-      <c r="DP34" s="8"/>
-      <c r="DQ34" s="9"/>
-      <c r="DR34" s="7"/>
-      <c r="DS34" s="8"/>
-      <c r="DT34" s="8"/>
-      <c r="DU34" s="8"/>
-      <c r="DV34" s="8"/>
-      <c r="DW34" s="8"/>
-      <c r="DX34" s="9"/>
-      <c r="DY34" s="27">
-        <v>1</v>
-      </c>
-      <c r="DZ34" s="26">
-        <v>1</v>
-      </c>
-      <c r="EA34" s="26">
-        <v>1</v>
-      </c>
-      <c r="EB34" s="26">
-        <v>1</v>
-      </c>
-      <c r="EC34" s="26">
-        <v>1</v>
-      </c>
-      <c r="ED34" s="26">
-        <v>1</v>
-      </c>
-      <c r="EE34" s="28">
-        <v>1</v>
-      </c>
-      <c r="EF34" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="EG34" s="21"/>
-      <c r="EH34" s="21"/>
-      <c r="EI34" s="21"/>
-      <c r="EJ34" s="21"/>
-      <c r="EK34" s="21"/>
-      <c r="EL34" s="22"/>
+      <c r="DJ34" s="22"/>
+      <c r="DK34" s="20"/>
+      <c r="DL34" s="26">
+        <v>2</v>
+      </c>
+      <c r="DM34" s="26">
+        <v>3</v>
+      </c>
+      <c r="DN34" s="21"/>
+      <c r="DO34" s="21"/>
+      <c r="DP34" s="21"/>
+      <c r="DQ34" s="22"/>
+      <c r="DR34" s="20"/>
+      <c r="DS34" s="21"/>
+      <c r="DT34" s="21"/>
+      <c r="DU34" s="21"/>
+      <c r="DV34" s="21"/>
+      <c r="DW34" s="21"/>
+      <c r="DX34" s="24"/>
+      <c r="DY34" s="7"/>
+      <c r="DZ34" s="8"/>
+      <c r="EA34" s="8"/>
+      <c r="EB34" s="8"/>
+      <c r="EC34" s="8"/>
+      <c r="ED34" s="8"/>
+      <c r="EE34" s="9"/>
+      <c r="EF34" s="7"/>
+      <c r="EG34" s="8"/>
+      <c r="EH34" s="8"/>
+      <c r="EI34" s="8"/>
+      <c r="EJ34" s="8"/>
+      <c r="EK34" s="8"/>
+      <c r="EL34" s="9"/>
+      <c r="EM34" s="25"/>
+      <c r="EN34" s="21"/>
+      <c r="EO34" s="21"/>
+      <c r="EP34" s="21"/>
+      <c r="EQ34" s="21"/>
+      <c r="ER34" s="21"/>
+      <c r="ES34" s="22"/>
+      <c r="ET34" s="20"/>
+      <c r="EU34" s="21"/>
+      <c r="EV34" s="21"/>
+      <c r="EW34" s="21"/>
+      <c r="EX34" s="21"/>
+      <c r="EY34" s="21"/>
+      <c r="EZ34" s="22"/>
     </row>
-    <row r="35" spans="1:142" ht="15" thickBot="1">
-      <c r="A35" s="94"/>
+    <row r="35" spans="1:156" ht="15" thickBot="1">
+      <c r="A35" s="121"/>
       <c r="B35" s="66" t="s">
         <v>30</v>
       </c>
@@ -7950,7 +8391,7 @@
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
       <c r="I35" s="22"/>
-      <c r="J35" s="25"/>
+      <c r="J35" s="20"/>
       <c r="K35" s="21"/>
       <c r="L35" s="21"/>
       <c r="M35" s="21"/>
@@ -7964,7 +8405,7 @@
       <c r="U35" s="21"/>
       <c r="V35" s="21"/>
       <c r="W35" s="22"/>
-      <c r="X35" s="20"/>
+      <c r="X35" s="25"/>
       <c r="Y35" s="21"/>
       <c r="Z35" s="21"/>
       <c r="AA35" s="21"/>
@@ -7977,29 +8418,29 @@
       <c r="AH35" s="21"/>
       <c r="AI35" s="21"/>
       <c r="AJ35" s="21"/>
-      <c r="AK35" s="24"/>
-      <c r="AL35" s="7"/>
-      <c r="AM35" s="8"/>
-      <c r="AN35" s="8"/>
-      <c r="AO35" s="8"/>
-      <c r="AP35" s="8"/>
-      <c r="AQ35" s="8"/>
-      <c r="AR35" s="9"/>
-      <c r="AS35" s="25"/>
+      <c r="AK35" s="22"/>
+      <c r="AL35" s="20"/>
+      <c r="AM35" s="21"/>
+      <c r="AN35" s="21"/>
+      <c r="AO35" s="21"/>
+      <c r="AP35" s="21"/>
+      <c r="AQ35" s="21"/>
+      <c r="AR35" s="22"/>
+      <c r="AS35" s="20"/>
       <c r="AT35" s="21"/>
       <c r="AU35" s="21"/>
       <c r="AV35" s="21"/>
       <c r="AW35" s="21"/>
       <c r="AX35" s="21"/>
-      <c r="AY35" s="22"/>
-      <c r="AZ35" s="20"/>
-      <c r="BA35" s="21"/>
-      <c r="BB35" s="21"/>
-      <c r="BC35" s="21"/>
-      <c r="BD35" s="21"/>
-      <c r="BE35" s="21"/>
-      <c r="BF35" s="22"/>
-      <c r="BG35" s="20"/>
+      <c r="AY35" s="24"/>
+      <c r="AZ35" s="7"/>
+      <c r="BA35" s="8"/>
+      <c r="BB35" s="8"/>
+      <c r="BC35" s="8"/>
+      <c r="BD35" s="8"/>
+      <c r="BE35" s="8"/>
+      <c r="BF35" s="9"/>
+      <c r="BG35" s="25"/>
       <c r="BH35" s="21"/>
       <c r="BI35" s="21"/>
       <c r="BJ35" s="21"/>
@@ -8036,57 +8477,89 @@
       <c r="CO35" s="22"/>
       <c r="CP35" s="20"/>
       <c r="CQ35" s="21"/>
-      <c r="CR35" s="21"/>
-      <c r="CS35" s="21"/>
+      <c r="CR35" s="23">
+        <v>2</v>
+      </c>
+      <c r="CS35" s="23">
+        <v>2</v>
+      </c>
       <c r="CT35" s="21"/>
       <c r="CU35" s="21"/>
       <c r="CV35" s="22"/>
-      <c r="CW35" s="20"/>
+      <c r="CW35" s="94" t="s">
+        <v>97</v>
+      </c>
       <c r="CX35" s="21"/>
-      <c r="CY35" s="21"/>
-      <c r="CZ35" s="21"/>
+      <c r="CY35" s="23">
+        <v>2</v>
+      </c>
+      <c r="CZ35" s="23">
+        <v>2</v>
+      </c>
       <c r="DA35" s="21"/>
       <c r="DB35" s="21"/>
       <c r="DC35" s="22"/>
       <c r="DD35" s="20"/>
       <c r="DE35" s="21"/>
-      <c r="DF35" s="21"/>
-      <c r="DG35" s="21"/>
+      <c r="DF35" s="23">
+        <v>2</v>
+      </c>
+      <c r="DG35" s="23">
+        <v>2</v>
+      </c>
       <c r="DH35" s="21"/>
       <c r="DI35" s="21"/>
-      <c r="DJ35" s="24"/>
-      <c r="DK35" s="7"/>
-      <c r="DL35" s="8"/>
-      <c r="DM35" s="8"/>
-      <c r="DN35" s="8"/>
-      <c r="DO35" s="8"/>
-      <c r="DP35" s="8"/>
-      <c r="DQ35" s="9"/>
-      <c r="DR35" s="7"/>
-      <c r="DS35" s="8"/>
-      <c r="DT35" s="8"/>
-      <c r="DU35" s="8"/>
-      <c r="DV35" s="8"/>
-      <c r="DW35" s="8"/>
-      <c r="DX35" s="9"/>
-      <c r="DY35" s="25"/>
-      <c r="DZ35" s="21"/>
-      <c r="EA35" s="21"/>
-      <c r="EB35" s="21"/>
-      <c r="EC35" s="21"/>
-      <c r="ED35" s="21"/>
-      <c r="EE35" s="22"/>
-      <c r="EF35" s="20"/>
-      <c r="EG35" s="21"/>
-      <c r="EH35" s="21"/>
-      <c r="EI35" s="21"/>
-      <c r="EJ35" s="21"/>
-      <c r="EK35" s="21"/>
-      <c r="EL35" s="22"/>
+      <c r="DJ35" s="22"/>
+      <c r="DK35" s="20"/>
+      <c r="DL35" s="21"/>
+      <c r="DM35" s="23">
+        <v>2</v>
+      </c>
+      <c r="DN35" s="23">
+        <v>4</v>
+      </c>
+      <c r="DO35" s="21"/>
+      <c r="DP35" s="21"/>
+      <c r="DQ35" s="22"/>
+      <c r="DR35" s="20"/>
+      <c r="DS35" s="21"/>
+      <c r="DT35" s="21"/>
+      <c r="DU35" s="21"/>
+      <c r="DV35" s="21"/>
+      <c r="DW35" s="21"/>
+      <c r="DX35" s="24"/>
+      <c r="DY35" s="7"/>
+      <c r="DZ35" s="8"/>
+      <c r="EA35" s="8"/>
+      <c r="EB35" s="8"/>
+      <c r="EC35" s="8"/>
+      <c r="ED35" s="8"/>
+      <c r="EE35" s="9"/>
+      <c r="EF35" s="7"/>
+      <c r="EG35" s="8"/>
+      <c r="EH35" s="8"/>
+      <c r="EI35" s="8"/>
+      <c r="EJ35" s="8"/>
+      <c r="EK35" s="8"/>
+      <c r="EL35" s="9"/>
+      <c r="EM35" s="25"/>
+      <c r="EN35" s="21"/>
+      <c r="EO35" s="21"/>
+      <c r="EP35" s="21"/>
+      <c r="EQ35" s="21"/>
+      <c r="ER35" s="21"/>
+      <c r="ES35" s="22"/>
+      <c r="ET35" s="20"/>
+      <c r="EU35" s="21"/>
+      <c r="EV35" s="21"/>
+      <c r="EW35" s="21"/>
+      <c r="EX35" s="21"/>
+      <c r="EY35" s="21"/>
+      <c r="EZ35" s="22"/>
     </row>
-    <row r="36" spans="1:142" ht="15" thickBot="1">
-      <c r="A36" s="93" t="s">
-        <v>87</v>
+    <row r="36" spans="1:156" ht="15" thickBot="1">
+      <c r="A36" s="120" t="s">
+        <v>85</v>
       </c>
       <c r="B36" s="65" t="s">
         <v>29</v>
@@ -8098,7 +8571,7 @@
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
       <c r="I36" s="22"/>
-      <c r="J36" s="25"/>
+      <c r="J36" s="20"/>
       <c r="K36" s="21"/>
       <c r="L36" s="21"/>
       <c r="M36" s="21"/>
@@ -8112,7 +8585,7 @@
       <c r="U36" s="21"/>
       <c r="V36" s="21"/>
       <c r="W36" s="22"/>
-      <c r="X36" s="20"/>
+      <c r="X36" s="25"/>
       <c r="Y36" s="21"/>
       <c r="Z36" s="21"/>
       <c r="AA36" s="21"/>
@@ -8125,29 +8598,29 @@
       <c r="AH36" s="21"/>
       <c r="AI36" s="21"/>
       <c r="AJ36" s="21"/>
-      <c r="AK36" s="24"/>
-      <c r="AL36" s="7"/>
-      <c r="AM36" s="8"/>
-      <c r="AN36" s="8"/>
-      <c r="AO36" s="8"/>
-      <c r="AP36" s="8"/>
-      <c r="AQ36" s="8"/>
-      <c r="AR36" s="9"/>
-      <c r="AS36" s="25"/>
+      <c r="AK36" s="22"/>
+      <c r="AL36" s="20"/>
+      <c r="AM36" s="21"/>
+      <c r="AN36" s="21"/>
+      <c r="AO36" s="21"/>
+      <c r="AP36" s="21"/>
+      <c r="AQ36" s="21"/>
+      <c r="AR36" s="22"/>
+      <c r="AS36" s="20"/>
       <c r="AT36" s="21"/>
       <c r="AU36" s="21"/>
       <c r="AV36" s="21"/>
       <c r="AW36" s="21"/>
       <c r="AX36" s="21"/>
-      <c r="AY36" s="22"/>
-      <c r="AZ36" s="20"/>
-      <c r="BA36" s="21"/>
-      <c r="BB36" s="21"/>
-      <c r="BC36" s="21"/>
-      <c r="BD36" s="21"/>
-      <c r="BE36" s="21"/>
-      <c r="BF36" s="22"/>
-      <c r="BG36" s="20"/>
+      <c r="AY36" s="24"/>
+      <c r="AZ36" s="7"/>
+      <c r="BA36" s="8"/>
+      <c r="BB36" s="8"/>
+      <c r="BC36" s="8"/>
+      <c r="BD36" s="8"/>
+      <c r="BE36" s="8"/>
+      <c r="BF36" s="9"/>
+      <c r="BG36" s="25"/>
       <c r="BH36" s="21"/>
       <c r="BI36" s="21"/>
       <c r="BJ36" s="21"/>
@@ -8202,244 +8675,948 @@
       <c r="DG36" s="21"/>
       <c r="DH36" s="21"/>
       <c r="DI36" s="21"/>
-      <c r="DJ36" s="24"/>
-      <c r="DK36" s="7"/>
-      <c r="DL36" s="8"/>
-      <c r="DM36" s="8"/>
-      <c r="DN36" s="8"/>
-      <c r="DO36" s="8"/>
-      <c r="DP36" s="8"/>
-      <c r="DQ36" s="9"/>
-      <c r="DR36" s="7"/>
-      <c r="DS36" s="8"/>
-      <c r="DT36" s="8"/>
-      <c r="DU36" s="8"/>
-      <c r="DV36" s="8"/>
-      <c r="DW36" s="8"/>
-      <c r="DX36" s="9"/>
-      <c r="DY36" s="25"/>
-      <c r="DZ36" s="21"/>
-      <c r="EA36" s="21"/>
-      <c r="EB36" s="21"/>
-      <c r="EC36" s="21"/>
-      <c r="ED36" s="21"/>
-      <c r="EE36" s="22"/>
-      <c r="EF36" s="20"/>
-      <c r="EG36" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="EH36" s="21"/>
-      <c r="EI36" s="21"/>
-      <c r="EJ36" s="21"/>
-      <c r="EK36" s="21"/>
-      <c r="EL36" s="22"/>
+      <c r="DJ36" s="22"/>
+      <c r="DK36" s="20"/>
+      <c r="DL36" s="21"/>
+      <c r="DM36" s="21"/>
+      <c r="DN36" s="21"/>
+      <c r="DO36" s="21"/>
+      <c r="DP36" s="21"/>
+      <c r="DQ36" s="22"/>
+      <c r="DR36" s="20"/>
+      <c r="DS36" s="21"/>
+      <c r="DT36" s="26">
+        <v>1</v>
+      </c>
+      <c r="DU36" s="26">
+        <v>1</v>
+      </c>
+      <c r="DV36" s="26">
+        <v>1</v>
+      </c>
+      <c r="DW36" s="21"/>
+      <c r="DX36" s="24"/>
+      <c r="DY36" s="7"/>
+      <c r="DZ36" s="8"/>
+      <c r="EA36" s="8"/>
+      <c r="EB36" s="8"/>
+      <c r="EC36" s="8"/>
+      <c r="ED36" s="8"/>
+      <c r="EE36" s="9"/>
+      <c r="EF36" s="7"/>
+      <c r="EG36" s="8"/>
+      <c r="EH36" s="8"/>
+      <c r="EI36" s="8"/>
+      <c r="EJ36" s="8"/>
+      <c r="EK36" s="8"/>
+      <c r="EL36" s="9"/>
+      <c r="EM36" s="25"/>
+      <c r="EN36" s="21"/>
+      <c r="EO36" s="21"/>
+      <c r="EP36" s="21"/>
+      <c r="EQ36" s="21"/>
+      <c r="ER36" s="21"/>
+      <c r="ES36" s="22"/>
+      <c r="ET36" s="20"/>
+      <c r="EU36" s="21"/>
+      <c r="EV36" s="21"/>
+      <c r="EW36" s="21"/>
+      <c r="EX36" s="21"/>
+      <c r="EY36" s="21"/>
+      <c r="EZ36" s="22"/>
     </row>
-    <row r="37" spans="1:142" ht="15" thickBot="1">
-      <c r="A37" s="96"/>
+    <row r="37" spans="1:156" ht="15" thickBot="1">
+      <c r="A37" s="122"/>
       <c r="B37" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="30"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="31"/>
-      <c r="S37" s="31"/>
-      <c r="T37" s="31"/>
-      <c r="U37" s="31"/>
-      <c r="V37" s="31"/>
-      <c r="W37" s="32"/>
-      <c r="X37" s="30"/>
-      <c r="Y37" s="31"/>
-      <c r="Z37" s="31"/>
-      <c r="AA37" s="31"/>
-      <c r="AB37" s="31"/>
-      <c r="AC37" s="31"/>
-      <c r="AD37" s="32"/>
-      <c r="AE37" s="30"/>
-      <c r="AF37" s="31"/>
-      <c r="AG37" s="31"/>
-      <c r="AH37" s="31"/>
-      <c r="AI37" s="31"/>
-      <c r="AJ37" s="31"/>
-      <c r="AK37" s="33"/>
-      <c r="AL37" s="11"/>
-      <c r="AM37" s="12"/>
-      <c r="AN37" s="12"/>
-      <c r="AO37" s="12"/>
-      <c r="AP37" s="12"/>
-      <c r="AQ37" s="12"/>
-      <c r="AR37" s="13"/>
-      <c r="AS37" s="34"/>
-      <c r="AT37" s="31"/>
-      <c r="AU37" s="31"/>
-      <c r="AV37" s="31"/>
-      <c r="AW37" s="31"/>
-      <c r="AX37" s="31"/>
-      <c r="AY37" s="32"/>
-      <c r="AZ37" s="30"/>
-      <c r="BA37" s="31"/>
-      <c r="BB37" s="31"/>
-      <c r="BC37" s="31"/>
-      <c r="BD37" s="31"/>
-      <c r="BE37" s="31"/>
-      <c r="BF37" s="32"/>
-      <c r="BG37" s="30"/>
-      <c r="BH37" s="31"/>
-      <c r="BI37" s="31"/>
-      <c r="BJ37" s="31"/>
-      <c r="BK37" s="31"/>
-      <c r="BL37" s="31"/>
-      <c r="BM37" s="32"/>
-      <c r="BN37" s="30"/>
-      <c r="BO37" s="31"/>
-      <c r="BP37" s="31"/>
-      <c r="BQ37" s="31"/>
-      <c r="BR37" s="31"/>
-      <c r="BS37" s="31"/>
-      <c r="BT37" s="32"/>
-      <c r="BU37" s="30"/>
-      <c r="BV37" s="31"/>
-      <c r="BW37" s="31"/>
-      <c r="BX37" s="31"/>
-      <c r="BY37" s="31"/>
-      <c r="BZ37" s="31"/>
-      <c r="CA37" s="32"/>
-      <c r="CB37" s="30"/>
-      <c r="CC37" s="31"/>
-      <c r="CD37" s="31"/>
-      <c r="CE37" s="31"/>
-      <c r="CF37" s="31"/>
-      <c r="CG37" s="31"/>
-      <c r="CH37" s="32"/>
-      <c r="CI37" s="30"/>
-      <c r="CJ37" s="31"/>
-      <c r="CK37" s="31"/>
-      <c r="CL37" s="31"/>
-      <c r="CM37" s="31"/>
-      <c r="CN37" s="31"/>
-      <c r="CO37" s="32"/>
-      <c r="CP37" s="30"/>
-      <c r="CQ37" s="31"/>
-      <c r="CR37" s="31"/>
-      <c r="CS37" s="31"/>
-      <c r="CT37" s="31"/>
-      <c r="CU37" s="31"/>
-      <c r="CV37" s="32"/>
-      <c r="CW37" s="30"/>
-      <c r="CX37" s="31"/>
-      <c r="CY37" s="31"/>
-      <c r="CZ37" s="31"/>
-      <c r="DA37" s="31"/>
-      <c r="DB37" s="31"/>
-      <c r="DC37" s="32"/>
-      <c r="DD37" s="30"/>
-      <c r="DE37" s="31"/>
-      <c r="DF37" s="31"/>
-      <c r="DG37" s="31"/>
-      <c r="DH37" s="31"/>
-      <c r="DI37" s="31"/>
-      <c r="DJ37" s="33"/>
-      <c r="DK37" s="11"/>
-      <c r="DL37" s="12"/>
-      <c r="DM37" s="12"/>
-      <c r="DN37" s="12"/>
-      <c r="DO37" s="12"/>
-      <c r="DP37" s="12"/>
-      <c r="DQ37" s="13"/>
-      <c r="DR37" s="11"/>
-      <c r="DS37" s="12"/>
-      <c r="DT37" s="12"/>
-      <c r="DU37" s="12"/>
-      <c r="DV37" s="12"/>
-      <c r="DW37" s="12"/>
-      <c r="DX37" s="13"/>
-      <c r="DY37" s="34"/>
-      <c r="DZ37" s="31"/>
-      <c r="EA37" s="31"/>
-      <c r="EB37" s="31"/>
-      <c r="EC37" s="31"/>
-      <c r="ED37" s="31"/>
-      <c r="EE37" s="32"/>
-      <c r="EF37" s="30"/>
-      <c r="EG37" s="31"/>
-      <c r="EH37" s="31"/>
-      <c r="EI37" s="31"/>
-      <c r="EJ37" s="31"/>
-      <c r="EK37" s="31"/>
-      <c r="EL37" s="32"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="21"/>
+      <c r="U37" s="21"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="22"/>
+      <c r="X37" s="25"/>
+      <c r="Y37" s="21"/>
+      <c r="Z37" s="21"/>
+      <c r="AA37" s="21"/>
+      <c r="AB37" s="21"/>
+      <c r="AC37" s="21"/>
+      <c r="AD37" s="22"/>
+      <c r="AE37" s="20"/>
+      <c r="AF37" s="21"/>
+      <c r="AG37" s="21"/>
+      <c r="AH37" s="21"/>
+      <c r="AI37" s="21"/>
+      <c r="AJ37" s="21"/>
+      <c r="AK37" s="22"/>
+      <c r="AL37" s="20"/>
+      <c r="AM37" s="21"/>
+      <c r="AN37" s="21"/>
+      <c r="AO37" s="21"/>
+      <c r="AP37" s="21"/>
+      <c r="AQ37" s="21"/>
+      <c r="AR37" s="22"/>
+      <c r="AS37" s="20"/>
+      <c r="AT37" s="21"/>
+      <c r="AU37" s="21"/>
+      <c r="AV37" s="21"/>
+      <c r="AW37" s="21"/>
+      <c r="AX37" s="21"/>
+      <c r="AY37" s="24"/>
+      <c r="AZ37" s="7"/>
+      <c r="BA37" s="8"/>
+      <c r="BB37" s="8"/>
+      <c r="BC37" s="8"/>
+      <c r="BD37" s="8"/>
+      <c r="BE37" s="8"/>
+      <c r="BF37" s="9"/>
+      <c r="BG37" s="25"/>
+      <c r="BH37" s="21"/>
+      <c r="BI37" s="21"/>
+      <c r="BJ37" s="21"/>
+      <c r="BK37" s="21"/>
+      <c r="BL37" s="21"/>
+      <c r="BM37" s="22"/>
+      <c r="BN37" s="20"/>
+      <c r="BO37" s="21"/>
+      <c r="BP37" s="21"/>
+      <c r="BQ37" s="21"/>
+      <c r="BR37" s="21"/>
+      <c r="BS37" s="21"/>
+      <c r="BT37" s="22"/>
+      <c r="BU37" s="20"/>
+      <c r="BV37" s="21"/>
+      <c r="BW37" s="21"/>
+      <c r="BX37" s="21"/>
+      <c r="BY37" s="21"/>
+      <c r="BZ37" s="21"/>
+      <c r="CA37" s="22"/>
+      <c r="CB37" s="20"/>
+      <c r="CC37" s="21"/>
+      <c r="CD37" s="21"/>
+      <c r="CE37" s="21"/>
+      <c r="CF37" s="21"/>
+      <c r="CG37" s="21"/>
+      <c r="CH37" s="22"/>
+      <c r="CI37" s="20"/>
+      <c r="CJ37" s="21"/>
+      <c r="CK37" s="21"/>
+      <c r="CL37" s="21"/>
+      <c r="CM37" s="21"/>
+      <c r="CN37" s="21"/>
+      <c r="CO37" s="22"/>
+      <c r="CP37" s="20"/>
+      <c r="CQ37" s="21"/>
+      <c r="CR37" s="21"/>
+      <c r="CS37" s="21"/>
+      <c r="CT37" s="21"/>
+      <c r="CU37" s="21"/>
+      <c r="CV37" s="22"/>
+      <c r="CW37" s="20"/>
+      <c r="CX37" s="21"/>
+      <c r="CY37" s="21"/>
+      <c r="CZ37" s="21"/>
+      <c r="DA37" s="21"/>
+      <c r="DB37" s="21"/>
+      <c r="DC37" s="22"/>
+      <c r="DD37" s="20"/>
+      <c r="DE37" s="21"/>
+      <c r="DF37" s="21"/>
+      <c r="DG37" s="21"/>
+      <c r="DH37" s="21"/>
+      <c r="DI37" s="21"/>
+      <c r="DJ37" s="22"/>
+      <c r="DK37" s="20"/>
+      <c r="DL37" s="21"/>
+      <c r="DM37" s="21"/>
+      <c r="DN37" s="21"/>
+      <c r="DO37" s="21"/>
+      <c r="DP37" s="21"/>
+      <c r="DQ37" s="22"/>
+      <c r="DR37" s="20"/>
+      <c r="DS37" s="21"/>
+      <c r="DT37" s="21"/>
+      <c r="DU37" s="23">
+        <v>1</v>
+      </c>
+      <c r="DV37" s="23">
+        <v>1</v>
+      </c>
+      <c r="DW37" s="21"/>
+      <c r="DX37" s="24"/>
+      <c r="DY37" s="7"/>
+      <c r="DZ37" s="8"/>
+      <c r="EA37" s="8"/>
+      <c r="EB37" s="8"/>
+      <c r="EC37" s="8"/>
+      <c r="ED37" s="8"/>
+      <c r="EE37" s="9"/>
+      <c r="EF37" s="7"/>
+      <c r="EG37" s="8"/>
+      <c r="EH37" s="8"/>
+      <c r="EI37" s="8"/>
+      <c r="EJ37" s="8"/>
+      <c r="EK37" s="8"/>
+      <c r="EL37" s="9"/>
+      <c r="EM37" s="25"/>
+      <c r="EN37" s="21"/>
+      <c r="EO37" s="21"/>
+      <c r="EP37" s="21"/>
+      <c r="EQ37" s="21"/>
+      <c r="ER37" s="21"/>
+      <c r="ES37" s="22"/>
+      <c r="ET37" s="20"/>
+      <c r="EU37" s="21"/>
+      <c r="EV37" s="21"/>
+      <c r="EW37" s="21"/>
+      <c r="EX37" s="21"/>
+      <c r="EY37" s="21"/>
+      <c r="EZ37" s="22"/>
+    </row>
+    <row r="38" spans="1:156" ht="15" thickBot="1">
+      <c r="A38" s="120" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="20"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="21"/>
+      <c r="S38" s="21"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="21"/>
+      <c r="V38" s="21"/>
+      <c r="W38" s="22"/>
+      <c r="X38" s="25"/>
+      <c r="Y38" s="21"/>
+      <c r="Z38" s="21"/>
+      <c r="AA38" s="21"/>
+      <c r="AB38" s="21"/>
+      <c r="AC38" s="21"/>
+      <c r="AD38" s="22"/>
+      <c r="AE38" s="20"/>
+      <c r="AF38" s="21"/>
+      <c r="AG38" s="21"/>
+      <c r="AH38" s="21"/>
+      <c r="AI38" s="21"/>
+      <c r="AJ38" s="21"/>
+      <c r="AK38" s="22"/>
+      <c r="AL38" s="20"/>
+      <c r="AM38" s="21"/>
+      <c r="AN38" s="21"/>
+      <c r="AO38" s="21"/>
+      <c r="AP38" s="21"/>
+      <c r="AQ38" s="21"/>
+      <c r="AR38" s="22"/>
+      <c r="AS38" s="20"/>
+      <c r="AT38" s="21"/>
+      <c r="AU38" s="21"/>
+      <c r="AV38" s="21"/>
+      <c r="AW38" s="21"/>
+      <c r="AX38" s="21"/>
+      <c r="AY38" s="24"/>
+      <c r="AZ38" s="7"/>
+      <c r="BA38" s="8"/>
+      <c r="BB38" s="8"/>
+      <c r="BC38" s="8"/>
+      <c r="BD38" s="8"/>
+      <c r="BE38" s="8"/>
+      <c r="BF38" s="9"/>
+      <c r="BG38" s="25"/>
+      <c r="BH38" s="21"/>
+      <c r="BI38" s="21"/>
+      <c r="BJ38" s="21"/>
+      <c r="BK38" s="21"/>
+      <c r="BL38" s="21"/>
+      <c r="BM38" s="22"/>
+      <c r="BN38" s="20"/>
+      <c r="BO38" s="21"/>
+      <c r="BP38" s="21"/>
+      <c r="BQ38" s="21"/>
+      <c r="BR38" s="21"/>
+      <c r="BS38" s="21"/>
+      <c r="BT38" s="22"/>
+      <c r="BU38" s="20"/>
+      <c r="BV38" s="21"/>
+      <c r="BW38" s="21"/>
+      <c r="BX38" s="21"/>
+      <c r="BY38" s="21"/>
+      <c r="BZ38" s="21"/>
+      <c r="CA38" s="22"/>
+      <c r="CB38" s="20"/>
+      <c r="CC38" s="21"/>
+      <c r="CD38" s="21"/>
+      <c r="CE38" s="21"/>
+      <c r="CF38" s="21"/>
+      <c r="CG38" s="21"/>
+      <c r="CH38" s="22"/>
+      <c r="CI38" s="20"/>
+      <c r="CJ38" s="21"/>
+      <c r="CK38" s="21"/>
+      <c r="CL38" s="21"/>
+      <c r="CM38" s="21"/>
+      <c r="CN38" s="21"/>
+      <c r="CO38" s="22"/>
+      <c r="CP38" s="20"/>
+      <c r="CQ38" s="21"/>
+      <c r="CR38" s="21"/>
+      <c r="CS38" s="21"/>
+      <c r="CT38" s="21"/>
+      <c r="CU38" s="21"/>
+      <c r="CV38" s="22"/>
+      <c r="CW38" s="20"/>
+      <c r="CX38" s="21"/>
+      <c r="CY38" s="21"/>
+      <c r="CZ38" s="21"/>
+      <c r="DA38" s="21"/>
+      <c r="DB38" s="21"/>
+      <c r="DC38" s="22"/>
+      <c r="DD38" s="20"/>
+      <c r="DE38" s="21"/>
+      <c r="DF38" s="21"/>
+      <c r="DG38" s="21"/>
+      <c r="DH38" s="21"/>
+      <c r="DI38" s="21"/>
+      <c r="DJ38" s="22"/>
+      <c r="DK38" s="20"/>
+      <c r="DL38" s="21"/>
+      <c r="DM38" s="21"/>
+      <c r="DN38" s="21"/>
+      <c r="DO38" s="21"/>
+      <c r="DP38" s="21"/>
+      <c r="DQ38" s="22"/>
+      <c r="DR38" s="20"/>
+      <c r="DS38" s="21"/>
+      <c r="DT38" s="21"/>
+      <c r="DU38" s="21"/>
+      <c r="DV38" s="21"/>
+      <c r="DW38" s="21"/>
+      <c r="DX38" s="24"/>
+      <c r="DY38" s="7"/>
+      <c r="DZ38" s="8"/>
+      <c r="EA38" s="8"/>
+      <c r="EB38" s="8"/>
+      <c r="EC38" s="8"/>
+      <c r="ED38" s="8"/>
+      <c r="EE38" s="9"/>
+      <c r="EF38" s="7"/>
+      <c r="EG38" s="8"/>
+      <c r="EH38" s="8"/>
+      <c r="EI38" s="8"/>
+      <c r="EJ38" s="8"/>
+      <c r="EK38" s="8"/>
+      <c r="EL38" s="9"/>
+      <c r="EM38" s="27">
+        <v>1</v>
+      </c>
+      <c r="EN38" s="26">
+        <v>2</v>
+      </c>
+      <c r="EO38" s="26">
+        <v>2</v>
+      </c>
+      <c r="EP38" s="26">
+        <v>2</v>
+      </c>
+      <c r="EQ38" s="26">
+        <v>2</v>
+      </c>
+      <c r="ER38" s="26">
+        <v>1</v>
+      </c>
+      <c r="ES38" s="28">
+        <v>1</v>
+      </c>
+      <c r="ET38" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="EU38" s="21"/>
+      <c r="EV38" s="21"/>
+      <c r="EW38" s="21"/>
+      <c r="EX38" s="21"/>
+      <c r="EY38" s="21"/>
+      <c r="EZ38" s="22"/>
+    </row>
+    <row r="39" spans="1:156" ht="15" thickBot="1">
+      <c r="A39" s="121"/>
+      <c r="B39" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="20"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="21"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="22"/>
+      <c r="X39" s="25"/>
+      <c r="Y39" s="21"/>
+      <c r="Z39" s="21"/>
+      <c r="AA39" s="21"/>
+      <c r="AB39" s="21"/>
+      <c r="AC39" s="21"/>
+      <c r="AD39" s="22"/>
+      <c r="AE39" s="20"/>
+      <c r="AF39" s="21"/>
+      <c r="AG39" s="21"/>
+      <c r="AH39" s="21"/>
+      <c r="AI39" s="21"/>
+      <c r="AJ39" s="21"/>
+      <c r="AK39" s="22"/>
+      <c r="AL39" s="20"/>
+      <c r="AM39" s="21"/>
+      <c r="AN39" s="21"/>
+      <c r="AO39" s="21"/>
+      <c r="AP39" s="21"/>
+      <c r="AQ39" s="21"/>
+      <c r="AR39" s="22"/>
+      <c r="AS39" s="20"/>
+      <c r="AT39" s="21"/>
+      <c r="AU39" s="21"/>
+      <c r="AV39" s="21"/>
+      <c r="AW39" s="21"/>
+      <c r="AX39" s="21"/>
+      <c r="AY39" s="24"/>
+      <c r="AZ39" s="7"/>
+      <c r="BA39" s="8"/>
+      <c r="BB39" s="8"/>
+      <c r="BC39" s="8"/>
+      <c r="BD39" s="8"/>
+      <c r="BE39" s="8"/>
+      <c r="BF39" s="9"/>
+      <c r="BG39" s="25"/>
+      <c r="BH39" s="21"/>
+      <c r="BI39" s="21"/>
+      <c r="BJ39" s="21"/>
+      <c r="BK39" s="21"/>
+      <c r="BL39" s="21"/>
+      <c r="BM39" s="22"/>
+      <c r="BN39" s="20"/>
+      <c r="BO39" s="21"/>
+      <c r="BP39" s="21"/>
+      <c r="BQ39" s="21"/>
+      <c r="BR39" s="21"/>
+      <c r="BS39" s="21"/>
+      <c r="BT39" s="22"/>
+      <c r="BU39" s="20"/>
+      <c r="BV39" s="21"/>
+      <c r="BW39" s="21"/>
+      <c r="BX39" s="21"/>
+      <c r="BY39" s="21"/>
+      <c r="BZ39" s="21"/>
+      <c r="CA39" s="22"/>
+      <c r="CB39" s="20"/>
+      <c r="CC39" s="21"/>
+      <c r="CD39" s="21"/>
+      <c r="CE39" s="21"/>
+      <c r="CF39" s="21"/>
+      <c r="CG39" s="21"/>
+      <c r="CH39" s="22"/>
+      <c r="CI39" s="20"/>
+      <c r="CJ39" s="21"/>
+      <c r="CK39" s="21"/>
+      <c r="CL39" s="21"/>
+      <c r="CM39" s="21"/>
+      <c r="CN39" s="21"/>
+      <c r="CO39" s="22"/>
+      <c r="CP39" s="20"/>
+      <c r="CQ39" s="21"/>
+      <c r="CR39" s="21"/>
+      <c r="CS39" s="21"/>
+      <c r="CT39" s="21"/>
+      <c r="CU39" s="21"/>
+      <c r="CV39" s="22"/>
+      <c r="CW39" s="20"/>
+      <c r="CX39" s="21"/>
+      <c r="CY39" s="21"/>
+      <c r="CZ39" s="21"/>
+      <c r="DA39" s="21"/>
+      <c r="DB39" s="21"/>
+      <c r="DC39" s="22"/>
+      <c r="DD39" s="20"/>
+      <c r="DE39" s="21"/>
+      <c r="DF39" s="21"/>
+      <c r="DG39" s="21"/>
+      <c r="DH39" s="21"/>
+      <c r="DI39" s="21"/>
+      <c r="DJ39" s="22"/>
+      <c r="DK39" s="20"/>
+      <c r="DL39" s="21"/>
+      <c r="DM39" s="21"/>
+      <c r="DN39" s="21"/>
+      <c r="DO39" s="21"/>
+      <c r="DP39" s="21"/>
+      <c r="DQ39" s="22"/>
+      <c r="DR39" s="20"/>
+      <c r="DS39" s="21"/>
+      <c r="DT39" s="21"/>
+      <c r="DU39" s="21"/>
+      <c r="DV39" s="21"/>
+      <c r="DW39" s="21"/>
+      <c r="DX39" s="24"/>
+      <c r="DY39" s="7"/>
+      <c r="DZ39" s="8"/>
+      <c r="EA39" s="8"/>
+      <c r="EB39" s="8"/>
+      <c r="EC39" s="8"/>
+      <c r="ED39" s="8"/>
+      <c r="EE39" s="9"/>
+      <c r="EF39" s="7"/>
+      <c r="EG39" s="8"/>
+      <c r="EH39" s="8"/>
+      <c r="EI39" s="8"/>
+      <c r="EJ39" s="8"/>
+      <c r="EK39" s="8"/>
+      <c r="EL39" s="9"/>
+      <c r="EM39" s="25"/>
+      <c r="EN39" s="21"/>
+      <c r="EO39" s="21"/>
+      <c r="EP39" s="21"/>
+      <c r="EQ39" s="21"/>
+      <c r="ER39" s="21"/>
+      <c r="ES39" s="22"/>
+      <c r="ET39" s="20"/>
+      <c r="EU39" s="21"/>
+      <c r="EV39" s="21"/>
+      <c r="EW39" s="21"/>
+      <c r="EX39" s="21"/>
+      <c r="EY39" s="21"/>
+      <c r="EZ39" s="22"/>
+    </row>
+    <row r="40" spans="1:156" ht="15" thickBot="1">
+      <c r="A40" s="120" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="20"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="21"/>
+      <c r="V40" s="21"/>
+      <c r="W40" s="22"/>
+      <c r="X40" s="25"/>
+      <c r="Y40" s="21"/>
+      <c r="Z40" s="21"/>
+      <c r="AA40" s="21"/>
+      <c r="AB40" s="21"/>
+      <c r="AC40" s="21"/>
+      <c r="AD40" s="22"/>
+      <c r="AE40" s="20"/>
+      <c r="AF40" s="21"/>
+      <c r="AG40" s="21"/>
+      <c r="AH40" s="21"/>
+      <c r="AI40" s="21"/>
+      <c r="AJ40" s="21"/>
+      <c r="AK40" s="22"/>
+      <c r="AL40" s="20"/>
+      <c r="AM40" s="21"/>
+      <c r="AN40" s="21"/>
+      <c r="AO40" s="21"/>
+      <c r="AP40" s="21"/>
+      <c r="AQ40" s="21"/>
+      <c r="AR40" s="22"/>
+      <c r="AS40" s="20"/>
+      <c r="AT40" s="21"/>
+      <c r="AU40" s="21"/>
+      <c r="AV40" s="21"/>
+      <c r="AW40" s="21"/>
+      <c r="AX40" s="21"/>
+      <c r="AY40" s="24"/>
+      <c r="AZ40" s="7"/>
+      <c r="BA40" s="8"/>
+      <c r="BB40" s="8"/>
+      <c r="BC40" s="8"/>
+      <c r="BD40" s="8"/>
+      <c r="BE40" s="8"/>
+      <c r="BF40" s="9"/>
+      <c r="BG40" s="25"/>
+      <c r="BH40" s="21"/>
+      <c r="BI40" s="21"/>
+      <c r="BJ40" s="21"/>
+      <c r="BK40" s="21"/>
+      <c r="BL40" s="21"/>
+      <c r="BM40" s="22"/>
+      <c r="BN40" s="20"/>
+      <c r="BO40" s="21"/>
+      <c r="BP40" s="21"/>
+      <c r="BQ40" s="21"/>
+      <c r="BR40" s="21"/>
+      <c r="BS40" s="21"/>
+      <c r="BT40" s="22"/>
+      <c r="BU40" s="20"/>
+      <c r="BV40" s="21"/>
+      <c r="BW40" s="21"/>
+      <c r="BX40" s="21"/>
+      <c r="BY40" s="21"/>
+      <c r="BZ40" s="21"/>
+      <c r="CA40" s="22"/>
+      <c r="CB40" s="20"/>
+      <c r="CC40" s="21"/>
+      <c r="CD40" s="21"/>
+      <c r="CE40" s="21"/>
+      <c r="CF40" s="21"/>
+      <c r="CG40" s="21"/>
+      <c r="CH40" s="22"/>
+      <c r="CI40" s="20"/>
+      <c r="CJ40" s="21"/>
+      <c r="CK40" s="21"/>
+      <c r="CL40" s="21"/>
+      <c r="CM40" s="21"/>
+      <c r="CN40" s="21"/>
+      <c r="CO40" s="22"/>
+      <c r="CP40" s="20"/>
+      <c r="CQ40" s="21"/>
+      <c r="CR40" s="21"/>
+      <c r="CS40" s="21"/>
+      <c r="CT40" s="21"/>
+      <c r="CU40" s="21"/>
+      <c r="CV40" s="22"/>
+      <c r="CW40" s="20"/>
+      <c r="CX40" s="21"/>
+      <c r="CY40" s="21"/>
+      <c r="CZ40" s="21"/>
+      <c r="DA40" s="21"/>
+      <c r="DB40" s="21"/>
+      <c r="DC40" s="22"/>
+      <c r="DD40" s="20"/>
+      <c r="DE40" s="21"/>
+      <c r="DF40" s="21"/>
+      <c r="DG40" s="21"/>
+      <c r="DH40" s="21"/>
+      <c r="DI40" s="21"/>
+      <c r="DJ40" s="22"/>
+      <c r="DK40" s="20"/>
+      <c r="DL40" s="21"/>
+      <c r="DM40" s="21"/>
+      <c r="DN40" s="21"/>
+      <c r="DO40" s="21"/>
+      <c r="DP40" s="21"/>
+      <c r="DQ40" s="22"/>
+      <c r="DR40" s="20"/>
+      <c r="DS40" s="21"/>
+      <c r="DT40" s="21"/>
+      <c r="DU40" s="21"/>
+      <c r="DV40" s="21"/>
+      <c r="DW40" s="21"/>
+      <c r="DX40" s="24"/>
+      <c r="DY40" s="7"/>
+      <c r="DZ40" s="8"/>
+      <c r="EA40" s="8"/>
+      <c r="EB40" s="8"/>
+      <c r="EC40" s="8"/>
+      <c r="ED40" s="8"/>
+      <c r="EE40" s="9"/>
+      <c r="EF40" s="7"/>
+      <c r="EG40" s="8"/>
+      <c r="EH40" s="8"/>
+      <c r="EI40" s="8"/>
+      <c r="EJ40" s="8"/>
+      <c r="EK40" s="8"/>
+      <c r="EL40" s="9"/>
+      <c r="EM40" s="25"/>
+      <c r="EN40" s="21"/>
+      <c r="EO40" s="21"/>
+      <c r="EP40" s="21"/>
+      <c r="EQ40" s="21"/>
+      <c r="ER40" s="21"/>
+      <c r="ES40" s="22"/>
+      <c r="ET40" s="20"/>
+      <c r="EU40" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="EV40" s="21"/>
+      <c r="EW40" s="21"/>
+      <c r="EX40" s="21"/>
+      <c r="EY40" s="21"/>
+      <c r="EZ40" s="22"/>
+    </row>
+    <row r="41" spans="1:156" ht="15" thickBot="1">
+      <c r="A41" s="123"/>
+      <c r="B41" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="30"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="30"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="31"/>
+      <c r="T41" s="31"/>
+      <c r="U41" s="31"/>
+      <c r="V41" s="31"/>
+      <c r="W41" s="32"/>
+      <c r="X41" s="34"/>
+      <c r="Y41" s="31"/>
+      <c r="Z41" s="31"/>
+      <c r="AA41" s="31"/>
+      <c r="AB41" s="31"/>
+      <c r="AC41" s="31"/>
+      <c r="AD41" s="32"/>
+      <c r="AE41" s="30"/>
+      <c r="AF41" s="31"/>
+      <c r="AG41" s="31"/>
+      <c r="AH41" s="31"/>
+      <c r="AI41" s="31"/>
+      <c r="AJ41" s="31"/>
+      <c r="AK41" s="32"/>
+      <c r="AL41" s="30"/>
+      <c r="AM41" s="31"/>
+      <c r="AN41" s="31"/>
+      <c r="AO41" s="31"/>
+      <c r="AP41" s="31"/>
+      <c r="AQ41" s="31"/>
+      <c r="AR41" s="32"/>
+      <c r="AS41" s="30"/>
+      <c r="AT41" s="31"/>
+      <c r="AU41" s="31"/>
+      <c r="AV41" s="31"/>
+      <c r="AW41" s="31"/>
+      <c r="AX41" s="31"/>
+      <c r="AY41" s="33"/>
+      <c r="AZ41" s="11"/>
+      <c r="BA41" s="12"/>
+      <c r="BB41" s="12"/>
+      <c r="BC41" s="12"/>
+      <c r="BD41" s="12"/>
+      <c r="BE41" s="12"/>
+      <c r="BF41" s="13"/>
+      <c r="BG41" s="34"/>
+      <c r="BH41" s="31"/>
+      <c r="BI41" s="31"/>
+      <c r="BJ41" s="31"/>
+      <c r="BK41" s="31"/>
+      <c r="BL41" s="31"/>
+      <c r="BM41" s="32"/>
+      <c r="BN41" s="30"/>
+      <c r="BO41" s="31"/>
+      <c r="BP41" s="31"/>
+      <c r="BQ41" s="31"/>
+      <c r="BR41" s="31"/>
+      <c r="BS41" s="31"/>
+      <c r="BT41" s="32"/>
+      <c r="BU41" s="30"/>
+      <c r="BV41" s="31"/>
+      <c r="BW41" s="31"/>
+      <c r="BX41" s="31"/>
+      <c r="BY41" s="31"/>
+      <c r="BZ41" s="31"/>
+      <c r="CA41" s="32"/>
+      <c r="CB41" s="30"/>
+      <c r="CC41" s="31"/>
+      <c r="CD41" s="31"/>
+      <c r="CE41" s="31"/>
+      <c r="CF41" s="31"/>
+      <c r="CG41" s="31"/>
+      <c r="CH41" s="32"/>
+      <c r="CI41" s="30"/>
+      <c r="CJ41" s="31"/>
+      <c r="CK41" s="31"/>
+      <c r="CL41" s="31"/>
+      <c r="CM41" s="31"/>
+      <c r="CN41" s="31"/>
+      <c r="CO41" s="32"/>
+      <c r="CP41" s="30"/>
+      <c r="CQ41" s="31"/>
+      <c r="CR41" s="31"/>
+      <c r="CS41" s="31"/>
+      <c r="CT41" s="31"/>
+      <c r="CU41" s="31"/>
+      <c r="CV41" s="32"/>
+      <c r="CW41" s="30"/>
+      <c r="CX41" s="31"/>
+      <c r="CY41" s="31"/>
+      <c r="CZ41" s="31"/>
+      <c r="DA41" s="31"/>
+      <c r="DB41" s="31"/>
+      <c r="DC41" s="32"/>
+      <c r="DD41" s="30"/>
+      <c r="DE41" s="31"/>
+      <c r="DF41" s="31"/>
+      <c r="DG41" s="31"/>
+      <c r="DH41" s="31"/>
+      <c r="DI41" s="31"/>
+      <c r="DJ41" s="32"/>
+      <c r="DK41" s="30"/>
+      <c r="DL41" s="31"/>
+      <c r="DM41" s="31"/>
+      <c r="DN41" s="31"/>
+      <c r="DO41" s="31"/>
+      <c r="DP41" s="31"/>
+      <c r="DQ41" s="32"/>
+      <c r="DR41" s="30"/>
+      <c r="DS41" s="31"/>
+      <c r="DT41" s="31"/>
+      <c r="DU41" s="31"/>
+      <c r="DV41" s="31"/>
+      <c r="DW41" s="31"/>
+      <c r="DX41" s="33"/>
+      <c r="DY41" s="11"/>
+      <c r="DZ41" s="12"/>
+      <c r="EA41" s="12"/>
+      <c r="EB41" s="12"/>
+      <c r="EC41" s="12"/>
+      <c r="ED41" s="12"/>
+      <c r="EE41" s="13"/>
+      <c r="EF41" s="11"/>
+      <c r="EG41" s="12"/>
+      <c r="EH41" s="12"/>
+      <c r="EI41" s="12"/>
+      <c r="EJ41" s="12"/>
+      <c r="EK41" s="12"/>
+      <c r="EL41" s="13"/>
+      <c r="EM41" s="34"/>
+      <c r="EN41" s="31"/>
+      <c r="EO41" s="31"/>
+      <c r="EP41" s="31"/>
+      <c r="EQ41" s="31"/>
+      <c r="ER41" s="31"/>
+      <c r="ES41" s="32"/>
+      <c r="ET41" s="30"/>
+      <c r="EU41" s="31"/>
+      <c r="EV41" s="31"/>
+      <c r="EW41" s="31"/>
+      <c r="EX41" s="31"/>
+      <c r="EY41" s="31"/>
+      <c r="EZ41" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="58">
+  <mergeCells count="64">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="J3:P3"/>
     <mergeCell ref="Q3:W3"/>
     <mergeCell ref="X3:AD3"/>
+    <mergeCell ref="AE3:AK3"/>
+    <mergeCell ref="AL3:AR3"/>
+    <mergeCell ref="EM3:ES3"/>
+    <mergeCell ref="ET3:EZ3"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="DR3:DX3"/>
     <mergeCell ref="DY3:EE3"/>
-    <mergeCell ref="EF3:EL3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="DD3:DJ3"/>
-    <mergeCell ref="DK3:DQ3"/>
-    <mergeCell ref="DR5:DX5"/>
-    <mergeCell ref="DY5:EE5"/>
     <mergeCell ref="EF5:EL5"/>
-    <mergeCell ref="BU5:CA5"/>
-    <mergeCell ref="CB5:CH5"/>
+    <mergeCell ref="EM5:ES5"/>
+    <mergeCell ref="ET5:EZ5"/>
     <mergeCell ref="CI5:CO5"/>
     <mergeCell ref="CP5:CV5"/>
     <mergeCell ref="CW5:DC5"/>
+    <mergeCell ref="DD5:DJ5"/>
+    <mergeCell ref="DK5:DQ5"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="CB3:CH3"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="CP3:CV3"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="DR3:DX3"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="EF3:EL3"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="CW3:DC3"/>
+    <mergeCell ref="DD3:DJ3"/>
+    <mergeCell ref="DK3:DQ3"/>
     <mergeCell ref="CI3:CO3"/>
-    <mergeCell ref="CP3:CV3"/>
-    <mergeCell ref="CW3:DC3"/>
-    <mergeCell ref="BU3:CA3"/>
-    <mergeCell ref="AE3:AK3"/>
-    <mergeCell ref="AL3:AR3"/>
     <mergeCell ref="AS3:AY3"/>
     <mergeCell ref="AZ3:BF3"/>
     <mergeCell ref="BG3:BM3"/>
     <mergeCell ref="BN3:BT3"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="BU3:CA3"/>
+    <mergeCell ref="CB3:CH3"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="DD5:DJ5"/>
-    <mergeCell ref="DK5:DQ5"/>
-    <mergeCell ref="AL5:AR5"/>
-    <mergeCell ref="AS5:AY5"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="DR5:DX5"/>
+    <mergeCell ref="DY5:EE5"/>
     <mergeCell ref="AZ5:BF5"/>
     <mergeCell ref="BG5:BM5"/>
     <mergeCell ref="BN5:BT5"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="BU5:CA5"/>
+    <mergeCell ref="CB5:CH5"/>
     <mergeCell ref="Q5:W5"/>
     <mergeCell ref="X5:AD5"/>
     <mergeCell ref="AE5:AK5"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="AL5:AR5"/>
+    <mergeCell ref="AS5:AY5"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8450,8 +9627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91FF6EFD-F608-4DA6-AB00-E35874012156}">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="109" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="B42" zoomScale="121" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -8462,70 +9639,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="109"/>
+      <c r="B1" s="132"/>
       <c r="C1" s="62"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="110"/>
+      <c r="C3" s="133"/>
       <c r="D3" s="60"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="112">
+      <c r="B4" s="135">
         <v>1</v>
       </c>
-      <c r="C4" s="112"/>
+      <c r="C4" s="135"/>
       <c r="D4" s="60"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="110"/>
+      <c r="C5" s="133"/>
       <c r="D5" s="60"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="113">
+      <c r="B6" s="136">
         <v>45524</v>
       </c>
-      <c r="C6" s="113"/>
+      <c r="C6" s="136"/>
       <c r="D6" s="60"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="114">
+      <c r="B7" s="137">
         <v>45671</v>
       </c>
-      <c r="C7" s="114"/>
+      <c r="C7" s="137"/>
       <c r="D7" s="60"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="133" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="110"/>
+      <c r="C8" s="133"/>
       <c r="D8" s="60"/>
     </row>
     <row r="9" spans="1:5">
@@ -8538,11 +9715,11 @@
       <c r="A10" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="111" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
+      <c r="B10" s="134" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="134"/>
+      <c r="D10" s="134"/>
       <c r="E10" s="59"/>
     </row>
     <row r="11" spans="1:5">
@@ -8558,11 +9735,11 @@
       <c r="D12" s="60"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="111" t="s">
+      <c r="A13" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="111"/>
-      <c r="C13" s="111"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="134"/>
       <c r="D13" s="60"/>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1"/>
@@ -8582,7 +9759,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" s="40" t="s">
         <v>49</v>
@@ -8593,7 +9770,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="42" t="s">
         <v>49</v>
@@ -8604,7 +9781,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" s="44" t="s">
         <v>49</v>
@@ -8615,7 +9792,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19" s="46" t="s">
         <v>49</v>
@@ -8626,7 +9803,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="47" t="s">
         <v>49</v>
@@ -8637,7 +9814,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" s="42" t="s">
         <v>49</v>
@@ -8648,7 +9825,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="44" t="s">
         <v>49</v>
@@ -8664,17 +9841,17 @@
         <v>8</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="116" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
+      <c r="D23" s="139" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="140"/>
+      <c r="F23" s="140"/>
+      <c r="G23" s="140"/>
       <c r="H23" s="60"/>
     </row>
     <row r="24" spans="1:8">
@@ -8682,7 +9859,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" s="44" t="s">
         <v>49</v>
@@ -8698,7 +9875,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C25" s="42" t="s">
         <v>49</v>
@@ -8714,7 +9891,7 @@
         <v>11</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" s="44" t="s">
         <v>49</v>
@@ -8730,7 +9907,7 @@
         <v>12</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C27" s="42" t="s">
         <v>49</v>
@@ -8746,7 +9923,7 @@
         <v>13</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" s="47" t="s">
         <v>49</v>
@@ -8762,15 +9939,15 @@
         <v>14</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C29" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="115" t="s">
-        <v>79</v>
-      </c>
-      <c r="E29" s="111"/>
+      <c r="D29" s="138" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="134"/>
       <c r="F29" s="60"/>
       <c r="G29" s="60"/>
       <c r="H29" s="60"/>
@@ -8780,7 +9957,7 @@
         <v>15</v>
       </c>
       <c r="B30" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C30" s="44" t="s">
         <v>49</v>
@@ -8796,7 +9973,7 @@
         <v>16</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C31" s="42" t="s">
         <v>49</v>
@@ -8812,7 +9989,7 @@
         <v>17</v>
       </c>
       <c r="B32" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32" s="44" t="s">
         <v>49</v>
@@ -8828,7 +10005,7 @@
         <v>18</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C33" s="42" t="s">
         <v>49</v>
@@ -8876,11 +10053,11 @@
       <c r="C38" s="50"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="111" t="s">
+      <c r="A42" s="134" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="111"/>
-      <c r="C42" s="111"/>
+      <c r="B42" s="134"/>
+      <c r="C42" s="134"/>
     </row>
     <row r="43" spans="1:3" ht="15" thickBot="1"/>
     <row r="44" spans="1:3" ht="15" thickBot="1">
@@ -8921,7 +10098,7 @@
         <v>3</v>
       </c>
       <c r="B47" s="38" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="C47" s="44" t="s">
         <v>49</v>
@@ -8954,7 +10131,7 @@
         <v>6</v>
       </c>
       <c r="B50" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C50" s="42" t="s">
         <v>49</v>
@@ -8965,7 +10142,7 @@
         <v>7</v>
       </c>
       <c r="B51" s="38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C51" s="44" t="s">
         <v>49</v>
@@ -8976,7 +10153,7 @@
         <v>8</v>
       </c>
       <c r="B52" s="37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C52" s="42" t="s">
         <v>49</v>
@@ -8987,7 +10164,7 @@
         <v>9</v>
       </c>
       <c r="B53" s="38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C53" s="44" t="s">
         <v>49</v>
@@ -8998,7 +10175,7 @@
         <v>10</v>
       </c>
       <c r="B54" s="37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C54" s="42" t="s">
         <v>49</v>
